--- a/Análise/Test Scenarios.xlsx
+++ b/Análise/Test Scenarios.xlsx
@@ -1,18 +1,19 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <fileVersion appName="Calc"/>
-  <workbookPr backupFile="false" showObjects="all" date1904="false"/>
-  <workbookProtection/>
+  <fileVersion appName="xl" lastEdited="5" lowestEdited="5" rupBuild="9303"/>
+  <workbookPr defaultThemeVersion="124226"/>
   <bookViews>
-    <workbookView showHorizontalScroll="true" showVerticalScroll="true" showSheetTabs="true" xWindow="0" yWindow="0" windowWidth="16384" windowHeight="8192" tabRatio="993" firstSheet="0" activeTab="0"/>
+    <workbookView xWindow="0" yWindow="0" windowWidth="16380" windowHeight="8190" tabRatio="993" activeTab="4"/>
   </bookViews>
   <sheets>
-    <sheet name="Login" sheetId="1" state="visible" r:id="rId2"/>
-    <sheet name="Mover ficheiro" sheetId="2" state="visible" r:id="rId3"/>
-    <sheet name="Cancelar encomenda" sheetId="3" state="visible" r:id="rId4"/>
+    <sheet name="Login" sheetId="1" r:id="rId1"/>
+    <sheet name="Mover ficheiro" sheetId="2" r:id="rId2"/>
+    <sheet name="Cancelar encomenda" sheetId="3" r:id="rId3"/>
+    <sheet name="UC 4 - Definir Comp.Técnica" sheetId="4" r:id="rId4"/>
+    <sheet name="UC 5 - Especificar Colab.Org" sheetId="5" r:id="rId5"/>
   </sheets>
-  <calcPr iterateCount="100" refMode="A1" iterate="false" iterateDelta="0.0001"/>
+  <calcPr calcId="0" iterateDelta="1E-4"/>
   <extLst>
     <ext xmlns:loext="http://schemas.libreoffice.org/" uri="{7626C862-2A13-11E5-B345-FEFF819CDC9F}">
       <loext:extCalcPr stringRefSyntax="ExcelA1"/>
@@ -24,52 +25,52 @@
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
 <sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="148" uniqueCount="73">
   <si>
-    <t xml:space="preserve">Project Name</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Module Name</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Created By</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Creation Date</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Reviewed By</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Review Date</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Test Scenario ID</t>
-  </si>
-  <si>
-    <t xml:space="preserve">TS_001</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Test Scenario Description</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Check LOGIN functionality</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Test Case ID</t>
-  </si>
-  <si>
-    <t xml:space="preserve">TC_Login_001</t>
-  </si>
-  <si>
-    <t xml:space="preserve">TC_Login_002</t>
-  </si>
-  <si>
-    <t xml:space="preserve">TC_Login_003</t>
-  </si>
-  <si>
-    <t xml:space="preserve">TC_Login_004</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Test Case Description</t>
+    <t>Project Name</t>
+  </si>
+  <si>
+    <t>Module Name</t>
+  </si>
+  <si>
+    <t>Created By</t>
+  </si>
+  <si>
+    <t>Creation Date</t>
+  </si>
+  <si>
+    <t>Reviewed By</t>
+  </si>
+  <si>
+    <t>Review Date</t>
+  </si>
+  <si>
+    <t>Test Scenario ID</t>
+  </si>
+  <si>
+    <t>TS_001</t>
+  </si>
+  <si>
+    <t>Test Scenario Description</t>
+  </si>
+  <si>
+    <t>Check LOGIN functionality</t>
+  </si>
+  <si>
+    <t>Test Case ID</t>
+  </si>
+  <si>
+    <t>TC_Login_001</t>
+  </si>
+  <si>
+    <t>TC_Login_002</t>
+  </si>
+  <si>
+    <t>TC_Login_003</t>
+  </si>
+  <si>
+    <t>TC_Login_004</t>
+  </si>
+  <si>
+    <t>Test Case Description</t>
   </si>
   <si>
     <t xml:space="preserve">Valid User
@@ -88,187 +89,184 @@
 Invalid Password </t>
   </si>
   <si>
-    <t xml:space="preserve">Test Case Steps</t>
-  </si>
-  <si>
-    <t xml:space="preserve">1. Enter valid username
+    <t>Test Case Steps</t>
+  </si>
+  <si>
+    <t>1. Enter valid username
 2. Enter valid password
 3. Click login button</t>
   </si>
   <si>
-    <t xml:space="preserve">1. Enter valid username
+    <t>1. Enter valid username
 2. Enter invalid password
 3. Click login button</t>
   </si>
   <si>
-    <t xml:space="preserve">1. Enter invalid username
+    <t>1. Enter invalid username
 2. Enter valid password
 3. Click login button</t>
   </si>
   <si>
-    <t xml:space="preserve">1. Enter invalid username
+    <t>1. Enter invalid username
 2. Enter invalid password
 3. Click login button</t>
   </si>
   <si>
-    <t xml:space="preserve">Preconditions</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Test Data</t>
-  </si>
-  <si>
-    <t xml:space="preserve">username: a@b.pt
+    <t>Preconditions</t>
+  </si>
+  <si>
+    <t>Test Data</t>
+  </si>
+  <si>
+    <t>username: a@b.pt
 password: 1234</t>
   </si>
   <si>
-    <t xml:space="preserve">username: a@b.pt
+    <t>username: a@b.pt
 password: xxxx</t>
   </si>
   <si>
-    <t xml:space="preserve">username: a@b.
+    <t>username: a@b.
 password: 1234</t>
   </si>
   <si>
-    <t xml:space="preserve">username: a@b.
+    <t>username: a@b.
 password: xxxx</t>
   </si>
   <si>
-    <t xml:space="preserve">Post Conditions</t>
-  </si>
-  <si>
-    <t xml:space="preserve">The user should be able to see the homepage</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Error message "invalid user or password"</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Expected Result</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Successful login</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Popup Message: Invalid username or password</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Actual Result</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Status</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Pass</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Fail</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Executed By</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Executed Date</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Comments</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Mover ficheiro de uma pasta para outra</t>
-  </si>
-  <si>
-    <t xml:space="preserve">TC_MoveFile_001</t>
-  </si>
-  <si>
-    <t xml:space="preserve">TC_MoveFile_002</t>
-  </si>
-  <si>
-    <t xml:space="preserve">TC_MoveFile_003</t>
-  </si>
-  <si>
-    <t xml:space="preserve">TC_MoveFile_004</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Mover o ficheiro enquanto este está aberto</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Não ter privilégios de escrita na pasta destino</t>
-  </si>
-  <si>
-    <t xml:space="preserve">A capacidade de espaço livre no destino é excedida</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Já existe um ficheiro com esse nome na pasta destino</t>
-  </si>
-  <si>
-    <t xml:space="preserve">1. Editar ficheiro
+    <t>Post Conditions</t>
+  </si>
+  <si>
+    <t>The user should be able to see the homepage</t>
+  </si>
+  <si>
+    <t>Error message "invalid user or password"</t>
+  </si>
+  <si>
+    <t>Expected Result</t>
+  </si>
+  <si>
+    <t>Successful login</t>
+  </si>
+  <si>
+    <t>Popup Message: Invalid username or password</t>
+  </si>
+  <si>
+    <t>Actual Result</t>
+  </si>
+  <si>
+    <t>Status</t>
+  </si>
+  <si>
+    <t>Pass</t>
+  </si>
+  <si>
+    <t>Fail</t>
+  </si>
+  <si>
+    <t>Executed By</t>
+  </si>
+  <si>
+    <t>Executed Date</t>
+  </si>
+  <si>
+    <t>Comments</t>
+  </si>
+  <si>
+    <t>Mover ficheiro de uma pasta para outra</t>
+  </si>
+  <si>
+    <t>TC_MoveFile_001</t>
+  </si>
+  <si>
+    <t>TC_MoveFile_002</t>
+  </si>
+  <si>
+    <t>TC_MoveFile_003</t>
+  </si>
+  <si>
+    <t>TC_MoveFile_004</t>
+  </si>
+  <si>
+    <t>Mover o ficheiro enquanto este está aberto</t>
+  </si>
+  <si>
+    <t>Não ter privilégios de escrita na pasta destino</t>
+  </si>
+  <si>
+    <t>A capacidade de espaço livre no destino é excedida</t>
+  </si>
+  <si>
+    <t>Já existe um ficheiro com esse nome na pasta destino</t>
+  </si>
+  <si>
+    <t>1. Editar ficheiro
 2. Mover ficheiro</t>
   </si>
   <si>
-    <t xml:space="preserve">1. Mover ficheiro</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Ficheiro em edição</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Retirar permissões de escrita na pasta destino</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Definir quota máxima para X MB</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Copiar ficheiro para c:\test</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Ficheiro: c:\test.txt
+    <t>1. Mover ficheiro</t>
+  </si>
+  <si>
+    <t>Ficheiro em edição</t>
+  </si>
+  <si>
+    <t>Retirar permissões de escrita na pasta destino</t>
+  </si>
+  <si>
+    <t>Definir quota máxima para X MB</t>
+  </si>
+  <si>
+    <t>Copiar ficheiro para c:\test</t>
+  </si>
+  <si>
+    <t>Ficheiro: c:\test.txt
 Pasta destino: c:\dest</t>
   </si>
   <si>
-    <t xml:space="preserve">Mensagem de erro "O ficheiro está aberto"</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Mensagem de erro "Não tem permissões para executar a operação"</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Mensagem de erro "Não existe espaço suficiente"</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Mensagem de erro "Já existe um ficheiro com esse nome"</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Popup Message: "O ficheiro está aberto"</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Popup Message: "Não tem permissões para executar a operação"</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Popup Message: "Não existe espaço suficiente"</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Popup Message: "Já existe um ficheiro com esse nome"</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Falha</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Cancelar encomenda que já foi cancelada</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Cancelar encomenda que existe e não foi ainda cncelada</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Cancelar encomenda que não existe</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Cancelar encomenda que não é reembolsável</t>
+    <t>Mensagem de erro "O ficheiro está aberto"</t>
+  </si>
+  <si>
+    <t>Mensagem de erro "Não tem permissões para executar a operação"</t>
+  </si>
+  <si>
+    <t>Mensagem de erro "Não existe espaço suficiente"</t>
+  </si>
+  <si>
+    <t>Mensagem de erro "Já existe um ficheiro com esse nome"</t>
+  </si>
+  <si>
+    <t>Popup Message: "O ficheiro está aberto"</t>
+  </si>
+  <si>
+    <t>Popup Message: "Não tem permissões para executar a operação"</t>
+  </si>
+  <si>
+    <t>Popup Message: "Não existe espaço suficiente"</t>
+  </si>
+  <si>
+    <t>Popup Message: "Já existe um ficheiro com esse nome"</t>
+  </si>
+  <si>
+    <t>Falha</t>
+  </si>
+  <si>
+    <t>Cancelar encomenda que já foi cancelada</t>
+  </si>
+  <si>
+    <t>Cancelar encomenda que existe e não foi ainda cncelada</t>
+  </si>
+  <si>
+    <t>Cancelar encomenda que não existe</t>
+  </si>
+  <si>
+    <t>Cancelar encomenda que não é reembolsável</t>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
-<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
-  <numFmts count="1">
-    <numFmt numFmtId="164" formatCode="General"/>
-  </numFmts>
-  <fonts count="4">
+<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+  <fonts count="3" x14ac:knownFonts="1">
     <font>
       <sz val="12"/>
       <color rgb="FF000000"/>
@@ -277,19 +275,19 @@
       <charset val="1"/>
     </font>
     <font>
-      <sz val="10"/>
-      <name val="Arial"/>
-      <family val="0"/>
+      <sz val="12"/>
+      <color rgb="FF000000"/>
+      <name val="Calibri"/>
+      <family val="2"/>
+      <charset val="1"/>
     </font>
     <font>
-      <sz val="10"/>
-      <name val="Arial"/>
-      <family val="0"/>
-    </font>
-    <font>
-      <sz val="10"/>
-      <name val="Arial"/>
-      <family val="0"/>
+      <u/>
+      <sz val="12"/>
+      <color rgb="FF000000"/>
+      <name val="Calibri"/>
+      <family val="2"/>
+      <charset val="1"/>
     </font>
   </fonts>
   <fills count="3">
@@ -307,14 +305,14 @@
     </fill>
   </fills>
   <borders count="2">
-    <border diagonalUp="false" diagonalDown="false">
+    <border>
       <left/>
       <right/>
       <top/>
       <bottom/>
       <diagonal/>
     </border>
-    <border diagonalUp="false" diagonalDown="false">
+    <border>
       <left style="thin">
         <color rgb="FFB2B2B2"/>
       </left>
@@ -330,61 +328,27 @@
       <diagonal/>
     </border>
   </borders>
-  <cellStyleXfs count="21">
-    <xf numFmtId="164" fontId="0" fillId="0" borderId="0" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="true">
-      <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
-      <protection locked="true" hidden="false"/>
+  <cellStyleXfs count="2">
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
+    <xf numFmtId="0" fontId="1" fillId="2" borderId="1" applyProtection="0"/>
+  </cellStyleXfs>
+  <cellXfs count="5">
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
+      <alignment wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" applyFont="true" applyBorder="false" applyAlignment="false" applyProtection="false"/>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" applyFont="true" applyBorder="false" applyAlignment="false" applyProtection="false"/>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyFont="true" applyBorder="false" applyAlignment="false" applyProtection="false"/>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyFont="true" applyBorder="false" applyAlignment="false" applyProtection="false"/>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" applyFont="true" applyBorder="false" applyAlignment="false" applyProtection="false"/>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" applyFont="true" applyBorder="false" applyAlignment="false" applyProtection="false"/>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" applyFont="true" applyBorder="false" applyAlignment="false" applyProtection="false"/>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" applyFont="true" applyBorder="false" applyAlignment="false" applyProtection="false"/>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" applyFont="true" applyBorder="false" applyAlignment="false" applyProtection="false"/>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" applyFont="true" applyBorder="false" applyAlignment="false" applyProtection="false"/>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" applyFont="true" applyBorder="false" applyAlignment="false" applyProtection="false"/>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" applyFont="true" applyBorder="false" applyAlignment="false" applyProtection="false"/>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" applyFont="true" applyBorder="false" applyAlignment="false" applyProtection="false"/>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" applyFont="true" applyBorder="false" applyAlignment="false" applyProtection="false"/>
-    <xf numFmtId="43" fontId="1" fillId="0" borderId="0" applyFont="true" applyBorder="false" applyAlignment="false" applyProtection="false"/>
-    <xf numFmtId="41" fontId="1" fillId="0" borderId="0" applyFont="true" applyBorder="false" applyAlignment="false" applyProtection="false"/>
-    <xf numFmtId="44" fontId="1" fillId="0" borderId="0" applyFont="true" applyBorder="false" applyAlignment="false" applyProtection="false"/>
-    <xf numFmtId="42" fontId="1" fillId="0" borderId="0" applyFont="true" applyBorder="false" applyAlignment="false" applyProtection="false"/>
-    <xf numFmtId="9" fontId="1" fillId="0" borderId="0" applyFont="true" applyBorder="false" applyAlignment="false" applyProtection="false"/>
-    <xf numFmtId="164" fontId="0" fillId="2" borderId="1" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="false">
-      <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
+    <xf numFmtId="0" fontId="0" fillId="2" borderId="1" xfId="1" applyFont="1" applyAlignment="1" applyProtection="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment wrapText="1"/>
     </xf>
-  </cellStyleXfs>
-  <cellXfs count="4">
-    <xf numFmtId="164" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="false" applyBorder="false" applyAlignment="false" applyProtection="false">
-      <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
-      <protection locked="true" hidden="false"/>
-    </xf>
-    <xf numFmtId="164" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="false" applyBorder="false" applyAlignment="true" applyProtection="false">
-      <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="true" indent="0" shrinkToFit="false"/>
-      <protection locked="true" hidden="false"/>
-    </xf>
-    <xf numFmtId="164" fontId="0" fillId="2" borderId="1" xfId="20" applyFont="true" applyBorder="false" applyAlignment="true" applyProtection="true">
-      <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
-      <protection locked="true" hidden="false"/>
-    </xf>
-    <xf numFmtId="164" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="true" applyBorder="false" applyAlignment="true" applyProtection="false">
-      <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="true" indent="0" shrinkToFit="false"/>
-      <protection locked="true" hidden="false"/>
-    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1"/>
   </cellXfs>
-  <cellStyles count="7">
-    <cellStyle name="Normal" xfId="0" builtinId="0" customBuiltin="false"/>
-    <cellStyle name="Comma" xfId="15" builtinId="3" customBuiltin="false"/>
-    <cellStyle name="Comma [0]" xfId="16" builtinId="6" customBuiltin="false"/>
-    <cellStyle name="Currency" xfId="17" builtinId="4" customBuiltin="false"/>
-    <cellStyle name="Currency [0]" xfId="18" builtinId="7" customBuiltin="false"/>
-    <cellStyle name="Percent" xfId="19" builtinId="5" customBuiltin="false"/>
-    <cellStyle name="Excel Built-in Note" xfId="20" builtinId="53" customBuiltin="true"/>
+  <cellStyles count="2">
+    <cellStyle name="Normal" xfId="0" builtinId="0"/>
+    <cellStyle name="Texto Explicativo" xfId="1" builtinId="53" customBuiltin="1"/>
   </cellStyles>
+  <dxfs count="0"/>
+  <tableStyles count="0" defaultTableStyle="TableStyleMedium2" defaultPivotStyle="PivotStyleLight16"/>
   <colors>
     <indexedColors>
       <rgbColor rgb="FF000000"/>
@@ -443,67 +407,362 @@
       <rgbColor rgb="FF993366"/>
       <rgbColor rgb="FF333399"/>
       <rgbColor rgb="FF333333"/>
+      <rgbColor rgb="00003366"/>
+      <rgbColor rgb="00339966"/>
+      <rgbColor rgb="00003300"/>
+      <rgbColor rgb="00333300"/>
+      <rgbColor rgb="00993300"/>
+      <rgbColor rgb="00993366"/>
+      <rgbColor rgb="00333399"/>
+      <rgbColor rgb="00333333"/>
     </indexedColors>
   </colors>
+  <extLst>
+    <ext xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" uri="{EB79DEF2-80B8-43e5-95BD-54CBDDF9020C}">
+      <x14:slicerStyles defaultSlicerStyle="SlicerStyleLight1"/>
+    </ext>
+  </extLst>
 </styleSheet>
 </file>
 
+<file path=xl/theme/theme1.xml><?xml version="1.0" encoding="utf-8"?>
+<a:theme xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" name="Tema do Office">
+  <a:themeElements>
+    <a:clrScheme name="Office">
+      <a:dk1>
+        <a:sysClr val="windowText" lastClr="000000"/>
+      </a:dk1>
+      <a:lt1>
+        <a:sysClr val="window" lastClr="FFFFFF"/>
+      </a:lt1>
+      <a:dk2>
+        <a:srgbClr val="1F497D"/>
+      </a:dk2>
+      <a:lt2>
+        <a:srgbClr val="EEECE1"/>
+      </a:lt2>
+      <a:accent1>
+        <a:srgbClr val="4F81BD"/>
+      </a:accent1>
+      <a:accent2>
+        <a:srgbClr val="C0504D"/>
+      </a:accent2>
+      <a:accent3>
+        <a:srgbClr val="9BBB59"/>
+      </a:accent3>
+      <a:accent4>
+        <a:srgbClr val="8064A2"/>
+      </a:accent4>
+      <a:accent5>
+        <a:srgbClr val="4BACC6"/>
+      </a:accent5>
+      <a:accent6>
+        <a:srgbClr val="F79646"/>
+      </a:accent6>
+      <a:hlink>
+        <a:srgbClr val="0000FF"/>
+      </a:hlink>
+      <a:folHlink>
+        <a:srgbClr val="800080"/>
+      </a:folHlink>
+    </a:clrScheme>
+    <a:fontScheme name="Office">
+      <a:majorFont>
+        <a:latin typeface="Cambria"/>
+        <a:ea typeface=""/>
+        <a:cs typeface=""/>
+        <a:font script="Jpan" typeface="ＭＳ Ｐゴシック"/>
+        <a:font script="Hang" typeface="맑은 고딕"/>
+        <a:font script="Hans" typeface="宋体"/>
+        <a:font script="Hant" typeface="新細明體"/>
+        <a:font script="Arab" typeface="Times New Roman"/>
+        <a:font script="Hebr" typeface="Times New Roman"/>
+        <a:font script="Thai" typeface="Tahoma"/>
+        <a:font script="Ethi" typeface="Nyala"/>
+        <a:font script="Beng" typeface="Vrinda"/>
+        <a:font script="Gujr" typeface="Shruti"/>
+        <a:font script="Khmr" typeface="MoolBoran"/>
+        <a:font script="Knda" typeface="Tunga"/>
+        <a:font script="Guru" typeface="Raavi"/>
+        <a:font script="Cans" typeface="Euphemia"/>
+        <a:font script="Cher" typeface="Plantagenet Cherokee"/>
+        <a:font script="Yiii" typeface="Microsoft Yi Baiti"/>
+        <a:font script="Tibt" typeface="Microsoft Himalaya"/>
+        <a:font script="Thaa" typeface="MV Boli"/>
+        <a:font script="Deva" typeface="Mangal"/>
+        <a:font script="Telu" typeface="Gautami"/>
+        <a:font script="Taml" typeface="Latha"/>
+        <a:font script="Syrc" typeface="Estrangelo Edessa"/>
+        <a:font script="Orya" typeface="Kalinga"/>
+        <a:font script="Mlym" typeface="Kartika"/>
+        <a:font script="Laoo" typeface="DokChampa"/>
+        <a:font script="Sinh" typeface="Iskoola Pota"/>
+        <a:font script="Mong" typeface="Mongolian Baiti"/>
+        <a:font script="Viet" typeface="Times New Roman"/>
+        <a:font script="Uigh" typeface="Microsoft Uighur"/>
+        <a:font script="Geor" typeface="Sylfaen"/>
+      </a:majorFont>
+      <a:minorFont>
+        <a:latin typeface="Calibri"/>
+        <a:ea typeface=""/>
+        <a:cs typeface=""/>
+        <a:font script="Jpan" typeface="ＭＳ Ｐゴシック"/>
+        <a:font script="Hang" typeface="맑은 고딕"/>
+        <a:font script="Hans" typeface="宋体"/>
+        <a:font script="Hant" typeface="新細明體"/>
+        <a:font script="Arab" typeface="Arial"/>
+        <a:font script="Hebr" typeface="Arial"/>
+        <a:font script="Thai" typeface="Tahoma"/>
+        <a:font script="Ethi" typeface="Nyala"/>
+        <a:font script="Beng" typeface="Vrinda"/>
+        <a:font script="Gujr" typeface="Shruti"/>
+        <a:font script="Khmr" typeface="DaunPenh"/>
+        <a:font script="Knda" typeface="Tunga"/>
+        <a:font script="Guru" typeface="Raavi"/>
+        <a:font script="Cans" typeface="Euphemia"/>
+        <a:font script="Cher" typeface="Plantagenet Cherokee"/>
+        <a:font script="Yiii" typeface="Microsoft Yi Baiti"/>
+        <a:font script="Tibt" typeface="Microsoft Himalaya"/>
+        <a:font script="Thaa" typeface="MV Boli"/>
+        <a:font script="Deva" typeface="Mangal"/>
+        <a:font script="Telu" typeface="Gautami"/>
+        <a:font script="Taml" typeface="Latha"/>
+        <a:font script="Syrc" typeface="Estrangelo Edessa"/>
+        <a:font script="Orya" typeface="Kalinga"/>
+        <a:font script="Mlym" typeface="Kartika"/>
+        <a:font script="Laoo" typeface="DokChampa"/>
+        <a:font script="Sinh" typeface="Iskoola Pota"/>
+        <a:font script="Mong" typeface="Mongolian Baiti"/>
+        <a:font script="Viet" typeface="Arial"/>
+        <a:font script="Uigh" typeface="Microsoft Uighur"/>
+        <a:font script="Geor" typeface="Sylfaen"/>
+      </a:minorFont>
+    </a:fontScheme>
+    <a:fmtScheme name="Office">
+      <a:fillStyleLst>
+        <a:solidFill>
+          <a:schemeClr val="phClr"/>
+        </a:solidFill>
+        <a:gradFill rotWithShape="1">
+          <a:gsLst>
+            <a:gs pos="0">
+              <a:schemeClr val="phClr">
+                <a:tint val="50000"/>
+                <a:satMod val="300000"/>
+              </a:schemeClr>
+            </a:gs>
+            <a:gs pos="35000">
+              <a:schemeClr val="phClr">
+                <a:tint val="37000"/>
+                <a:satMod val="300000"/>
+              </a:schemeClr>
+            </a:gs>
+            <a:gs pos="100000">
+              <a:schemeClr val="phClr">
+                <a:tint val="15000"/>
+                <a:satMod val="350000"/>
+              </a:schemeClr>
+            </a:gs>
+          </a:gsLst>
+          <a:lin ang="16200000" scaled="1"/>
+        </a:gradFill>
+        <a:gradFill rotWithShape="1">
+          <a:gsLst>
+            <a:gs pos="0">
+              <a:schemeClr val="phClr">
+                <a:shade val="51000"/>
+                <a:satMod val="130000"/>
+              </a:schemeClr>
+            </a:gs>
+            <a:gs pos="80000">
+              <a:schemeClr val="phClr">
+                <a:shade val="93000"/>
+                <a:satMod val="130000"/>
+              </a:schemeClr>
+            </a:gs>
+            <a:gs pos="100000">
+              <a:schemeClr val="phClr">
+                <a:shade val="94000"/>
+                <a:satMod val="135000"/>
+              </a:schemeClr>
+            </a:gs>
+          </a:gsLst>
+          <a:lin ang="16200000" scaled="0"/>
+        </a:gradFill>
+      </a:fillStyleLst>
+      <a:lnStyleLst>
+        <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+          <a:solidFill>
+            <a:schemeClr val="phClr">
+              <a:shade val="95000"/>
+              <a:satMod val="105000"/>
+            </a:schemeClr>
+          </a:solidFill>
+          <a:prstDash val="solid"/>
+        </a:ln>
+        <a:ln w="25400" cap="flat" cmpd="sng" algn="ctr">
+          <a:solidFill>
+            <a:schemeClr val="phClr"/>
+          </a:solidFill>
+          <a:prstDash val="solid"/>
+        </a:ln>
+        <a:ln w="38100" cap="flat" cmpd="sng" algn="ctr">
+          <a:solidFill>
+            <a:schemeClr val="phClr"/>
+          </a:solidFill>
+          <a:prstDash val="solid"/>
+        </a:ln>
+      </a:lnStyleLst>
+      <a:effectStyleLst>
+        <a:effectStyle>
+          <a:effectLst>
+            <a:outerShdw blurRad="40000" dist="20000" dir="5400000" rotWithShape="0">
+              <a:srgbClr val="000000">
+                <a:alpha val="38000"/>
+              </a:srgbClr>
+            </a:outerShdw>
+          </a:effectLst>
+        </a:effectStyle>
+        <a:effectStyle>
+          <a:effectLst>
+            <a:outerShdw blurRad="40000" dist="23000" dir="5400000" rotWithShape="0">
+              <a:srgbClr val="000000">
+                <a:alpha val="35000"/>
+              </a:srgbClr>
+            </a:outerShdw>
+          </a:effectLst>
+        </a:effectStyle>
+        <a:effectStyle>
+          <a:effectLst>
+            <a:outerShdw blurRad="40000" dist="23000" dir="5400000" rotWithShape="0">
+              <a:srgbClr val="000000">
+                <a:alpha val="35000"/>
+              </a:srgbClr>
+            </a:outerShdw>
+          </a:effectLst>
+          <a:scene3d>
+            <a:camera prst="orthographicFront">
+              <a:rot lat="0" lon="0" rev="0"/>
+            </a:camera>
+            <a:lightRig rig="threePt" dir="t">
+              <a:rot lat="0" lon="0" rev="1200000"/>
+            </a:lightRig>
+          </a:scene3d>
+          <a:sp3d>
+            <a:bevelT w="63500" h="25400"/>
+          </a:sp3d>
+        </a:effectStyle>
+      </a:effectStyleLst>
+      <a:bgFillStyleLst>
+        <a:solidFill>
+          <a:schemeClr val="phClr"/>
+        </a:solidFill>
+        <a:gradFill rotWithShape="1">
+          <a:gsLst>
+            <a:gs pos="0">
+              <a:schemeClr val="phClr">
+                <a:tint val="40000"/>
+                <a:satMod val="350000"/>
+              </a:schemeClr>
+            </a:gs>
+            <a:gs pos="40000">
+              <a:schemeClr val="phClr">
+                <a:tint val="45000"/>
+                <a:shade val="99000"/>
+                <a:satMod val="350000"/>
+              </a:schemeClr>
+            </a:gs>
+            <a:gs pos="100000">
+              <a:schemeClr val="phClr">
+                <a:shade val="20000"/>
+                <a:satMod val="255000"/>
+              </a:schemeClr>
+            </a:gs>
+          </a:gsLst>
+          <a:path path="circle">
+            <a:fillToRect l="50000" t="-80000" r="50000" b="180000"/>
+          </a:path>
+        </a:gradFill>
+        <a:gradFill rotWithShape="1">
+          <a:gsLst>
+            <a:gs pos="0">
+              <a:schemeClr val="phClr">
+                <a:tint val="80000"/>
+                <a:satMod val="300000"/>
+              </a:schemeClr>
+            </a:gs>
+            <a:gs pos="100000">
+              <a:schemeClr val="phClr">
+                <a:shade val="30000"/>
+                <a:satMod val="200000"/>
+              </a:schemeClr>
+            </a:gs>
+          </a:gsLst>
+          <a:path path="circle">
+            <a:fillToRect l="50000" t="50000" r="50000" b="50000"/>
+          </a:path>
+        </a:gradFill>
+      </a:bgFillStyleLst>
+    </a:fmtScheme>
+  </a:themeElements>
+  <a:objectDefaults/>
+  <a:extraClrSchemeLst/>
+</a:theme>
+</file>
+
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <sheetPr filterMode="false">
-    <pageSetUpPr fitToPage="false"/>
-  </sheetPr>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:E21"/>
   <sheetViews>
-    <sheetView windowProtection="false" showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="true" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A1" colorId="64" zoomScale="100" zoomScaleNormal="100" zoomScalePageLayoutView="100" workbookViewId="0">
-      <selection pane="topLeft" activeCell="C11" activeCellId="0" sqref="C11"/>
+    <sheetView zoomScaleNormal="100" workbookViewId="0">
+      <selection activeCell="C11" sqref="C11"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="16"/>
+  <sheetFormatPr defaultRowHeight="15.75" x14ac:dyDescent="0.25"/>
   <cols>
-    <col collapsed="false" hidden="false" max="1" min="1" style="0" width="23.7488372093023"/>
-    <col collapsed="false" hidden="false" max="2" min="2" style="1" width="23.9953488372093"/>
-    <col collapsed="false" hidden="false" max="5" min="3" style="0" width="23.9953488372093"/>
-    <col collapsed="false" hidden="false" max="1025" min="6" style="0" width="10.8279069767442"/>
+    <col min="1" max="1" width="23.75"/>
+    <col min="2" max="2" width="24" style="1"/>
+    <col min="3" max="5" width="24"/>
+    <col min="6" max="1025" width="10.875"/>
   </cols>
   <sheetData>
-    <row r="1" customFormat="false" ht="16" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="1" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A1" s="2" t="s">
         <v>0</v>
       </c>
-      <c r="B1" s="0"/>
-    </row>
-    <row r="2" customFormat="false" ht="16" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="B1"/>
+    </row>
+    <row r="2" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A2" s="2" t="s">
         <v>1</v>
       </c>
-      <c r="B2" s="0"/>
-    </row>
-    <row r="3" customFormat="false" ht="16" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="B2"/>
+    </row>
+    <row r="3" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A3" s="2" t="s">
         <v>2</v>
       </c>
-      <c r="B3" s="0"/>
-    </row>
-    <row r="4" customFormat="false" ht="16" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="B3"/>
+    </row>
+    <row r="4" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A4" s="2" t="s">
         <v>3</v>
       </c>
-      <c r="B4" s="0"/>
-    </row>
-    <row r="5" customFormat="false" ht="16" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="B4"/>
+    </row>
+    <row r="5" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A5" s="2" t="s">
         <v>4</v>
       </c>
-      <c r="B5" s="0"/>
-    </row>
-    <row r="6" customFormat="false" ht="16" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="B5"/>
+    </row>
+    <row r="6" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A6" s="2" t="s">
         <v>5</v>
       </c>
-      <c r="B6" s="0"/>
-    </row>
-    <row r="8" customFormat="false" ht="17" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="B6"/>
+    </row>
+    <row r="8" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A8" s="2" t="s">
         <v>6</v>
       </c>
@@ -520,7 +779,7 @@
         <v>7</v>
       </c>
     </row>
-    <row r="9" customFormat="false" ht="17" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="9" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A9" s="2" t="s">
         <v>8</v>
       </c>
@@ -537,7 +796,7 @@
         <v>9</v>
       </c>
     </row>
-    <row r="10" customFormat="false" ht="17" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="10" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A10" s="2" t="s">
         <v>10</v>
       </c>
@@ -554,7 +813,7 @@
         <v>14</v>
       </c>
     </row>
-    <row r="11" customFormat="false" ht="34" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="11" spans="1:5" ht="31.5" x14ac:dyDescent="0.25">
       <c r="A11" s="2" t="s">
         <v>15</v>
       </c>
@@ -571,7 +830,7 @@
         <v>19</v>
       </c>
     </row>
-    <row r="12" customFormat="false" ht="51" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="12" spans="1:5" ht="47.25" x14ac:dyDescent="0.25">
       <c r="A12" s="2" t="s">
         <v>20</v>
       </c>
@@ -588,7 +847,7 @@
         <v>24</v>
       </c>
     </row>
-    <row r="13" customFormat="false" ht="17" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="13" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A13" s="2" t="s">
         <v>25</v>
       </c>
@@ -605,7 +864,7 @@
         <v>26</v>
       </c>
     </row>
-    <row r="14" customFormat="false" ht="34" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="14" spans="1:5" ht="31.5" x14ac:dyDescent="0.25">
       <c r="A14" s="2" t="s">
         <v>26</v>
       </c>
@@ -622,7 +881,7 @@
         <v>30</v>
       </c>
     </row>
-    <row r="15" customFormat="false" ht="34" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="15" spans="1:5" ht="31.5" x14ac:dyDescent="0.25">
       <c r="A15" s="2" t="s">
         <v>31</v>
       </c>
@@ -639,7 +898,7 @@
         <v>33</v>
       </c>
     </row>
-    <row r="16" customFormat="false" ht="34" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="16" spans="1:5" ht="31.5" x14ac:dyDescent="0.25">
       <c r="A16" s="2" t="s">
         <v>34</v>
       </c>
@@ -656,13 +915,13 @@
         <v>36</v>
       </c>
     </row>
-    <row r="17" customFormat="false" ht="16" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="17" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A17" s="2" t="s">
         <v>37</v>
       </c>
-      <c r="B17" s="0"/>
-    </row>
-    <row r="18" customFormat="false" ht="17" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="B17"/>
+    </row>
+    <row r="18" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A18" s="2" t="s">
         <v>38</v>
       </c>
@@ -679,88 +938,80 @@
         <v>40</v>
       </c>
     </row>
-    <row r="19" customFormat="false" ht="16" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="19" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A19" s="2" t="s">
         <v>41</v>
       </c>
     </row>
-    <row r="20" customFormat="false" ht="16" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="20" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A20" s="2" t="s">
         <v>42</v>
       </c>
     </row>
-    <row r="21" customFormat="false" ht="16" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="21" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A21" s="2" t="s">
         <v>43</v>
       </c>
     </row>
   </sheetData>
-  <printOptions headings="false" gridLines="false" gridLinesSet="true" horizontalCentered="false" verticalCentered="false"/>
-  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.511805555555555" footer="0.511805555555555"/>
-  <pageSetup paperSize="9" scale="100" firstPageNumber="0" fitToWidth="1" fitToHeight="1" pageOrder="downThenOver" orientation="portrait" usePrinterDefaults="false" blackAndWhite="false" draft="false" cellComments="none" useFirstPageNumber="false" horizontalDpi="300" verticalDpi="300" copies="1"/>
-  <headerFooter differentFirst="false" differentOddEven="false">
-    <oddHeader/>
-    <oddFooter/>
-  </headerFooter>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.51180555555555496" footer="0.51180555555555496"/>
+  <pageSetup paperSize="0" scale="0" firstPageNumber="0" orientation="portrait" usePrinterDefaults="0" horizontalDpi="0" verticalDpi="0" copies="0"/>
 </worksheet>
 </file>
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <sheetPr filterMode="false">
-    <pageSetUpPr fitToPage="false"/>
-  </sheetPr>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:E21"/>
   <sheetViews>
-    <sheetView windowProtection="false" showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="false" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A1" colorId="64" zoomScale="100" zoomScaleNormal="100" zoomScalePageLayoutView="100" workbookViewId="0">
-      <selection pane="topLeft" activeCell="E9" activeCellId="0" sqref="E9"/>
+    <sheetView zoomScaleNormal="100" workbookViewId="0">
+      <selection activeCell="E9" sqref="E9"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="16"/>
+  <sheetFormatPr defaultRowHeight="15.75" x14ac:dyDescent="0.25"/>
   <cols>
-    <col collapsed="false" hidden="false" max="1" min="1" style="0" width="23.7488372093023"/>
-    <col collapsed="false" hidden="false" max="2" min="2" style="1" width="23.9953488372093"/>
-    <col collapsed="false" hidden="false" max="5" min="3" style="0" width="23.9953488372093"/>
-    <col collapsed="false" hidden="false" max="1025" min="6" style="0" width="10.8279069767442"/>
+    <col min="1" max="1" width="23.75"/>
+    <col min="2" max="2" width="24" style="1"/>
+    <col min="3" max="5" width="24"/>
+    <col min="6" max="1025" width="10.875"/>
   </cols>
   <sheetData>
-    <row r="1" customFormat="false" ht="16" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="1" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A1" s="2" t="s">
         <v>0</v>
       </c>
-      <c r="B1" s="0"/>
-    </row>
-    <row r="2" customFormat="false" ht="16" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="B1"/>
+    </row>
+    <row r="2" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A2" s="2" t="s">
         <v>1</v>
       </c>
-      <c r="B2" s="0"/>
-    </row>
-    <row r="3" customFormat="false" ht="16" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="B2"/>
+    </row>
+    <row r="3" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A3" s="2" t="s">
         <v>2</v>
       </c>
-      <c r="B3" s="0"/>
-    </row>
-    <row r="4" customFormat="false" ht="16" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="B3"/>
+    </row>
+    <row r="4" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A4" s="2" t="s">
         <v>3</v>
       </c>
-      <c r="B4" s="0"/>
-    </row>
-    <row r="5" customFormat="false" ht="16" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="B4"/>
+    </row>
+    <row r="5" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A5" s="2" t="s">
         <v>4</v>
       </c>
-      <c r="B5" s="0"/>
-    </row>
-    <row r="6" customFormat="false" ht="16" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="B5"/>
+    </row>
+    <row r="6" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A6" s="2" t="s">
         <v>5</v>
       </c>
-      <c r="B6" s="0"/>
-    </row>
-    <row r="8" customFormat="false" ht="17" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="B6"/>
+    </row>
+    <row r="8" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A8" s="2" t="s">
         <v>6</v>
       </c>
@@ -777,7 +1028,7 @@
         <v>7</v>
       </c>
     </row>
-    <row r="9" customFormat="false" ht="34" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="9" spans="1:5" ht="31.5" x14ac:dyDescent="0.25">
       <c r="A9" s="2" t="s">
         <v>8</v>
       </c>
@@ -794,7 +1045,7 @@
         <v>44</v>
       </c>
     </row>
-    <row r="10" customFormat="false" ht="17" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="10" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A10" s="2" t="s">
         <v>10</v>
       </c>
@@ -811,7 +1062,7 @@
         <v>48</v>
       </c>
     </row>
-    <row r="11" customFormat="false" ht="51" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="11" spans="1:5" ht="31.5" x14ac:dyDescent="0.25">
       <c r="A11" s="2" t="s">
         <v>15</v>
       </c>
@@ -828,7 +1079,7 @@
         <v>52</v>
       </c>
     </row>
-    <row r="12" customFormat="false" ht="34" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="12" spans="1:5" ht="31.5" x14ac:dyDescent="0.25">
       <c r="A12" s="2" t="s">
         <v>20</v>
       </c>
@@ -845,7 +1096,7 @@
         <v>54</v>
       </c>
     </row>
-    <row r="13" customFormat="false" ht="34" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="13" spans="1:5" ht="31.5" x14ac:dyDescent="0.25">
       <c r="A13" s="2" t="s">
         <v>25</v>
       </c>
@@ -862,7 +1113,7 @@
         <v>58</v>
       </c>
     </row>
-    <row r="14" customFormat="false" ht="34" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="14" spans="1:5" ht="31.5" x14ac:dyDescent="0.25">
       <c r="A14" s="2" t="s">
         <v>26</v>
       </c>
@@ -879,7 +1130,7 @@
         <v>59</v>
       </c>
     </row>
-    <row r="15" customFormat="false" ht="51" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="15" spans="1:5" ht="47.25" x14ac:dyDescent="0.25">
       <c r="A15" s="2" t="s">
         <v>31</v>
       </c>
@@ -896,7 +1147,7 @@
         <v>63</v>
       </c>
     </row>
-    <row r="16" customFormat="false" ht="51" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="16" spans="1:5" ht="47.25" x14ac:dyDescent="0.25">
       <c r="A16" s="2" t="s">
         <v>34</v>
       </c>
@@ -913,13 +1164,13 @@
         <v>67</v>
       </c>
     </row>
-    <row r="17" customFormat="false" ht="16" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="17" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A17" s="2" t="s">
         <v>37</v>
       </c>
-      <c r="B17" s="0"/>
-    </row>
-    <row r="18" customFormat="false" ht="17" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="B17"/>
+    </row>
+    <row r="18" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A18" s="2" t="s">
         <v>38</v>
       </c>
@@ -936,88 +1187,80 @@
         <v>68</v>
       </c>
     </row>
-    <row r="19" customFormat="false" ht="16" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="19" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A19" s="2" t="s">
         <v>41</v>
       </c>
     </row>
-    <row r="20" customFormat="false" ht="16" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="20" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A20" s="2" t="s">
         <v>42</v>
       </c>
     </row>
-    <row r="21" customFormat="false" ht="16" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="21" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A21" s="2" t="s">
         <v>43</v>
       </c>
     </row>
   </sheetData>
-  <printOptions headings="false" gridLines="false" gridLinesSet="true" horizontalCentered="false" verticalCentered="false"/>
-  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.511805555555555" footer="0.511805555555555"/>
-  <pageSetup paperSize="9" scale="100" firstPageNumber="0" fitToWidth="1" fitToHeight="1" pageOrder="downThenOver" orientation="portrait" usePrinterDefaults="false" blackAndWhite="false" draft="false" cellComments="none" useFirstPageNumber="false" horizontalDpi="300" verticalDpi="300" copies="1"/>
-  <headerFooter differentFirst="false" differentOddEven="false">
-    <oddHeader/>
-    <oddFooter/>
-  </headerFooter>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.51180555555555496" footer="0.51180555555555496"/>
+  <pageSetup paperSize="0" scale="0" firstPageNumber="0" orientation="portrait" usePrinterDefaults="0" horizontalDpi="0" verticalDpi="0" copies="0"/>
 </worksheet>
 </file>
 
 <file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <sheetPr filterMode="false">
-    <pageSetUpPr fitToPage="false"/>
-  </sheetPr>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:E21"/>
   <sheetViews>
-    <sheetView windowProtection="false" showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="false" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A1" colorId="64" zoomScale="100" zoomScaleNormal="100" zoomScalePageLayoutView="100" workbookViewId="0">
-      <selection pane="topLeft" activeCell="A9" activeCellId="0" sqref="A9"/>
+    <sheetView zoomScaleNormal="100" workbookViewId="0">
+      <selection activeCell="A9" sqref="A9"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="16"/>
+  <sheetFormatPr defaultRowHeight="15.75" x14ac:dyDescent="0.25"/>
   <cols>
-    <col collapsed="false" hidden="false" max="1" min="1" style="0" width="23.7488372093023"/>
-    <col collapsed="false" hidden="false" max="2" min="2" style="1" width="23.9953488372093"/>
-    <col collapsed="false" hidden="false" max="5" min="3" style="0" width="23.9953488372093"/>
-    <col collapsed="false" hidden="false" max="1025" min="6" style="0" width="10.8279069767442"/>
+    <col min="1" max="1" width="23.75"/>
+    <col min="2" max="2" width="24" style="1"/>
+    <col min="3" max="5" width="24"/>
+    <col min="6" max="1025" width="10.875"/>
   </cols>
   <sheetData>
-    <row r="1" customFormat="false" ht="16" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="1" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A1" s="2" t="s">
         <v>0</v>
       </c>
-      <c r="B1" s="0"/>
-    </row>
-    <row r="2" customFormat="false" ht="16" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="B1"/>
+    </row>
+    <row r="2" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A2" s="2" t="s">
         <v>1</v>
       </c>
-      <c r="B2" s="0"/>
-    </row>
-    <row r="3" customFormat="false" ht="16" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="B2"/>
+    </row>
+    <row r="3" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A3" s="2" t="s">
         <v>2</v>
       </c>
-      <c r="B3" s="0"/>
-    </row>
-    <row r="4" customFormat="false" ht="16" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="B3"/>
+    </row>
+    <row r="4" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A4" s="2" t="s">
         <v>3</v>
       </c>
-      <c r="B4" s="0"/>
-    </row>
-    <row r="5" customFormat="false" ht="16" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="B4"/>
+    </row>
+    <row r="5" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A5" s="2" t="s">
         <v>4</v>
       </c>
-      <c r="B5" s="0"/>
-    </row>
-    <row r="6" customFormat="false" ht="16" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="B5"/>
+    </row>
+    <row r="6" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A6" s="2" t="s">
         <v>5</v>
       </c>
-      <c r="B6" s="0"/>
-    </row>
-    <row r="8" customFormat="false" ht="17" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="B6"/>
+    </row>
+    <row r="8" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A8" s="2" t="s">
         <v>6</v>
       </c>
@@ -1034,7 +1277,7 @@
         <v>7</v>
       </c>
     </row>
-    <row r="9" customFormat="false" ht="51" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="9" spans="1:5" ht="47.25" x14ac:dyDescent="0.25">
       <c r="A9" s="2" t="s">
         <v>8</v>
       </c>
@@ -1051,7 +1294,7 @@
         <v>72</v>
       </c>
     </row>
-    <row r="10" customFormat="false" ht="16" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="10" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A10" s="2" t="s">
         <v>10</v>
       </c>
@@ -1059,7 +1302,7 @@
       <c r="D10" s="1"/>
       <c r="E10" s="1"/>
     </row>
-    <row r="11" customFormat="false" ht="16" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="11" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A11" s="2" t="s">
         <v>15</v>
       </c>
@@ -1067,7 +1310,7 @@
       <c r="D11" s="1"/>
       <c r="E11" s="1"/>
     </row>
-    <row r="12" customFormat="false" ht="16" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="12" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A12" s="2" t="s">
         <v>20</v>
       </c>
@@ -1075,7 +1318,7 @@
       <c r="D12" s="1"/>
       <c r="E12" s="1"/>
     </row>
-    <row r="13" customFormat="false" ht="16" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="13" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A13" s="2" t="s">
         <v>25</v>
       </c>
@@ -1083,7 +1326,7 @@
       <c r="D13" s="1"/>
       <c r="E13" s="1"/>
     </row>
-    <row r="14" customFormat="false" ht="16" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="14" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A14" s="2" t="s">
         <v>26</v>
       </c>
@@ -1091,7 +1334,7 @@
       <c r="D14" s="1"/>
       <c r="E14" s="1"/>
     </row>
-    <row r="15" customFormat="false" ht="16" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="15" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A15" s="2" t="s">
         <v>31</v>
       </c>
@@ -1099,7 +1342,7 @@
       <c r="D15" s="1"/>
       <c r="E15" s="1"/>
     </row>
-    <row r="16" customFormat="false" ht="16" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="16" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A16" s="2" t="s">
         <v>34</v>
       </c>
@@ -1107,12 +1350,12 @@
       <c r="D16" s="1"/>
       <c r="E16" s="1"/>
     </row>
-    <row r="17" customFormat="false" ht="16" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="17" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A17" s="2" t="s">
         <v>37</v>
       </c>
     </row>
-    <row r="18" customFormat="false" ht="16" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="18" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A18" s="2" t="s">
         <v>38</v>
       </c>
@@ -1120,28 +1363,52 @@
       <c r="D18" s="1"/>
       <c r="E18" s="1"/>
     </row>
-    <row r="19" customFormat="false" ht="16" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="19" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A19" s="2" t="s">
         <v>41</v>
       </c>
     </row>
-    <row r="20" customFormat="false" ht="16" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="20" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A20" s="2" t="s">
         <v>42</v>
       </c>
     </row>
-    <row r="21" customFormat="false" ht="16" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="21" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A21" s="2" t="s">
         <v>43</v>
       </c>
     </row>
   </sheetData>
-  <printOptions headings="false" gridLines="false" gridLinesSet="true" horizontalCentered="false" verticalCentered="false"/>
-  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.511805555555555" footer="0.511805555555555"/>
-  <pageSetup paperSize="9" scale="100" firstPageNumber="0" fitToWidth="1" fitToHeight="1" pageOrder="downThenOver" orientation="portrait" usePrinterDefaults="false" blackAndWhite="false" draft="false" cellComments="none" useFirstPageNumber="false" horizontalDpi="300" verticalDpi="300" copies="1"/>
-  <headerFooter differentFirst="false" differentOddEven="false">
-    <oddHeader/>
-    <oddFooter/>
-  </headerFooter>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.51180555555555496" footer="0.51180555555555496"/>
+  <pageSetup paperSize="0" scale="0" firstPageNumber="0" orientation="portrait" usePrinterDefaults="0" horizontalDpi="0" verticalDpi="0" copies="0"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+  <dimension ref="A1"/>
+  <sheetViews>
+    <sheetView workbookViewId="0"/>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="15.75" x14ac:dyDescent="0.25"/>
+  <sheetData/>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet5.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+  <dimension ref="A1"/>
+  <sheetViews>
+    <sheetView tabSelected="1" workbookViewId="0"/>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="15.75" x14ac:dyDescent="0.25"/>
+  <sheetData>
+    <row r="1" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A1" s="4"/>
+    </row>
+  </sheetData>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <pageSetup paperSize="9" orientation="portrait" r:id="rId1"/>
 </worksheet>
 </file>
--- a/Análise/Test Scenarios.xlsx
+++ b/Análise/Test Scenarios.xlsx
@@ -1,15 +1,21 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
-<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <fileVersion appName="xl" lastEdited="5" lowestEdited="5" rupBuild="9303"/>
+<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="5" rupBuild="23530"/>
   <workbookPr defaultThemeVersion="124226"/>
+  <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
+    <mc:Choice Requires="x15">
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="E:\Documents\GitHub\upskill_java1_labprg_grupo3\Análise\"/>
+    </mc:Choice>
+  </mc:AlternateContent>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{B4BAA3D0-09AE-42CF-B41C-F5D4EB3B510A}" xr6:coauthVersionLast="46" xr6:coauthVersionMax="46" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="0" yWindow="0" windowWidth="16380" windowHeight="8190" tabRatio="993" activeTab="4"/>
+    <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15840" tabRatio="993" activeTab="2" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Login" sheetId="1" r:id="rId1"/>
     <sheet name="Mover ficheiro" sheetId="2" r:id="rId2"/>
-    <sheet name="Cancelar encomenda" sheetId="3" r:id="rId3"/>
+    <sheet name="UC 1 - Registar Organização" sheetId="7" r:id="rId3"/>
     <sheet name="UC 4 - Definir Comp.Técnica" sheetId="4" r:id="rId4"/>
     <sheet name="UC 5 - Especificar Colab.Org" sheetId="5" r:id="rId5"/>
   </sheets>
@@ -23,7 +29,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="148" uniqueCount="73">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="180" uniqueCount="79">
   <si>
     <t>Project Name</t>
   </si>
@@ -250,22 +256,56 @@
     <t>Falha</t>
   </si>
   <si>
-    <t>Cancelar encomenda que já foi cancelada</t>
-  </si>
-  <si>
-    <t>Cancelar encomenda que existe e não foi ainda cncelada</t>
-  </si>
-  <si>
-    <t>Cancelar encomenda que não existe</t>
-  </si>
-  <si>
-    <t>Cancelar encomenda que não é reembolsável</t>
+    <t>Check Registar Organização functionality</t>
+  </si>
+  <si>
+    <t>TC_UC1_001</t>
+  </si>
+  <si>
+    <t>TC_UC1_002</t>
+  </si>
+  <si>
+    <t>TC_UC1_003</t>
+  </si>
+  <si>
+    <t>TC_UC1_004</t>
+  </si>
+  <si>
+    <t>Valid Org Name
+Valid Org NIF
+Valid Org Email
+Valid Org Website
+Valid Org Phone Number
+Valid Org Address</t>
+  </si>
+  <si>
+    <t>1. Enter valid org name
+2. Enter valid org nif
+3. Enter valid org email
+4. Enter valid org website
+5. Enter valid org phone number
+6. Enter valid org address
+7. Click register button</t>
+  </si>
+  <si>
+    <t>org name: org123
+org nif: 123456789
+org email: org123@org123.com
+org website: org123.com
+org phone number: 911123123
+org address: rua sousa, 1, 4000-400, Porto</t>
+  </si>
+  <si>
+    <t>Message "Organization successfully registered"</t>
+  </si>
+  <si>
+    <t>Successful register of an Organization</t>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
-<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
   <fonts count="3" x14ac:knownFonts="1">
     <font>
       <sz val="12"/>
@@ -344,8 +384,8 @@
     <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1"/>
   </cellXfs>
   <cellStyles count="2">
+    <cellStyle name="Explanatory Text" xfId="1" builtinId="53" customBuiltin="1"/>
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
-    <cellStyle name="Texto Explicativo" xfId="1" builtinId="53" customBuiltin="1"/>
   </cellStyles>
   <dxfs count="0"/>
   <tableStyles count="0" defaultTableStyle="TableStyleMedium2" defaultPivotStyle="PivotStyleLight16"/>
@@ -421,12 +461,15 @@
     <ext xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" uri="{EB79DEF2-80B8-43e5-95BD-54CBDDF9020C}">
       <x14:slicerStyles defaultSlicerStyle="SlicerStyleLight1"/>
     </ext>
+    <ext xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" uri="{9260A510-F301-46a8-8635-F512D64BE5F5}">
+      <x15:timelineStyles defaultTimelineStyle="TimeSlicerStyleLight1"/>
+    </ext>
   </extLst>
 </styleSheet>
 </file>
 
 <file path=xl/theme/theme1.xml><?xml version="1.0" encoding="utf-8"?>
-<a:theme xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" name="Tema do Office">
+<a:theme xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" name="Office Theme">
   <a:themeElements>
     <a:clrScheme name="Office">
       <a:dk1>
@@ -468,7 +511,7 @@
     </a:clrScheme>
     <a:fontScheme name="Office">
       <a:majorFont>
-        <a:latin typeface="Cambria"/>
+        <a:latin typeface="Cambria" panose="020F0302020204030204"/>
         <a:ea typeface=""/>
         <a:cs typeface=""/>
         <a:font script="Jpan" typeface="ＭＳ Ｐゴシック"/>
@@ -501,9 +544,26 @@
         <a:font script="Viet" typeface="Times New Roman"/>
         <a:font script="Uigh" typeface="Microsoft Uighur"/>
         <a:font script="Geor" typeface="Sylfaen"/>
+        <a:font script="Armn" typeface="Arial"/>
+        <a:font script="Bugi" typeface="Leelawadee UI"/>
+        <a:font script="Bopo" typeface="Microsoft JhengHei"/>
+        <a:font script="Java" typeface="Javanese Text"/>
+        <a:font script="Lisu" typeface="Segoe UI"/>
+        <a:font script="Mymr" typeface="Myanmar Text"/>
+        <a:font script="Nkoo" typeface="Ebrima"/>
+        <a:font script="Olck" typeface="Nirmala UI"/>
+        <a:font script="Osma" typeface="Ebrima"/>
+        <a:font script="Phag" typeface="Phagspa"/>
+        <a:font script="Syrn" typeface="Estrangelo Edessa"/>
+        <a:font script="Syrj" typeface="Estrangelo Edessa"/>
+        <a:font script="Syre" typeface="Estrangelo Edessa"/>
+        <a:font script="Sora" typeface="Nirmala UI"/>
+        <a:font script="Tale" typeface="Microsoft Tai Le"/>
+        <a:font script="Talu" typeface="Microsoft New Tai Lue"/>
+        <a:font script="Tfng" typeface="Ebrima"/>
       </a:majorFont>
       <a:minorFont>
-        <a:latin typeface="Calibri"/>
+        <a:latin typeface="Calibri" panose="020F0502020204030204"/>
         <a:ea typeface=""/>
         <a:cs typeface=""/>
         <a:font script="Jpan" typeface="ＭＳ Ｐゴシック"/>
@@ -536,6 +596,23 @@
         <a:font script="Viet" typeface="Arial"/>
         <a:font script="Uigh" typeface="Microsoft Uighur"/>
         <a:font script="Geor" typeface="Sylfaen"/>
+        <a:font script="Armn" typeface="Arial"/>
+        <a:font script="Bugi" typeface="Leelawadee UI"/>
+        <a:font script="Bopo" typeface="Microsoft JhengHei"/>
+        <a:font script="Java" typeface="Javanese Text"/>
+        <a:font script="Lisu" typeface="Segoe UI"/>
+        <a:font script="Mymr" typeface="Myanmar Text"/>
+        <a:font script="Nkoo" typeface="Ebrima"/>
+        <a:font script="Olck" typeface="Nirmala UI"/>
+        <a:font script="Osma" typeface="Ebrima"/>
+        <a:font script="Phag" typeface="Phagspa"/>
+        <a:font script="Syrn" typeface="Estrangelo Edessa"/>
+        <a:font script="Syrj" typeface="Estrangelo Edessa"/>
+        <a:font script="Syre" typeface="Estrangelo Edessa"/>
+        <a:font script="Sora" typeface="Nirmala UI"/>
+        <a:font script="Tale" typeface="Microsoft Tai Le"/>
+        <a:font script="Talu" typeface="Microsoft New Tai Lue"/>
+        <a:font script="Tfng" typeface="Ebrima"/>
       </a:minorFont>
     </a:fontScheme>
     <a:fmtScheme name="Office">
@@ -711,7 +788,7 @@
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
   <dimension ref="A1:E21"/>
   <sheetViews>
     <sheetView zoomScaleNormal="100" workbookViewId="0">
@@ -960,11 +1037,11 @@
 </file>
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0100-000000000000}">
   <dimension ref="A1:E21"/>
   <sheetViews>
     <sheetView zoomScaleNormal="100" workbookViewId="0">
-      <selection activeCell="E9" sqref="E9"/>
+      <selection activeCell="B13" sqref="B13"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15.75" x14ac:dyDescent="0.25"/>
@@ -1209,19 +1286,18 @@
 </file>
 
 <file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{9B64CDF4-CC92-40F1-801A-4C473A6BB3C1}">
   <dimension ref="A1:E21"/>
   <sheetViews>
-    <sheetView zoomScaleNormal="100" workbookViewId="0">
-      <selection activeCell="A9" sqref="A9"/>
+    <sheetView tabSelected="1" topLeftCell="A4" zoomScaleNormal="100" workbookViewId="0">
+      <selection activeCell="G11" sqref="G11"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15.75" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="1" max="1" width="23.75"/>
-    <col min="2" max="2" width="24" style="1"/>
-    <col min="3" max="5" width="24"/>
-    <col min="6" max="1025" width="10.875"/>
+    <col min="1" max="1" width="25.25" customWidth="1"/>
+    <col min="2" max="2" width="25.25" style="1" customWidth="1"/>
+    <col min="3" max="5" width="25.25" customWidth="1"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:5" x14ac:dyDescent="0.25">
@@ -1277,7 +1353,7 @@
         <v>7</v>
       </c>
     </row>
-    <row r="9" spans="1:5" ht="47.25" x14ac:dyDescent="0.25">
+    <row r="9" spans="1:5" ht="31.5" x14ac:dyDescent="0.25">
       <c r="A9" s="2" t="s">
         <v>8</v>
       </c>
@@ -1285,83 +1361,156 @@
         <v>69</v>
       </c>
       <c r="C9" s="1" t="s">
-        <v>70</v>
+        <v>69</v>
       </c>
       <c r="D9" s="1" t="s">
-        <v>71</v>
+        <v>69</v>
       </c>
       <c r="E9" s="1" t="s">
-        <v>72</v>
+        <v>69</v>
       </c>
     </row>
     <row r="10" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A10" s="2" t="s">
         <v>10</v>
       </c>
-      <c r="C10" s="1"/>
-      <c r="D10" s="1"/>
-      <c r="E10" s="1"/>
-    </row>
-    <row r="11" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="B10" s="1" t="s">
+        <v>70</v>
+      </c>
+      <c r="C10" s="1" t="s">
+        <v>71</v>
+      </c>
+      <c r="D10" s="1" t="s">
+        <v>72</v>
+      </c>
+      <c r="E10" s="1" t="s">
+        <v>73</v>
+      </c>
+    </row>
+    <row r="11" spans="1:5" ht="94.5" x14ac:dyDescent="0.25">
       <c r="A11" s="2" t="s">
         <v>15</v>
       </c>
-      <c r="C11" s="1"/>
-      <c r="D11" s="1"/>
-      <c r="E11" s="1"/>
-    </row>
-    <row r="12" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="B11" s="1" t="s">
+        <v>74</v>
+      </c>
+      <c r="C11" s="1" t="s">
+        <v>74</v>
+      </c>
+      <c r="D11" s="1" t="s">
+        <v>74</v>
+      </c>
+      <c r="E11" s="1" t="s">
+        <v>74</v>
+      </c>
+    </row>
+    <row r="12" spans="1:5" ht="126" x14ac:dyDescent="0.25">
       <c r="A12" s="2" t="s">
         <v>20</v>
       </c>
-      <c r="C12" s="1"/>
-      <c r="D12" s="1"/>
-      <c r="E12" s="1"/>
+      <c r="B12" s="1" t="s">
+        <v>75</v>
+      </c>
+      <c r="C12" s="1" t="s">
+        <v>75</v>
+      </c>
+      <c r="D12" s="1" t="s">
+        <v>75</v>
+      </c>
+      <c r="E12" s="1" t="s">
+        <v>75</v>
+      </c>
     </row>
     <row r="13" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A13" s="2" t="s">
         <v>25</v>
       </c>
-      <c r="C13" s="1"/>
-      <c r="D13" s="1"/>
-      <c r="E13" s="1"/>
-    </row>
-    <row r="14" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="B13" s="1" t="s">
+        <v>26</v>
+      </c>
+      <c r="C13" s="1" t="s">
+        <v>26</v>
+      </c>
+      <c r="D13" s="1" t="s">
+        <v>26</v>
+      </c>
+      <c r="E13" s="1" t="s">
+        <v>26</v>
+      </c>
+    </row>
+    <row r="14" spans="1:5" ht="141.75" x14ac:dyDescent="0.25">
       <c r="A14" s="2" t="s">
         <v>26</v>
       </c>
-      <c r="C14" s="1"/>
-      <c r="D14" s="1"/>
-      <c r="E14" s="1"/>
-    </row>
-    <row r="15" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="B14" s="1" t="s">
+        <v>76</v>
+      </c>
+      <c r="C14" s="1" t="s">
+        <v>76</v>
+      </c>
+      <c r="D14" s="1" t="s">
+        <v>76</v>
+      </c>
+      <c r="E14" s="1" t="s">
+        <v>76</v>
+      </c>
+    </row>
+    <row r="15" spans="1:5" ht="31.5" x14ac:dyDescent="0.25">
       <c r="A15" s="2" t="s">
         <v>31</v>
       </c>
-      <c r="C15" s="1"/>
-      <c r="D15" s="1"/>
-      <c r="E15" s="1"/>
-    </row>
-    <row r="16" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="B15" s="1" t="s">
+        <v>77</v>
+      </c>
+      <c r="C15" s="1" t="s">
+        <v>77</v>
+      </c>
+      <c r="D15" s="1" t="s">
+        <v>77</v>
+      </c>
+      <c r="E15" s="1" t="s">
+        <v>77</v>
+      </c>
+    </row>
+    <row r="16" spans="1:5" ht="31.5" x14ac:dyDescent="0.25">
       <c r="A16" s="2" t="s">
         <v>34</v>
       </c>
-      <c r="C16" s="1"/>
-      <c r="D16" s="1"/>
-      <c r="E16" s="1"/>
+      <c r="B16" s="1" t="s">
+        <v>78</v>
+      </c>
+      <c r="C16" s="1" t="s">
+        <v>78</v>
+      </c>
+      <c r="D16" s="1" t="s">
+        <v>78</v>
+      </c>
+      <c r="E16" s="1" t="s">
+        <v>78</v>
+      </c>
     </row>
     <row r="17" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A17" s="2" t="s">
         <v>37</v>
       </c>
+      <c r="B17"/>
     </row>
     <row r="18" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A18" s="2" t="s">
         <v>38</v>
       </c>
-      <c r="C18" s="1"/>
-      <c r="D18" s="1"/>
-      <c r="E18" s="1"/>
+      <c r="B18" s="1" t="s">
+        <v>39</v>
+      </c>
+      <c r="C18" s="1" t="s">
+        <v>39</v>
+      </c>
+      <c r="D18" s="1" t="s">
+        <v>39</v>
+      </c>
+      <c r="E18" s="1" t="s">
+        <v>39</v>
+      </c>
     </row>
     <row r="19" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A19" s="2" t="s">
@@ -1385,7 +1534,7 @@
 </file>
 
 <file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0300-000000000000}">
   <dimension ref="A1"/>
   <sheetViews>
     <sheetView workbookViewId="0"/>
@@ -1397,10 +1546,10 @@
 </file>
 
 <file path=xl/worksheets/sheet5.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0400-000000000000}">
   <dimension ref="A1"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0"/>
+    <sheetView workbookViewId="0"/>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15.75" x14ac:dyDescent="0.25"/>
   <sheetData>

--- a/Análise/Test Scenarios.xlsx
+++ b/Análise/Test Scenarios.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="E:\Documents\GitHub\upskill_java1_labprg_grupo3\Análise\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{B4BAA3D0-09AE-42CF-B41C-F5D4EB3B510A}" xr6:coauthVersionLast="46" xr6:coauthVersionMax="46" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{2D9542FF-7C07-4D14-A161-3F156A73E559}" xr6:coauthVersionLast="46" xr6:coauthVersionMax="46" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15840" tabRatio="993" activeTab="2" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>

--- a/Análise/Test Scenarios.xlsx
+++ b/Análise/Test Scenarios.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="E:\Documents\GitHub\upskill_java1_labprg_grupo3\Análise\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{2D9542FF-7C07-4D14-A161-3F156A73E559}" xr6:coauthVersionLast="46" xr6:coauthVersionMax="46" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{5BB6D660-5931-4CE8-B53E-06BF30655AED}" xr6:coauthVersionLast="46" xr6:coauthVersionMax="46" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15840" tabRatio="993" activeTab="2" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -29,7 +29,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="180" uniqueCount="79">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="180" uniqueCount="82">
   <si>
     <t>Project Name</t>
   </si>
@@ -300,6 +300,26 @@
   </si>
   <si>
     <t>Successful register of an Organization</t>
+  </si>
+  <si>
+    <t>Invalid Org Name
+Valid Org NIF
+Valid Org Email
+Valid Org Website
+Valid Org Phone Number
+Valid Org Address</t>
+  </si>
+  <si>
+    <t>1. Enter invalid org name
+2. Enter valid org nif
+3. Enter valid org email
+4. Enter valid org website
+5. Enter valid org phone number
+6. Enter valid org address
+7. Click register button</t>
+  </si>
+  <si>
+    <t>Message "Organization name is invalid or already exists"</t>
   </si>
 </sst>
 </file>
@@ -1289,8 +1309,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{9B64CDF4-CC92-40F1-801A-4C473A6BB3C1}">
   <dimension ref="A1:E21"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A4" zoomScaleNormal="100" workbookViewId="0">
-      <selection activeCell="G11" sqref="G11"/>
+    <sheetView tabSelected="1" topLeftCell="A10" zoomScaleNormal="100" workbookViewId="0">
+      <selection activeCell="C14" sqref="C14"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15.75" x14ac:dyDescent="0.25"/>
@@ -1395,7 +1415,7 @@
         <v>74</v>
       </c>
       <c r="C11" s="1" t="s">
-        <v>74</v>
+        <v>79</v>
       </c>
       <c r="D11" s="1" t="s">
         <v>74</v>
@@ -1412,7 +1432,7 @@
         <v>75</v>
       </c>
       <c r="C12" s="1" t="s">
-        <v>75</v>
+        <v>80</v>
       </c>
       <c r="D12" s="1" t="s">
         <v>75</v>
@@ -1463,7 +1483,7 @@
         <v>77</v>
       </c>
       <c r="C15" s="1" t="s">
-        <v>77</v>
+        <v>81</v>
       </c>
       <c r="D15" s="1" t="s">
         <v>77</v>

--- a/Análise/Test Scenarios.xlsx
+++ b/Análise/Test Scenarios.xlsx
@@ -1,23 +1,23 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
-<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="5" rupBuild="23530"/>
+<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" mc:Ignorable="x15">
+  <fileVersion appName="xl" lastEdited="6" lowestEdited="5" rupBuild="14420"/>
   <workbookPr defaultThemeVersion="124226"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="E:\Documents\GitHub\upskill_java1_labprg_grupo3\Análise\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\victo\OneDrive\Ambiente de Trabalho\GitHub\upskill_java1_labprg_grupo3\Análise\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{5BB6D660-5931-4CE8-B53E-06BF30655AED}" xr6:coauthVersionLast="46" xr6:coauthVersionMax="46" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15840" tabRatio="993" activeTab="2" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15840" tabRatio="993" activeTab="3"/>
   </bookViews>
   <sheets>
     <sheet name="Login" sheetId="1" r:id="rId1"/>
     <sheet name="Mover ficheiro" sheetId="2" r:id="rId2"/>
     <sheet name="UC 1 - Registar Organização" sheetId="7" r:id="rId3"/>
-    <sheet name="UC 4 - Definir Comp.Técnica" sheetId="4" r:id="rId4"/>
-    <sheet name="UC 5 - Especificar Colab.Org" sheetId="5" r:id="rId5"/>
+    <sheet name="UC 2 - Definir Area Atividade" sheetId="8" r:id="rId4"/>
+    <sheet name="UC 4 - Definir Comp.Técnica" sheetId="4" r:id="rId5"/>
+    <sheet name="UC 5 - Especificar Colab.Org" sheetId="5" r:id="rId6"/>
   </sheets>
   <calcPr calcId="0" iterateDelta="1E-4"/>
   <extLst>
@@ -29,7 +29,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="180" uniqueCount="82">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="240" uniqueCount="82">
   <si>
     <t>Project Name</t>
   </si>
@@ -325,7 +325,7 @@
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
-<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
+<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" mc:Ignorable="x14ac x16r2">
   <fonts count="3" x14ac:knownFonts="1">
     <font>
       <sz val="12"/>
@@ -564,23 +564,6 @@
         <a:font script="Viet" typeface="Times New Roman"/>
         <a:font script="Uigh" typeface="Microsoft Uighur"/>
         <a:font script="Geor" typeface="Sylfaen"/>
-        <a:font script="Armn" typeface="Arial"/>
-        <a:font script="Bugi" typeface="Leelawadee UI"/>
-        <a:font script="Bopo" typeface="Microsoft JhengHei"/>
-        <a:font script="Java" typeface="Javanese Text"/>
-        <a:font script="Lisu" typeface="Segoe UI"/>
-        <a:font script="Mymr" typeface="Myanmar Text"/>
-        <a:font script="Nkoo" typeface="Ebrima"/>
-        <a:font script="Olck" typeface="Nirmala UI"/>
-        <a:font script="Osma" typeface="Ebrima"/>
-        <a:font script="Phag" typeface="Phagspa"/>
-        <a:font script="Syrn" typeface="Estrangelo Edessa"/>
-        <a:font script="Syrj" typeface="Estrangelo Edessa"/>
-        <a:font script="Syre" typeface="Estrangelo Edessa"/>
-        <a:font script="Sora" typeface="Nirmala UI"/>
-        <a:font script="Tale" typeface="Microsoft Tai Le"/>
-        <a:font script="Talu" typeface="Microsoft New Tai Lue"/>
-        <a:font script="Tfng" typeface="Ebrima"/>
       </a:majorFont>
       <a:minorFont>
         <a:latin typeface="Calibri" panose="020F0502020204030204"/>
@@ -616,23 +599,6 @@
         <a:font script="Viet" typeface="Arial"/>
         <a:font script="Uigh" typeface="Microsoft Uighur"/>
         <a:font script="Geor" typeface="Sylfaen"/>
-        <a:font script="Armn" typeface="Arial"/>
-        <a:font script="Bugi" typeface="Leelawadee UI"/>
-        <a:font script="Bopo" typeface="Microsoft JhengHei"/>
-        <a:font script="Java" typeface="Javanese Text"/>
-        <a:font script="Lisu" typeface="Segoe UI"/>
-        <a:font script="Mymr" typeface="Myanmar Text"/>
-        <a:font script="Nkoo" typeface="Ebrima"/>
-        <a:font script="Olck" typeface="Nirmala UI"/>
-        <a:font script="Osma" typeface="Ebrima"/>
-        <a:font script="Phag" typeface="Phagspa"/>
-        <a:font script="Syrn" typeface="Estrangelo Edessa"/>
-        <a:font script="Syrj" typeface="Estrangelo Edessa"/>
-        <a:font script="Syre" typeface="Estrangelo Edessa"/>
-        <a:font script="Sora" typeface="Nirmala UI"/>
-        <a:font script="Tale" typeface="Microsoft Tai Le"/>
-        <a:font script="Talu" typeface="Microsoft New Tai Lue"/>
-        <a:font script="Tfng" typeface="Ebrima"/>
       </a:minorFont>
     </a:fontScheme>
     <a:fmtScheme name="Office">
@@ -808,58 +774,58 @@
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:E21"/>
   <sheetViews>
     <sheetView zoomScaleNormal="100" workbookViewId="0">
       <selection activeCell="C11" sqref="C11"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="15.75" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr defaultRowHeight="15.6" x14ac:dyDescent="0.3"/>
   <cols>
-    <col min="1" max="1" width="23.75"/>
+    <col min="1" max="1" width="23.69921875"/>
     <col min="2" max="2" width="24" style="1"/>
     <col min="3" max="5" width="24"/>
-    <col min="6" max="1025" width="10.875"/>
+    <col min="6" max="1025" width="10.8984375"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="1" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A1" s="2" t="s">
         <v>0</v>
       </c>
       <c r="B1"/>
     </row>
-    <row r="2" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="2" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A2" s="2" t="s">
         <v>1</v>
       </c>
       <c r="B2"/>
     </row>
-    <row r="3" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="3" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A3" s="2" t="s">
         <v>2</v>
       </c>
       <c r="B3"/>
     </row>
-    <row r="4" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="4" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A4" s="2" t="s">
         <v>3</v>
       </c>
       <c r="B4"/>
     </row>
-    <row r="5" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="5" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A5" s="2" t="s">
         <v>4</v>
       </c>
       <c r="B5"/>
     </row>
-    <row r="6" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="6" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A6" s="2" t="s">
         <v>5</v>
       </c>
       <c r="B6"/>
     </row>
-    <row r="8" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="8" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A8" s="2" t="s">
         <v>6</v>
       </c>
@@ -876,7 +842,7 @@
         <v>7</v>
       </c>
     </row>
-    <row r="9" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="9" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A9" s="2" t="s">
         <v>8</v>
       </c>
@@ -893,7 +859,7 @@
         <v>9</v>
       </c>
     </row>
-    <row r="10" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="10" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A10" s="2" t="s">
         <v>10</v>
       </c>
@@ -910,7 +876,7 @@
         <v>14</v>
       </c>
     </row>
-    <row r="11" spans="1:5" ht="31.5" x14ac:dyDescent="0.25">
+    <row r="11" spans="1:5" ht="31.2" x14ac:dyDescent="0.3">
       <c r="A11" s="2" t="s">
         <v>15</v>
       </c>
@@ -927,7 +893,7 @@
         <v>19</v>
       </c>
     </row>
-    <row r="12" spans="1:5" ht="47.25" x14ac:dyDescent="0.25">
+    <row r="12" spans="1:5" ht="46.8" x14ac:dyDescent="0.3">
       <c r="A12" s="2" t="s">
         <v>20</v>
       </c>
@@ -944,7 +910,7 @@
         <v>24</v>
       </c>
     </row>
-    <row r="13" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="13" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A13" s="2" t="s">
         <v>25</v>
       </c>
@@ -961,7 +927,7 @@
         <v>26</v>
       </c>
     </row>
-    <row r="14" spans="1:5" ht="31.5" x14ac:dyDescent="0.25">
+    <row r="14" spans="1:5" ht="31.2" x14ac:dyDescent="0.3">
       <c r="A14" s="2" t="s">
         <v>26</v>
       </c>
@@ -978,7 +944,7 @@
         <v>30</v>
       </c>
     </row>
-    <row r="15" spans="1:5" ht="31.5" x14ac:dyDescent="0.25">
+    <row r="15" spans="1:5" ht="31.2" x14ac:dyDescent="0.3">
       <c r="A15" s="2" t="s">
         <v>31</v>
       </c>
@@ -995,7 +961,7 @@
         <v>33</v>
       </c>
     </row>
-    <row r="16" spans="1:5" ht="31.5" x14ac:dyDescent="0.25">
+    <row r="16" spans="1:5" ht="31.2" x14ac:dyDescent="0.3">
       <c r="A16" s="2" t="s">
         <v>34</v>
       </c>
@@ -1012,13 +978,13 @@
         <v>36</v>
       </c>
     </row>
-    <row r="17" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="17" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A17" s="2" t="s">
         <v>37</v>
       </c>
       <c r="B17"/>
     </row>
-    <row r="18" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="18" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A18" s="2" t="s">
         <v>38</v>
       </c>
@@ -1035,17 +1001,17 @@
         <v>40</v>
       </c>
     </row>
-    <row r="19" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="19" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A19" s="2" t="s">
         <v>41</v>
       </c>
     </row>
-    <row r="20" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="20" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A20" s="2" t="s">
         <v>42</v>
       </c>
     </row>
-    <row r="21" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="21" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A21" s="2" t="s">
         <v>43</v>
       </c>
@@ -1057,58 +1023,58 @@
 </file>
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0100-000000000000}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:E21"/>
   <sheetViews>
     <sheetView zoomScaleNormal="100" workbookViewId="0">
       <selection activeCell="B13" sqref="B13"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="15.75" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr defaultRowHeight="15.6" x14ac:dyDescent="0.3"/>
   <cols>
-    <col min="1" max="1" width="23.75"/>
+    <col min="1" max="1" width="23.69921875"/>
     <col min="2" max="2" width="24" style="1"/>
     <col min="3" max="5" width="24"/>
-    <col min="6" max="1025" width="10.875"/>
+    <col min="6" max="1025" width="10.8984375"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="1" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A1" s="2" t="s">
         <v>0</v>
       </c>
       <c r="B1"/>
     </row>
-    <row r="2" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="2" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A2" s="2" t="s">
         <v>1</v>
       </c>
       <c r="B2"/>
     </row>
-    <row r="3" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="3" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A3" s="2" t="s">
         <v>2</v>
       </c>
       <c r="B3"/>
     </row>
-    <row r="4" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="4" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A4" s="2" t="s">
         <v>3</v>
       </c>
       <c r="B4"/>
     </row>
-    <row r="5" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="5" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A5" s="2" t="s">
         <v>4</v>
       </c>
       <c r="B5"/>
     </row>
-    <row r="6" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="6" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A6" s="2" t="s">
         <v>5</v>
       </c>
       <c r="B6"/>
     </row>
-    <row r="8" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="8" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A8" s="2" t="s">
         <v>6</v>
       </c>
@@ -1125,7 +1091,7 @@
         <v>7</v>
       </c>
     </row>
-    <row r="9" spans="1:5" ht="31.5" x14ac:dyDescent="0.25">
+    <row r="9" spans="1:5" ht="31.2" x14ac:dyDescent="0.3">
       <c r="A9" s="2" t="s">
         <v>8</v>
       </c>
@@ -1142,7 +1108,7 @@
         <v>44</v>
       </c>
     </row>
-    <row r="10" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="10" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A10" s="2" t="s">
         <v>10</v>
       </c>
@@ -1159,7 +1125,7 @@
         <v>48</v>
       </c>
     </row>
-    <row r="11" spans="1:5" ht="31.5" x14ac:dyDescent="0.25">
+    <row r="11" spans="1:5" ht="46.8" x14ac:dyDescent="0.3">
       <c r="A11" s="2" t="s">
         <v>15</v>
       </c>
@@ -1176,7 +1142,7 @@
         <v>52</v>
       </c>
     </row>
-    <row r="12" spans="1:5" ht="31.5" x14ac:dyDescent="0.25">
+    <row r="12" spans="1:5" ht="31.2" x14ac:dyDescent="0.3">
       <c r="A12" s="2" t="s">
         <v>20</v>
       </c>
@@ -1193,7 +1159,7 @@
         <v>54</v>
       </c>
     </row>
-    <row r="13" spans="1:5" ht="31.5" x14ac:dyDescent="0.25">
+    <row r="13" spans="1:5" ht="31.2" x14ac:dyDescent="0.3">
       <c r="A13" s="2" t="s">
         <v>25</v>
       </c>
@@ -1210,7 +1176,7 @@
         <v>58</v>
       </c>
     </row>
-    <row r="14" spans="1:5" ht="31.5" x14ac:dyDescent="0.25">
+    <row r="14" spans="1:5" ht="31.2" x14ac:dyDescent="0.3">
       <c r="A14" s="2" t="s">
         <v>26</v>
       </c>
@@ -1227,7 +1193,7 @@
         <v>59</v>
       </c>
     </row>
-    <row r="15" spans="1:5" ht="47.25" x14ac:dyDescent="0.25">
+    <row r="15" spans="1:5" ht="46.8" x14ac:dyDescent="0.3">
       <c r="A15" s="2" t="s">
         <v>31</v>
       </c>
@@ -1244,7 +1210,7 @@
         <v>63</v>
       </c>
     </row>
-    <row r="16" spans="1:5" ht="47.25" x14ac:dyDescent="0.25">
+    <row r="16" spans="1:5" ht="46.8" x14ac:dyDescent="0.3">
       <c r="A16" s="2" t="s">
         <v>34</v>
       </c>
@@ -1261,13 +1227,13 @@
         <v>67</v>
       </c>
     </row>
-    <row r="17" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="17" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A17" s="2" t="s">
         <v>37</v>
       </c>
       <c r="B17"/>
     </row>
-    <row r="18" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="18" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A18" s="2" t="s">
         <v>38</v>
       </c>
@@ -1284,17 +1250,17 @@
         <v>68</v>
       </c>
     </row>
-    <row r="19" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="19" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A19" s="2" t="s">
         <v>41</v>
       </c>
     </row>
-    <row r="20" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="20" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A20" s="2" t="s">
         <v>42</v>
       </c>
     </row>
-    <row r="21" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="21" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A21" s="2" t="s">
         <v>43</v>
       </c>
@@ -1306,57 +1272,57 @@
 </file>
 
 <file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{9B64CDF4-CC92-40F1-801A-4C473A6BB3C1}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:E21"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A10" zoomScaleNormal="100" workbookViewId="0">
-      <selection activeCell="C14" sqref="C14"/>
+    <sheetView zoomScaleNormal="100" workbookViewId="0">
+      <selection sqref="A1:XFD1048576"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="15.75" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr defaultRowHeight="15.6" x14ac:dyDescent="0.3"/>
   <cols>
-    <col min="1" max="1" width="25.25" customWidth="1"/>
-    <col min="2" max="2" width="25.25" style="1" customWidth="1"/>
-    <col min="3" max="5" width="25.25" customWidth="1"/>
+    <col min="1" max="1" width="25.19921875" customWidth="1"/>
+    <col min="2" max="2" width="25.19921875" style="1" customWidth="1"/>
+    <col min="3" max="5" width="25.19921875" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="1" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A1" s="2" t="s">
         <v>0</v>
       </c>
       <c r="B1"/>
     </row>
-    <row r="2" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="2" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A2" s="2" t="s">
         <v>1</v>
       </c>
       <c r="B2"/>
     </row>
-    <row r="3" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="3" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A3" s="2" t="s">
         <v>2</v>
       </c>
       <c r="B3"/>
     </row>
-    <row r="4" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="4" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A4" s="2" t="s">
         <v>3</v>
       </c>
       <c r="B4"/>
     </row>
-    <row r="5" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="5" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A5" s="2" t="s">
         <v>4</v>
       </c>
       <c r="B5"/>
     </row>
-    <row r="6" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="6" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A6" s="2" t="s">
         <v>5</v>
       </c>
       <c r="B6"/>
     </row>
-    <row r="8" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="8" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A8" s="2" t="s">
         <v>6</v>
       </c>
@@ -1373,7 +1339,7 @@
         <v>7</v>
       </c>
     </row>
-    <row r="9" spans="1:5" ht="31.5" x14ac:dyDescent="0.25">
+    <row r="9" spans="1:5" ht="31.2" x14ac:dyDescent="0.3">
       <c r="A9" s="2" t="s">
         <v>8</v>
       </c>
@@ -1390,7 +1356,7 @@
         <v>69</v>
       </c>
     </row>
-    <row r="10" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="10" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A10" s="2" t="s">
         <v>10</v>
       </c>
@@ -1407,7 +1373,7 @@
         <v>73</v>
       </c>
     </row>
-    <row r="11" spans="1:5" ht="94.5" x14ac:dyDescent="0.25">
+    <row r="11" spans="1:5" ht="93.6" x14ac:dyDescent="0.3">
       <c r="A11" s="2" t="s">
         <v>15</v>
       </c>
@@ -1424,7 +1390,7 @@
         <v>74</v>
       </c>
     </row>
-    <row r="12" spans="1:5" ht="126" x14ac:dyDescent="0.25">
+    <row r="12" spans="1:5" ht="124.8" x14ac:dyDescent="0.3">
       <c r="A12" s="2" t="s">
         <v>20</v>
       </c>
@@ -1441,7 +1407,7 @@
         <v>75</v>
       </c>
     </row>
-    <row r="13" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="13" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A13" s="2" t="s">
         <v>25</v>
       </c>
@@ -1458,7 +1424,7 @@
         <v>26</v>
       </c>
     </row>
-    <row r="14" spans="1:5" ht="141.75" x14ac:dyDescent="0.25">
+    <row r="14" spans="1:5" ht="140.4" x14ac:dyDescent="0.3">
       <c r="A14" s="2" t="s">
         <v>26</v>
       </c>
@@ -1475,7 +1441,7 @@
         <v>76</v>
       </c>
     </row>
-    <row r="15" spans="1:5" ht="31.5" x14ac:dyDescent="0.25">
+    <row r="15" spans="1:5" ht="46.8" x14ac:dyDescent="0.3">
       <c r="A15" s="2" t="s">
         <v>31</v>
       </c>
@@ -1492,7 +1458,7 @@
         <v>77</v>
       </c>
     </row>
-    <row r="16" spans="1:5" ht="31.5" x14ac:dyDescent="0.25">
+    <row r="16" spans="1:5" ht="31.2" x14ac:dyDescent="0.3">
       <c r="A16" s="2" t="s">
         <v>34</v>
       </c>
@@ -1509,13 +1475,13 @@
         <v>78</v>
       </c>
     </row>
-    <row r="17" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="17" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A17" s="2" t="s">
         <v>37</v>
       </c>
       <c r="B17"/>
     </row>
-    <row r="18" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="18" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A18" s="2" t="s">
         <v>38</v>
       </c>
@@ -1532,17 +1498,17 @@
         <v>39</v>
       </c>
     </row>
-    <row r="19" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="19" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A19" s="2" t="s">
         <v>41</v>
       </c>
     </row>
-    <row r="20" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="20" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A20" s="2" t="s">
         <v>42</v>
       </c>
     </row>
-    <row r="21" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="21" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A21" s="2" t="s">
         <v>43</v>
       </c>
@@ -1554,26 +1520,273 @@
 </file>
 
 <file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0300-000000000000}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+  <dimension ref="A1:E21"/>
+  <sheetViews>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="D11" sqref="D11"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="15.6" x14ac:dyDescent="0.3"/>
+  <cols>
+    <col min="1" max="1" width="25.19921875" customWidth="1"/>
+    <col min="2" max="2" width="25.19921875" style="1" customWidth="1"/>
+    <col min="3" max="5" width="25.19921875" customWidth="1"/>
+  </cols>
+  <sheetData>
+    <row r="1" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="A1" s="2" t="s">
+        <v>0</v>
+      </c>
+      <c r="B1"/>
+    </row>
+    <row r="2" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="A2" s="2" t="s">
+        <v>1</v>
+      </c>
+      <c r="B2"/>
+    </row>
+    <row r="3" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="A3" s="2" t="s">
+        <v>2</v>
+      </c>
+      <c r="B3"/>
+    </row>
+    <row r="4" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="A4" s="2" t="s">
+        <v>3</v>
+      </c>
+      <c r="B4"/>
+    </row>
+    <row r="5" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="A5" s="2" t="s">
+        <v>4</v>
+      </c>
+      <c r="B5"/>
+    </row>
+    <row r="6" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="A6" s="2" t="s">
+        <v>5</v>
+      </c>
+      <c r="B6"/>
+    </row>
+    <row r="8" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="A8" s="2" t="s">
+        <v>6</v>
+      </c>
+      <c r="B8" s="1" t="s">
+        <v>7</v>
+      </c>
+      <c r="C8" s="1" t="s">
+        <v>7</v>
+      </c>
+      <c r="D8" s="1" t="s">
+        <v>7</v>
+      </c>
+      <c r="E8" s="1" t="s">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="9" spans="1:5" ht="31.2" x14ac:dyDescent="0.3">
+      <c r="A9" s="2" t="s">
+        <v>8</v>
+      </c>
+      <c r="B9" s="1" t="s">
+        <v>69</v>
+      </c>
+      <c r="C9" s="1" t="s">
+        <v>69</v>
+      </c>
+      <c r="D9" s="1" t="s">
+        <v>69</v>
+      </c>
+      <c r="E9" s="1" t="s">
+        <v>69</v>
+      </c>
+    </row>
+    <row r="10" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="A10" s="2" t="s">
+        <v>10</v>
+      </c>
+      <c r="B10" s="1" t="s">
+        <v>70</v>
+      </c>
+      <c r="C10" s="1" t="s">
+        <v>71</v>
+      </c>
+      <c r="D10" s="1" t="s">
+        <v>72</v>
+      </c>
+      <c r="E10" s="1" t="s">
+        <v>73</v>
+      </c>
+    </row>
+    <row r="11" spans="1:5" ht="93.6" x14ac:dyDescent="0.3">
+      <c r="A11" s="2" t="s">
+        <v>15</v>
+      </c>
+      <c r="B11" s="1" t="s">
+        <v>74</v>
+      </c>
+      <c r="C11" s="1" t="s">
+        <v>79</v>
+      </c>
+      <c r="D11" s="1" t="s">
+        <v>74</v>
+      </c>
+      <c r="E11" s="1" t="s">
+        <v>74</v>
+      </c>
+    </row>
+    <row r="12" spans="1:5" ht="124.8" x14ac:dyDescent="0.3">
+      <c r="A12" s="2" t="s">
+        <v>20</v>
+      </c>
+      <c r="B12" s="1" t="s">
+        <v>75</v>
+      </c>
+      <c r="C12" s="1" t="s">
+        <v>80</v>
+      </c>
+      <c r="D12" s="1" t="s">
+        <v>75</v>
+      </c>
+      <c r="E12" s="1" t="s">
+        <v>75</v>
+      </c>
+    </row>
+    <row r="13" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="A13" s="2" t="s">
+        <v>25</v>
+      </c>
+      <c r="B13" s="1" t="s">
+        <v>26</v>
+      </c>
+      <c r="C13" s="1" t="s">
+        <v>26</v>
+      </c>
+      <c r="D13" s="1" t="s">
+        <v>26</v>
+      </c>
+      <c r="E13" s="1" t="s">
+        <v>26</v>
+      </c>
+    </row>
+    <row r="14" spans="1:5" ht="140.4" x14ac:dyDescent="0.3">
+      <c r="A14" s="2" t="s">
+        <v>26</v>
+      </c>
+      <c r="B14" s="1" t="s">
+        <v>76</v>
+      </c>
+      <c r="C14" s="1" t="s">
+        <v>76</v>
+      </c>
+      <c r="D14" s="1" t="s">
+        <v>76</v>
+      </c>
+      <c r="E14" s="1" t="s">
+        <v>76</v>
+      </c>
+    </row>
+    <row r="15" spans="1:5" ht="46.8" x14ac:dyDescent="0.3">
+      <c r="A15" s="2" t="s">
+        <v>31</v>
+      </c>
+      <c r="B15" s="1" t="s">
+        <v>77</v>
+      </c>
+      <c r="C15" s="1" t="s">
+        <v>81</v>
+      </c>
+      <c r="D15" s="1" t="s">
+        <v>77</v>
+      </c>
+      <c r="E15" s="1" t="s">
+        <v>77</v>
+      </c>
+    </row>
+    <row r="16" spans="1:5" ht="31.2" x14ac:dyDescent="0.3">
+      <c r="A16" s="2" t="s">
+        <v>34</v>
+      </c>
+      <c r="B16" s="1" t="s">
+        <v>78</v>
+      </c>
+      <c r="C16" s="1" t="s">
+        <v>78</v>
+      </c>
+      <c r="D16" s="1" t="s">
+        <v>78</v>
+      </c>
+      <c r="E16" s="1" t="s">
+        <v>78</v>
+      </c>
+    </row>
+    <row r="17" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="A17" s="2" t="s">
+        <v>37</v>
+      </c>
+      <c r="B17"/>
+    </row>
+    <row r="18" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="A18" s="2" t="s">
+        <v>38</v>
+      </c>
+      <c r="B18" s="1" t="s">
+        <v>39</v>
+      </c>
+      <c r="C18" s="1" t="s">
+        <v>39</v>
+      </c>
+      <c r="D18" s="1" t="s">
+        <v>39</v>
+      </c>
+      <c r="E18" s="1" t="s">
+        <v>39</v>
+      </c>
+    </row>
+    <row r="19" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="A19" s="2" t="s">
+        <v>41</v>
+      </c>
+    </row>
+    <row r="20" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="A20" s="2" t="s">
+        <v>42</v>
+      </c>
+    </row>
+    <row r="21" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="A21" s="2" t="s">
+        <v>43</v>
+      </c>
+    </row>
+  </sheetData>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet5.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1"/>
   <sheetViews>
     <sheetView workbookViewId="0"/>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="15.75" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr defaultRowHeight="15.6" x14ac:dyDescent="0.3"/>
   <sheetData/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet5.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0400-000000000000}">
+<file path=xl/worksheets/sheet6.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1"/>
   <sheetViews>
     <sheetView workbookViewId="0"/>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="15.75" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr defaultRowHeight="15.6" x14ac:dyDescent="0.3"/>
   <sheetData>
-    <row r="1" spans="1:1" x14ac:dyDescent="0.25">
+    <row r="1" spans="1:1" x14ac:dyDescent="0.3">
       <c r="A1" s="4"/>
     </row>
   </sheetData>

--- a/Análise/Test Scenarios.xlsx
+++ b/Análise/Test Scenarios.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="E:\Documents\GitHub\upskill_java1_labprg_grupo3\Análise\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{5BB6D660-5931-4CE8-B53E-06BF30655AED}" xr6:coauthVersionLast="46" xr6:coauthVersionMax="46" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{4872AB33-15C1-41CE-8178-4E22558FD61E}" xr6:coauthVersionLast="46" xr6:coauthVersionMax="46" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15840" tabRatio="993" activeTab="2" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -29,7 +29,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="180" uniqueCount="82">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="230" uniqueCount="121">
   <si>
     <t>Project Name</t>
   </si>
@@ -319,7 +319,225 @@
 7. Click register button</t>
   </si>
   <si>
-    <t>Message "Organization name is invalid or already exists"</t>
+    <t>Already Existant Org Name
+Valid Org NIF
+Valid Org Email
+Valid Org Website
+Valid Org Phone Number
+Valid Org Address</t>
+  </si>
+  <si>
+    <t>1. Enter already existant org name
+2. Enter valid org nif
+3. Enter valid org email
+4. Enter valid org website
+5. Enter valid org phone number
+6. Enter valid org address
+7. Click register button</t>
+  </si>
+  <si>
+    <t>Message "Organization name already exists"</t>
+  </si>
+  <si>
+    <t>Popup Message "Organization name already exists"</t>
+  </si>
+  <si>
+    <t>Valid Org Name
+Already Existant Org NIF
+Valid Org Email
+Valid Org Website
+Valid Org Phone Number
+Valid Org Address</t>
+  </si>
+  <si>
+    <t>1. Enter valid org name
+2. Enter already existant org nif
+3. Enter valid org email
+4. Enter valid org website
+5. Enter valid org phone number
+6. Enter valid org address
+7. Click register button</t>
+  </si>
+  <si>
+    <t>Message "Organization NIF already exists"</t>
+  </si>
+  <si>
+    <t>Popup Message "Organization NIF already exists"</t>
+  </si>
+  <si>
+    <t>org name: *   org?  123
+org nif: 123456789
+org email: org123@org123.com
+org website: org123.com
+org phone number: 911123123
+org address: rua sousa, 1, 4000-400, Porto</t>
+  </si>
+  <si>
+    <t>Message "Organization name invalid"</t>
+  </si>
+  <si>
+    <t>Popup Message "Organization name invalid"</t>
+  </si>
+  <si>
+    <t>TC_UC1_005</t>
+  </si>
+  <si>
+    <t>TC_UC1_006</t>
+  </si>
+  <si>
+    <t>TC_UC1_007</t>
+  </si>
+  <si>
+    <t>TC_UC1_008</t>
+  </si>
+  <si>
+    <t>TC_UC1_009</t>
+  </si>
+  <si>
+    <t>Valid Org Name
+Invalid Org NIF
+Valid Org Email
+Valid Org Website
+Valid Org Phone Number
+Valid Org Address</t>
+  </si>
+  <si>
+    <t>1. Enter valid org name
+2. Enter invalid org nif
+3. Enter valid org email
+4. Enter valid org website
+5. Enter valid org phone number
+6. Enter valid org address
+7. Click register button</t>
+  </si>
+  <si>
+    <t>org name: org123
+org nif: 0123456789
+org email: org123@org123.com
+org website: org123.com
+org phone number: 911123123
+org address: rua sousa, 1, 4000-400, Porto</t>
+  </si>
+  <si>
+    <t>Message "Organization NIF invalid"</t>
+  </si>
+  <si>
+    <t>Popup Message "Organization NIF invalid"</t>
+  </si>
+  <si>
+    <t>Valid Org Name
+Valid Org NIF
+Invalid Org Email
+Valid Org Website
+Valid Org Phone Number
+Valid Org Address</t>
+  </si>
+  <si>
+    <t>1. Enter valid org name
+2. Enter valid org nif
+3. Enter invalid org email
+4. Enter valid org website
+5. Enter valid org phone number
+6. Enter valid org address
+7. Click register button</t>
+  </si>
+  <si>
+    <t>org name: org123
+org nif: 123456789
+org email: org123@org123
+org website: org123.com
+org phone number: 911123123
+org address: rua sousa, 1, 4000-400, Porto</t>
+  </si>
+  <si>
+    <t>Message "Organization email invalid"</t>
+  </si>
+  <si>
+    <t>Popup Message "Organization email invalid"</t>
+  </si>
+  <si>
+    <t>Valid Org Name
+Valid Org NIF
+Valid Org Email
+Invalid Org Website
+Valid Org Phone Number
+Valid Org Address</t>
+  </si>
+  <si>
+    <t>1. Enter valid org name
+2. Enter valid org nif
+3. Enter valid org email
+4. Enter invalid org website
+5. Enter valid org phone number
+6. Enter valid org address
+7. Click register button</t>
+  </si>
+  <si>
+    <t>org name: org123
+org nif: 123456789
+org email: org123@org123.com
+org website: org123.
+org phone number: 911123123
+org address: rua sousa, 1, 4000-400, Porto</t>
+  </si>
+  <si>
+    <t>Message "Organization website invalid"</t>
+  </si>
+  <si>
+    <t>Popup Message "Organization website invalid"</t>
+  </si>
+  <si>
+    <t>Valid Org Name
+Valid Org NIF
+Valid Org Email
+Valid Org Website
+Invalid Org Phone Number
+Valid Org Address</t>
+  </si>
+  <si>
+    <t>org name: org123
+org nif: 123456789
+org email: org123@org123.com
+org website: org123.com
+org phone number: 9ab11123123
+org address: rua sousa, 1, 4000-400, Porto</t>
+  </si>
+  <si>
+    <t>Message "Organization phone number invalid"</t>
+  </si>
+  <si>
+    <t>Popup Message "Organization phone number invalid"</t>
+  </si>
+  <si>
+    <t>Valid Org Name
+Valid Org NIF
+Valid Org Email
+Valid Org Website
+Valid Org Phone Number
+Invalid Org Address</t>
+  </si>
+  <si>
+    <t>1. Enter valid org name
+2. Enter valid org nif
+3. Enter valid org email
+4. Enter valid org website
+5. Enter valid org phone number
+6. Enter invvalid org address
+7. Click register button</t>
+  </si>
+  <si>
+    <t>org name: org123
+org nif: 123456789
+org email: org123@org123.com
+org website: org123.com
+org phone number: 911123123
+org address: rua sousa</t>
+  </si>
+  <si>
+    <t>Message "Organization address invalid"</t>
+  </si>
+  <si>
+    <t>Popup Message "Organization address number invalid"</t>
   </si>
 </sst>
 </file>
@@ -1307,10 +1525,10 @@
 
 <file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{9B64CDF4-CC92-40F1-801A-4C473A6BB3C1}">
-  <dimension ref="A1:E21"/>
+  <dimension ref="A1:J21"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A10" zoomScaleNormal="100" workbookViewId="0">
-      <selection activeCell="C14" sqref="C14"/>
+    <sheetView tabSelected="1" topLeftCell="A7" zoomScale="85" zoomScaleNormal="85" workbookViewId="0">
+      <selection activeCell="I19" sqref="I19"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15.75" x14ac:dyDescent="0.25"/>
@@ -1318,45 +1536,46 @@
     <col min="1" max="1" width="25.25" customWidth="1"/>
     <col min="2" max="2" width="25.25" style="1" customWidth="1"/>
     <col min="3" max="5" width="25.25" customWidth="1"/>
+    <col min="6" max="10" width="24.375" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="1" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A1" s="2" t="s">
         <v>0</v>
       </c>
       <c r="B1"/>
     </row>
-    <row r="2" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="2" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A2" s="2" t="s">
         <v>1</v>
       </c>
       <c r="B2"/>
     </row>
-    <row r="3" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="3" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A3" s="2" t="s">
         <v>2</v>
       </c>
       <c r="B3"/>
     </row>
-    <row r="4" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="4" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A4" s="2" t="s">
         <v>3</v>
       </c>
       <c r="B4"/>
     </row>
-    <row r="5" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="5" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A5" s="2" t="s">
         <v>4</v>
       </c>
       <c r="B5"/>
     </row>
-    <row r="6" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="6" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A6" s="2" t="s">
         <v>5</v>
       </c>
       <c r="B6"/>
     </row>
-    <row r="8" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="8" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A8" s="2" t="s">
         <v>6</v>
       </c>
@@ -1372,8 +1591,23 @@
       <c r="E8" s="1" t="s">
         <v>7</v>
       </c>
-    </row>
-    <row r="9" spans="1:5" ht="31.5" x14ac:dyDescent="0.25">
+      <c r="F8" s="1" t="s">
+        <v>7</v>
+      </c>
+      <c r="G8" s="1" t="s">
+        <v>7</v>
+      </c>
+      <c r="H8" s="1" t="s">
+        <v>7</v>
+      </c>
+      <c r="I8" s="1" t="s">
+        <v>7</v>
+      </c>
+      <c r="J8" s="1" t="s">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="9" spans="1:10" ht="94.5" x14ac:dyDescent="0.25">
       <c r="A9" s="2" t="s">
         <v>8</v>
       </c>
@@ -1389,8 +1623,23 @@
       <c r="E9" s="1" t="s">
         <v>69</v>
       </c>
-    </row>
-    <row r="10" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="F9" s="1" t="s">
+        <v>69</v>
+      </c>
+      <c r="G9" s="1" t="s">
+        <v>69</v>
+      </c>
+      <c r="H9" s="1" t="s">
+        <v>69</v>
+      </c>
+      <c r="I9" s="1" t="s">
+        <v>69</v>
+      </c>
+      <c r="J9" s="1" t="s">
+        <v>69</v>
+      </c>
+    </row>
+    <row r="10" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A10" s="2" t="s">
         <v>10</v>
       </c>
@@ -1406,8 +1655,23 @@
       <c r="E10" s="1" t="s">
         <v>73</v>
       </c>
-    </row>
-    <row r="11" spans="1:5" ht="94.5" x14ac:dyDescent="0.25">
+      <c r="F10" s="1" t="s">
+        <v>92</v>
+      </c>
+      <c r="G10" s="1" t="s">
+        <v>93</v>
+      </c>
+      <c r="H10" s="1" t="s">
+        <v>94</v>
+      </c>
+      <c r="I10" s="1" t="s">
+        <v>95</v>
+      </c>
+      <c r="J10" s="1" t="s">
+        <v>96</v>
+      </c>
+    </row>
+    <row r="11" spans="1:10" ht="94.5" x14ac:dyDescent="0.25">
       <c r="A11" s="2" t="s">
         <v>15</v>
       </c>
@@ -1415,16 +1679,31 @@
         <v>74</v>
       </c>
       <c r="C11" s="1" t="s">
+        <v>81</v>
+      </c>
+      <c r="D11" s="1" t="s">
+        <v>85</v>
+      </c>
+      <c r="E11" s="1" t="s">
         <v>79</v>
       </c>
-      <c r="D11" s="1" t="s">
-        <v>74</v>
-      </c>
-      <c r="E11" s="1" t="s">
-        <v>74</v>
-      </c>
-    </row>
-    <row r="12" spans="1:5" ht="126" x14ac:dyDescent="0.25">
+      <c r="F11" s="1" t="s">
+        <v>97</v>
+      </c>
+      <c r="G11" s="1" t="s">
+        <v>102</v>
+      </c>
+      <c r="H11" s="1" t="s">
+        <v>107</v>
+      </c>
+      <c r="I11" s="1" t="s">
+        <v>112</v>
+      </c>
+      <c r="J11" s="1" t="s">
+        <v>116</v>
+      </c>
+    </row>
+    <row r="12" spans="1:10" ht="141.75" x14ac:dyDescent="0.25">
       <c r="A12" s="2" t="s">
         <v>20</v>
       </c>
@@ -1432,16 +1711,31 @@
         <v>75</v>
       </c>
       <c r="C12" s="1" t="s">
+        <v>82</v>
+      </c>
+      <c r="D12" s="1" t="s">
+        <v>86</v>
+      </c>
+      <c r="E12" s="1" t="s">
         <v>80</v>
       </c>
-      <c r="D12" s="1" t="s">
+      <c r="F12" s="1" t="s">
+        <v>98</v>
+      </c>
+      <c r="G12" s="1" t="s">
+        <v>103</v>
+      </c>
+      <c r="H12" s="1" t="s">
+        <v>108</v>
+      </c>
+      <c r="I12" s="1" t="s">
         <v>75</v>
       </c>
-      <c r="E12" s="1" t="s">
-        <v>75</v>
-      </c>
-    </row>
-    <row r="13" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="J12" s="1" t="s">
+        <v>117</v>
+      </c>
+    </row>
+    <row r="13" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A13" s="2" t="s">
         <v>25</v>
       </c>
@@ -1457,8 +1751,23 @@
       <c r="E13" s="1" t="s">
         <v>26</v>
       </c>
-    </row>
-    <row r="14" spans="1:5" ht="141.75" x14ac:dyDescent="0.25">
+      <c r="F13" s="1" t="s">
+        <v>26</v>
+      </c>
+      <c r="G13" s="1" t="s">
+        <v>26</v>
+      </c>
+      <c r="H13" s="1" t="s">
+        <v>26</v>
+      </c>
+      <c r="I13" s="1" t="s">
+        <v>26</v>
+      </c>
+      <c r="J13" s="1" t="s">
+        <v>26</v>
+      </c>
+    </row>
+    <row r="14" spans="1:10" ht="141.75" x14ac:dyDescent="0.25">
       <c r="A14" s="2" t="s">
         <v>26</v>
       </c>
@@ -1472,10 +1781,25 @@
         <v>76</v>
       </c>
       <c r="E14" s="1" t="s">
-        <v>76</v>
-      </c>
-    </row>
-    <row r="15" spans="1:5" ht="31.5" x14ac:dyDescent="0.25">
+        <v>89</v>
+      </c>
+      <c r="F14" s="1" t="s">
+        <v>99</v>
+      </c>
+      <c r="G14" s="1" t="s">
+        <v>104</v>
+      </c>
+      <c r="H14" s="1" t="s">
+        <v>109</v>
+      </c>
+      <c r="I14" s="1" t="s">
+        <v>113</v>
+      </c>
+      <c r="J14" s="1" t="s">
+        <v>118</v>
+      </c>
+    </row>
+    <row r="15" spans="1:10" ht="31.5" x14ac:dyDescent="0.25">
       <c r="A15" s="2" t="s">
         <v>31</v>
       </c>
@@ -1483,16 +1807,31 @@
         <v>77</v>
       </c>
       <c r="C15" s="1" t="s">
-        <v>81</v>
+        <v>83</v>
       </c>
       <c r="D15" s="1" t="s">
-        <v>77</v>
+        <v>87</v>
       </c>
       <c r="E15" s="1" t="s">
-        <v>77</v>
-      </c>
-    </row>
-    <row r="16" spans="1:5" ht="31.5" x14ac:dyDescent="0.25">
+        <v>90</v>
+      </c>
+      <c r="F15" s="1" t="s">
+        <v>100</v>
+      </c>
+      <c r="G15" s="1" t="s">
+        <v>105</v>
+      </c>
+      <c r="H15" s="1" t="s">
+        <v>110</v>
+      </c>
+      <c r="I15" s="1" t="s">
+        <v>114</v>
+      </c>
+      <c r="J15" s="1" t="s">
+        <v>119</v>
+      </c>
+    </row>
+    <row r="16" spans="1:10" ht="47.25" x14ac:dyDescent="0.25">
       <c r="A16" s="2" t="s">
         <v>34</v>
       </c>
@@ -1500,22 +1839,37 @@
         <v>78</v>
       </c>
       <c r="C16" s="1" t="s">
-        <v>78</v>
+        <v>84</v>
       </c>
       <c r="D16" s="1" t="s">
-        <v>78</v>
+        <v>88</v>
       </c>
       <c r="E16" s="1" t="s">
-        <v>78</v>
-      </c>
-    </row>
-    <row r="17" spans="1:5" x14ac:dyDescent="0.25">
+        <v>91</v>
+      </c>
+      <c r="F16" s="1" t="s">
+        <v>101</v>
+      </c>
+      <c r="G16" s="1" t="s">
+        <v>106</v>
+      </c>
+      <c r="H16" s="1" t="s">
+        <v>111</v>
+      </c>
+      <c r="I16" s="1" t="s">
+        <v>115</v>
+      </c>
+      <c r="J16" s="1" t="s">
+        <v>120</v>
+      </c>
+    </row>
+    <row r="17" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A17" s="2" t="s">
         <v>37</v>
       </c>
       <c r="B17"/>
     </row>
-    <row r="18" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="18" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A18" s="2" t="s">
         <v>38</v>
       </c>
@@ -1523,26 +1877,41 @@
         <v>39</v>
       </c>
       <c r="C18" s="1" t="s">
-        <v>39</v>
+        <v>40</v>
       </c>
       <c r="D18" s="1" t="s">
-        <v>39</v>
+        <v>40</v>
       </c>
       <c r="E18" s="1" t="s">
-        <v>39</v>
-      </c>
-    </row>
-    <row r="19" spans="1:5" x14ac:dyDescent="0.25">
+        <v>40</v>
+      </c>
+      <c r="F18" s="1" t="s">
+        <v>40</v>
+      </c>
+      <c r="G18" s="1" t="s">
+        <v>40</v>
+      </c>
+      <c r="H18" s="1" t="s">
+        <v>40</v>
+      </c>
+      <c r="I18" s="1" t="s">
+        <v>40</v>
+      </c>
+      <c r="J18" s="1" t="s">
+        <v>40</v>
+      </c>
+    </row>
+    <row r="19" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A19" s="2" t="s">
         <v>41</v>
       </c>
     </row>
-    <row r="20" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="20" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A20" s="2" t="s">
         <v>42</v>
       </c>
     </row>
-    <row r="21" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="21" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A21" s="2" t="s">
         <v>43</v>
       </c>

--- a/Análise/Test Scenarios.xlsx
+++ b/Análise/Test Scenarios.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="E:\Documents\GitHub\upskill_java1_labprg_grupo3\Análise\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{4872AB33-15C1-41CE-8178-4E22558FD61E}" xr6:coauthVersionLast="46" xr6:coauthVersionMax="46" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{99E9116C-3B4B-4BA3-B0A2-4C8349539603}" xr6:coauthVersionLast="46" xr6:coauthVersionMax="46" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15840" tabRatio="993" activeTab="2" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -1607,7 +1607,7 @@
         <v>7</v>
       </c>
     </row>
-    <row r="9" spans="1:10" ht="94.5" x14ac:dyDescent="0.25">
+    <row r="9" spans="1:10" ht="31.5" x14ac:dyDescent="0.25">
       <c r="A9" s="2" t="s">
         <v>8</v>
       </c>

--- a/Análise/Test Scenarios.xlsx
+++ b/Análise/Test Scenarios.xlsx
@@ -8,16 +8,19 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="E:\Documents\GitHub\upskill_java1_labprg_grupo3\Análise\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{99E9116C-3B4B-4BA3-B0A2-4C8349539603}" xr6:coauthVersionLast="46" xr6:coauthVersionMax="46" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{A9C5BB26-98C2-4016-BC04-E87638FEE36E}" xr6:coauthVersionLast="46" xr6:coauthVersionMax="46" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15840" tabRatio="993" activeTab="2" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
-    <sheet name="Login" sheetId="1" r:id="rId1"/>
-    <sheet name="Mover ficheiro" sheetId="2" r:id="rId2"/>
-    <sheet name="UC 1 - Registar Organização" sheetId="7" r:id="rId3"/>
-    <sheet name="UC 4 - Definir Comp.Técnica" sheetId="4" r:id="rId4"/>
-    <sheet name="UC 5 - Especificar Colab.Org" sheetId="5" r:id="rId5"/>
+    <sheet name="UC 1 - Registar Organização" sheetId="7" r:id="rId1"/>
+    <sheet name="UC 2 - Definir Area Atividade" sheetId="10" r:id="rId2"/>
+    <sheet name="UC 3 - Definir Cat. Tar" sheetId="11" r:id="rId3"/>
+    <sheet name="UC 4-Especificar Comp.Técnica " sheetId="12" r:id="rId4"/>
+    <sheet name="UC 5 - Especificar Colaborador" sheetId="13" r:id="rId5"/>
+    <sheet name="UC 6 - Definir Tarefa" sheetId="14" r:id="rId6"/>
+    <sheet name="UC 7-Publicar Tarefa" sheetId="15" r:id="rId7"/>
+    <sheet name="UC 8 - Efectuar Candidatura" sheetId="16" r:id="rId8"/>
   </sheets>
   <calcPr calcId="0" iterateDelta="1E-4"/>
   <extLst>
@@ -29,7 +32,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="230" uniqueCount="121">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="582" uniqueCount="247">
   <si>
     <t>Project Name</t>
   </si>
@@ -58,106 +61,27 @@
     <t>Test Scenario Description</t>
   </si>
   <si>
-    <t>Check LOGIN functionality</t>
-  </si>
-  <si>
     <t>Test Case ID</t>
   </si>
   <si>
-    <t>TC_Login_001</t>
-  </si>
-  <si>
-    <t>TC_Login_002</t>
-  </si>
-  <si>
-    <t>TC_Login_003</t>
-  </si>
-  <si>
-    <t>TC_Login_004</t>
-  </si>
-  <si>
     <t>Test Case Description</t>
   </si>
   <si>
-    <t xml:space="preserve">Valid User
-Valid Password </t>
-  </si>
-  <si>
-    <t xml:space="preserve">Valid User
-Invalid Password </t>
-  </si>
-  <si>
-    <t xml:space="preserve">Invalid User
-Valid Password </t>
-  </si>
-  <si>
-    <t xml:space="preserve">Invalid User
-Invalid Password </t>
-  </si>
-  <si>
     <t>Test Case Steps</t>
   </si>
   <si>
-    <t>1. Enter valid username
-2. Enter valid password
-3. Click login button</t>
-  </si>
-  <si>
-    <t>1. Enter valid username
-2. Enter invalid password
-3. Click login button</t>
-  </si>
-  <si>
-    <t>1. Enter invalid username
-2. Enter valid password
-3. Click login button</t>
-  </si>
-  <si>
-    <t>1. Enter invalid username
-2. Enter invalid password
-3. Click login button</t>
-  </si>
-  <si>
     <t>Preconditions</t>
   </si>
   <si>
     <t>Test Data</t>
   </si>
   <si>
-    <t>username: a@b.pt
-password: 1234</t>
-  </si>
-  <si>
-    <t>username: a@b.pt
-password: xxxx</t>
-  </si>
-  <si>
-    <t>username: a@b.
-password: 1234</t>
-  </si>
-  <si>
-    <t>username: a@b.
-password: xxxx</t>
-  </si>
-  <si>
     <t>Post Conditions</t>
   </si>
   <si>
-    <t>The user should be able to see the homepage</t>
-  </si>
-  <si>
-    <t>Error message "invalid user or password"</t>
-  </si>
-  <si>
     <t>Expected Result</t>
   </si>
   <si>
-    <t>Successful login</t>
-  </si>
-  <si>
-    <t>Popup Message: Invalid username or password</t>
-  </si>
-  <si>
     <t>Actual Result</t>
   </si>
   <si>
@@ -177,83 +101,6 @@
   </si>
   <si>
     <t>Comments</t>
-  </si>
-  <si>
-    <t>Mover ficheiro de uma pasta para outra</t>
-  </si>
-  <si>
-    <t>TC_MoveFile_001</t>
-  </si>
-  <si>
-    <t>TC_MoveFile_002</t>
-  </si>
-  <si>
-    <t>TC_MoveFile_003</t>
-  </si>
-  <si>
-    <t>TC_MoveFile_004</t>
-  </si>
-  <si>
-    <t>Mover o ficheiro enquanto este está aberto</t>
-  </si>
-  <si>
-    <t>Não ter privilégios de escrita na pasta destino</t>
-  </si>
-  <si>
-    <t>A capacidade de espaço livre no destino é excedida</t>
-  </si>
-  <si>
-    <t>Já existe um ficheiro com esse nome na pasta destino</t>
-  </si>
-  <si>
-    <t>1. Editar ficheiro
-2. Mover ficheiro</t>
-  </si>
-  <si>
-    <t>1. Mover ficheiro</t>
-  </si>
-  <si>
-    <t>Ficheiro em edição</t>
-  </si>
-  <si>
-    <t>Retirar permissões de escrita na pasta destino</t>
-  </si>
-  <si>
-    <t>Definir quota máxima para X MB</t>
-  </si>
-  <si>
-    <t>Copiar ficheiro para c:\test</t>
-  </si>
-  <si>
-    <t>Ficheiro: c:\test.txt
-Pasta destino: c:\dest</t>
-  </si>
-  <si>
-    <t>Mensagem de erro "O ficheiro está aberto"</t>
-  </si>
-  <si>
-    <t>Mensagem de erro "Não tem permissões para executar a operação"</t>
-  </si>
-  <si>
-    <t>Mensagem de erro "Não existe espaço suficiente"</t>
-  </si>
-  <si>
-    <t>Mensagem de erro "Já existe um ficheiro com esse nome"</t>
-  </si>
-  <si>
-    <t>Popup Message: "O ficheiro está aberto"</t>
-  </si>
-  <si>
-    <t>Popup Message: "Não tem permissões para executar a operação"</t>
-  </si>
-  <si>
-    <t>Popup Message: "Não existe espaço suficiente"</t>
-  </si>
-  <si>
-    <t>Popup Message: "Já existe um ficheiro com esse nome"</t>
-  </si>
-  <si>
-    <t>Falha</t>
   </si>
   <si>
     <t>Check Registar Organização functionality</t>
@@ -539,12 +386,806 @@
   <si>
     <t>Popup Message "Organization address number invalid"</t>
   </si>
+  <si>
+    <t>Popup Message: The thorough description cannot be empty. Please complete the empty field</t>
+  </si>
+  <si>
+    <t>Popup Message: The resumed description you have entered must not contain special characters</t>
+  </si>
+  <si>
+    <t>Popup Message: The resumed description you have entered already exists</t>
+  </si>
+  <si>
+    <t>Popup Message: The unique code already exists</t>
+  </si>
+  <si>
+    <t>Popup Message: The unique code must be 6 digits long and have no special characters</t>
+  </si>
+  <si>
+    <t>Successful posting of the new activity area</t>
+  </si>
+  <si>
+    <t>Error message "invalid thorough description"</t>
+  </si>
+  <si>
+    <t>Error message "invalid resumed description"</t>
+  </si>
+  <si>
+    <t>Error message "invalid unique code"</t>
+  </si>
+  <si>
+    <t>The user should be able to see the newly created area of activity</t>
+  </si>
+  <si>
+    <t>unique code: 123456?
+Resumed Description: accounting
+Thorough Description:</t>
+  </si>
+  <si>
+    <t>unique code: 123456?
+Resumed Description: 02?accounting
+Thorough Description: tax review from company X regarding year 2020 following Y methodology</t>
+  </si>
+  <si>
+    <t>unique code: 123456?
+Resumed Description: accounting
+Thorough Description: tax review from company X regarding year 2020 following Y methodology</t>
+  </si>
+  <si>
+    <t>unique code: 123456
+Resumed Description: accounting
+Thorough Description: tax review from company X regarding year 2020 following Y methodology</t>
+  </si>
+  <si>
+    <t>1. Enter valid unique code
+2. Enter valid resumed description
+3. Enter invalid thorough description
+4. Click validate button</t>
+  </si>
+  <si>
+    <t>1. Enter valid unique code
+2. Enter invalid resumed description
+3. Enter valid thorough description
+4. Click validate button</t>
+  </si>
+  <si>
+    <t>1. Enter invalid unique code
+2. Enter valid resumed description
+3. Enter valid thorough description
+4. Click validate button</t>
+  </si>
+  <si>
+    <t>1. Enter valid unique code
+2. Enter valid resumed description
+3. Enter valid thorough description
+4. Click validate button</t>
+  </si>
+  <si>
+    <t>Valid Unique Code
+Valid Resumed Description
+Invalid Thorough Description</t>
+  </si>
+  <si>
+    <t>Valid Unique Code
+Invalid Resumed Description
+Valid Thorough Description</t>
+  </si>
+  <si>
+    <t>Invalid Unique Code
+Valid Resumed Description
+Valid Thorough Description</t>
+  </si>
+  <si>
+    <t>Valid Unique Code
+Valid Resumed Description
+Valid Thorough Description</t>
+  </si>
+  <si>
+    <t>TC_Define_006</t>
+  </si>
+  <si>
+    <t>TC_Define_005</t>
+  </si>
+  <si>
+    <t>TC_Define_004</t>
+  </si>
+  <si>
+    <t>TC_Define_003</t>
+  </si>
+  <si>
+    <t>TC_Define_002</t>
+  </si>
+  <si>
+    <t>TC_Define_001</t>
+  </si>
+  <si>
+    <t>Define Activity Area functionality</t>
+  </si>
+  <si>
+    <t>Popup Message: Invalid ...</t>
+  </si>
+  <si>
+    <t>Error message "invalid ..."</t>
+  </si>
+  <si>
+    <t>check if list of 'Technical Skill' exists</t>
+  </si>
+  <si>
+    <t>check if list of 'Activity Area' exists</t>
+  </si>
+  <si>
+    <t>1. Enter valid option
+2. Click OK button</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Valid option_list_ts
+</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Valid option_list_aa
+</t>
+  </si>
+  <si>
+    <t>TC_List_TS_002</t>
+  </si>
+  <si>
+    <t>TC_List_AA_001</t>
+  </si>
+  <si>
+    <t>Check 'Technical Skills' functionality</t>
+  </si>
+  <si>
+    <t>Check 'Activity Area' functionality</t>
+  </si>
+  <si>
+    <t>TS_003</t>
+  </si>
+  <si>
+    <t>Grupo 3 - Turma 1 - Java</t>
+  </si>
+  <si>
+    <t>User Case 3 - Definir Categoria de Tarefa</t>
+  </si>
+  <si>
+    <t>T4J</t>
+  </si>
+  <si>
+    <t>Popup Message "Invalid proficiency degrees"</t>
+  </si>
+  <si>
+    <t>Popup Message "Invalid activity area"</t>
+  </si>
+  <si>
+    <t>Message "Invalid detailed description"</t>
+  </si>
+  <si>
+    <t>Popup Message "Invalid brief description"</t>
+  </si>
+  <si>
+    <t>Popup Message "Invalid unique code"</t>
+  </si>
+  <si>
+    <t>Popup Message "Unique code already exists"</t>
+  </si>
+  <si>
+    <t>Successful register a technical skill</t>
+  </si>
+  <si>
+    <t>Message "Invalid proficiency degrees"</t>
+  </si>
+  <si>
+    <t>Message "Invalid activity area"</t>
+  </si>
+  <si>
+    <t>Message "Invalid brief description"</t>
+  </si>
+  <si>
+    <t>Message "Invalid unique code"</t>
+  </si>
+  <si>
+    <t>Message "Unique code already exists"</t>
+  </si>
+  <si>
+    <t>Message "Technical skill sucefully registered"</t>
+  </si>
+  <si>
+    <t xml:space="preserve">unique code: CP-05
+brief description: "Pintura Imóveis"
+detailed description: "Pintura interior e exterior de imóveis"
+activity area: "Construção"
+proficiency degrees: 0-##, from 0 for "really bad" to ## for "master at painting"
+</t>
+  </si>
+  <si>
+    <t xml:space="preserve">unique code: CP-04
+brief description: "Pintura Imóveis"
+detailed description: "Pintura interior e exterior de imóveis"
+activity area: "Construção###"
+proficiency degrees: 0-5, from 0 for "really bad" to 5 for "master at painting"
+</t>
+  </si>
+  <si>
+    <t xml:space="preserve">unique code: CP-03
+brief description: "Pintura Imóveis"
+detailed description: " "
+activity area: "Construção"
+proficiency degrees: 0-5, from 0 for "really bad" to 5 for "master at painting"
+</t>
+  </si>
+  <si>
+    <t xml:space="preserve">unique code: CP-02
+brief description: " "
+detailed description: "Pintura interior e exterior de imóveis"
+activity area: "Construção"
+proficiency degrees: 0-5, from 0 for "really bad" to 5 for "master at painting"
+</t>
+  </si>
+  <si>
+    <t xml:space="preserve">unique code: ###1
+brief description: "Pintura Imóveis"
+detailed description: "Pintura interior e exterior de imóveis"
+activity area: "Construção"
+proficiency degrees: 0-5, from 0 for "really bad" to 5 for "master at painting"
+</t>
+  </si>
+  <si>
+    <t xml:space="preserve">unique code: CP-01
+brief description: "Reparação Automóvel"
+detailed description: "Reparação mecánica automóvel, mecánica geral"
+activity area: "Mecánica"
+proficiency degrees: 0-5, from 0 for "really bad" to 5 for "master at mechanics"
+</t>
+  </si>
+  <si>
+    <t xml:space="preserve">unique code: CP-01
+brief description: "Pintura Imóveis"
+detailed description: "Pintura interior e exterior de imóveis"
+activity area: "Construção"
+proficiency degrees: 0-5, from 0 for "really bad" to 5 for "master at painting"
+</t>
+  </si>
+  <si>
+    <t>1. Enter valid unique code
+2. Enter valid brief description
+3. Enter valid detailed description
+4. Enter valid activity area
+5. Enter invalid proficiency degrees
+6. Click register button</t>
+  </si>
+  <si>
+    <t>1. Enter valid unique code
+2. Enter valid brief description
+3. Enter valid detailed description
+4. Enter valid activity area
+5. Enter valid proficiency degrees
+6. Click register button</t>
+  </si>
+  <si>
+    <t>1. Enter valid unique code
+2. Enter valid brief description
+3. Enter invalid detailed description
+4. Enter valid activity area
+5. Enter valid proficiency degrees
+6. Click register button</t>
+  </si>
+  <si>
+    <t>1. Enter valid unique code
+2. Enter invalid brief description
+3. Enter valid detailed description
+4. Enter valid activity area
+5. Enter valid proficiency degrees
+6. Click register button</t>
+  </si>
+  <si>
+    <t>1. Enter invalid unique code
+2. Enter valid brief description
+3. Enter valid detailed description
+4. Enter valid activity area
+5. Enter valid proficiency degrees
+6. Click register button</t>
+  </si>
+  <si>
+    <t>1. Enter an existant  unique code
+2. Enter valid brief description
+3. Enter valid detailed description
+4. Enter valid activity area
+5. Enter valid proficiency degrees
+6. Click register button</t>
+  </si>
+  <si>
+    <t>Valid unique code
+Valid brief description
+Valid detailed description
+Valid activity area
+Invalid proficiency degrees</t>
+  </si>
+  <si>
+    <t>Valid unique code
+Valid brief description
+Valid detailed description
+Invalid activity area
+Valid proficiency degrees</t>
+  </si>
+  <si>
+    <t>Valid unique code
+Valid brief description
+Invalid detailed description
+Valid activity area
+Valid proficiency degrees</t>
+  </si>
+  <si>
+    <t>Valid unique code
+Invalid brief description
+Valid detailed description
+Valid activity area
+Valid proficiency degrees</t>
+  </si>
+  <si>
+    <t>Invalid unique code
+Valid brief description
+Valid detailed description
+Valid activity area
+Valid proficiency degrees</t>
+  </si>
+  <si>
+    <t>Already existant unique code
+Valid brief description
+Valid detailed description
+Valid activity area
+Valid proficiency degrees</t>
+  </si>
+  <si>
+    <t>Valid unique code
+Valid brief description
+Valid detailed description
+Valid activity area
+Valid proficiency degrees</t>
+  </si>
+  <si>
+    <t>TC_UC4_007</t>
+  </si>
+  <si>
+    <t>TC_UC4_006</t>
+  </si>
+  <si>
+    <t>TC_UC4_005</t>
+  </si>
+  <si>
+    <t>TC_UC4_004</t>
+  </si>
+  <si>
+    <t>TC_UC4_003</t>
+  </si>
+  <si>
+    <t>TC_UC4_002</t>
+  </si>
+  <si>
+    <t>TC_UC4_001</t>
+  </si>
+  <si>
+    <t>Check "Especificar competência técnica" functionality</t>
+  </si>
+  <si>
+    <t>Popup Message "Collaborator email is invalid"</t>
+  </si>
+  <si>
+    <t>Popup Message "Collaborator name has invalid characters"</t>
+  </si>
+  <si>
+    <t>Popup Message "There's already a registered collaborator using this e-mail address"</t>
+  </si>
+  <si>
+    <t>Successful register of a collaborator</t>
+  </si>
+  <si>
+    <t>Message "Collaborator email is invalid"</t>
+  </si>
+  <si>
+    <t>Message "Collaborator name has invalid characters"</t>
+  </si>
+  <si>
+    <t>Message "There's already a registered collaborator using this e-mail address"</t>
+  </si>
+  <si>
+    <t>Message "Collaborator added, login details sent to specificed e-mail"</t>
+  </si>
+  <si>
+    <t>collaborator name: John Smith
+collaborator email: johnsmith@org123</t>
+  </si>
+  <si>
+    <t>collaborator name: ??*_D
+collaborator email: johnsmith@org123.com</t>
+  </si>
+  <si>
+    <t>collaborator name: John Smith
+collaborator email: johnsmith@org123.com</t>
+  </si>
+  <si>
+    <t>1. Enter valid collaborator name
+2. Enter invalid collaborator email
+3. Click add collaborator button</t>
+  </si>
+  <si>
+    <t>1. Enter invalid collaborator name
+2. Enter valid collaborator email
+3. Click add collaborator button</t>
+  </si>
+  <si>
+    <t>1. Enter valid collaborator name
+2. Enter already existant collaborator email
+3. Click add collaborator button</t>
+  </si>
+  <si>
+    <t>1. Enter valid collaborator name
+2. Enter valid collaborator email
+3. Click add collaborator button</t>
+  </si>
+  <si>
+    <t>Invalid collaborator email</t>
+  </si>
+  <si>
+    <t>Invalid collaborator name</t>
+  </si>
+  <si>
+    <t>Collaborator email already exists</t>
+  </si>
+  <si>
+    <t>Valid collaborator specification</t>
+  </si>
+  <si>
+    <t>TC_UC5_003</t>
+  </si>
+  <si>
+    <t>TC_UC5_002</t>
+  </si>
+  <si>
+    <t>TC_UC5_001</t>
+  </si>
+  <si>
+    <t>Check Especificar Colaborador functionality</t>
+  </si>
+  <si>
+    <t>TS_005</t>
+  </si>
+  <si>
+    <t>TS_006</t>
+  </si>
+  <si>
+    <t>Check Definir Tarefa functionality</t>
+  </si>
+  <si>
+    <t>TC_UC6_001</t>
+  </si>
+  <si>
+    <t>TC_UC6_002</t>
+  </si>
+  <si>
+    <t>TC_UC6_003</t>
+  </si>
+  <si>
+    <t>Valid task specification</t>
+  </si>
+  <si>
+    <t>1. Enter valid task name
+2. Enter valid informal description
+3. Enter valid technical description
+4. Enter valid time estimate
+5. Enter valid cost estimate
+6. Select valid task category
+7. Click specify task button</t>
+  </si>
+  <si>
+    <t xml:space="preserve">task name: create a portfolio website
+informal description: informal description
+technical description: technical description
+time estimate: 5 weeks
+cost estimate: 1000€
+task category: web developer
+</t>
+  </si>
+  <si>
+    <t>Message "Task created, awaits publishing"</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Successful creation of a task </t>
+  </si>
+  <si>
+    <t>Message "Invalid serialization scheme, must choose one"</t>
+  </si>
+  <si>
+    <t>Message "Invalid serialization period"</t>
+  </si>
+  <si>
+    <t>Message "Invalid application period"</t>
+  </si>
+  <si>
+    <t>Message "Invalid annouce period"</t>
+  </si>
+  <si>
+    <t>Message "Error: There are no taks to publish"</t>
+  </si>
+  <si>
+    <t>Successful publish a task</t>
+  </si>
+  <si>
+    <t>Message "Task successfully published"</t>
+  </si>
+  <si>
+    <t xml:space="preserve">task selected: "Reparação Carros GNR"
+announce period: "01/02/2021" to "28/02/2021"
+application period: "01/02/2021" to "28/02/2021"
+serialization period: "01/03/2021" to "15/03/2021"
+serialization scheme: </t>
+  </si>
+  <si>
+    <t>task selected: "Reparação Carros GNR"
+announce period: "01/02/2021" to "28/02/2021"
+application period: "01/02/2021" to "28/02/2021"
+serialization period: "16/03/2021" to "15/03/2021"
+serialization scheme: regular</t>
+  </si>
+  <si>
+    <t>task selected: "Reparação Carros GNR"
+announce period: "01/02/2021" to "28/02/2021"
+application period: "31/02/2021" to "28/02/2021"
+serialization period: "01/03/2021" to "15/03/2021"
+serialization scheme: regular</t>
+  </si>
+  <si>
+    <t>task selected: "Reparação Carros GNR"
+announce period: "31/02/2021" to "28/02/2021"
+application period: "01/02/2021" to "28/02/2021"
+serialization period: "01/03/2021" to "15/03/2021"
+serialization scheme: regular</t>
+  </si>
+  <si>
+    <t>No tasks to select</t>
+  </si>
+  <si>
+    <t>task selected: "Reparação Carros GNR"
+announce period: "01/02/2021" to "28/02/2021"
+application period: "01/02/2021" to "28/02/2021"
+serialization period: "01/03/2021" to "15/03/2021"
+serialization scheme: regular</t>
+  </si>
+  <si>
+    <t>1. Select task to publish
+2. Enter valid announce period
+3. Enter valid application period
+4. Enter valid serialization period
+5. Enter invalid serialization scheme
+6. Click publish button</t>
+  </si>
+  <si>
+    <t>1. Select task to publish
+2. Enter valid announce period
+3. Enter valid application period
+4. Enter invalid serialization period
+5. Enter valid serialization scheme
+6. Click publish button</t>
+  </si>
+  <si>
+    <t>1. Select task to publish
+2. Enter valid announce period
+3. Enter invalid application period
+4. Enter valid serialization period
+5. Enter valid serialization scheme
+6. Click publish button</t>
+  </si>
+  <si>
+    <t>1. Select task to publish
+2. Enter invalid announce period
+3. Enter valid application period
+4. Enter valid serialization period
+5. Enter valid serialization scheme
+6. Click publish button</t>
+  </si>
+  <si>
+    <t>1. Select task to publish
+2. Enter valid announce period
+3. Enter valid application period
+4. Enter valid serialization period
+5. Enter valid serialization scheme
+6. Click publish button</t>
+  </si>
+  <si>
+    <t>Select tasks to publish
+valid announce period
+valid application period
+valid serialization period
+valid serialization scheme</t>
+  </si>
+  <si>
+    <t>Select tasks to publish
+invalid announce period
+valid application period
+valid serialization period
+valid serialization scheme</t>
+  </si>
+  <si>
+    <t>TC_UC7_006</t>
+  </si>
+  <si>
+    <t>TC_UC7_005</t>
+  </si>
+  <si>
+    <t>TC_UC7_004</t>
+  </si>
+  <si>
+    <t>TC_UC7_003</t>
+  </si>
+  <si>
+    <t>TC_UC7_002</t>
+  </si>
+  <si>
+    <t>TC_UC7_001</t>
+  </si>
+  <si>
+    <t>Check "Publicar tarefa" functionality</t>
+  </si>
+  <si>
+    <t>Applying to Task Functionality</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Freelancer is Registered and able to sign in
+Freelancer Competences are verified
+The application is within the timeframe for the task
+Requirements for task are matched
+</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Freelancer is NOT Registered/ Cannot Sign in
+Freelancer Competences are verified
+The application is within the timeframe for the task
+Requirements for task are matched
+</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Freelancer is Registered and able to sign in
+Freelancer Competences are NOT verified
+The application is within the timeframe for the task
+Requirements for task are matched
+</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Freelancer is Registered and able to sign in
+Freelancer Competences are verified
+The application is NOT within the timeframe for the task
+Requirements for task are matched
+</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Freelancer is Registered and able to sign in
+Freelancer Competences are verified
+The application is within the timeframe for the task
+Requirements for task are NOT matched
+</t>
+  </si>
+  <si>
+    <t>1. Freelancer enters valid username and password to log in
+2. Administrative verifies Freelancers competences
+3. Application submited within the timeframe set for the task
+4. Requirements for the task matchs the Freelancer competences</t>
+  </si>
+  <si>
+    <t>1. Freelancer enters invalid username and/or password to log in
+2. Administrative verifies Freelancers competences
+3. Application submited within the timeframe set for the task
+4. Requirements for the task matchs the Freelancer competences</t>
+  </si>
+  <si>
+    <t>1. Freelancer enters valid username and password to log in
+2. Administrative does NOT approve Freelancers competences as they are untrue
+3. Application submited within the timeframe set for the task
+4. Requirements for the task matchs the Freelancer competences</t>
+  </si>
+  <si>
+    <t>1. Freelancer enters valid username and password to log in
+2. Administrative verifies Freelancers competences
+3. Application NOT submited within the timeframe set for the task
+4. Requirements for the task matchs the Freelancer competences</t>
+  </si>
+  <si>
+    <t>1. Freelancer enters valid username and password to log in
+2. Administrative verifies Freelancers competences
+3. Application submited within the timeframe set for the task
+4. Requirements for the task DO NOT match the Freelancer competences</t>
+  </si>
+  <si>
+    <t>1. Enters valid username and password
+2. enters valid competences wich are verified
+3. Application time: 09:00:00 on 01.01.2020 / Timeframe for application: 08:00:00 to 10:00:00 on 01.01.2020
+4. matching requirements:
+SQL -&gt; SQL
+English -&gt; English
+Proficient -&gt; Proficient</t>
+  </si>
+  <si>
+    <t xml:space="preserve">1. Enters invalid username and password
+</t>
+  </si>
+  <si>
+    <t>1. Enters valid username and password
+2. enters invalid competences wich are not approved</t>
+  </si>
+  <si>
+    <t xml:space="preserve">1. Enters valid username and password
+2. enters valid competences wich are verified
+3. Application time: 11:00:00 on 01.01.2020 / Timeframe for application: 08:00:00 to 10:00:00 on 01.01.2020
+</t>
+  </si>
+  <si>
+    <t>1. Enters valid username and password
+2. enters valid competences wich are verified
+3. Application time: 09:00:00 on 01.01.2020 / Timeframe for application: 08:00:00 to 10:00:00 on 01.01.2020
+4. matching requirements:
+SQL -&gt; 
+English -&gt; English
+Proficient -&gt; Proficient</t>
+  </si>
+  <si>
+    <t>The user should be able to become a candidate for the task he has applied to.</t>
+  </si>
+  <si>
+    <t>The user should not be able to become a candidate for the task he wants to apply to.</t>
+  </si>
+  <si>
+    <t>Successful application. Freelancer is now one of the candidates for the task he has applied to.</t>
+  </si>
+  <si>
+    <t>Unsuccessful application. Freelancers must be registered in Platform to be able to apply for taks.</t>
+  </si>
+  <si>
+    <t>Unsuccessful application. Freelancers must have competences validated to be able to apply for taks.</t>
+  </si>
+  <si>
+    <t>Unsuccessful application. Freelancers must apply for tasks within the timeframe set.</t>
+  </si>
+  <si>
+    <t>Unsuccessful application. Freelancers competences must match the tasks requirements to be able to apply.</t>
+  </si>
+  <si>
+    <t>Select tasks to publish
+valid announce period
+invalid application period
+valid serialization period
+valid serialization scheme</t>
+  </si>
+  <si>
+    <t>Select tasks to publish
+valid announce period
+valid application period
+invalid serialization period
+valid serialization scheme</t>
+  </si>
+  <si>
+    <t>Select tasks to publish
+valid announce period
+valid application period
+valid serialization period
+invalid serialization scheme</t>
+  </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
-  <fonts count="3" x14ac:knownFonts="1">
+  <fonts count="4" x14ac:knownFonts="1">
+    <font>
+      <sz val="12"/>
+      <color rgb="FF000000"/>
+      <name val="Calibri"/>
+      <family val="2"/>
+      <charset val="1"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color theme="1"/>
+      <name val="Calibri"/>
+      <family val="2"/>
+      <scheme val="minor"/>
+    </font>
     <font>
       <sz val="12"/>
       <color rgb="FF000000"/>
@@ -557,15 +1198,6 @@
       <color rgb="FF000000"/>
       <name val="Calibri"/>
       <family val="2"/>
-      <charset val="1"/>
-    </font>
-    <font>
-      <u/>
-      <sz val="12"/>
-      <color rgb="FF000000"/>
-      <name val="Calibri"/>
-      <family val="2"/>
-      <charset val="1"/>
     </font>
   </fonts>
   <fills count="3">
@@ -606,24 +1238,56 @@
       <diagonal/>
     </border>
   </borders>
-  <cellStyleXfs count="2">
+  <cellStyleXfs count="7">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
-    <xf numFmtId="0" fontId="1" fillId="2" borderId="1" applyProtection="0"/>
+    <xf numFmtId="0" fontId="2" fillId="2" borderId="1" applyProtection="0"/>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="0"/>
+    <xf numFmtId="0" fontId="3" fillId="2" borderId="1" applyProtection="0"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0"/>
+    <xf numFmtId="0" fontId="2" fillId="2" borderId="1" applyProtection="0"/>
   </cellStyleXfs>
-  <cellXfs count="5">
+  <cellXfs count="17">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="2" borderId="1" xfId="1" applyFont="1" applyAlignment="1" applyProtection="1"/>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="0" fillId="2" borderId="1" xfId="1" applyFont="1" applyProtection="1"/>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="2"/>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="2" applyAlignment="1">
       <alignment wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1"/>
+    <xf numFmtId="0" fontId="3" fillId="2" borderId="1" xfId="3" applyProtection="1"/>
+    <xf numFmtId="14" fontId="3" fillId="0" borderId="0" xfId="2" applyNumberFormat="1"/>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="2"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="4"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="5"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="5" applyAlignment="1">
+      <alignment wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="2" borderId="1" xfId="6" applyProtection="1"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="5" applyAlignment="1">
+      <alignment vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="5" applyAlignment="1">
+      <alignment vertical="top"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
   </cellXfs>
-  <cellStyles count="2">
+  <cellStyles count="7">
     <cellStyle name="Explanatory Text" xfId="1" builtinId="53" customBuiltin="1"/>
+    <cellStyle name="Explanatory Text 2" xfId="3" xr:uid="{C5B8460D-CF4D-4191-A1D0-5839E7D08BF9}"/>
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
+    <cellStyle name="Normal 2" xfId="2" xr:uid="{28567E4D-060C-40D8-8709-8231850AA33F}"/>
+    <cellStyle name="Normal 2 2" xfId="5" xr:uid="{D279080A-799F-40E6-B468-054841510484}"/>
+    <cellStyle name="Normal 3" xfId="4" xr:uid="{3289C431-8A80-44C7-AAF0-20A110D1168B}"/>
+    <cellStyle name="Texto Explicativo 2" xfId="6" xr:uid="{603E4701-A181-4397-927F-921D43BDE093}"/>
   </cellStyles>
   <dxfs count="0"/>
   <tableStyles count="0" defaultTableStyle="TableStyleMedium2" defaultPivotStyle="PivotStyleLight16"/>
@@ -1026,508 +1690,10 @@
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
-  <dimension ref="A1:E21"/>
-  <sheetViews>
-    <sheetView zoomScaleNormal="100" workbookViewId="0">
-      <selection activeCell="C11" sqref="C11"/>
-    </sheetView>
-  </sheetViews>
-  <sheetFormatPr defaultRowHeight="15.75" x14ac:dyDescent="0.25"/>
-  <cols>
-    <col min="1" max="1" width="23.75"/>
-    <col min="2" max="2" width="24" style="1"/>
-    <col min="3" max="5" width="24"/>
-    <col min="6" max="1025" width="10.875"/>
-  </cols>
-  <sheetData>
-    <row r="1" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A1" s="2" t="s">
-        <v>0</v>
-      </c>
-      <c r="B1"/>
-    </row>
-    <row r="2" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A2" s="2" t="s">
-        <v>1</v>
-      </c>
-      <c r="B2"/>
-    </row>
-    <row r="3" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A3" s="2" t="s">
-        <v>2</v>
-      </c>
-      <c r="B3"/>
-    </row>
-    <row r="4" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A4" s="2" t="s">
-        <v>3</v>
-      </c>
-      <c r="B4"/>
-    </row>
-    <row r="5" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A5" s="2" t="s">
-        <v>4</v>
-      </c>
-      <c r="B5"/>
-    </row>
-    <row r="6" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A6" s="2" t="s">
-        <v>5</v>
-      </c>
-      <c r="B6"/>
-    </row>
-    <row r="8" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A8" s="2" t="s">
-        <v>6</v>
-      </c>
-      <c r="B8" s="1" t="s">
-        <v>7</v>
-      </c>
-      <c r="C8" s="1" t="s">
-        <v>7</v>
-      </c>
-      <c r="D8" s="1" t="s">
-        <v>7</v>
-      </c>
-      <c r="E8" s="1" t="s">
-        <v>7</v>
-      </c>
-    </row>
-    <row r="9" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A9" s="2" t="s">
-        <v>8</v>
-      </c>
-      <c r="B9" s="1" t="s">
-        <v>9</v>
-      </c>
-      <c r="C9" s="1" t="s">
-        <v>9</v>
-      </c>
-      <c r="D9" s="1" t="s">
-        <v>9</v>
-      </c>
-      <c r="E9" s="1" t="s">
-        <v>9</v>
-      </c>
-    </row>
-    <row r="10" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A10" s="2" t="s">
-        <v>10</v>
-      </c>
-      <c r="B10" s="1" t="s">
-        <v>11</v>
-      </c>
-      <c r="C10" s="1" t="s">
-        <v>12</v>
-      </c>
-      <c r="D10" s="1" t="s">
-        <v>13</v>
-      </c>
-      <c r="E10" s="1" t="s">
-        <v>14</v>
-      </c>
-    </row>
-    <row r="11" spans="1:5" ht="31.5" x14ac:dyDescent="0.25">
-      <c r="A11" s="2" t="s">
-        <v>15</v>
-      </c>
-      <c r="B11" s="1" t="s">
-        <v>16</v>
-      </c>
-      <c r="C11" s="1" t="s">
-        <v>17</v>
-      </c>
-      <c r="D11" s="1" t="s">
-        <v>18</v>
-      </c>
-      <c r="E11" s="1" t="s">
-        <v>19</v>
-      </c>
-    </row>
-    <row r="12" spans="1:5" ht="47.25" x14ac:dyDescent="0.25">
-      <c r="A12" s="2" t="s">
-        <v>20</v>
-      </c>
-      <c r="B12" s="1" t="s">
-        <v>21</v>
-      </c>
-      <c r="C12" s="1" t="s">
-        <v>22</v>
-      </c>
-      <c r="D12" s="1" t="s">
-        <v>23</v>
-      </c>
-      <c r="E12" s="1" t="s">
-        <v>24</v>
-      </c>
-    </row>
-    <row r="13" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A13" s="2" t="s">
-        <v>25</v>
-      </c>
-      <c r="B13" s="1" t="s">
-        <v>26</v>
-      </c>
-      <c r="C13" s="1" t="s">
-        <v>26</v>
-      </c>
-      <c r="D13" s="1" t="s">
-        <v>26</v>
-      </c>
-      <c r="E13" s="1" t="s">
-        <v>26</v>
-      </c>
-    </row>
-    <row r="14" spans="1:5" ht="31.5" x14ac:dyDescent="0.25">
-      <c r="A14" s="2" t="s">
-        <v>26</v>
-      </c>
-      <c r="B14" s="1" t="s">
-        <v>27</v>
-      </c>
-      <c r="C14" s="1" t="s">
-        <v>28</v>
-      </c>
-      <c r="D14" s="3" t="s">
-        <v>29</v>
-      </c>
-      <c r="E14" s="3" t="s">
-        <v>30</v>
-      </c>
-    </row>
-    <row r="15" spans="1:5" ht="31.5" x14ac:dyDescent="0.25">
-      <c r="A15" s="2" t="s">
-        <v>31</v>
-      </c>
-      <c r="B15" s="1" t="s">
-        <v>32</v>
-      </c>
-      <c r="C15" s="1" t="s">
-        <v>33</v>
-      </c>
-      <c r="D15" s="1" t="s">
-        <v>33</v>
-      </c>
-      <c r="E15" s="1" t="s">
-        <v>33</v>
-      </c>
-    </row>
-    <row r="16" spans="1:5" ht="31.5" x14ac:dyDescent="0.25">
-      <c r="A16" s="2" t="s">
-        <v>34</v>
-      </c>
-      <c r="B16" s="1" t="s">
-        <v>35</v>
-      </c>
-      <c r="C16" s="1" t="s">
-        <v>36</v>
-      </c>
-      <c r="D16" s="1" t="s">
-        <v>36</v>
-      </c>
-      <c r="E16" s="1" t="s">
-        <v>36</v>
-      </c>
-    </row>
-    <row r="17" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A17" s="2" t="s">
-        <v>37</v>
-      </c>
-      <c r="B17"/>
-    </row>
-    <row r="18" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A18" s="2" t="s">
-        <v>38</v>
-      </c>
-      <c r="B18" s="1" t="s">
-        <v>39</v>
-      </c>
-      <c r="C18" s="1" t="s">
-        <v>40</v>
-      </c>
-      <c r="D18" s="1" t="s">
-        <v>40</v>
-      </c>
-      <c r="E18" s="1" t="s">
-        <v>40</v>
-      </c>
-    </row>
-    <row r="19" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A19" s="2" t="s">
-        <v>41</v>
-      </c>
-    </row>
-    <row r="20" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A20" s="2" t="s">
-        <v>42</v>
-      </c>
-    </row>
-    <row r="21" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A21" s="2" t="s">
-        <v>43</v>
-      </c>
-    </row>
-  </sheetData>
-  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.51180555555555496" footer="0.51180555555555496"/>
-  <pageSetup paperSize="0" scale="0" firstPageNumber="0" orientation="portrait" usePrinterDefaults="0" horizontalDpi="0" verticalDpi="0" copies="0"/>
-</worksheet>
-</file>
-
-<file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0100-000000000000}">
-  <dimension ref="A1:E21"/>
-  <sheetViews>
-    <sheetView zoomScaleNormal="100" workbookViewId="0">
-      <selection activeCell="B13" sqref="B13"/>
-    </sheetView>
-  </sheetViews>
-  <sheetFormatPr defaultRowHeight="15.75" x14ac:dyDescent="0.25"/>
-  <cols>
-    <col min="1" max="1" width="23.75"/>
-    <col min="2" max="2" width="24" style="1"/>
-    <col min="3" max="5" width="24"/>
-    <col min="6" max="1025" width="10.875"/>
-  </cols>
-  <sheetData>
-    <row r="1" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A1" s="2" t="s">
-        <v>0</v>
-      </c>
-      <c r="B1"/>
-    </row>
-    <row r="2" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A2" s="2" t="s">
-        <v>1</v>
-      </c>
-      <c r="B2"/>
-    </row>
-    <row r="3" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A3" s="2" t="s">
-        <v>2</v>
-      </c>
-      <c r="B3"/>
-    </row>
-    <row r="4" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A4" s="2" t="s">
-        <v>3</v>
-      </c>
-      <c r="B4"/>
-    </row>
-    <row r="5" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A5" s="2" t="s">
-        <v>4</v>
-      </c>
-      <c r="B5"/>
-    </row>
-    <row r="6" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A6" s="2" t="s">
-        <v>5</v>
-      </c>
-      <c r="B6"/>
-    </row>
-    <row r="8" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A8" s="2" t="s">
-        <v>6</v>
-      </c>
-      <c r="B8" s="1" t="s">
-        <v>7</v>
-      </c>
-      <c r="C8" s="1" t="s">
-        <v>7</v>
-      </c>
-      <c r="D8" s="1" t="s">
-        <v>7</v>
-      </c>
-      <c r="E8" s="1" t="s">
-        <v>7</v>
-      </c>
-    </row>
-    <row r="9" spans="1:5" ht="31.5" x14ac:dyDescent="0.25">
-      <c r="A9" s="2" t="s">
-        <v>8</v>
-      </c>
-      <c r="B9" s="1" t="s">
-        <v>44</v>
-      </c>
-      <c r="C9" s="1" t="s">
-        <v>44</v>
-      </c>
-      <c r="D9" s="1" t="s">
-        <v>44</v>
-      </c>
-      <c r="E9" s="1" t="s">
-        <v>44</v>
-      </c>
-    </row>
-    <row r="10" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A10" s="2" t="s">
-        <v>10</v>
-      </c>
-      <c r="B10" s="1" t="s">
-        <v>45</v>
-      </c>
-      <c r="C10" s="1" t="s">
-        <v>46</v>
-      </c>
-      <c r="D10" s="1" t="s">
-        <v>47</v>
-      </c>
-      <c r="E10" s="1" t="s">
-        <v>48</v>
-      </c>
-    </row>
-    <row r="11" spans="1:5" ht="31.5" x14ac:dyDescent="0.25">
-      <c r="A11" s="2" t="s">
-        <v>15</v>
-      </c>
-      <c r="B11" s="1" t="s">
-        <v>49</v>
-      </c>
-      <c r="C11" s="1" t="s">
-        <v>50</v>
-      </c>
-      <c r="D11" s="1" t="s">
-        <v>51</v>
-      </c>
-      <c r="E11" s="1" t="s">
-        <v>52</v>
-      </c>
-    </row>
-    <row r="12" spans="1:5" ht="31.5" x14ac:dyDescent="0.25">
-      <c r="A12" s="2" t="s">
-        <v>20</v>
-      </c>
-      <c r="B12" s="1" t="s">
-        <v>53</v>
-      </c>
-      <c r="C12" s="1" t="s">
-        <v>54</v>
-      </c>
-      <c r="D12" s="1" t="s">
-        <v>54</v>
-      </c>
-      <c r="E12" s="1" t="s">
-        <v>54</v>
-      </c>
-    </row>
-    <row r="13" spans="1:5" ht="31.5" x14ac:dyDescent="0.25">
-      <c r="A13" s="2" t="s">
-        <v>25</v>
-      </c>
-      <c r="B13" s="1" t="s">
-        <v>55</v>
-      </c>
-      <c r="C13" s="1" t="s">
-        <v>56</v>
-      </c>
-      <c r="D13" s="1" t="s">
-        <v>57</v>
-      </c>
-      <c r="E13" s="1" t="s">
-        <v>58</v>
-      </c>
-    </row>
-    <row r="14" spans="1:5" ht="31.5" x14ac:dyDescent="0.25">
-      <c r="A14" s="2" t="s">
-        <v>26</v>
-      </c>
-      <c r="B14" s="1" t="s">
-        <v>59</v>
-      </c>
-      <c r="C14" s="1" t="s">
-        <v>59</v>
-      </c>
-      <c r="D14" s="1" t="s">
-        <v>59</v>
-      </c>
-      <c r="E14" s="1" t="s">
-        <v>59</v>
-      </c>
-    </row>
-    <row r="15" spans="1:5" ht="47.25" x14ac:dyDescent="0.25">
-      <c r="A15" s="2" t="s">
-        <v>31</v>
-      </c>
-      <c r="B15" s="1" t="s">
-        <v>60</v>
-      </c>
-      <c r="C15" s="1" t="s">
-        <v>61</v>
-      </c>
-      <c r="D15" s="1" t="s">
-        <v>62</v>
-      </c>
-      <c r="E15" s="1" t="s">
-        <v>63</v>
-      </c>
-    </row>
-    <row r="16" spans="1:5" ht="47.25" x14ac:dyDescent="0.25">
-      <c r="A16" s="2" t="s">
-        <v>34</v>
-      </c>
-      <c r="B16" s="1" t="s">
-        <v>64</v>
-      </c>
-      <c r="C16" s="1" t="s">
-        <v>65</v>
-      </c>
-      <c r="D16" s="1" t="s">
-        <v>66</v>
-      </c>
-      <c r="E16" s="1" t="s">
-        <v>67</v>
-      </c>
-    </row>
-    <row r="17" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A17" s="2" t="s">
-        <v>37</v>
-      </c>
-      <c r="B17"/>
-    </row>
-    <row r="18" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A18" s="2" t="s">
-        <v>38</v>
-      </c>
-      <c r="B18" s="1" t="s">
-        <v>68</v>
-      </c>
-      <c r="C18" s="1" t="s">
-        <v>68</v>
-      </c>
-      <c r="D18" s="1" t="s">
-        <v>68</v>
-      </c>
-      <c r="E18" s="1" t="s">
-        <v>68</v>
-      </c>
-    </row>
-    <row r="19" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A19" s="2" t="s">
-        <v>41</v>
-      </c>
-    </row>
-    <row r="20" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A20" s="2" t="s">
-        <v>42</v>
-      </c>
-    </row>
-    <row r="21" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A21" s="2" t="s">
-        <v>43</v>
-      </c>
-    </row>
-  </sheetData>
-  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.51180555555555496" footer="0.51180555555555496"/>
-  <pageSetup paperSize="0" scale="0" firstPageNumber="0" orientation="portrait" usePrinterDefaults="0" horizontalDpi="0" verticalDpi="0" copies="0"/>
-</worksheet>
-</file>
-
-<file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{9B64CDF4-CC92-40F1-801A-4C473A6BB3C1}">
   <dimension ref="A1:J21"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A7" zoomScale="85" zoomScaleNormal="85" workbookViewId="0">
+    <sheetView topLeftCell="A7" zoomScale="85" zoomScaleNormal="85" workbookViewId="0">
       <selection activeCell="I19" sqref="I19"/>
     </sheetView>
   </sheetViews>
@@ -1612,308 +1778,308 @@
         <v>8</v>
       </c>
       <c r="B9" s="1" t="s">
-        <v>69</v>
+        <v>23</v>
       </c>
       <c r="C9" s="1" t="s">
-        <v>69</v>
+        <v>23</v>
       </c>
       <c r="D9" s="1" t="s">
-        <v>69</v>
+        <v>23</v>
       </c>
       <c r="E9" s="1" t="s">
-        <v>69</v>
+        <v>23</v>
       </c>
       <c r="F9" s="1" t="s">
-        <v>69</v>
+        <v>23</v>
       </c>
       <c r="G9" s="1" t="s">
-        <v>69</v>
+        <v>23</v>
       </c>
       <c r="H9" s="1" t="s">
-        <v>69</v>
+        <v>23</v>
       </c>
       <c r="I9" s="1" t="s">
-        <v>69</v>
+        <v>23</v>
       </c>
       <c r="J9" s="1" t="s">
-        <v>69</v>
+        <v>23</v>
       </c>
     </row>
     <row r="10" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A10" s="2" t="s">
-        <v>10</v>
+        <v>9</v>
       </c>
       <c r="B10" s="1" t="s">
-        <v>70</v>
+        <v>24</v>
       </c>
       <c r="C10" s="1" t="s">
-        <v>71</v>
+        <v>25</v>
       </c>
       <c r="D10" s="1" t="s">
-        <v>72</v>
+        <v>26</v>
       </c>
       <c r="E10" s="1" t="s">
-        <v>73</v>
+        <v>27</v>
       </c>
       <c r="F10" s="1" t="s">
-        <v>92</v>
+        <v>46</v>
       </c>
       <c r="G10" s="1" t="s">
-        <v>93</v>
+        <v>47</v>
       </c>
       <c r="H10" s="1" t="s">
-        <v>94</v>
+        <v>48</v>
       </c>
       <c r="I10" s="1" t="s">
-        <v>95</v>
+        <v>49</v>
       </c>
       <c r="J10" s="1" t="s">
-        <v>96</v>
+        <v>50</v>
       </c>
     </row>
     <row r="11" spans="1:10" ht="94.5" x14ac:dyDescent="0.25">
       <c r="A11" s="2" t="s">
-        <v>15</v>
+        <v>10</v>
       </c>
       <c r="B11" s="1" t="s">
-        <v>74</v>
+        <v>28</v>
       </c>
       <c r="C11" s="1" t="s">
-        <v>81</v>
+        <v>35</v>
       </c>
       <c r="D11" s="1" t="s">
-        <v>85</v>
+        <v>39</v>
       </c>
       <c r="E11" s="1" t="s">
-        <v>79</v>
+        <v>33</v>
       </c>
       <c r="F11" s="1" t="s">
-        <v>97</v>
+        <v>51</v>
       </c>
       <c r="G11" s="1" t="s">
-        <v>102</v>
+        <v>56</v>
       </c>
       <c r="H11" s="1" t="s">
-        <v>107</v>
+        <v>61</v>
       </c>
       <c r="I11" s="1" t="s">
-        <v>112</v>
+        <v>66</v>
       </c>
       <c r="J11" s="1" t="s">
-        <v>116</v>
+        <v>70</v>
       </c>
     </row>
     <row r="12" spans="1:10" ht="141.75" x14ac:dyDescent="0.25">
       <c r="A12" s="2" t="s">
-        <v>20</v>
+        <v>11</v>
       </c>
       <c r="B12" s="1" t="s">
-        <v>75</v>
+        <v>29</v>
       </c>
       <c r="C12" s="1" t="s">
-        <v>82</v>
+        <v>36</v>
       </c>
       <c r="D12" s="1" t="s">
-        <v>86</v>
+        <v>40</v>
       </c>
       <c r="E12" s="1" t="s">
-        <v>80</v>
+        <v>34</v>
       </c>
       <c r="F12" s="1" t="s">
-        <v>98</v>
+        <v>52</v>
       </c>
       <c r="G12" s="1" t="s">
-        <v>103</v>
+        <v>57</v>
       </c>
       <c r="H12" s="1" t="s">
-        <v>108</v>
+        <v>62</v>
       </c>
       <c r="I12" s="1" t="s">
-        <v>75</v>
+        <v>29</v>
       </c>
       <c r="J12" s="1" t="s">
-        <v>117</v>
+        <v>71</v>
       </c>
     </row>
     <row r="13" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A13" s="2" t="s">
-        <v>25</v>
+        <v>12</v>
       </c>
       <c r="B13" s="1" t="s">
-        <v>26</v>
+        <v>13</v>
       </c>
       <c r="C13" s="1" t="s">
-        <v>26</v>
+        <v>13</v>
       </c>
       <c r="D13" s="1" t="s">
-        <v>26</v>
+        <v>13</v>
       </c>
       <c r="E13" s="1" t="s">
-        <v>26</v>
+        <v>13</v>
       </c>
       <c r="F13" s="1" t="s">
-        <v>26</v>
+        <v>13</v>
       </c>
       <c r="G13" s="1" t="s">
-        <v>26</v>
+        <v>13</v>
       </c>
       <c r="H13" s="1" t="s">
-        <v>26</v>
+        <v>13</v>
       </c>
       <c r="I13" s="1" t="s">
-        <v>26</v>
+        <v>13</v>
       </c>
       <c r="J13" s="1" t="s">
-        <v>26</v>
+        <v>13</v>
       </c>
     </row>
     <row r="14" spans="1:10" ht="141.75" x14ac:dyDescent="0.25">
       <c r="A14" s="2" t="s">
-        <v>26</v>
+        <v>13</v>
       </c>
       <c r="B14" s="1" t="s">
-        <v>76</v>
+        <v>30</v>
       </c>
       <c r="C14" s="1" t="s">
-        <v>76</v>
+        <v>30</v>
       </c>
       <c r="D14" s="1" t="s">
-        <v>76</v>
+        <v>30</v>
       </c>
       <c r="E14" s="1" t="s">
-        <v>89</v>
+        <v>43</v>
       </c>
       <c r="F14" s="1" t="s">
-        <v>99</v>
+        <v>53</v>
       </c>
       <c r="G14" s="1" t="s">
-        <v>104</v>
+        <v>58</v>
       </c>
       <c r="H14" s="1" t="s">
-        <v>109</v>
+        <v>63</v>
       </c>
       <c r="I14" s="1" t="s">
-        <v>113</v>
+        <v>67</v>
       </c>
       <c r="J14" s="1" t="s">
-        <v>118</v>
+        <v>72</v>
       </c>
     </row>
     <row r="15" spans="1:10" ht="31.5" x14ac:dyDescent="0.25">
       <c r="A15" s="2" t="s">
+        <v>14</v>
+      </c>
+      <c r="B15" s="1" t="s">
         <v>31</v>
       </c>
-      <c r="B15" s="1" t="s">
-        <v>77</v>
-      </c>
       <c r="C15" s="1" t="s">
-        <v>83</v>
+        <v>37</v>
       </c>
       <c r="D15" s="1" t="s">
-        <v>87</v>
+        <v>41</v>
       </c>
       <c r="E15" s="1" t="s">
-        <v>90</v>
+        <v>44</v>
       </c>
       <c r="F15" s="1" t="s">
-        <v>100</v>
+        <v>54</v>
       </c>
       <c r="G15" s="1" t="s">
-        <v>105</v>
+        <v>59</v>
       </c>
       <c r="H15" s="1" t="s">
-        <v>110</v>
+        <v>64</v>
       </c>
       <c r="I15" s="1" t="s">
-        <v>114</v>
+        <v>68</v>
       </c>
       <c r="J15" s="1" t="s">
-        <v>119</v>
+        <v>73</v>
       </c>
     </row>
     <row r="16" spans="1:10" ht="47.25" x14ac:dyDescent="0.25">
       <c r="A16" s="2" t="s">
-        <v>34</v>
+        <v>15</v>
       </c>
       <c r="B16" s="1" t="s">
-        <v>78</v>
+        <v>32</v>
       </c>
       <c r="C16" s="1" t="s">
-        <v>84</v>
+        <v>38</v>
       </c>
       <c r="D16" s="1" t="s">
-        <v>88</v>
+        <v>42</v>
       </c>
       <c r="E16" s="1" t="s">
-        <v>91</v>
+        <v>45</v>
       </c>
       <c r="F16" s="1" t="s">
-        <v>101</v>
+        <v>55</v>
       </c>
       <c r="G16" s="1" t="s">
-        <v>106</v>
+        <v>60</v>
       </c>
       <c r="H16" s="1" t="s">
-        <v>111</v>
+        <v>65</v>
       </c>
       <c r="I16" s="1" t="s">
-        <v>115</v>
+        <v>69</v>
       </c>
       <c r="J16" s="1" t="s">
-        <v>120</v>
+        <v>74</v>
       </c>
     </row>
     <row r="17" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A17" s="2" t="s">
-        <v>37</v>
+        <v>16</v>
       </c>
       <c r="B17"/>
     </row>
     <row r="18" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A18" s="2" t="s">
-        <v>38</v>
+        <v>17</v>
       </c>
       <c r="B18" s="1" t="s">
-        <v>39</v>
+        <v>18</v>
       </c>
       <c r="C18" s="1" t="s">
-        <v>40</v>
+        <v>19</v>
       </c>
       <c r="D18" s="1" t="s">
-        <v>40</v>
+        <v>19</v>
       </c>
       <c r="E18" s="1" t="s">
-        <v>40</v>
+        <v>19</v>
       </c>
       <c r="F18" s="1" t="s">
-        <v>40</v>
+        <v>19</v>
       </c>
       <c r="G18" s="1" t="s">
-        <v>40</v>
+        <v>19</v>
       </c>
       <c r="H18" s="1" t="s">
-        <v>40</v>
+        <v>19</v>
       </c>
       <c r="I18" s="1" t="s">
-        <v>40</v>
+        <v>19</v>
       </c>
       <c r="J18" s="1" t="s">
-        <v>40</v>
+        <v>19</v>
       </c>
     </row>
     <row r="19" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A19" s="2" t="s">
-        <v>41</v>
+        <v>20</v>
       </c>
     </row>
     <row r="20" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A20" s="2" t="s">
-        <v>42</v>
+        <v>21</v>
       </c>
     </row>
     <row r="21" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A21" s="2" t="s">
-        <v>43</v>
+        <v>22</v>
       </c>
     </row>
   </sheetData>
@@ -1922,31 +2088,2226 @@
 </worksheet>
 </file>
 
+<file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{8CFC03BD-A838-4A20-B06F-8E357EB6DBB0}">
+  <dimension ref="A1:I21"/>
+  <sheetViews>
+    <sheetView topLeftCell="A7" zoomScale="90" zoomScaleNormal="90" workbookViewId="0">
+      <selection activeCell="G12" sqref="G12"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultColWidth="23.125" defaultRowHeight="15.75" x14ac:dyDescent="0.25"/>
+  <cols>
+    <col min="2" max="2" width="23.125" style="1"/>
+    <col min="5" max="6" width="25.375" customWidth="1"/>
+    <col min="7" max="7" width="23.125" customWidth="1"/>
+  </cols>
+  <sheetData>
+    <row r="1" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A1" s="3" t="s">
+        <v>0</v>
+      </c>
+      <c r="B1"/>
+    </row>
+    <row r="2" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A2" s="3" t="s">
+        <v>1</v>
+      </c>
+      <c r="B2"/>
+    </row>
+    <row r="3" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A3" s="3" t="s">
+        <v>2</v>
+      </c>
+      <c r="B3"/>
+    </row>
+    <row r="4" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A4" s="3" t="s">
+        <v>3</v>
+      </c>
+      <c r="B4"/>
+    </row>
+    <row r="5" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A5" s="3" t="s">
+        <v>4</v>
+      </c>
+      <c r="B5"/>
+    </row>
+    <row r="6" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A6" s="3" t="s">
+        <v>5</v>
+      </c>
+      <c r="B6"/>
+    </row>
+    <row r="8" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A8" s="3" t="s">
+        <v>6</v>
+      </c>
+      <c r="B8" s="1" t="s">
+        <v>7</v>
+      </c>
+      <c r="C8" s="1" t="s">
+        <v>7</v>
+      </c>
+      <c r="D8" s="1" t="s">
+        <v>7</v>
+      </c>
+      <c r="E8" s="1" t="s">
+        <v>7</v>
+      </c>
+      <c r="F8" s="1" t="s">
+        <v>7</v>
+      </c>
+      <c r="G8" s="1" t="s">
+        <v>7</v>
+      </c>
+      <c r="H8" s="1"/>
+      <c r="I8" s="1"/>
+    </row>
+    <row r="9" spans="1:9" ht="31.5" x14ac:dyDescent="0.25">
+      <c r="A9" s="3" t="s">
+        <v>8</v>
+      </c>
+      <c r="B9" s="1" t="s">
+        <v>103</v>
+      </c>
+      <c r="C9" s="1" t="s">
+        <v>103</v>
+      </c>
+      <c r="D9" s="1" t="s">
+        <v>103</v>
+      </c>
+      <c r="E9" s="1" t="s">
+        <v>103</v>
+      </c>
+      <c r="F9" s="1" t="s">
+        <v>103</v>
+      </c>
+      <c r="G9" s="1" t="s">
+        <v>103</v>
+      </c>
+      <c r="H9" s="1"/>
+      <c r="I9" s="1"/>
+    </row>
+    <row r="10" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A10" s="3" t="s">
+        <v>9</v>
+      </c>
+      <c r="B10" s="1" t="s">
+        <v>102</v>
+      </c>
+      <c r="C10" s="1" t="s">
+        <v>101</v>
+      </c>
+      <c r="D10" s="1" t="s">
+        <v>100</v>
+      </c>
+      <c r="E10" s="1" t="s">
+        <v>99</v>
+      </c>
+      <c r="F10" s="1" t="s">
+        <v>98</v>
+      </c>
+      <c r="G10" s="1" t="s">
+        <v>97</v>
+      </c>
+      <c r="H10" s="1"/>
+      <c r="I10" s="1"/>
+    </row>
+    <row r="11" spans="1:9" ht="63" x14ac:dyDescent="0.25">
+      <c r="A11" s="3" t="s">
+        <v>10</v>
+      </c>
+      <c r="B11" s="1" t="s">
+        <v>96</v>
+      </c>
+      <c r="C11" s="1" t="s">
+        <v>95</v>
+      </c>
+      <c r="D11" s="1" t="s">
+        <v>95</v>
+      </c>
+      <c r="E11" s="1" t="s">
+        <v>94</v>
+      </c>
+      <c r="F11" s="1" t="s">
+        <v>94</v>
+      </c>
+      <c r="G11" s="1" t="s">
+        <v>93</v>
+      </c>
+      <c r="H11" s="1"/>
+      <c r="I11" s="1"/>
+    </row>
+    <row r="12" spans="1:9" ht="110.25" x14ac:dyDescent="0.25">
+      <c r="A12" s="3" t="s">
+        <v>11</v>
+      </c>
+      <c r="B12" s="1" t="s">
+        <v>92</v>
+      </c>
+      <c r="C12" s="1" t="s">
+        <v>91</v>
+      </c>
+      <c r="D12" s="1" t="s">
+        <v>91</v>
+      </c>
+      <c r="E12" s="1" t="s">
+        <v>90</v>
+      </c>
+      <c r="F12" s="1" t="s">
+        <v>90</v>
+      </c>
+      <c r="G12" s="1" t="s">
+        <v>89</v>
+      </c>
+      <c r="H12" s="1"/>
+      <c r="I12" s="1"/>
+    </row>
+    <row r="13" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A13" s="3" t="s">
+        <v>12</v>
+      </c>
+      <c r="B13" s="1" t="s">
+        <v>13</v>
+      </c>
+      <c r="C13" s="1" t="s">
+        <v>13</v>
+      </c>
+      <c r="D13" s="1" t="s">
+        <v>13</v>
+      </c>
+      <c r="E13" s="1" t="s">
+        <v>13</v>
+      </c>
+      <c r="F13" s="1" t="s">
+        <v>13</v>
+      </c>
+      <c r="G13" s="1" t="s">
+        <v>13</v>
+      </c>
+      <c r="H13" s="1"/>
+      <c r="I13" s="1"/>
+    </row>
+    <row r="14" spans="1:9" ht="110.25" x14ac:dyDescent="0.25">
+      <c r="A14" s="3" t="s">
+        <v>13</v>
+      </c>
+      <c r="B14" s="1" t="s">
+        <v>88</v>
+      </c>
+      <c r="C14" s="1" t="s">
+        <v>87</v>
+      </c>
+      <c r="D14" s="1" t="s">
+        <v>88</v>
+      </c>
+      <c r="E14" s="1" t="s">
+        <v>87</v>
+      </c>
+      <c r="F14" s="1" t="s">
+        <v>86</v>
+      </c>
+      <c r="G14" s="1" t="s">
+        <v>85</v>
+      </c>
+      <c r="H14" s="1"/>
+      <c r="I14" s="1"/>
+    </row>
+    <row r="15" spans="1:9" ht="47.25" x14ac:dyDescent="0.25">
+      <c r="A15" s="3" t="s">
+        <v>14</v>
+      </c>
+      <c r="B15" s="1" t="s">
+        <v>84</v>
+      </c>
+      <c r="C15" s="1" t="s">
+        <v>83</v>
+      </c>
+      <c r="D15" s="1" t="s">
+        <v>83</v>
+      </c>
+      <c r="E15" s="1" t="s">
+        <v>82</v>
+      </c>
+      <c r="F15" s="1" t="s">
+        <v>82</v>
+      </c>
+      <c r="G15" s="1" t="s">
+        <v>81</v>
+      </c>
+      <c r="H15" s="1"/>
+      <c r="I15" s="1"/>
+    </row>
+    <row r="16" spans="1:9" ht="63" x14ac:dyDescent="0.25">
+      <c r="A16" s="3" t="s">
+        <v>15</v>
+      </c>
+      <c r="B16" s="1" t="s">
+        <v>80</v>
+      </c>
+      <c r="C16" s="1" t="s">
+        <v>79</v>
+      </c>
+      <c r="D16" s="1" t="s">
+        <v>78</v>
+      </c>
+      <c r="E16" s="1" t="s">
+        <v>77</v>
+      </c>
+      <c r="F16" s="1" t="s">
+        <v>76</v>
+      </c>
+      <c r="G16" s="1" t="s">
+        <v>75</v>
+      </c>
+      <c r="H16" s="1"/>
+      <c r="I16" s="1"/>
+    </row>
+    <row r="17" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A17" s="3" t="s">
+        <v>16</v>
+      </c>
+      <c r="B17"/>
+    </row>
+    <row r="18" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A18" s="3" t="s">
+        <v>17</v>
+      </c>
+      <c r="B18" s="1" t="s">
+        <v>18</v>
+      </c>
+      <c r="C18" s="1" t="s">
+        <v>19</v>
+      </c>
+      <c r="D18" s="1" t="s">
+        <v>19</v>
+      </c>
+      <c r="E18" s="1" t="s">
+        <v>19</v>
+      </c>
+      <c r="F18" s="1" t="s">
+        <v>19</v>
+      </c>
+      <c r="G18" s="1" t="s">
+        <v>19</v>
+      </c>
+      <c r="H18" s="1"/>
+      <c r="I18" s="1"/>
+    </row>
+    <row r="19" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A19" s="3" t="s">
+        <v>20</v>
+      </c>
+    </row>
+    <row r="20" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A20" s="3" t="s">
+        <v>21</v>
+      </c>
+    </row>
+    <row r="21" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A21" s="3" t="s">
+        <v>22</v>
+      </c>
+    </row>
+  </sheetData>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{9B3972FD-390B-49E5-8402-1C83FACCDCB5}">
+  <dimension ref="B3:F23"/>
+  <sheetViews>
+    <sheetView tabSelected="1" topLeftCell="B1" zoomScale="115" zoomScaleSheetLayoutView="100" workbookViewId="0">
+      <selection activeCell="E11" sqref="E11"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultColWidth="9" defaultRowHeight="15.75" x14ac:dyDescent="0.25"/>
+  <cols>
+    <col min="1" max="1" width="9" style="4"/>
+    <col min="2" max="5" width="27" style="4" customWidth="1"/>
+    <col min="6" max="6" width="27.125" style="4" customWidth="1"/>
+    <col min="7" max="16384" width="9" style="4"/>
+  </cols>
+  <sheetData>
+    <row r="3" spans="2:6" x14ac:dyDescent="0.25">
+      <c r="B3" s="6" t="s">
+        <v>0</v>
+      </c>
+      <c r="C3" s="4" t="s">
+        <v>118</v>
+      </c>
+    </row>
+    <row r="4" spans="2:6" x14ac:dyDescent="0.25">
+      <c r="B4" s="6" t="s">
+        <v>1</v>
+      </c>
+      <c r="C4" s="8" t="s">
+        <v>117</v>
+      </c>
+      <c r="D4" s="8"/>
+    </row>
+    <row r="5" spans="2:6" x14ac:dyDescent="0.25">
+      <c r="B5" s="6" t="s">
+        <v>2</v>
+      </c>
+      <c r="C5" s="4" t="s">
+        <v>116</v>
+      </c>
+    </row>
+    <row r="6" spans="2:6" x14ac:dyDescent="0.25">
+      <c r="B6" s="6" t="s">
+        <v>3</v>
+      </c>
+      <c r="C6" s="7">
+        <v>44221</v>
+      </c>
+    </row>
+    <row r="7" spans="2:6" x14ac:dyDescent="0.25">
+      <c r="B7" s="6" t="s">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="8" spans="2:6" x14ac:dyDescent="0.25">
+      <c r="B8" s="6" t="s">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="9" spans="2:6" x14ac:dyDescent="0.25">
+      <c r="C9" s="5"/>
+    </row>
+    <row r="10" spans="2:6" x14ac:dyDescent="0.25">
+      <c r="B10" s="6" t="s">
+        <v>6</v>
+      </c>
+      <c r="C10" s="5" t="s">
+        <v>115</v>
+      </c>
+      <c r="D10" s="5" t="s">
+        <v>115</v>
+      </c>
+      <c r="E10" s="5" t="s">
+        <v>115</v>
+      </c>
+      <c r="F10" s="5" t="s">
+        <v>115</v>
+      </c>
+    </row>
+    <row r="11" spans="2:6" ht="31.5" x14ac:dyDescent="0.25">
+      <c r="B11" s="6" t="s">
+        <v>8</v>
+      </c>
+      <c r="C11" s="5" t="s">
+        <v>114</v>
+      </c>
+      <c r="D11" s="5" t="s">
+        <v>113</v>
+      </c>
+      <c r="E11" s="5"/>
+      <c r="F11" s="5"/>
+    </row>
+    <row r="12" spans="2:6" x14ac:dyDescent="0.25">
+      <c r="B12" s="6" t="s">
+        <v>9</v>
+      </c>
+      <c r="C12" s="5" t="s">
+        <v>112</v>
+      </c>
+      <c r="D12" s="5" t="s">
+        <v>111</v>
+      </c>
+      <c r="E12" s="5"/>
+      <c r="F12" s="5"/>
+    </row>
+    <row r="13" spans="2:6" ht="31.5" x14ac:dyDescent="0.25">
+      <c r="B13" s="6" t="s">
+        <v>10</v>
+      </c>
+      <c r="C13" s="5" t="s">
+        <v>110</v>
+      </c>
+      <c r="D13" s="5" t="s">
+        <v>109</v>
+      </c>
+      <c r="E13" s="5"/>
+      <c r="F13" s="5"/>
+    </row>
+    <row r="14" spans="2:6" ht="31.5" x14ac:dyDescent="0.25">
+      <c r="B14" s="6" t="s">
+        <v>11</v>
+      </c>
+      <c r="C14" s="5" t="s">
+        <v>108</v>
+      </c>
+      <c r="D14" s="5" t="s">
+        <v>108</v>
+      </c>
+      <c r="E14" s="5"/>
+      <c r="F14" s="5"/>
+    </row>
+    <row r="15" spans="2:6" x14ac:dyDescent="0.25">
+      <c r="B15" s="6" t="s">
+        <v>12</v>
+      </c>
+      <c r="C15" s="5" t="s">
+        <v>13</v>
+      </c>
+      <c r="D15" s="5" t="s">
+        <v>13</v>
+      </c>
+      <c r="E15" s="5" t="s">
+        <v>13</v>
+      </c>
+      <c r="F15" s="5" t="s">
+        <v>13</v>
+      </c>
+    </row>
+    <row r="16" spans="2:6" ht="31.5" x14ac:dyDescent="0.25">
+      <c r="B16" s="6" t="s">
+        <v>13</v>
+      </c>
+      <c r="C16" s="5" t="s">
+        <v>107</v>
+      </c>
+      <c r="D16" s="5" t="s">
+        <v>106</v>
+      </c>
+      <c r="E16" s="5"/>
+      <c r="F16" s="5"/>
+    </row>
+    <row r="17" spans="2:6" x14ac:dyDescent="0.25">
+      <c r="B17" s="6" t="s">
+        <v>14</v>
+      </c>
+      <c r="C17" s="5"/>
+      <c r="D17" s="5" t="s">
+        <v>105</v>
+      </c>
+      <c r="E17" s="5" t="s">
+        <v>105</v>
+      </c>
+      <c r="F17" s="5" t="s">
+        <v>105</v>
+      </c>
+    </row>
+    <row r="18" spans="2:6" x14ac:dyDescent="0.25">
+      <c r="B18" s="6" t="s">
+        <v>15</v>
+      </c>
+      <c r="C18" s="5"/>
+      <c r="D18" s="5"/>
+      <c r="E18" s="5" t="s">
+        <v>104</v>
+      </c>
+      <c r="F18" s="5" t="s">
+        <v>104</v>
+      </c>
+    </row>
+    <row r="19" spans="2:6" x14ac:dyDescent="0.25">
+      <c r="B19" s="6" t="s">
+        <v>16</v>
+      </c>
+    </row>
+    <row r="20" spans="2:6" x14ac:dyDescent="0.25">
+      <c r="B20" s="6" t="s">
+        <v>17</v>
+      </c>
+      <c r="C20" s="5" t="s">
+        <v>18</v>
+      </c>
+      <c r="D20" s="5"/>
+      <c r="E20" s="5"/>
+      <c r="F20" s="5"/>
+    </row>
+    <row r="21" spans="2:6" x14ac:dyDescent="0.25">
+      <c r="B21" s="6" t="s">
+        <v>20</v>
+      </c>
+      <c r="C21" s="5"/>
+    </row>
+    <row r="22" spans="2:6" x14ac:dyDescent="0.25">
+      <c r="B22" s="6" t="s">
+        <v>21</v>
+      </c>
+      <c r="C22" s="5"/>
+    </row>
+    <row r="23" spans="2:6" x14ac:dyDescent="0.25">
+      <c r="B23" s="6" t="s">
+        <v>22</v>
+      </c>
+      <c r="C23" s="5"/>
+    </row>
+  </sheetData>
+  <mergeCells count="1">
+    <mergeCell ref="C4:D4"/>
+  </mergeCells>
+  <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
+</worksheet>
+</file>
+
 <file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0300-000000000000}">
-  <dimension ref="A1"/>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{875D30BB-BDEF-4D64-AAE8-D6A6527966A1}">
+  <dimension ref="A1:H21"/>
   <sheetViews>
-    <sheetView workbookViewId="0"/>
+    <sheetView topLeftCell="A7" workbookViewId="0">
+      <selection activeCell="H14" sqref="H14"/>
+    </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="15.75" x14ac:dyDescent="0.25"/>
-  <sheetData/>
+  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <cols>
+    <col min="1" max="1" width="23.875" style="9" customWidth="1"/>
+    <col min="2" max="3" width="24.125" style="9" customWidth="1"/>
+    <col min="4" max="5" width="23.875" style="9" customWidth="1"/>
+    <col min="6" max="7" width="24" style="9" customWidth="1"/>
+    <col min="8" max="8" width="24.125" style="9" customWidth="1"/>
+    <col min="9" max="16384" width="9" style="9"/>
+  </cols>
+  <sheetData>
+    <row r="1" spans="1:8" ht="15.75" x14ac:dyDescent="0.25">
+      <c r="A1" s="12" t="s">
+        <v>0</v>
+      </c>
+      <c r="B1" s="10"/>
+      <c r="C1" s="10"/>
+      <c r="D1" s="10"/>
+      <c r="E1" s="10"/>
+      <c r="F1" s="10"/>
+      <c r="G1" s="10"/>
+      <c r="H1" s="10"/>
+    </row>
+    <row r="2" spans="1:8" ht="15.75" x14ac:dyDescent="0.25">
+      <c r="A2" s="12" t="s">
+        <v>1</v>
+      </c>
+      <c r="B2" s="10"/>
+      <c r="C2" s="10"/>
+      <c r="D2" s="10"/>
+      <c r="E2" s="10"/>
+      <c r="F2" s="10"/>
+      <c r="G2" s="10"/>
+      <c r="H2" s="10"/>
+    </row>
+    <row r="3" spans="1:8" ht="15.75" x14ac:dyDescent="0.25">
+      <c r="A3" s="12" t="s">
+        <v>2</v>
+      </c>
+      <c r="B3" s="10"/>
+      <c r="C3" s="10"/>
+      <c r="D3" s="10"/>
+      <c r="E3" s="10"/>
+      <c r="F3" s="10"/>
+      <c r="G3" s="10"/>
+      <c r="H3" s="10"/>
+    </row>
+    <row r="4" spans="1:8" ht="15.75" x14ac:dyDescent="0.25">
+      <c r="A4" s="12" t="s">
+        <v>3</v>
+      </c>
+      <c r="B4" s="10"/>
+      <c r="C4" s="10"/>
+      <c r="D4" s="10"/>
+      <c r="E4" s="10"/>
+      <c r="F4" s="10"/>
+      <c r="G4" s="10"/>
+      <c r="H4" s="10"/>
+    </row>
+    <row r="5" spans="1:8" ht="15.75" x14ac:dyDescent="0.25">
+      <c r="A5" s="12" t="s">
+        <v>4</v>
+      </c>
+      <c r="B5" s="10"/>
+      <c r="C5" s="10"/>
+      <c r="D5" s="10"/>
+      <c r="E5" s="10"/>
+      <c r="F5" s="10"/>
+      <c r="G5" s="10"/>
+      <c r="H5" s="10"/>
+    </row>
+    <row r="6" spans="1:8" ht="15.75" x14ac:dyDescent="0.25">
+      <c r="A6" s="12" t="s">
+        <v>5</v>
+      </c>
+      <c r="B6" s="10"/>
+      <c r="C6" s="10"/>
+      <c r="D6" s="10"/>
+      <c r="E6" s="10"/>
+      <c r="F6" s="10"/>
+      <c r="G6" s="10"/>
+      <c r="H6" s="10"/>
+    </row>
+    <row r="7" spans="1:8" ht="15.75" x14ac:dyDescent="0.25">
+      <c r="A7" s="10"/>
+      <c r="B7" s="11"/>
+      <c r="C7" s="10"/>
+      <c r="D7" s="10"/>
+      <c r="E7" s="10"/>
+      <c r="F7" s="10"/>
+      <c r="G7" s="10"/>
+      <c r="H7" s="10"/>
+    </row>
+    <row r="8" spans="1:8" ht="15.75" x14ac:dyDescent="0.25">
+      <c r="A8" s="12" t="s">
+        <v>6</v>
+      </c>
+      <c r="B8" s="11" t="s">
+        <v>7</v>
+      </c>
+      <c r="C8" s="11" t="s">
+        <v>7</v>
+      </c>
+      <c r="D8" s="11" t="s">
+        <v>7</v>
+      </c>
+      <c r="E8" s="11" t="s">
+        <v>7</v>
+      </c>
+      <c r="F8" s="11" t="s">
+        <v>7</v>
+      </c>
+      <c r="G8" s="11" t="s">
+        <v>7</v>
+      </c>
+      <c r="H8" s="11" t="s">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="9" spans="1:8" ht="51.75" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A9" s="12" t="s">
+        <v>8</v>
+      </c>
+      <c r="B9" s="11" t="s">
+        <v>159</v>
+      </c>
+      <c r="C9" s="11" t="s">
+        <v>159</v>
+      </c>
+      <c r="D9" s="11" t="s">
+        <v>159</v>
+      </c>
+      <c r="E9" s="11" t="s">
+        <v>159</v>
+      </c>
+      <c r="F9" s="11" t="s">
+        <v>159</v>
+      </c>
+      <c r="G9" s="11" t="s">
+        <v>159</v>
+      </c>
+      <c r="H9" s="11" t="s">
+        <v>159</v>
+      </c>
+    </row>
+    <row r="10" spans="1:8" ht="15.75" x14ac:dyDescent="0.25">
+      <c r="A10" s="12" t="s">
+        <v>9</v>
+      </c>
+      <c r="B10" s="11" t="s">
+        <v>158</v>
+      </c>
+      <c r="C10" s="11" t="s">
+        <v>157</v>
+      </c>
+      <c r="D10" s="11" t="s">
+        <v>156</v>
+      </c>
+      <c r="E10" s="11" t="s">
+        <v>155</v>
+      </c>
+      <c r="F10" s="11" t="s">
+        <v>154</v>
+      </c>
+      <c r="G10" s="11" t="s">
+        <v>153</v>
+      </c>
+      <c r="H10" s="11" t="s">
+        <v>152</v>
+      </c>
+    </row>
+    <row r="11" spans="1:8" ht="100.5" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A11" s="12" t="s">
+        <v>10</v>
+      </c>
+      <c r="B11" s="13" t="s">
+        <v>151</v>
+      </c>
+      <c r="C11" s="13" t="s">
+        <v>150</v>
+      </c>
+      <c r="D11" s="13" t="s">
+        <v>149</v>
+      </c>
+      <c r="E11" s="13" t="s">
+        <v>148</v>
+      </c>
+      <c r="F11" s="13" t="s">
+        <v>147</v>
+      </c>
+      <c r="G11" s="13" t="s">
+        <v>146</v>
+      </c>
+      <c r="H11" s="13" t="s">
+        <v>145</v>
+      </c>
+    </row>
+    <row r="12" spans="1:8" ht="168" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A12" s="12" t="s">
+        <v>11</v>
+      </c>
+      <c r="B12" s="13" t="s">
+        <v>140</v>
+      </c>
+      <c r="C12" s="13" t="s">
+        <v>144</v>
+      </c>
+      <c r="D12" s="13" t="s">
+        <v>143</v>
+      </c>
+      <c r="E12" s="13" t="s">
+        <v>142</v>
+      </c>
+      <c r="F12" s="13" t="s">
+        <v>141</v>
+      </c>
+      <c r="G12" s="13" t="s">
+        <v>140</v>
+      </c>
+      <c r="H12" s="13" t="s">
+        <v>139</v>
+      </c>
+    </row>
+    <row r="13" spans="1:8" ht="18" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A13" s="12" t="s">
+        <v>12</v>
+      </c>
+      <c r="B13" s="13" t="s">
+        <v>13</v>
+      </c>
+      <c r="C13" s="13" t="s">
+        <v>13</v>
+      </c>
+      <c r="D13" s="13" t="s">
+        <v>13</v>
+      </c>
+      <c r="E13" s="13" t="s">
+        <v>13</v>
+      </c>
+      <c r="F13" s="13" t="s">
+        <v>13</v>
+      </c>
+      <c r="G13" s="13" t="s">
+        <v>13</v>
+      </c>
+      <c r="H13" s="13" t="s">
+        <v>13</v>
+      </c>
+    </row>
+    <row r="14" spans="1:8" ht="179.25" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A14" s="12" t="s">
+        <v>13</v>
+      </c>
+      <c r="B14" s="13" t="s">
+        <v>138</v>
+      </c>
+      <c r="C14" s="13" t="s">
+        <v>137</v>
+      </c>
+      <c r="D14" s="13" t="s">
+        <v>136</v>
+      </c>
+      <c r="E14" s="13" t="s">
+        <v>135</v>
+      </c>
+      <c r="F14" s="13" t="s">
+        <v>134</v>
+      </c>
+      <c r="G14" s="13" t="s">
+        <v>133</v>
+      </c>
+      <c r="H14" s="13" t="s">
+        <v>132</v>
+      </c>
+    </row>
+    <row r="15" spans="1:8" ht="32.25" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A15" s="12" t="s">
+        <v>14</v>
+      </c>
+      <c r="B15" s="13" t="s">
+        <v>131</v>
+      </c>
+      <c r="C15" s="13" t="s">
+        <v>130</v>
+      </c>
+      <c r="D15" s="13" t="s">
+        <v>129</v>
+      </c>
+      <c r="E15" s="13" t="s">
+        <v>128</v>
+      </c>
+      <c r="F15" s="13" t="s">
+        <v>121</v>
+      </c>
+      <c r="G15" s="13" t="s">
+        <v>127</v>
+      </c>
+      <c r="H15" s="13" t="s">
+        <v>126</v>
+      </c>
+    </row>
+    <row r="16" spans="1:8" ht="34.5" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A16" s="12" t="s">
+        <v>15</v>
+      </c>
+      <c r="B16" s="13" t="s">
+        <v>125</v>
+      </c>
+      <c r="C16" s="13" t="s">
+        <v>124</v>
+      </c>
+      <c r="D16" s="13" t="s">
+        <v>123</v>
+      </c>
+      <c r="E16" s="13" t="s">
+        <v>122</v>
+      </c>
+      <c r="F16" s="13" t="s">
+        <v>121</v>
+      </c>
+      <c r="G16" s="13" t="s">
+        <v>120</v>
+      </c>
+      <c r="H16" s="13" t="s">
+        <v>119</v>
+      </c>
+    </row>
+    <row r="17" spans="1:8" ht="15.75" x14ac:dyDescent="0.25">
+      <c r="A17" s="12" t="s">
+        <v>16</v>
+      </c>
+      <c r="B17" s="14"/>
+      <c r="C17" s="14"/>
+      <c r="D17" s="14"/>
+      <c r="E17" s="14"/>
+      <c r="F17" s="14"/>
+      <c r="G17" s="14"/>
+      <c r="H17" s="14"/>
+    </row>
+    <row r="18" spans="1:8" ht="15.75" x14ac:dyDescent="0.25">
+      <c r="A18" s="12" t="s">
+        <v>17</v>
+      </c>
+      <c r="B18" s="13" t="s">
+        <v>18</v>
+      </c>
+      <c r="C18" s="13" t="s">
+        <v>19</v>
+      </c>
+      <c r="D18" s="13" t="s">
+        <v>19</v>
+      </c>
+      <c r="E18" s="13" t="s">
+        <v>19</v>
+      </c>
+      <c r="F18" s="13" t="s">
+        <v>19</v>
+      </c>
+      <c r="G18" s="13" t="s">
+        <v>19</v>
+      </c>
+      <c r="H18" s="13" t="s">
+        <v>19</v>
+      </c>
+    </row>
+    <row r="19" spans="1:8" ht="15.75" x14ac:dyDescent="0.25">
+      <c r="A19" s="12" t="s">
+        <v>20</v>
+      </c>
+      <c r="B19" s="11"/>
+      <c r="C19" s="10"/>
+      <c r="D19" s="10"/>
+      <c r="E19" s="10"/>
+    </row>
+    <row r="20" spans="1:8" ht="15.75" x14ac:dyDescent="0.25">
+      <c r="A20" s="12" t="s">
+        <v>21</v>
+      </c>
+      <c r="B20" s="11"/>
+      <c r="C20" s="10"/>
+      <c r="D20" s="10"/>
+      <c r="E20" s="10"/>
+    </row>
+    <row r="21" spans="1:8" ht="15.75" x14ac:dyDescent="0.25">
+      <c r="A21" s="12" t="s">
+        <v>22</v>
+      </c>
+      <c r="B21" s="11"/>
+      <c r="C21" s="10"/>
+      <c r="D21" s="10"/>
+      <c r="E21" s="10"/>
+    </row>
+  </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>
 </file>
 
 <file path=xl/worksheets/sheet5.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0400-000000000000}">
-  <dimension ref="A1"/>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{1891541E-5F5A-45B5-8B11-10F4D877D44A}">
+  <dimension ref="A1:J21"/>
   <sheetViews>
-    <sheetView workbookViewId="0"/>
+    <sheetView topLeftCell="A4" zoomScale="85" zoomScaleNormal="85" workbookViewId="0">
+      <selection activeCell="F23" sqref="F23"/>
+    </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15.75" x14ac:dyDescent="0.25"/>
+  <cols>
+    <col min="1" max="1" width="25.25" customWidth="1"/>
+    <col min="2" max="2" width="25.25" style="1" customWidth="1"/>
+    <col min="3" max="5" width="25.25" customWidth="1"/>
+    <col min="6" max="10" width="24.375" customWidth="1"/>
+  </cols>
   <sheetData>
-    <row r="1" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A1" s="4"/>
+    <row r="1" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="A1" s="3" t="s">
+        <v>0</v>
+      </c>
+      <c r="B1"/>
+    </row>
+    <row r="2" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="A2" s="3" t="s">
+        <v>1</v>
+      </c>
+      <c r="B2"/>
+    </row>
+    <row r="3" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="A3" s="3" t="s">
+        <v>2</v>
+      </c>
+      <c r="B3"/>
+    </row>
+    <row r="4" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="A4" s="3" t="s">
+        <v>3</v>
+      </c>
+      <c r="B4"/>
+    </row>
+    <row r="5" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="A5" s="3" t="s">
+        <v>4</v>
+      </c>
+      <c r="B5"/>
+    </row>
+    <row r="6" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="A6" s="3" t="s">
+        <v>5</v>
+      </c>
+      <c r="B6"/>
+    </row>
+    <row r="8" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="A8" s="3" t="s">
+        <v>6</v>
+      </c>
+      <c r="B8" s="1" t="s">
+        <v>183</v>
+      </c>
+      <c r="C8" s="1" t="s">
+        <v>183</v>
+      </c>
+      <c r="D8" s="1" t="s">
+        <v>183</v>
+      </c>
+      <c r="E8" s="1" t="s">
+        <v>183</v>
+      </c>
+      <c r="F8" s="1"/>
+      <c r="G8" s="1"/>
+      <c r="H8" s="1"/>
+      <c r="I8" s="1"/>
+      <c r="J8" s="1"/>
+    </row>
+    <row r="9" spans="1:10" ht="31.5" x14ac:dyDescent="0.25">
+      <c r="A9" s="3" t="s">
+        <v>8</v>
+      </c>
+      <c r="B9" s="1" t="s">
+        <v>182</v>
+      </c>
+      <c r="C9" s="1" t="s">
+        <v>182</v>
+      </c>
+      <c r="D9" s="1" t="s">
+        <v>182</v>
+      </c>
+      <c r="E9" s="1" t="s">
+        <v>182</v>
+      </c>
+      <c r="F9" s="1"/>
+      <c r="G9" s="1"/>
+      <c r="H9" s="1"/>
+      <c r="I9" s="1"/>
+      <c r="J9" s="1"/>
+    </row>
+    <row r="10" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="A10" s="3" t="s">
+        <v>9</v>
+      </c>
+      <c r="B10" s="1" t="s">
+        <v>181</v>
+      </c>
+      <c r="C10" s="1" t="s">
+        <v>180</v>
+      </c>
+      <c r="D10" s="1" t="s">
+        <v>179</v>
+      </c>
+      <c r="E10" s="1" t="s">
+        <v>179</v>
+      </c>
+      <c r="F10" s="1"/>
+      <c r="G10" s="1"/>
+      <c r="H10" s="1"/>
+      <c r="I10" s="1"/>
+      <c r="J10" s="1"/>
+    </row>
+    <row r="11" spans="1:10" ht="31.5" x14ac:dyDescent="0.25">
+      <c r="A11" s="3" t="s">
+        <v>10</v>
+      </c>
+      <c r="B11" s="1" t="s">
+        <v>178</v>
+      </c>
+      <c r="C11" s="1" t="s">
+        <v>177</v>
+      </c>
+      <c r="D11" s="1" t="s">
+        <v>176</v>
+      </c>
+      <c r="E11" s="1" t="s">
+        <v>175</v>
+      </c>
+      <c r="F11" s="1"/>
+      <c r="G11" s="1"/>
+      <c r="H11" s="1"/>
+      <c r="I11" s="1"/>
+      <c r="J11" s="1"/>
+    </row>
+    <row r="12" spans="1:10" ht="94.5" x14ac:dyDescent="0.25">
+      <c r="A12" s="3" t="s">
+        <v>11</v>
+      </c>
+      <c r="B12" s="1" t="s">
+        <v>174</v>
+      </c>
+      <c r="C12" s="1" t="s">
+        <v>173</v>
+      </c>
+      <c r="D12" s="1" t="s">
+        <v>172</v>
+      </c>
+      <c r="E12" s="1" t="s">
+        <v>171</v>
+      </c>
+      <c r="F12" s="1"/>
+      <c r="G12" s="1"/>
+      <c r="H12" s="1"/>
+      <c r="I12" s="1"/>
+      <c r="J12" s="1"/>
+    </row>
+    <row r="13" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="A13" s="3" t="s">
+        <v>12</v>
+      </c>
+      <c r="B13" s="1" t="s">
+        <v>13</v>
+      </c>
+      <c r="C13" s="1" t="s">
+        <v>13</v>
+      </c>
+      <c r="D13" s="1" t="s">
+        <v>13</v>
+      </c>
+      <c r="E13" s="1" t="s">
+        <v>13</v>
+      </c>
+      <c r="F13" s="1"/>
+      <c r="G13" s="1"/>
+      <c r="H13" s="1"/>
+      <c r="I13" s="1"/>
+      <c r="J13" s="1"/>
+    </row>
+    <row r="14" spans="1:10" ht="63" x14ac:dyDescent="0.25">
+      <c r="A14" s="3" t="s">
+        <v>13</v>
+      </c>
+      <c r="B14" s="1" t="s">
+        <v>170</v>
+      </c>
+      <c r="C14" s="1" t="s">
+        <v>170</v>
+      </c>
+      <c r="D14" s="1" t="s">
+        <v>169</v>
+      </c>
+      <c r="E14" s="1" t="s">
+        <v>168</v>
+      </c>
+      <c r="F14" s="1"/>
+      <c r="G14" s="1"/>
+      <c r="H14" s="1"/>
+      <c r="I14" s="1"/>
+      <c r="J14" s="1"/>
+    </row>
+    <row r="15" spans="1:10" ht="47.25" x14ac:dyDescent="0.25">
+      <c r="A15" s="3" t="s">
+        <v>14</v>
+      </c>
+      <c r="B15" s="1" t="s">
+        <v>167</v>
+      </c>
+      <c r="C15" s="1" t="s">
+        <v>166</v>
+      </c>
+      <c r="D15" s="1" t="s">
+        <v>165</v>
+      </c>
+      <c r="E15" s="1" t="s">
+        <v>164</v>
+      </c>
+      <c r="F15" s="1"/>
+      <c r="G15" s="1"/>
+      <c r="H15" s="1"/>
+      <c r="I15" s="1"/>
+      <c r="J15" s="1"/>
+    </row>
+    <row r="16" spans="1:10" ht="63" x14ac:dyDescent="0.25">
+      <c r="A16" s="3" t="s">
+        <v>15</v>
+      </c>
+      <c r="B16" s="1" t="s">
+        <v>163</v>
+      </c>
+      <c r="C16" s="1" t="s">
+        <v>162</v>
+      </c>
+      <c r="D16" s="1" t="s">
+        <v>161</v>
+      </c>
+      <c r="E16" s="1" t="s">
+        <v>160</v>
+      </c>
+      <c r="F16" s="1"/>
+      <c r="G16" s="1"/>
+      <c r="H16" s="1"/>
+      <c r="I16" s="1"/>
+      <c r="J16" s="1"/>
+    </row>
+    <row r="17" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="A17" s="3" t="s">
+        <v>16</v>
+      </c>
+      <c r="B17"/>
+    </row>
+    <row r="18" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="A18" s="3" t="s">
+        <v>17</v>
+      </c>
+      <c r="B18" s="1" t="s">
+        <v>18</v>
+      </c>
+      <c r="C18" s="1" t="s">
+        <v>19</v>
+      </c>
+      <c r="D18" s="1" t="s">
+        <v>19</v>
+      </c>
+      <c r="E18" s="1" t="s">
+        <v>19</v>
+      </c>
+      <c r="F18" s="1"/>
+      <c r="G18" s="1"/>
+      <c r="H18" s="1"/>
+      <c r="I18" s="1"/>
+      <c r="J18" s="1"/>
+    </row>
+    <row r="19" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="A19" s="3" t="s">
+        <v>20</v>
+      </c>
+    </row>
+    <row r="20" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="A20" s="3" t="s">
+        <v>21</v>
+      </c>
+    </row>
+    <row r="21" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="A21" s="3" t="s">
+        <v>22</v>
+      </c>
+    </row>
+  </sheetData>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.51180555555555496" footer="0.51180555555555496"/>
+  <pageSetup paperSize="0" scale="0" firstPageNumber="0" orientation="portrait" usePrinterDefaults="0" horizontalDpi="0" verticalDpi="0" copies="0"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet6.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{20AA0D83-B628-40B7-964D-A6130CD7C40B}">
+  <dimension ref="A1:J21"/>
+  <sheetViews>
+    <sheetView topLeftCell="A7" zoomScale="85" zoomScaleNormal="85" workbookViewId="0">
+      <selection activeCell="E14" sqref="E14"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="15.75" x14ac:dyDescent="0.25"/>
+  <cols>
+    <col min="1" max="1" width="25.25" customWidth="1"/>
+    <col min="2" max="2" width="25.25" style="1" customWidth="1"/>
+    <col min="3" max="5" width="25.25" customWidth="1"/>
+    <col min="6" max="10" width="24.375" customWidth="1"/>
+  </cols>
+  <sheetData>
+    <row r="1" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="A1" s="3" t="s">
+        <v>0</v>
+      </c>
+      <c r="B1"/>
+    </row>
+    <row r="2" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="A2" s="3" t="s">
+        <v>1</v>
+      </c>
+      <c r="B2"/>
+    </row>
+    <row r="3" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="A3" s="3" t="s">
+        <v>2</v>
+      </c>
+      <c r="B3"/>
+    </row>
+    <row r="4" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="A4" s="3" t="s">
+        <v>3</v>
+      </c>
+      <c r="B4"/>
+    </row>
+    <row r="5" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="A5" s="3" t="s">
+        <v>4</v>
+      </c>
+      <c r="B5"/>
+    </row>
+    <row r="6" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="A6" s="3" t="s">
+        <v>5</v>
+      </c>
+      <c r="B6"/>
+    </row>
+    <row r="8" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="A8" s="3" t="s">
+        <v>6</v>
+      </c>
+      <c r="B8" s="1" t="s">
+        <v>184</v>
+      </c>
+      <c r="C8" s="1" t="s">
+        <v>184</v>
+      </c>
+      <c r="D8" s="1" t="s">
+        <v>184</v>
+      </c>
+      <c r="E8" s="1" t="s">
+        <v>184</v>
+      </c>
+      <c r="F8" s="1"/>
+      <c r="G8" s="1"/>
+      <c r="H8" s="1"/>
+      <c r="I8" s="1"/>
+      <c r="J8" s="1"/>
+    </row>
+    <row r="9" spans="1:10" ht="31.5" x14ac:dyDescent="0.25">
+      <c r="A9" s="3" t="s">
+        <v>8</v>
+      </c>
+      <c r="B9" s="1" t="s">
+        <v>185</v>
+      </c>
+      <c r="C9" s="1" t="s">
+        <v>185</v>
+      </c>
+      <c r="D9" s="1" t="s">
+        <v>185</v>
+      </c>
+      <c r="E9" s="1" t="s">
+        <v>185</v>
+      </c>
+      <c r="F9" s="1"/>
+      <c r="G9" s="1"/>
+      <c r="H9" s="1"/>
+      <c r="I9" s="1"/>
+      <c r="J9" s="1"/>
+    </row>
+    <row r="10" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="A10" s="3" t="s">
+        <v>9</v>
+      </c>
+      <c r="B10" s="1" t="s">
+        <v>186</v>
+      </c>
+      <c r="C10" s="1" t="s">
+        <v>187</v>
+      </c>
+      <c r="D10" s="1" t="s">
+        <v>188</v>
+      </c>
+      <c r="E10" s="1" t="s">
+        <v>188</v>
+      </c>
+      <c r="F10" s="1"/>
+      <c r="G10" s="1"/>
+      <c r="H10" s="1"/>
+      <c r="I10" s="1"/>
+      <c r="J10" s="1"/>
+    </row>
+    <row r="11" spans="1:10" ht="31.5" x14ac:dyDescent="0.25">
+      <c r="A11" s="3" t="s">
+        <v>10</v>
+      </c>
+      <c r="B11" s="1" t="s">
+        <v>189</v>
+      </c>
+      <c r="C11" s="1" t="s">
+        <v>177</v>
+      </c>
+      <c r="D11" s="1" t="s">
+        <v>176</v>
+      </c>
+      <c r="E11" s="1" t="s">
+        <v>175</v>
+      </c>
+      <c r="F11" s="1"/>
+      <c r="G11" s="1"/>
+      <c r="H11" s="1"/>
+      <c r="I11" s="1"/>
+      <c r="J11" s="1"/>
+    </row>
+    <row r="12" spans="1:10" ht="141.75" x14ac:dyDescent="0.25">
+      <c r="A12" s="3" t="s">
+        <v>11</v>
+      </c>
+      <c r="B12" s="1" t="s">
+        <v>190</v>
+      </c>
+      <c r="C12" s="1"/>
+      <c r="D12" s="1"/>
+      <c r="E12" s="1"/>
+      <c r="F12" s="1"/>
+      <c r="G12" s="1"/>
+      <c r="H12" s="1"/>
+      <c r="I12" s="1"/>
+      <c r="J12" s="1"/>
+    </row>
+    <row r="13" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="A13" s="3" t="s">
+        <v>12</v>
+      </c>
+      <c r="B13" s="1" t="s">
+        <v>13</v>
+      </c>
+      <c r="C13" s="1"/>
+      <c r="D13" s="1"/>
+      <c r="E13" s="1"/>
+      <c r="F13" s="1"/>
+      <c r="G13" s="1"/>
+      <c r="H13" s="1"/>
+      <c r="I13" s="1"/>
+      <c r="J13" s="1"/>
+    </row>
+    <row r="14" spans="1:10" ht="157.5" x14ac:dyDescent="0.25">
+      <c r="A14" s="3" t="s">
+        <v>13</v>
+      </c>
+      <c r="B14" s="1" t="s">
+        <v>191</v>
+      </c>
+      <c r="C14" s="1"/>
+      <c r="D14" s="1"/>
+      <c r="E14" s="1"/>
+      <c r="F14" s="1"/>
+      <c r="G14" s="1"/>
+      <c r="H14" s="1"/>
+      <c r="I14" s="1"/>
+      <c r="J14" s="1"/>
+    </row>
+    <row r="15" spans="1:10" ht="31.5" x14ac:dyDescent="0.25">
+      <c r="A15" s="3" t="s">
+        <v>14</v>
+      </c>
+      <c r="B15" s="1" t="s">
+        <v>192</v>
+      </c>
+      <c r="C15" s="1"/>
+      <c r="D15" s="1"/>
+      <c r="E15" s="1"/>
+      <c r="F15" s="1"/>
+      <c r="G15" s="1"/>
+      <c r="H15" s="1"/>
+      <c r="I15" s="1"/>
+      <c r="J15" s="1"/>
+    </row>
+    <row r="16" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="A16" s="3" t="s">
+        <v>15</v>
+      </c>
+      <c r="B16" s="1" t="s">
+        <v>193</v>
+      </c>
+      <c r="C16" s="1"/>
+      <c r="D16" s="1"/>
+      <c r="E16" s="1"/>
+      <c r="F16" s="1"/>
+      <c r="G16" s="1"/>
+      <c r="H16" s="1"/>
+      <c r="I16" s="1"/>
+      <c r="J16" s="1"/>
+    </row>
+    <row r="17" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="A17" s="3" t="s">
+        <v>16</v>
+      </c>
+      <c r="B17"/>
+    </row>
+    <row r="18" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="A18" s="3" t="s">
+        <v>17</v>
+      </c>
+      <c r="B18" s="1" t="s">
+        <v>18</v>
+      </c>
+      <c r="C18" s="1" t="s">
+        <v>19</v>
+      </c>
+      <c r="D18" s="1" t="s">
+        <v>19</v>
+      </c>
+      <c r="E18" s="1" t="s">
+        <v>19</v>
+      </c>
+      <c r="F18" s="1"/>
+      <c r="G18" s="1"/>
+      <c r="H18" s="1"/>
+      <c r="I18" s="1"/>
+      <c r="J18" s="1"/>
+    </row>
+    <row r="19" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="A19" s="3" t="s">
+        <v>20</v>
+      </c>
+    </row>
+    <row r="20" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="A20" s="3" t="s">
+        <v>21</v>
+      </c>
+    </row>
+    <row r="21" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="A21" s="3" t="s">
+        <v>22</v>
+      </c>
+    </row>
+  </sheetData>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.51180555555555496" footer="0.51180555555555496"/>
+  <pageSetup paperSize="0" scale="0" firstPageNumber="0" orientation="portrait" usePrinterDefaults="0" horizontalDpi="0" verticalDpi="0" copies="0"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet7.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00101E15-BC09-4460-981F-12433DE1EE08}">
+  <dimension ref="A1:H21"/>
+  <sheetViews>
+    <sheetView topLeftCell="A10" workbookViewId="0">
+      <selection activeCell="G11" sqref="G11"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <cols>
+    <col min="1" max="4" width="24" style="9" customWidth="1"/>
+    <col min="5" max="6" width="23.875" style="9" customWidth="1"/>
+    <col min="7" max="8" width="24" style="9" customWidth="1"/>
+    <col min="9" max="16384" width="9" style="9"/>
+  </cols>
+  <sheetData>
+    <row r="1" spans="1:8" ht="15.75" x14ac:dyDescent="0.25">
+      <c r="A1" s="12" t="s">
+        <v>0</v>
+      </c>
+      <c r="B1" s="10"/>
+      <c r="C1" s="10"/>
+      <c r="D1" s="10"/>
+      <c r="E1" s="10"/>
+      <c r="F1" s="10"/>
+      <c r="G1" s="10"/>
+      <c r="H1" s="10"/>
+    </row>
+    <row r="2" spans="1:8" ht="15.75" x14ac:dyDescent="0.25">
+      <c r="A2" s="12" t="s">
+        <v>1</v>
+      </c>
+      <c r="B2" s="10"/>
+      <c r="C2" s="10"/>
+      <c r="D2" s="10"/>
+      <c r="E2" s="10"/>
+      <c r="F2" s="10"/>
+      <c r="G2" s="10"/>
+      <c r="H2" s="10"/>
+    </row>
+    <row r="3" spans="1:8" ht="15.75" x14ac:dyDescent="0.25">
+      <c r="A3" s="12" t="s">
+        <v>2</v>
+      </c>
+      <c r="B3" s="10"/>
+      <c r="C3" s="10"/>
+      <c r="D3" s="10"/>
+      <c r="E3" s="10"/>
+      <c r="F3" s="10"/>
+      <c r="G3" s="10"/>
+      <c r="H3" s="10"/>
+    </row>
+    <row r="4" spans="1:8" ht="15.75" x14ac:dyDescent="0.25">
+      <c r="A4" s="12" t="s">
+        <v>3</v>
+      </c>
+      <c r="B4" s="10"/>
+      <c r="C4" s="10"/>
+      <c r="D4" s="10"/>
+      <c r="E4" s="10"/>
+      <c r="F4" s="10"/>
+      <c r="G4" s="10"/>
+      <c r="H4" s="10"/>
+    </row>
+    <row r="5" spans="1:8" ht="15.75" x14ac:dyDescent="0.25">
+      <c r="A5" s="12" t="s">
+        <v>4</v>
+      </c>
+      <c r="B5" s="10"/>
+      <c r="C5" s="10"/>
+      <c r="D5" s="10"/>
+      <c r="E5" s="10"/>
+      <c r="F5" s="10"/>
+      <c r="G5" s="10"/>
+      <c r="H5" s="10"/>
+    </row>
+    <row r="6" spans="1:8" ht="15.75" x14ac:dyDescent="0.25">
+      <c r="A6" s="12" t="s">
+        <v>5</v>
+      </c>
+      <c r="B6" s="10"/>
+      <c r="C6" s="10"/>
+      <c r="D6" s="10"/>
+      <c r="E6" s="10"/>
+      <c r="F6" s="10"/>
+      <c r="G6" s="10"/>
+      <c r="H6" s="10"/>
+    </row>
+    <row r="7" spans="1:8" ht="15.75" x14ac:dyDescent="0.25">
+      <c r="A7" s="10"/>
+      <c r="B7" s="11"/>
+      <c r="C7" s="10"/>
+      <c r="D7" s="10"/>
+      <c r="E7" s="10"/>
+      <c r="F7" s="10"/>
+      <c r="G7" s="10"/>
+      <c r="H7" s="10"/>
+    </row>
+    <row r="8" spans="1:8" ht="15.75" x14ac:dyDescent="0.25">
+      <c r="A8" s="12" t="s">
+        <v>6</v>
+      </c>
+      <c r="B8" s="11" t="s">
+        <v>7</v>
+      </c>
+      <c r="C8" s="11" t="s">
+        <v>7</v>
+      </c>
+      <c r="D8" s="11" t="s">
+        <v>7</v>
+      </c>
+      <c r="E8" s="11" t="s">
+        <v>7</v>
+      </c>
+      <c r="F8" s="11" t="s">
+        <v>7</v>
+      </c>
+      <c r="G8" s="11" t="s">
+        <v>7</v>
+      </c>
+      <c r="H8" s="11"/>
+    </row>
+    <row r="9" spans="1:8" ht="31.5" x14ac:dyDescent="0.25">
+      <c r="A9" s="12" t="s">
+        <v>8</v>
+      </c>
+      <c r="B9" s="11" t="s">
+        <v>220</v>
+      </c>
+      <c r="C9" s="11" t="s">
+        <v>220</v>
+      </c>
+      <c r="D9" s="11" t="s">
+        <v>220</v>
+      </c>
+      <c r="E9" s="11" t="s">
+        <v>220</v>
+      </c>
+      <c r="F9" s="11" t="s">
+        <v>220</v>
+      </c>
+      <c r="G9" s="11" t="s">
+        <v>220</v>
+      </c>
+      <c r="H9" s="11"/>
+    </row>
+    <row r="10" spans="1:8" ht="15.75" x14ac:dyDescent="0.25">
+      <c r="A10" s="12" t="s">
+        <v>9</v>
+      </c>
+      <c r="B10" s="11" t="s">
+        <v>219</v>
+      </c>
+      <c r="C10" s="11" t="s">
+        <v>218</v>
+      </c>
+      <c r="D10" s="11" t="s">
+        <v>217</v>
+      </c>
+      <c r="E10" s="11" t="s">
+        <v>216</v>
+      </c>
+      <c r="F10" s="11" t="s">
+        <v>215</v>
+      </c>
+      <c r="G10" s="11" t="s">
+        <v>214</v>
+      </c>
+      <c r="H10" s="11"/>
+    </row>
+    <row r="11" spans="1:8" ht="99.75" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A11" s="12" t="s">
+        <v>10</v>
+      </c>
+      <c r="B11" s="13" t="s">
+        <v>212</v>
+      </c>
+      <c r="C11" s="13" t="s">
+        <v>205</v>
+      </c>
+      <c r="D11" s="13" t="s">
+        <v>213</v>
+      </c>
+      <c r="E11" s="13" t="s">
+        <v>244</v>
+      </c>
+      <c r="F11" s="13" t="s">
+        <v>245</v>
+      </c>
+      <c r="G11" s="13" t="s">
+        <v>246</v>
+      </c>
+      <c r="H11" s="13"/>
+    </row>
+    <row r="12" spans="1:8" ht="168.75" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A12" s="12" t="s">
+        <v>11</v>
+      </c>
+      <c r="B12" s="13" t="s">
+        <v>211</v>
+      </c>
+      <c r="C12" s="13" t="s">
+        <v>205</v>
+      </c>
+      <c r="D12" s="13" t="s">
+        <v>210</v>
+      </c>
+      <c r="E12" s="13" t="s">
+        <v>209</v>
+      </c>
+      <c r="F12" s="13" t="s">
+        <v>208</v>
+      </c>
+      <c r="G12" s="13" t="s">
+        <v>207</v>
+      </c>
+      <c r="H12" s="13"/>
+    </row>
+    <row r="13" spans="1:8" ht="15.75" x14ac:dyDescent="0.25">
+      <c r="A13" s="12" t="s">
+        <v>12</v>
+      </c>
+      <c r="B13" s="13" t="s">
+        <v>13</v>
+      </c>
+      <c r="C13" s="13" t="s">
+        <v>13</v>
+      </c>
+      <c r="D13" s="13" t="s">
+        <v>13</v>
+      </c>
+      <c r="E13" s="13" t="s">
+        <v>13</v>
+      </c>
+      <c r="F13" s="13" t="s">
+        <v>13</v>
+      </c>
+      <c r="G13" s="13" t="s">
+        <v>13</v>
+      </c>
+      <c r="H13" s="13"/>
+    </row>
+    <row r="14" spans="1:8" ht="209.25" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A14" s="12" t="s">
+        <v>13</v>
+      </c>
+      <c r="B14" s="13" t="s">
+        <v>206</v>
+      </c>
+      <c r="C14" s="13" t="s">
+        <v>205</v>
+      </c>
+      <c r="D14" s="13" t="s">
+        <v>204</v>
+      </c>
+      <c r="E14" s="13" t="s">
+        <v>203</v>
+      </c>
+      <c r="F14" s="13" t="s">
+        <v>202</v>
+      </c>
+      <c r="G14" s="13" t="s">
+        <v>201</v>
+      </c>
+      <c r="H14" s="13"/>
+    </row>
+    <row r="15" spans="1:8" ht="47.25" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A15" s="12" t="s">
+        <v>14</v>
+      </c>
+      <c r="B15" s="13" t="s">
+        <v>200</v>
+      </c>
+      <c r="C15" s="13" t="s">
+        <v>198</v>
+      </c>
+      <c r="D15" s="13" t="s">
+        <v>197</v>
+      </c>
+      <c r="E15" s="13" t="s">
+        <v>196</v>
+      </c>
+      <c r="F15" s="13" t="s">
+        <v>195</v>
+      </c>
+      <c r="G15" s="13" t="s">
+        <v>194</v>
+      </c>
+      <c r="H15" s="13"/>
+    </row>
+    <row r="16" spans="1:8" ht="51.75" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A16" s="12" t="s">
+        <v>15</v>
+      </c>
+      <c r="B16" s="13" t="s">
+        <v>199</v>
+      </c>
+      <c r="C16" s="13" t="s">
+        <v>198</v>
+      </c>
+      <c r="D16" s="13" t="s">
+        <v>197</v>
+      </c>
+      <c r="E16" s="13" t="s">
+        <v>196</v>
+      </c>
+      <c r="F16" s="13" t="s">
+        <v>195</v>
+      </c>
+      <c r="G16" s="13" t="s">
+        <v>194</v>
+      </c>
+      <c r="H16" s="13"/>
+    </row>
+    <row r="17" spans="1:8" ht="15.75" x14ac:dyDescent="0.25">
+      <c r="A17" s="12" t="s">
+        <v>16</v>
+      </c>
+      <c r="B17" s="14"/>
+      <c r="C17" s="14"/>
+      <c r="D17" s="14"/>
+      <c r="E17" s="14"/>
+      <c r="F17" s="14"/>
+      <c r="G17" s="14"/>
+      <c r="H17" s="14"/>
+    </row>
+    <row r="18" spans="1:8" ht="15.75" x14ac:dyDescent="0.25">
+      <c r="A18" s="12" t="s">
+        <v>17</v>
+      </c>
+      <c r="B18" s="13" t="s">
+        <v>18</v>
+      </c>
+      <c r="C18" s="13" t="s">
+        <v>19</v>
+      </c>
+      <c r="D18" s="13" t="s">
+        <v>19</v>
+      </c>
+      <c r="E18" s="13" t="s">
+        <v>19</v>
+      </c>
+      <c r="F18" s="13" t="s">
+        <v>19</v>
+      </c>
+      <c r="G18" s="13" t="s">
+        <v>19</v>
+      </c>
+      <c r="H18" s="13"/>
+    </row>
+    <row r="19" spans="1:8" ht="15.75" x14ac:dyDescent="0.25">
+      <c r="A19" s="12" t="s">
+        <v>20</v>
+      </c>
+      <c r="B19" s="11"/>
+      <c r="C19" s="10"/>
+      <c r="D19" s="10"/>
+      <c r="E19" s="10"/>
+    </row>
+    <row r="20" spans="1:8" ht="15.75" x14ac:dyDescent="0.25">
+      <c r="A20" s="12" t="s">
+        <v>21</v>
+      </c>
+      <c r="B20" s="11"/>
+      <c r="C20" s="10"/>
+      <c r="D20" s="10"/>
+      <c r="E20" s="10"/>
+    </row>
+    <row r="21" spans="1:8" ht="15.75" x14ac:dyDescent="0.25">
+      <c r="A21" s="12" t="s">
+        <v>22</v>
+      </c>
+      <c r="B21" s="11"/>
+      <c r="C21" s="10"/>
+      <c r="D21" s="10"/>
+      <c r="E21" s="10"/>
     </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
-  <pageSetup paperSize="9" orientation="portrait" r:id="rId1"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet8.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{3D398E08-538A-4861-A325-F61FCDD9C3FB}">
+  <dimension ref="A1:I21"/>
+  <sheetViews>
+    <sheetView topLeftCell="A7" zoomScale="90" zoomScaleNormal="90" workbookViewId="0">
+      <selection activeCell="G12" sqref="G12"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultColWidth="23.125" defaultRowHeight="15.75" x14ac:dyDescent="0.25"/>
+  <cols>
+    <col min="2" max="2" width="23.125" style="1"/>
+    <col min="5" max="6" width="25.375" customWidth="1"/>
+    <col min="7" max="7" width="23.125" customWidth="1"/>
+  </cols>
+  <sheetData>
+    <row r="1" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A1" s="3" t="s">
+        <v>0</v>
+      </c>
+      <c r="B1"/>
+    </row>
+    <row r="2" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A2" s="3" t="s">
+        <v>1</v>
+      </c>
+      <c r="B2"/>
+    </row>
+    <row r="3" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A3" s="3" t="s">
+        <v>2</v>
+      </c>
+      <c r="B3"/>
+    </row>
+    <row r="4" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A4" s="3" t="s">
+        <v>3</v>
+      </c>
+      <c r="B4"/>
+    </row>
+    <row r="5" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A5" s="3" t="s">
+        <v>4</v>
+      </c>
+      <c r="B5"/>
+    </row>
+    <row r="6" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A6" s="3" t="s">
+        <v>5</v>
+      </c>
+      <c r="B6"/>
+    </row>
+    <row r="8" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A8" s="3" t="s">
+        <v>6</v>
+      </c>
+      <c r="B8" s="15" t="s">
+        <v>7</v>
+      </c>
+      <c r="C8" s="15" t="s">
+        <v>7</v>
+      </c>
+      <c r="D8" s="15" t="s">
+        <v>7</v>
+      </c>
+      <c r="E8" s="15" t="s">
+        <v>7</v>
+      </c>
+      <c r="F8" s="15" t="s">
+        <v>7</v>
+      </c>
+      <c r="G8" s="15"/>
+      <c r="H8" s="1"/>
+      <c r="I8" s="1"/>
+    </row>
+    <row r="9" spans="1:9" ht="31.5" x14ac:dyDescent="0.25">
+      <c r="A9" s="3" t="s">
+        <v>8</v>
+      </c>
+      <c r="B9" s="15" t="s">
+        <v>221</v>
+      </c>
+      <c r="C9" s="15" t="s">
+        <v>221</v>
+      </c>
+      <c r="D9" s="15" t="s">
+        <v>221</v>
+      </c>
+      <c r="E9" s="15" t="s">
+        <v>221</v>
+      </c>
+      <c r="F9" s="15" t="s">
+        <v>221</v>
+      </c>
+      <c r="G9" s="15"/>
+      <c r="H9" s="1"/>
+      <c r="I9" s="1"/>
+    </row>
+    <row r="10" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A10" s="3" t="s">
+        <v>9</v>
+      </c>
+      <c r="B10" s="15" t="s">
+        <v>102</v>
+      </c>
+      <c r="C10" s="15" t="s">
+        <v>101</v>
+      </c>
+      <c r="D10" s="15" t="s">
+        <v>100</v>
+      </c>
+      <c r="E10" s="15" t="s">
+        <v>99</v>
+      </c>
+      <c r="F10" s="15" t="s">
+        <v>98</v>
+      </c>
+      <c r="G10" s="15"/>
+      <c r="H10" s="1"/>
+      <c r="I10" s="1"/>
+    </row>
+    <row r="11" spans="1:9" ht="141.75" x14ac:dyDescent="0.25">
+      <c r="A11" s="3" t="s">
+        <v>10</v>
+      </c>
+      <c r="B11" s="15" t="s">
+        <v>222</v>
+      </c>
+      <c r="C11" s="15" t="s">
+        <v>223</v>
+      </c>
+      <c r="D11" s="15" t="s">
+        <v>224</v>
+      </c>
+      <c r="E11" s="15" t="s">
+        <v>225</v>
+      </c>
+      <c r="F11" s="15" t="s">
+        <v>226</v>
+      </c>
+      <c r="G11" s="15"/>
+      <c r="H11" s="1"/>
+      <c r="I11" s="1"/>
+    </row>
+    <row r="12" spans="1:9" ht="204.75" x14ac:dyDescent="0.25">
+      <c r="A12" s="3" t="s">
+        <v>11</v>
+      </c>
+      <c r="B12" s="15" t="s">
+        <v>227</v>
+      </c>
+      <c r="C12" s="15" t="s">
+        <v>228</v>
+      </c>
+      <c r="D12" s="15" t="s">
+        <v>229</v>
+      </c>
+      <c r="E12" s="15" t="s">
+        <v>230</v>
+      </c>
+      <c r="F12" s="15" t="s">
+        <v>231</v>
+      </c>
+      <c r="G12" s="15"/>
+      <c r="H12" s="1"/>
+      <c r="I12" s="1"/>
+    </row>
+    <row r="13" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A13" s="3" t="s">
+        <v>12</v>
+      </c>
+      <c r="B13" s="15" t="s">
+        <v>13</v>
+      </c>
+      <c r="C13" s="15" t="s">
+        <v>13</v>
+      </c>
+      <c r="D13" s="15" t="s">
+        <v>13</v>
+      </c>
+      <c r="E13" s="15" t="s">
+        <v>13</v>
+      </c>
+      <c r="F13" s="15" t="s">
+        <v>13</v>
+      </c>
+      <c r="G13" s="15"/>
+      <c r="H13" s="1"/>
+      <c r="I13" s="1"/>
+    </row>
+    <row r="14" spans="1:9" ht="220.5" x14ac:dyDescent="0.25">
+      <c r="A14" s="3" t="s">
+        <v>13</v>
+      </c>
+      <c r="B14" s="15" t="s">
+        <v>232</v>
+      </c>
+      <c r="C14" s="15" t="s">
+        <v>233</v>
+      </c>
+      <c r="D14" s="15" t="s">
+        <v>234</v>
+      </c>
+      <c r="E14" s="15" t="s">
+        <v>235</v>
+      </c>
+      <c r="F14" s="15" t="s">
+        <v>236</v>
+      </c>
+      <c r="G14" s="15"/>
+      <c r="H14" s="1"/>
+      <c r="I14" s="1"/>
+    </row>
+    <row r="15" spans="1:9" ht="63" x14ac:dyDescent="0.25">
+      <c r="A15" s="3" t="s">
+        <v>14</v>
+      </c>
+      <c r="B15" s="15" t="s">
+        <v>237</v>
+      </c>
+      <c r="C15" s="15" t="s">
+        <v>238</v>
+      </c>
+      <c r="D15" s="15" t="s">
+        <v>238</v>
+      </c>
+      <c r="E15" s="15" t="s">
+        <v>238</v>
+      </c>
+      <c r="F15" s="15" t="s">
+        <v>238</v>
+      </c>
+      <c r="G15" s="15"/>
+      <c r="H15" s="1"/>
+      <c r="I15" s="1"/>
+    </row>
+    <row r="16" spans="1:9" ht="78.75" x14ac:dyDescent="0.25">
+      <c r="A16" s="3" t="s">
+        <v>15</v>
+      </c>
+      <c r="B16" s="15" t="s">
+        <v>239</v>
+      </c>
+      <c r="C16" s="15" t="s">
+        <v>240</v>
+      </c>
+      <c r="D16" s="15" t="s">
+        <v>241</v>
+      </c>
+      <c r="E16" s="15" t="s">
+        <v>242</v>
+      </c>
+      <c r="F16" s="15" t="s">
+        <v>243</v>
+      </c>
+      <c r="G16" s="15"/>
+      <c r="H16" s="1"/>
+      <c r="I16" s="1"/>
+    </row>
+    <row r="17" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A17" s="3" t="s">
+        <v>16</v>
+      </c>
+      <c r="B17" s="16"/>
+      <c r="C17" s="16"/>
+      <c r="D17" s="16"/>
+      <c r="E17" s="16"/>
+      <c r="F17" s="16"/>
+      <c r="G17" s="16"/>
+    </row>
+    <row r="18" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A18" s="3" t="s">
+        <v>17</v>
+      </c>
+      <c r="B18" s="15" t="s">
+        <v>18</v>
+      </c>
+      <c r="C18" s="15" t="s">
+        <v>19</v>
+      </c>
+      <c r="D18" s="15" t="s">
+        <v>19</v>
+      </c>
+      <c r="E18" s="15" t="s">
+        <v>19</v>
+      </c>
+      <c r="F18" s="15" t="s">
+        <v>19</v>
+      </c>
+      <c r="G18" s="15"/>
+      <c r="H18" s="1"/>
+      <c r="I18" s="1"/>
+    </row>
+    <row r="19" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A19" s="3" t="s">
+        <v>20</v>
+      </c>
+    </row>
+    <row r="20" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A20" s="3" t="s">
+        <v>21</v>
+      </c>
+    </row>
+    <row r="21" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A21" s="3" t="s">
+        <v>22</v>
+      </c>
+    </row>
+  </sheetData>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>
 </file>
--- a/Análise/Test Scenarios.xlsx
+++ b/Análise/Test Scenarios.xlsx
@@ -8,14 +8,14 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="E:\Documents\GitHub\upskill_java1_labprg_grupo3\Análise\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{A9C5BB26-98C2-4016-BC04-E87638FEE36E}" xr6:coauthVersionLast="46" xr6:coauthVersionMax="46" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{AA18465D-EB57-4DBD-8FA6-C9617936B0DD}" xr6:coauthVersionLast="46" xr6:coauthVersionMax="46" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15840" tabRatio="993" activeTab="2" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15840" tabRatio="993" activeTab="3" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="UC 1 - Registar Organização" sheetId="7" r:id="rId1"/>
     <sheet name="UC 2 - Definir Area Atividade" sheetId="10" r:id="rId2"/>
-    <sheet name="UC 3 - Definir Cat. Tar" sheetId="11" r:id="rId3"/>
+    <sheet name="UC 3 - Definir Cat Tarefa" sheetId="17" r:id="rId3"/>
     <sheet name="UC 4-Especificar Comp.Técnica " sheetId="12" r:id="rId4"/>
     <sheet name="UC 5 - Especificar Colaborador" sheetId="13" r:id="rId5"/>
     <sheet name="UC 6 - Definir Tarefa" sheetId="14" r:id="rId6"/>
@@ -32,7 +32,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="582" uniqueCount="247">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="592" uniqueCount="250">
   <si>
     <t>Project Name</t>
   </si>
@@ -502,12 +502,6 @@
     <t>Define Activity Area functionality</t>
   </si>
   <si>
-    <t>Popup Message: Invalid ...</t>
-  </si>
-  <si>
-    <t>Error message "invalid ..."</t>
-  </si>
-  <si>
     <t>check if list of 'Technical Skill' exists</t>
   </si>
   <si>
@@ -1165,6 +1159,22 @@
 valid application period
 valid serialization period
 invalid serialization scheme</t>
+  </si>
+  <si>
+    <t>Popup Message: No list available!</t>
+  </si>
+  <si>
+    <t>Error message "The list is empty!"</t>
+  </si>
+  <si>
+    <t>1. Enter invalid option
+2. Click OK button</t>
+  </si>
+  <si>
+    <t>TC_List_TS_001</t>
+  </si>
+  <si>
+    <t>TC_List_AA_002</t>
   </si>
 </sst>
 </file>
@@ -1254,7 +1264,6 @@
     </xf>
     <xf numFmtId="0" fontId="0" fillId="2" borderId="1" xfId="1" applyFont="1" applyAlignment="1" applyProtection="1"/>
     <xf numFmtId="0" fontId="0" fillId="2" borderId="1" xfId="1" applyFont="1" applyProtection="1"/>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="2"/>
     <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="2" applyAlignment="1">
       <alignment wrapText="1"/>
     </xf>
@@ -1279,6 +1288,7 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="2"/>
   </cellXfs>
   <cellStyles count="7">
     <cellStyle name="Explanatory Text" xfId="1" builtinId="53" customBuiltin="1"/>
@@ -2416,227 +2426,246 @@
 </file>
 
 <file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{9B3972FD-390B-49E5-8402-1C83FACCDCB5}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{312C4631-4654-4624-B019-66B47B8FA54E}">
   <dimension ref="B3:F23"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="B1" zoomScale="115" zoomScaleSheetLayoutView="100" workbookViewId="0">
-      <selection activeCell="E11" sqref="E11"/>
+    <sheetView topLeftCell="B1" zoomScale="115" zoomScaleSheetLayoutView="100" workbookViewId="0">
+      <selection activeCell="E22" sqref="E22"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9" defaultRowHeight="15.75" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="1" max="1" width="9" style="4"/>
-    <col min="2" max="5" width="27" style="4" customWidth="1"/>
-    <col min="6" max="6" width="27.125" style="4" customWidth="1"/>
-    <col min="7" max="16384" width="9" style="4"/>
+    <col min="1" max="1" width="9" style="7"/>
+    <col min="2" max="5" width="27" style="7" customWidth="1"/>
+    <col min="6" max="6" width="27.125" style="7" customWidth="1"/>
+    <col min="7" max="16384" width="9" style="7"/>
   </cols>
   <sheetData>
     <row r="3" spans="2:6" x14ac:dyDescent="0.25">
-      <c r="B3" s="6" t="s">
+      <c r="B3" s="5" t="s">
         <v>0</v>
       </c>
-      <c r="C3" s="4" t="s">
-        <v>118</v>
+      <c r="C3" s="7" t="s">
+        <v>116</v>
       </c>
     </row>
     <row r="4" spans="2:6" x14ac:dyDescent="0.25">
-      <c r="B4" s="6" t="s">
+      <c r="B4" s="5" t="s">
         <v>1</v>
       </c>
-      <c r="C4" s="8" t="s">
-        <v>117</v>
-      </c>
-      <c r="D4" s="8"/>
+      <c r="C4" s="16" t="s">
+        <v>115</v>
+      </c>
+      <c r="D4" s="16"/>
     </row>
     <row r="5" spans="2:6" x14ac:dyDescent="0.25">
-      <c r="B5" s="6" t="s">
+      <c r="B5" s="5" t="s">
         <v>2</v>
       </c>
-      <c r="C5" s="4" t="s">
-        <v>116</v>
+      <c r="C5" s="7" t="s">
+        <v>114</v>
       </c>
     </row>
     <row r="6" spans="2:6" x14ac:dyDescent="0.25">
-      <c r="B6" s="6" t="s">
+      <c r="B6" s="5" t="s">
         <v>3</v>
       </c>
-      <c r="C6" s="7">
+      <c r="C6" s="6">
         <v>44221</v>
       </c>
     </row>
     <row r="7" spans="2:6" x14ac:dyDescent="0.25">
-      <c r="B7" s="6" t="s">
+      <c r="B7" s="5" t="s">
         <v>4</v>
       </c>
     </row>
     <row r="8" spans="2:6" x14ac:dyDescent="0.25">
-      <c r="B8" s="6" t="s">
+      <c r="B8" s="5" t="s">
         <v>5</v>
       </c>
     </row>
     <row r="9" spans="2:6" x14ac:dyDescent="0.25">
-      <c r="C9" s="5"/>
+      <c r="C9" s="4"/>
     </row>
     <row r="10" spans="2:6" x14ac:dyDescent="0.25">
-      <c r="B10" s="6" t="s">
+      <c r="B10" s="5" t="s">
         <v>6</v>
       </c>
-      <c r="C10" s="5" t="s">
-        <v>115</v>
-      </c>
-      <c r="D10" s="5" t="s">
-        <v>115</v>
-      </c>
-      <c r="E10" s="5" t="s">
-        <v>115</v>
-      </c>
-      <c r="F10" s="5" t="s">
-        <v>115</v>
+      <c r="C10" s="4" t="s">
+        <v>113</v>
+      </c>
+      <c r="D10" s="4" t="s">
+        <v>113</v>
+      </c>
+      <c r="E10" s="4" t="s">
+        <v>113</v>
+      </c>
+      <c r="F10" s="4" t="s">
+        <v>113</v>
       </c>
     </row>
     <row r="11" spans="2:6" ht="31.5" x14ac:dyDescent="0.25">
-      <c r="B11" s="6" t="s">
+      <c r="B11" s="5" t="s">
         <v>8</v>
       </c>
-      <c r="C11" s="5" t="s">
-        <v>114</v>
-      </c>
-      <c r="D11" s="5" t="s">
-        <v>113</v>
-      </c>
-      <c r="E11" s="5"/>
-      <c r="F11" s="5"/>
+      <c r="C11" s="4" t="s">
+        <v>112</v>
+      </c>
+      <c r="D11" s="4" t="s">
+        <v>112</v>
+      </c>
+      <c r="E11" s="4" t="s">
+        <v>111</v>
+      </c>
+      <c r="F11" s="4" t="s">
+        <v>111</v>
+      </c>
     </row>
     <row r="12" spans="2:6" x14ac:dyDescent="0.25">
-      <c r="B12" s="6" t="s">
+      <c r="B12" s="5" t="s">
         <v>9</v>
       </c>
-      <c r="C12" s="5" t="s">
-        <v>112</v>
-      </c>
-      <c r="D12" s="5" t="s">
-        <v>111</v>
-      </c>
-      <c r="E12" s="5"/>
-      <c r="F12" s="5"/>
+      <c r="C12" s="4" t="s">
+        <v>110</v>
+      </c>
+      <c r="D12" s="4" t="s">
+        <v>249</v>
+      </c>
+      <c r="E12" s="4" t="s">
+        <v>248</v>
+      </c>
+      <c r="F12" s="4" t="s">
+        <v>109</v>
+      </c>
     </row>
     <row r="13" spans="2:6" ht="31.5" x14ac:dyDescent="0.25">
-      <c r="B13" s="6" t="s">
+      <c r="B13" s="5" t="s">
         <v>10</v>
       </c>
-      <c r="C13" s="5" t="s">
-        <v>110</v>
-      </c>
-      <c r="D13" s="5" t="s">
-        <v>109</v>
-      </c>
-      <c r="E13" s="5"/>
-      <c r="F13" s="5"/>
+      <c r="C13" s="4" t="s">
+        <v>108</v>
+      </c>
+      <c r="D13" s="4" t="s">
+        <v>108</v>
+      </c>
+      <c r="E13" s="4" t="s">
+        <v>107</v>
+      </c>
+      <c r="F13" s="4" t="s">
+        <v>107</v>
+      </c>
     </row>
     <row r="14" spans="2:6" ht="31.5" x14ac:dyDescent="0.25">
-      <c r="B14" s="6" t="s">
+      <c r="B14" s="5" t="s">
         <v>11</v>
       </c>
-      <c r="C14" s="5" t="s">
-        <v>108</v>
-      </c>
-      <c r="D14" s="5" t="s">
-        <v>108</v>
-      </c>
-      <c r="E14" s="5"/>
-      <c r="F14" s="5"/>
+      <c r="C14" s="4" t="s">
+        <v>106</v>
+      </c>
+      <c r="D14" s="4" t="s">
+        <v>247</v>
+      </c>
+      <c r="E14" s="4"/>
+      <c r="F14" s="4"/>
     </row>
     <row r="15" spans="2:6" x14ac:dyDescent="0.25">
-      <c r="B15" s="6" t="s">
+      <c r="B15" s="5" t="s">
         <v>12</v>
       </c>
-      <c r="C15" s="5" t="s">
-        <v>13</v>
-      </c>
-      <c r="D15" s="5" t="s">
-        <v>13</v>
-      </c>
-      <c r="E15" s="5" t="s">
-        <v>13</v>
-      </c>
-      <c r="F15" s="5" t="s">
+      <c r="C15" s="4" t="s">
+        <v>13</v>
+      </c>
+      <c r="D15" s="4" t="s">
+        <v>13</v>
+      </c>
+      <c r="E15" s="4" t="s">
+        <v>13</v>
+      </c>
+      <c r="F15" s="4" t="s">
         <v>13</v>
       </c>
     </row>
     <row r="16" spans="2:6" ht="31.5" x14ac:dyDescent="0.25">
-      <c r="B16" s="6" t="s">
-        <v>13</v>
-      </c>
-      <c r="C16" s="5" t="s">
-        <v>107</v>
-      </c>
-      <c r="D16" s="5" t="s">
-        <v>106</v>
-      </c>
-      <c r="E16" s="5"/>
-      <c r="F16" s="5"/>
-    </row>
-    <row r="17" spans="2:6" x14ac:dyDescent="0.25">
-      <c r="B17" s="6" t="s">
+      <c r="B16" s="5" t="s">
+        <v>13</v>
+      </c>
+      <c r="C16" s="4" t="s">
+        <v>105</v>
+      </c>
+      <c r="D16" s="4" t="s">
+        <v>105</v>
+      </c>
+      <c r="E16" s="4" t="s">
+        <v>104</v>
+      </c>
+      <c r="F16" s="4" t="s">
+        <v>104</v>
+      </c>
+    </row>
+    <row r="17" spans="2:6" ht="31.5" x14ac:dyDescent="0.25">
+      <c r="B17" s="5" t="s">
         <v>14</v>
       </c>
-      <c r="C17" s="5"/>
-      <c r="D17" s="5" t="s">
-        <v>105</v>
-      </c>
-      <c r="E17" s="5" t="s">
-        <v>105</v>
-      </c>
-      <c r="F17" s="5" t="s">
-        <v>105</v>
-      </c>
-    </row>
-    <row r="18" spans="2:6" x14ac:dyDescent="0.25">
-      <c r="B18" s="6" t="s">
+      <c r="C17" s="4"/>
+      <c r="D17" s="4" t="s">
+        <v>246</v>
+      </c>
+      <c r="E17" s="4"/>
+      <c r="F17" s="4" t="s">
+        <v>246</v>
+      </c>
+    </row>
+    <row r="18" spans="2:6" ht="31.5" x14ac:dyDescent="0.25">
+      <c r="B18" s="5" t="s">
         <v>15</v>
       </c>
-      <c r="C18" s="5"/>
-      <c r="D18" s="5"/>
-      <c r="E18" s="5" t="s">
-        <v>104</v>
-      </c>
-      <c r="F18" s="5" t="s">
-        <v>104</v>
+      <c r="C18" s="4"/>
+      <c r="D18" s="4" t="s">
+        <v>245</v>
+      </c>
+      <c r="F18" s="4" t="s">
+        <v>245</v>
       </c>
     </row>
     <row r="19" spans="2:6" x14ac:dyDescent="0.25">
-      <c r="B19" s="6" t="s">
+      <c r="B19" s="5" t="s">
         <v>16</v>
       </c>
     </row>
     <row r="20" spans="2:6" x14ac:dyDescent="0.25">
-      <c r="B20" s="6" t="s">
+      <c r="B20" s="5" t="s">
         <v>17</v>
       </c>
-      <c r="C20" s="5" t="s">
+      <c r="C20" s="4" t="s">
         <v>18</v>
       </c>
-      <c r="D20" s="5"/>
-      <c r="E20" s="5"/>
-      <c r="F20" s="5"/>
+      <c r="D20" s="4" t="s">
+        <v>19</v>
+      </c>
+      <c r="E20" s="4" t="s">
+        <v>18</v>
+      </c>
+      <c r="F20" s="4" t="s">
+        <v>19</v>
+      </c>
     </row>
     <row r="21" spans="2:6" x14ac:dyDescent="0.25">
-      <c r="B21" s="6" t="s">
+      <c r="B21" s="5" t="s">
         <v>20</v>
       </c>
-      <c r="C21" s="5"/>
+      <c r="C21" s="4"/>
     </row>
     <row r="22" spans="2:6" x14ac:dyDescent="0.25">
-      <c r="B22" s="6" t="s">
+      <c r="B22" s="5" t="s">
         <v>21</v>
       </c>
-      <c r="C22" s="5"/>
+      <c r="C22" s="4"/>
     </row>
     <row r="23" spans="2:6" x14ac:dyDescent="0.25">
-      <c r="B23" s="6" t="s">
+      <c r="B23" s="5" t="s">
         <v>22</v>
       </c>
-      <c r="C23" s="5"/>
+      <c r="C23" s="4"/>
     </row>
   </sheetData>
   <mergeCells count="1">
@@ -2650,400 +2679,400 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{875D30BB-BDEF-4D64-AAE8-D6A6527966A1}">
   <dimension ref="A1:H21"/>
   <sheetViews>
-    <sheetView topLeftCell="A7" workbookViewId="0">
-      <selection activeCell="H14" sqref="H14"/>
+    <sheetView tabSelected="1" topLeftCell="A7" workbookViewId="0">
+      <selection activeCell="D14" sqref="D14"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="1" max="1" width="23.875" style="9" customWidth="1"/>
-    <col min="2" max="3" width="24.125" style="9" customWidth="1"/>
-    <col min="4" max="5" width="23.875" style="9" customWidth="1"/>
-    <col min="6" max="7" width="24" style="9" customWidth="1"/>
-    <col min="8" max="8" width="24.125" style="9" customWidth="1"/>
-    <col min="9" max="16384" width="9" style="9"/>
+    <col min="1" max="1" width="23.875" style="8" customWidth="1"/>
+    <col min="2" max="3" width="24.125" style="8" customWidth="1"/>
+    <col min="4" max="5" width="23.875" style="8" customWidth="1"/>
+    <col min="6" max="7" width="24" style="8" customWidth="1"/>
+    <col min="8" max="8" width="24.125" style="8" customWidth="1"/>
+    <col min="9" max="16384" width="9" style="8"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:8" ht="15.75" x14ac:dyDescent="0.25">
-      <c r="A1" s="12" t="s">
+      <c r="A1" s="11" t="s">
         <v>0</v>
       </c>
-      <c r="B1" s="10"/>
-      <c r="C1" s="10"/>
-      <c r="D1" s="10"/>
-      <c r="E1" s="10"/>
-      <c r="F1" s="10"/>
-      <c r="G1" s="10"/>
-      <c r="H1" s="10"/>
+      <c r="B1" s="9"/>
+      <c r="C1" s="9"/>
+      <c r="D1" s="9"/>
+      <c r="E1" s="9"/>
+      <c r="F1" s="9"/>
+      <c r="G1" s="9"/>
+      <c r="H1" s="9"/>
     </row>
     <row r="2" spans="1:8" ht="15.75" x14ac:dyDescent="0.25">
-      <c r="A2" s="12" t="s">
+      <c r="A2" s="11" t="s">
         <v>1</v>
       </c>
-      <c r="B2" s="10"/>
-      <c r="C2" s="10"/>
-      <c r="D2" s="10"/>
-      <c r="E2" s="10"/>
-      <c r="F2" s="10"/>
-      <c r="G2" s="10"/>
-      <c r="H2" s="10"/>
+      <c r="B2" s="9"/>
+      <c r="C2" s="9"/>
+      <c r="D2" s="9"/>
+      <c r="E2" s="9"/>
+      <c r="F2" s="9"/>
+      <c r="G2" s="9"/>
+      <c r="H2" s="9"/>
     </row>
     <row r="3" spans="1:8" ht="15.75" x14ac:dyDescent="0.25">
-      <c r="A3" s="12" t="s">
+      <c r="A3" s="11" t="s">
         <v>2</v>
       </c>
-      <c r="B3" s="10"/>
-      <c r="C3" s="10"/>
-      <c r="D3" s="10"/>
-      <c r="E3" s="10"/>
-      <c r="F3" s="10"/>
-      <c r="G3" s="10"/>
-      <c r="H3" s="10"/>
+      <c r="B3" s="9"/>
+      <c r="C3" s="9"/>
+      <c r="D3" s="9"/>
+      <c r="E3" s="9"/>
+      <c r="F3" s="9"/>
+      <c r="G3" s="9"/>
+      <c r="H3" s="9"/>
     </row>
     <row r="4" spans="1:8" ht="15.75" x14ac:dyDescent="0.25">
-      <c r="A4" s="12" t="s">
+      <c r="A4" s="11" t="s">
         <v>3</v>
       </c>
-      <c r="B4" s="10"/>
-      <c r="C4" s="10"/>
-      <c r="D4" s="10"/>
-      <c r="E4" s="10"/>
-      <c r="F4" s="10"/>
-      <c r="G4" s="10"/>
-      <c r="H4" s="10"/>
+      <c r="B4" s="9"/>
+      <c r="C4" s="9"/>
+      <c r="D4" s="9"/>
+      <c r="E4" s="9"/>
+      <c r="F4" s="9"/>
+      <c r="G4" s="9"/>
+      <c r="H4" s="9"/>
     </row>
     <row r="5" spans="1:8" ht="15.75" x14ac:dyDescent="0.25">
-      <c r="A5" s="12" t="s">
+      <c r="A5" s="11" t="s">
         <v>4</v>
       </c>
-      <c r="B5" s="10"/>
-      <c r="C5" s="10"/>
-      <c r="D5" s="10"/>
-      <c r="E5" s="10"/>
-      <c r="F5" s="10"/>
-      <c r="G5" s="10"/>
-      <c r="H5" s="10"/>
+      <c r="B5" s="9"/>
+      <c r="C5" s="9"/>
+      <c r="D5" s="9"/>
+      <c r="E5" s="9"/>
+      <c r="F5" s="9"/>
+      <c r="G5" s="9"/>
+      <c r="H5" s="9"/>
     </row>
     <row r="6" spans="1:8" ht="15.75" x14ac:dyDescent="0.25">
-      <c r="A6" s="12" t="s">
+      <c r="A6" s="11" t="s">
         <v>5</v>
       </c>
-      <c r="B6" s="10"/>
-      <c r="C6" s="10"/>
-      <c r="D6" s="10"/>
-      <c r="E6" s="10"/>
-      <c r="F6" s="10"/>
-      <c r="G6" s="10"/>
-      <c r="H6" s="10"/>
+      <c r="B6" s="9"/>
+      <c r="C6" s="9"/>
+      <c r="D6" s="9"/>
+      <c r="E6" s="9"/>
+      <c r="F6" s="9"/>
+      <c r="G6" s="9"/>
+      <c r="H6" s="9"/>
     </row>
     <row r="7" spans="1:8" ht="15.75" x14ac:dyDescent="0.25">
-      <c r="A7" s="10"/>
-      <c r="B7" s="11"/>
-      <c r="C7" s="10"/>
-      <c r="D7" s="10"/>
-      <c r="E7" s="10"/>
-      <c r="F7" s="10"/>
-      <c r="G7" s="10"/>
-      <c r="H7" s="10"/>
+      <c r="A7" s="9"/>
+      <c r="B7" s="10"/>
+      <c r="C7" s="9"/>
+      <c r="D7" s="9"/>
+      <c r="E7" s="9"/>
+      <c r="F7" s="9"/>
+      <c r="G7" s="9"/>
+      <c r="H7" s="9"/>
     </row>
     <row r="8" spans="1:8" ht="15.75" x14ac:dyDescent="0.25">
-      <c r="A8" s="12" t="s">
+      <c r="A8" s="11" t="s">
         <v>6</v>
       </c>
-      <c r="B8" s="11" t="s">
+      <c r="B8" s="10" t="s">
         <v>7</v>
       </c>
-      <c r="C8" s="11" t="s">
+      <c r="C8" s="10" t="s">
         <v>7</v>
       </c>
-      <c r="D8" s="11" t="s">
+      <c r="D8" s="10" t="s">
         <v>7</v>
       </c>
-      <c r="E8" s="11" t="s">
+      <c r="E8" s="10" t="s">
         <v>7</v>
       </c>
-      <c r="F8" s="11" t="s">
+      <c r="F8" s="10" t="s">
         <v>7</v>
       </c>
-      <c r="G8" s="11" t="s">
+      <c r="G8" s="10" t="s">
         <v>7</v>
       </c>
-      <c r="H8" s="11" t="s">
+      <c r="H8" s="10" t="s">
         <v>7</v>
       </c>
     </row>
     <row r="9" spans="1:8" ht="51.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A9" s="12" t="s">
+      <c r="A9" s="11" t="s">
         <v>8</v>
       </c>
-      <c r="B9" s="11" t="s">
-        <v>159</v>
-      </c>
-      <c r="C9" s="11" t="s">
-        <v>159</v>
-      </c>
-      <c r="D9" s="11" t="s">
-        <v>159</v>
-      </c>
-      <c r="E9" s="11" t="s">
-        <v>159</v>
-      </c>
-      <c r="F9" s="11" t="s">
-        <v>159</v>
-      </c>
-      <c r="G9" s="11" t="s">
-        <v>159</v>
-      </c>
-      <c r="H9" s="11" t="s">
-        <v>159</v>
+      <c r="B9" s="10" t="s">
+        <v>157</v>
+      </c>
+      <c r="C9" s="10" t="s">
+        <v>157</v>
+      </c>
+      <c r="D9" s="10" t="s">
+        <v>157</v>
+      </c>
+      <c r="E9" s="10" t="s">
+        <v>157</v>
+      </c>
+      <c r="F9" s="10" t="s">
+        <v>157</v>
+      </c>
+      <c r="G9" s="10" t="s">
+        <v>157</v>
+      </c>
+      <c r="H9" s="10" t="s">
+        <v>157</v>
       </c>
     </row>
     <row r="10" spans="1:8" ht="15.75" x14ac:dyDescent="0.25">
-      <c r="A10" s="12" t="s">
+      <c r="A10" s="11" t="s">
         <v>9</v>
       </c>
-      <c r="B10" s="11" t="s">
-        <v>158</v>
-      </c>
-      <c r="C10" s="11" t="s">
-        <v>157</v>
-      </c>
-      <c r="D10" s="11" t="s">
+      <c r="B10" s="10" t="s">
         <v>156</v>
       </c>
-      <c r="E10" s="11" t="s">
+      <c r="C10" s="10" t="s">
         <v>155</v>
       </c>
-      <c r="F10" s="11" t="s">
+      <c r="D10" s="10" t="s">
         <v>154</v>
       </c>
-      <c r="G10" s="11" t="s">
+      <c r="E10" s="10" t="s">
         <v>153</v>
       </c>
-      <c r="H10" s="11" t="s">
+      <c r="F10" s="10" t="s">
         <v>152</v>
       </c>
+      <c r="G10" s="10" t="s">
+        <v>151</v>
+      </c>
+      <c r="H10" s="10" t="s">
+        <v>150</v>
+      </c>
     </row>
     <row r="11" spans="1:8" ht="100.5" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A11" s="12" t="s">
+      <c r="A11" s="11" t="s">
         <v>10</v>
       </c>
-      <c r="B11" s="13" t="s">
-        <v>151</v>
-      </c>
-      <c r="C11" s="13" t="s">
-        <v>150</v>
-      </c>
-      <c r="D11" s="13" t="s">
+      <c r="B11" s="12" t="s">
         <v>149</v>
       </c>
-      <c r="E11" s="13" t="s">
+      <c r="C11" s="12" t="s">
         <v>148</v>
       </c>
-      <c r="F11" s="13" t="s">
+      <c r="D11" s="12" t="s">
         <v>147</v>
       </c>
-      <c r="G11" s="13" t="s">
+      <c r="E11" s="12" t="s">
         <v>146</v>
       </c>
-      <c r="H11" s="13" t="s">
+      <c r="F11" s="12" t="s">
         <v>145</v>
       </c>
+      <c r="G11" s="12" t="s">
+        <v>144</v>
+      </c>
+      <c r="H11" s="12" t="s">
+        <v>143</v>
+      </c>
     </row>
     <row r="12" spans="1:8" ht="168" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A12" s="12" t="s">
+      <c r="A12" s="11" t="s">
         <v>11</v>
       </c>
-      <c r="B12" s="13" t="s">
+      <c r="B12" s="12" t="s">
+        <v>138</v>
+      </c>
+      <c r="C12" s="12" t="s">
+        <v>142</v>
+      </c>
+      <c r="D12" s="12" t="s">
+        <v>141</v>
+      </c>
+      <c r="E12" s="12" t="s">
         <v>140</v>
       </c>
-      <c r="C12" s="13" t="s">
-        <v>144</v>
-      </c>
-      <c r="D12" s="13" t="s">
-        <v>143</v>
-      </c>
-      <c r="E12" s="13" t="s">
-        <v>142</v>
-      </c>
-      <c r="F12" s="13" t="s">
-        <v>141</v>
-      </c>
-      <c r="G12" s="13" t="s">
-        <v>140</v>
-      </c>
-      <c r="H12" s="13" t="s">
+      <c r="F12" s="12" t="s">
         <v>139</v>
       </c>
+      <c r="G12" s="12" t="s">
+        <v>138</v>
+      </c>
+      <c r="H12" s="12" t="s">
+        <v>137</v>
+      </c>
     </row>
     <row r="13" spans="1:8" ht="18" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A13" s="12" t="s">
+      <c r="A13" s="11" t="s">
         <v>12</v>
       </c>
-      <c r="B13" s="13" t="s">
-        <v>13</v>
-      </c>
-      <c r="C13" s="13" t="s">
-        <v>13</v>
-      </c>
-      <c r="D13" s="13" t="s">
-        <v>13</v>
-      </c>
-      <c r="E13" s="13" t="s">
-        <v>13</v>
-      </c>
-      <c r="F13" s="13" t="s">
-        <v>13</v>
-      </c>
-      <c r="G13" s="13" t="s">
-        <v>13</v>
-      </c>
-      <c r="H13" s="13" t="s">
+      <c r="B13" s="12" t="s">
+        <v>13</v>
+      </c>
+      <c r="C13" s="12" t="s">
+        <v>13</v>
+      </c>
+      <c r="D13" s="12" t="s">
+        <v>13</v>
+      </c>
+      <c r="E13" s="12" t="s">
+        <v>13</v>
+      </c>
+      <c r="F13" s="12" t="s">
+        <v>13</v>
+      </c>
+      <c r="G13" s="12" t="s">
+        <v>13</v>
+      </c>
+      <c r="H13" s="12" t="s">
         <v>13</v>
       </c>
     </row>
     <row r="14" spans="1:8" ht="179.25" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A14" s="12" t="s">
-        <v>13</v>
-      </c>
-      <c r="B14" s="13" t="s">
-        <v>138</v>
-      </c>
-      <c r="C14" s="13" t="s">
-        <v>137</v>
-      </c>
-      <c r="D14" s="13" t="s">
+      <c r="A14" s="11" t="s">
+        <v>13</v>
+      </c>
+      <c r="B14" s="12" t="s">
         <v>136</v>
       </c>
-      <c r="E14" s="13" t="s">
+      <c r="C14" s="12" t="s">
         <v>135</v>
       </c>
-      <c r="F14" s="13" t="s">
+      <c r="D14" s="12" t="s">
         <v>134</v>
       </c>
-      <c r="G14" s="13" t="s">
+      <c r="E14" s="12" t="s">
         <v>133</v>
       </c>
-      <c r="H14" s="13" t="s">
+      <c r="F14" s="12" t="s">
         <v>132</v>
       </c>
+      <c r="G14" s="12" t="s">
+        <v>131</v>
+      </c>
+      <c r="H14" s="12" t="s">
+        <v>130</v>
+      </c>
     </row>
     <row r="15" spans="1:8" ht="32.25" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A15" s="12" t="s">
+      <c r="A15" s="11" t="s">
         <v>14</v>
       </c>
-      <c r="B15" s="13" t="s">
-        <v>131</v>
-      </c>
-      <c r="C15" s="13" t="s">
-        <v>130</v>
-      </c>
-      <c r="D15" s="13" t="s">
+      <c r="B15" s="12" t="s">
         <v>129</v>
       </c>
-      <c r="E15" s="13" t="s">
+      <c r="C15" s="12" t="s">
         <v>128</v>
       </c>
-      <c r="F15" s="13" t="s">
+      <c r="D15" s="12" t="s">
+        <v>127</v>
+      </c>
+      <c r="E15" s="12" t="s">
+        <v>126</v>
+      </c>
+      <c r="F15" s="12" t="s">
+        <v>119</v>
+      </c>
+      <c r="G15" s="12" t="s">
+        <v>125</v>
+      </c>
+      <c r="H15" s="12" t="s">
+        <v>124</v>
+      </c>
+    </row>
+    <row r="16" spans="1:8" ht="34.5" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A16" s="11" t="s">
+        <v>15</v>
+      </c>
+      <c r="B16" s="12" t="s">
+        <v>123</v>
+      </c>
+      <c r="C16" s="12" t="s">
+        <v>122</v>
+      </c>
+      <c r="D16" s="12" t="s">
         <v>121</v>
       </c>
-      <c r="G15" s="13" t="s">
-        <v>127</v>
-      </c>
-      <c r="H15" s="13" t="s">
-        <v>126</v>
-      </c>
-    </row>
-    <row r="16" spans="1:8" ht="34.5" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A16" s="12" t="s">
-        <v>15</v>
-      </c>
-      <c r="B16" s="13" t="s">
-        <v>125</v>
-      </c>
-      <c r="C16" s="13" t="s">
-        <v>124</v>
-      </c>
-      <c r="D16" s="13" t="s">
-        <v>123</v>
-      </c>
-      <c r="E16" s="13" t="s">
-        <v>122</v>
-      </c>
-      <c r="F16" s="13" t="s">
-        <v>121</v>
-      </c>
-      <c r="G16" s="13" t="s">
+      <c r="E16" s="12" t="s">
         <v>120</v>
       </c>
-      <c r="H16" s="13" t="s">
+      <c r="F16" s="12" t="s">
         <v>119</v>
       </c>
+      <c r="G16" s="12" t="s">
+        <v>118</v>
+      </c>
+      <c r="H16" s="12" t="s">
+        <v>117</v>
+      </c>
     </row>
     <row r="17" spans="1:8" ht="15.75" x14ac:dyDescent="0.25">
-      <c r="A17" s="12" t="s">
+      <c r="A17" s="11" t="s">
         <v>16</v>
       </c>
-      <c r="B17" s="14"/>
-      <c r="C17" s="14"/>
-      <c r="D17" s="14"/>
-      <c r="E17" s="14"/>
-      <c r="F17" s="14"/>
-      <c r="G17" s="14"/>
-      <c r="H17" s="14"/>
+      <c r="B17" s="13"/>
+      <c r="C17" s="13"/>
+      <c r="D17" s="13"/>
+      <c r="E17" s="13"/>
+      <c r="F17" s="13"/>
+      <c r="G17" s="13"/>
+      <c r="H17" s="13"/>
     </row>
     <row r="18" spans="1:8" ht="15.75" x14ac:dyDescent="0.25">
-      <c r="A18" s="12" t="s">
+      <c r="A18" s="11" t="s">
         <v>17</v>
       </c>
-      <c r="B18" s="13" t="s">
+      <c r="B18" s="12" t="s">
         <v>18</v>
       </c>
-      <c r="C18" s="13" t="s">
+      <c r="C18" s="12" t="s">
         <v>19</v>
       </c>
-      <c r="D18" s="13" t="s">
+      <c r="D18" s="12" t="s">
         <v>19</v>
       </c>
-      <c r="E18" s="13" t="s">
+      <c r="E18" s="12" t="s">
         <v>19</v>
       </c>
-      <c r="F18" s="13" t="s">
+      <c r="F18" s="12" t="s">
         <v>19</v>
       </c>
-      <c r="G18" s="13" t="s">
+      <c r="G18" s="12" t="s">
         <v>19</v>
       </c>
-      <c r="H18" s="13" t="s">
+      <c r="H18" s="12" t="s">
         <v>19</v>
       </c>
     </row>
     <row r="19" spans="1:8" ht="15.75" x14ac:dyDescent="0.25">
-      <c r="A19" s="12" t="s">
+      <c r="A19" s="11" t="s">
         <v>20</v>
       </c>
-      <c r="B19" s="11"/>
-      <c r="C19" s="10"/>
-      <c r="D19" s="10"/>
-      <c r="E19" s="10"/>
+      <c r="B19" s="10"/>
+      <c r="C19" s="9"/>
+      <c r="D19" s="9"/>
+      <c r="E19" s="9"/>
     </row>
     <row r="20" spans="1:8" ht="15.75" x14ac:dyDescent="0.25">
-      <c r="A20" s="12" t="s">
+      <c r="A20" s="11" t="s">
         <v>21</v>
       </c>
-      <c r="B20" s="11"/>
-      <c r="C20" s="10"/>
-      <c r="D20" s="10"/>
-      <c r="E20" s="10"/>
+      <c r="B20" s="10"/>
+      <c r="C20" s="9"/>
+      <c r="D20" s="9"/>
+      <c r="E20" s="9"/>
     </row>
     <row r="21" spans="1:8" ht="15.75" x14ac:dyDescent="0.25">
-      <c r="A21" s="12" t="s">
+      <c r="A21" s="11" t="s">
         <v>22</v>
       </c>
-      <c r="B21" s="11"/>
-      <c r="C21" s="10"/>
-      <c r="D21" s="10"/>
-      <c r="E21" s="10"/>
+      <c r="B21" s="10"/>
+      <c r="C21" s="9"/>
+      <c r="D21" s="9"/>
+      <c r="E21" s="9"/>
     </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
@@ -3107,16 +3136,16 @@
         <v>6</v>
       </c>
       <c r="B8" s="1" t="s">
-        <v>183</v>
+        <v>181</v>
       </c>
       <c r="C8" s="1" t="s">
-        <v>183</v>
+        <v>181</v>
       </c>
       <c r="D8" s="1" t="s">
-        <v>183</v>
+        <v>181</v>
       </c>
       <c r="E8" s="1" t="s">
-        <v>183</v>
+        <v>181</v>
       </c>
       <c r="F8" s="1"/>
       <c r="G8" s="1"/>
@@ -3129,16 +3158,16 @@
         <v>8</v>
       </c>
       <c r="B9" s="1" t="s">
-        <v>182</v>
+        <v>180</v>
       </c>
       <c r="C9" s="1" t="s">
-        <v>182</v>
+        <v>180</v>
       </c>
       <c r="D9" s="1" t="s">
-        <v>182</v>
+        <v>180</v>
       </c>
       <c r="E9" s="1" t="s">
-        <v>182</v>
+        <v>180</v>
       </c>
       <c r="F9" s="1"/>
       <c r="G9" s="1"/>
@@ -3151,16 +3180,16 @@
         <v>9</v>
       </c>
       <c r="B10" s="1" t="s">
-        <v>181</v>
+        <v>179</v>
       </c>
       <c r="C10" s="1" t="s">
-        <v>180</v>
+        <v>178</v>
       </c>
       <c r="D10" s="1" t="s">
-        <v>179</v>
+        <v>177</v>
       </c>
       <c r="E10" s="1" t="s">
-        <v>179</v>
+        <v>177</v>
       </c>
       <c r="F10" s="1"/>
       <c r="G10" s="1"/>
@@ -3173,16 +3202,16 @@
         <v>10</v>
       </c>
       <c r="B11" s="1" t="s">
-        <v>178</v>
+        <v>176</v>
       </c>
       <c r="C11" s="1" t="s">
-        <v>177</v>
+        <v>175</v>
       </c>
       <c r="D11" s="1" t="s">
-        <v>176</v>
+        <v>174</v>
       </c>
       <c r="E11" s="1" t="s">
-        <v>175</v>
+        <v>173</v>
       </c>
       <c r="F11" s="1"/>
       <c r="G11" s="1"/>
@@ -3195,16 +3224,16 @@
         <v>11</v>
       </c>
       <c r="B12" s="1" t="s">
-        <v>174</v>
+        <v>172</v>
       </c>
       <c r="C12" s="1" t="s">
-        <v>173</v>
+        <v>171</v>
       </c>
       <c r="D12" s="1" t="s">
-        <v>172</v>
+        <v>170</v>
       </c>
       <c r="E12" s="1" t="s">
-        <v>171</v>
+        <v>169</v>
       </c>
       <c r="F12" s="1"/>
       <c r="G12" s="1"/>
@@ -3239,16 +3268,16 @@
         <v>13</v>
       </c>
       <c r="B14" s="1" t="s">
-        <v>170</v>
+        <v>168</v>
       </c>
       <c r="C14" s="1" t="s">
-        <v>170</v>
+        <v>168</v>
       </c>
       <c r="D14" s="1" t="s">
-        <v>169</v>
+        <v>167</v>
       </c>
       <c r="E14" s="1" t="s">
-        <v>168</v>
+        <v>166</v>
       </c>
       <c r="F14" s="1"/>
       <c r="G14" s="1"/>
@@ -3261,16 +3290,16 @@
         <v>14</v>
       </c>
       <c r="B15" s="1" t="s">
-        <v>167</v>
+        <v>165</v>
       </c>
       <c r="C15" s="1" t="s">
-        <v>166</v>
+        <v>164</v>
       </c>
       <c r="D15" s="1" t="s">
-        <v>165</v>
+        <v>163</v>
       </c>
       <c r="E15" s="1" t="s">
-        <v>164</v>
+        <v>162</v>
       </c>
       <c r="F15" s="1"/>
       <c r="G15" s="1"/>
@@ -3283,16 +3312,16 @@
         <v>15</v>
       </c>
       <c r="B16" s="1" t="s">
-        <v>163</v>
+        <v>161</v>
       </c>
       <c r="C16" s="1" t="s">
-        <v>162</v>
+        <v>160</v>
       </c>
       <c r="D16" s="1" t="s">
-        <v>161</v>
+        <v>159</v>
       </c>
       <c r="E16" s="1" t="s">
-        <v>160</v>
+        <v>158</v>
       </c>
       <c r="F16" s="1"/>
       <c r="G16" s="1"/>
@@ -3406,16 +3435,16 @@
         <v>6</v>
       </c>
       <c r="B8" s="1" t="s">
-        <v>184</v>
+        <v>182</v>
       </c>
       <c r="C8" s="1" t="s">
-        <v>184</v>
+        <v>182</v>
       </c>
       <c r="D8" s="1" t="s">
-        <v>184</v>
+        <v>182</v>
       </c>
       <c r="E8" s="1" t="s">
-        <v>184</v>
+        <v>182</v>
       </c>
       <c r="F8" s="1"/>
       <c r="G8" s="1"/>
@@ -3428,16 +3457,16 @@
         <v>8</v>
       </c>
       <c r="B9" s="1" t="s">
-        <v>185</v>
+        <v>183</v>
       </c>
       <c r="C9" s="1" t="s">
-        <v>185</v>
+        <v>183</v>
       </c>
       <c r="D9" s="1" t="s">
-        <v>185</v>
+        <v>183</v>
       </c>
       <c r="E9" s="1" t="s">
-        <v>185</v>
+        <v>183</v>
       </c>
       <c r="F9" s="1"/>
       <c r="G9" s="1"/>
@@ -3450,16 +3479,16 @@
         <v>9</v>
       </c>
       <c r="B10" s="1" t="s">
+        <v>184</v>
+      </c>
+      <c r="C10" s="1" t="s">
+        <v>185</v>
+      </c>
+      <c r="D10" s="1" t="s">
         <v>186</v>
       </c>
-      <c r="C10" s="1" t="s">
-        <v>187</v>
-      </c>
-      <c r="D10" s="1" t="s">
-        <v>188</v>
-      </c>
       <c r="E10" s="1" t="s">
-        <v>188</v>
+        <v>186</v>
       </c>
       <c r="F10" s="1"/>
       <c r="G10" s="1"/>
@@ -3472,16 +3501,16 @@
         <v>10</v>
       </c>
       <c r="B11" s="1" t="s">
-        <v>189</v>
+        <v>187</v>
       </c>
       <c r="C11" s="1" t="s">
-        <v>177</v>
+        <v>175</v>
       </c>
       <c r="D11" s="1" t="s">
-        <v>176</v>
+        <v>174</v>
       </c>
       <c r="E11" s="1" t="s">
-        <v>175</v>
+        <v>173</v>
       </c>
       <c r="F11" s="1"/>
       <c r="G11" s="1"/>
@@ -3494,7 +3523,7 @@
         <v>11</v>
       </c>
       <c r="B12" s="1" t="s">
-        <v>190</v>
+        <v>188</v>
       </c>
       <c r="C12" s="1"/>
       <c r="D12" s="1"/>
@@ -3526,7 +3555,7 @@
         <v>13</v>
       </c>
       <c r="B14" s="1" t="s">
-        <v>191</v>
+        <v>189</v>
       </c>
       <c r="C14" s="1"/>
       <c r="D14" s="1"/>
@@ -3542,7 +3571,7 @@
         <v>14</v>
       </c>
       <c r="B15" s="1" t="s">
-        <v>192</v>
+        <v>190</v>
       </c>
       <c r="C15" s="1"/>
       <c r="D15" s="1"/>
@@ -3558,7 +3587,7 @@
         <v>15</v>
       </c>
       <c r="B16" s="1" t="s">
-        <v>193</v>
+        <v>191</v>
       </c>
       <c r="C16" s="1"/>
       <c r="D16" s="1"/>
@@ -3628,372 +3657,372 @@
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="1" max="4" width="24" style="9" customWidth="1"/>
-    <col min="5" max="6" width="23.875" style="9" customWidth="1"/>
-    <col min="7" max="8" width="24" style="9" customWidth="1"/>
-    <col min="9" max="16384" width="9" style="9"/>
+    <col min="1" max="4" width="24" style="8" customWidth="1"/>
+    <col min="5" max="6" width="23.875" style="8" customWidth="1"/>
+    <col min="7" max="8" width="24" style="8" customWidth="1"/>
+    <col min="9" max="16384" width="9" style="8"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:8" ht="15.75" x14ac:dyDescent="0.25">
-      <c r="A1" s="12" t="s">
+      <c r="A1" s="11" t="s">
         <v>0</v>
       </c>
-      <c r="B1" s="10"/>
-      <c r="C1" s="10"/>
-      <c r="D1" s="10"/>
-      <c r="E1" s="10"/>
-      <c r="F1" s="10"/>
-      <c r="G1" s="10"/>
-      <c r="H1" s="10"/>
+      <c r="B1" s="9"/>
+      <c r="C1" s="9"/>
+      <c r="D1" s="9"/>
+      <c r="E1" s="9"/>
+      <c r="F1" s="9"/>
+      <c r="G1" s="9"/>
+      <c r="H1" s="9"/>
     </row>
     <row r="2" spans="1:8" ht="15.75" x14ac:dyDescent="0.25">
-      <c r="A2" s="12" t="s">
+      <c r="A2" s="11" t="s">
         <v>1</v>
       </c>
-      <c r="B2" s="10"/>
-      <c r="C2" s="10"/>
-      <c r="D2" s="10"/>
-      <c r="E2" s="10"/>
-      <c r="F2" s="10"/>
-      <c r="G2" s="10"/>
-      <c r="H2" s="10"/>
+      <c r="B2" s="9"/>
+      <c r="C2" s="9"/>
+      <c r="D2" s="9"/>
+      <c r="E2" s="9"/>
+      <c r="F2" s="9"/>
+      <c r="G2" s="9"/>
+      <c r="H2" s="9"/>
     </row>
     <row r="3" spans="1:8" ht="15.75" x14ac:dyDescent="0.25">
-      <c r="A3" s="12" t="s">
+      <c r="A3" s="11" t="s">
         <v>2</v>
       </c>
-      <c r="B3" s="10"/>
-      <c r="C3" s="10"/>
-      <c r="D3" s="10"/>
-      <c r="E3" s="10"/>
-      <c r="F3" s="10"/>
-      <c r="G3" s="10"/>
-      <c r="H3" s="10"/>
+      <c r="B3" s="9"/>
+      <c r="C3" s="9"/>
+      <c r="D3" s="9"/>
+      <c r="E3" s="9"/>
+      <c r="F3" s="9"/>
+      <c r="G3" s="9"/>
+      <c r="H3" s="9"/>
     </row>
     <row r="4" spans="1:8" ht="15.75" x14ac:dyDescent="0.25">
-      <c r="A4" s="12" t="s">
+      <c r="A4" s="11" t="s">
         <v>3</v>
       </c>
-      <c r="B4" s="10"/>
-      <c r="C4" s="10"/>
-      <c r="D4" s="10"/>
-      <c r="E4" s="10"/>
-      <c r="F4" s="10"/>
-      <c r="G4" s="10"/>
-      <c r="H4" s="10"/>
+      <c r="B4" s="9"/>
+      <c r="C4" s="9"/>
+      <c r="D4" s="9"/>
+      <c r="E4" s="9"/>
+      <c r="F4" s="9"/>
+      <c r="G4" s="9"/>
+      <c r="H4" s="9"/>
     </row>
     <row r="5" spans="1:8" ht="15.75" x14ac:dyDescent="0.25">
-      <c r="A5" s="12" t="s">
+      <c r="A5" s="11" t="s">
         <v>4</v>
       </c>
-      <c r="B5" s="10"/>
-      <c r="C5" s="10"/>
-      <c r="D5" s="10"/>
-      <c r="E5" s="10"/>
-      <c r="F5" s="10"/>
-      <c r="G5" s="10"/>
-      <c r="H5" s="10"/>
+      <c r="B5" s="9"/>
+      <c r="C5" s="9"/>
+      <c r="D5" s="9"/>
+      <c r="E5" s="9"/>
+      <c r="F5" s="9"/>
+      <c r="G5" s="9"/>
+      <c r="H5" s="9"/>
     </row>
     <row r="6" spans="1:8" ht="15.75" x14ac:dyDescent="0.25">
-      <c r="A6" s="12" t="s">
+      <c r="A6" s="11" t="s">
         <v>5</v>
       </c>
-      <c r="B6" s="10"/>
-      <c r="C6" s="10"/>
-      <c r="D6" s="10"/>
-      <c r="E6" s="10"/>
-      <c r="F6" s="10"/>
-      <c r="G6" s="10"/>
-      <c r="H6" s="10"/>
+      <c r="B6" s="9"/>
+      <c r="C6" s="9"/>
+      <c r="D6" s="9"/>
+      <c r="E6" s="9"/>
+      <c r="F6" s="9"/>
+      <c r="G6" s="9"/>
+      <c r="H6" s="9"/>
     </row>
     <row r="7" spans="1:8" ht="15.75" x14ac:dyDescent="0.25">
-      <c r="A7" s="10"/>
-      <c r="B7" s="11"/>
-      <c r="C7" s="10"/>
-      <c r="D7" s="10"/>
-      <c r="E7" s="10"/>
-      <c r="F7" s="10"/>
-      <c r="G7" s="10"/>
-      <c r="H7" s="10"/>
+      <c r="A7" s="9"/>
+      <c r="B7" s="10"/>
+      <c r="C7" s="9"/>
+      <c r="D7" s="9"/>
+      <c r="E7" s="9"/>
+      <c r="F7" s="9"/>
+      <c r="G7" s="9"/>
+      <c r="H7" s="9"/>
     </row>
     <row r="8" spans="1:8" ht="15.75" x14ac:dyDescent="0.25">
-      <c r="A8" s="12" t="s">
+      <c r="A8" s="11" t="s">
         <v>6</v>
       </c>
-      <c r="B8" s="11" t="s">
+      <c r="B8" s="10" t="s">
         <v>7</v>
       </c>
-      <c r="C8" s="11" t="s">
+      <c r="C8" s="10" t="s">
         <v>7</v>
       </c>
-      <c r="D8" s="11" t="s">
+      <c r="D8" s="10" t="s">
         <v>7</v>
       </c>
-      <c r="E8" s="11" t="s">
+      <c r="E8" s="10" t="s">
         <v>7</v>
       </c>
-      <c r="F8" s="11" t="s">
+      <c r="F8" s="10" t="s">
         <v>7</v>
       </c>
-      <c r="G8" s="11" t="s">
+      <c r="G8" s="10" t="s">
         <v>7</v>
       </c>
-      <c r="H8" s="11"/>
+      <c r="H8" s="10"/>
     </row>
     <row r="9" spans="1:8" ht="31.5" x14ac:dyDescent="0.25">
-      <c r="A9" s="12" t="s">
+      <c r="A9" s="11" t="s">
         <v>8</v>
       </c>
-      <c r="B9" s="11" t="s">
-        <v>220</v>
-      </c>
-      <c r="C9" s="11" t="s">
-        <v>220</v>
-      </c>
-      <c r="D9" s="11" t="s">
-        <v>220</v>
-      </c>
-      <c r="E9" s="11" t="s">
-        <v>220</v>
-      </c>
-      <c r="F9" s="11" t="s">
-        <v>220</v>
-      </c>
-      <c r="G9" s="11" t="s">
-        <v>220</v>
-      </c>
-      <c r="H9" s="11"/>
+      <c r="B9" s="10" t="s">
+        <v>218</v>
+      </c>
+      <c r="C9" s="10" t="s">
+        <v>218</v>
+      </c>
+      <c r="D9" s="10" t="s">
+        <v>218</v>
+      </c>
+      <c r="E9" s="10" t="s">
+        <v>218</v>
+      </c>
+      <c r="F9" s="10" t="s">
+        <v>218</v>
+      </c>
+      <c r="G9" s="10" t="s">
+        <v>218</v>
+      </c>
+      <c r="H9" s="10"/>
     </row>
     <row r="10" spans="1:8" ht="15.75" x14ac:dyDescent="0.25">
-      <c r="A10" s="12" t="s">
+      <c r="A10" s="11" t="s">
         <v>9</v>
       </c>
-      <c r="B10" s="11" t="s">
-        <v>219</v>
-      </c>
-      <c r="C10" s="11" t="s">
-        <v>218</v>
-      </c>
-      <c r="D10" s="11" t="s">
+      <c r="B10" s="10" t="s">
         <v>217</v>
       </c>
-      <c r="E10" s="11" t="s">
+      <c r="C10" s="10" t="s">
         <v>216</v>
       </c>
-      <c r="F10" s="11" t="s">
+      <c r="D10" s="10" t="s">
         <v>215</v>
       </c>
-      <c r="G10" s="11" t="s">
+      <c r="E10" s="10" t="s">
         <v>214</v>
       </c>
-      <c r="H10" s="11"/>
+      <c r="F10" s="10" t="s">
+        <v>213</v>
+      </c>
+      <c r="G10" s="10" t="s">
+        <v>212</v>
+      </c>
+      <c r="H10" s="10"/>
     </row>
     <row r="11" spans="1:8" ht="99.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A11" s="12" t="s">
+      <c r="A11" s="11" t="s">
         <v>10</v>
       </c>
-      <c r="B11" s="13" t="s">
-        <v>212</v>
-      </c>
-      <c r="C11" s="13" t="s">
+      <c r="B11" s="12" t="s">
+        <v>210</v>
+      </c>
+      <c r="C11" s="12" t="s">
+        <v>203</v>
+      </c>
+      <c r="D11" s="12" t="s">
+        <v>211</v>
+      </c>
+      <c r="E11" s="12" t="s">
+        <v>242</v>
+      </c>
+      <c r="F11" s="12" t="s">
+        <v>243</v>
+      </c>
+      <c r="G11" s="12" t="s">
+        <v>244</v>
+      </c>
+      <c r="H11" s="12"/>
+    </row>
+    <row r="12" spans="1:8" ht="168.75" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A12" s="11" t="s">
+        <v>11</v>
+      </c>
+      <c r="B12" s="12" t="s">
+        <v>209</v>
+      </c>
+      <c r="C12" s="12" t="s">
+        <v>203</v>
+      </c>
+      <c r="D12" s="12" t="s">
+        <v>208</v>
+      </c>
+      <c r="E12" s="12" t="s">
+        <v>207</v>
+      </c>
+      <c r="F12" s="12" t="s">
+        <v>206</v>
+      </c>
+      <c r="G12" s="12" t="s">
         <v>205</v>
       </c>
-      <c r="D11" s="13" t="s">
-        <v>213</v>
-      </c>
-      <c r="E11" s="13" t="s">
-        <v>244</v>
-      </c>
-      <c r="F11" s="13" t="s">
-        <v>245</v>
-      </c>
-      <c r="G11" s="13" t="s">
-        <v>246</v>
-      </c>
-      <c r="H11" s="13"/>
-    </row>
-    <row r="12" spans="1:8" ht="168.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A12" s="12" t="s">
-        <v>11</v>
-      </c>
-      <c r="B12" s="13" t="s">
-        <v>211</v>
-      </c>
-      <c r="C12" s="13" t="s">
-        <v>205</v>
-      </c>
-      <c r="D12" s="13" t="s">
-        <v>210</v>
-      </c>
-      <c r="E12" s="13" t="s">
-        <v>209</v>
-      </c>
-      <c r="F12" s="13" t="s">
-        <v>208</v>
-      </c>
-      <c r="G12" s="13" t="s">
-        <v>207</v>
-      </c>
-      <c r="H12" s="13"/>
+      <c r="H12" s="12"/>
     </row>
     <row r="13" spans="1:8" ht="15.75" x14ac:dyDescent="0.25">
-      <c r="A13" s="12" t="s">
+      <c r="A13" s="11" t="s">
         <v>12</v>
       </c>
-      <c r="B13" s="13" t="s">
-        <v>13</v>
-      </c>
-      <c r="C13" s="13" t="s">
-        <v>13</v>
-      </c>
-      <c r="D13" s="13" t="s">
-        <v>13</v>
-      </c>
-      <c r="E13" s="13" t="s">
-        <v>13</v>
-      </c>
-      <c r="F13" s="13" t="s">
-        <v>13</v>
-      </c>
-      <c r="G13" s="13" t="s">
-        <v>13</v>
-      </c>
-      <c r="H13" s="13"/>
+      <c r="B13" s="12" t="s">
+        <v>13</v>
+      </c>
+      <c r="C13" s="12" t="s">
+        <v>13</v>
+      </c>
+      <c r="D13" s="12" t="s">
+        <v>13</v>
+      </c>
+      <c r="E13" s="12" t="s">
+        <v>13</v>
+      </c>
+      <c r="F13" s="12" t="s">
+        <v>13</v>
+      </c>
+      <c r="G13" s="12" t="s">
+        <v>13</v>
+      </c>
+      <c r="H13" s="12"/>
     </row>
     <row r="14" spans="1:8" ht="209.25" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A14" s="12" t="s">
-        <v>13</v>
-      </c>
-      <c r="B14" s="13" t="s">
-        <v>206</v>
-      </c>
-      <c r="C14" s="13" t="s">
-        <v>205</v>
-      </c>
-      <c r="D14" s="13" t="s">
+      <c r="A14" s="11" t="s">
+        <v>13</v>
+      </c>
+      <c r="B14" s="12" t="s">
         <v>204</v>
       </c>
-      <c r="E14" s="13" t="s">
+      <c r="C14" s="12" t="s">
         <v>203</v>
       </c>
-      <c r="F14" s="13" t="s">
+      <c r="D14" s="12" t="s">
         <v>202</v>
       </c>
-      <c r="G14" s="13" t="s">
+      <c r="E14" s="12" t="s">
         <v>201</v>
       </c>
-      <c r="H14" s="13"/>
+      <c r="F14" s="12" t="s">
+        <v>200</v>
+      </c>
+      <c r="G14" s="12" t="s">
+        <v>199</v>
+      </c>
+      <c r="H14" s="12"/>
     </row>
     <row r="15" spans="1:8" ht="47.25" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A15" s="12" t="s">
+      <c r="A15" s="11" t="s">
         <v>14</v>
       </c>
-      <c r="B15" s="13" t="s">
-        <v>200</v>
-      </c>
-      <c r="C15" s="13" t="s">
+      <c r="B15" s="12" t="s">
         <v>198</v>
       </c>
-      <c r="D15" s="13" t="s">
+      <c r="C15" s="12" t="s">
+        <v>196</v>
+      </c>
+      <c r="D15" s="12" t="s">
+        <v>195</v>
+      </c>
+      <c r="E15" s="12" t="s">
+        <v>194</v>
+      </c>
+      <c r="F15" s="12" t="s">
+        <v>193</v>
+      </c>
+      <c r="G15" s="12" t="s">
+        <v>192</v>
+      </c>
+      <c r="H15" s="12"/>
+    </row>
+    <row r="16" spans="1:8" ht="51.75" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A16" s="11" t="s">
+        <v>15</v>
+      </c>
+      <c r="B16" s="12" t="s">
         <v>197</v>
       </c>
-      <c r="E15" s="13" t="s">
+      <c r="C16" s="12" t="s">
         <v>196</v>
       </c>
-      <c r="F15" s="13" t="s">
+      <c r="D16" s="12" t="s">
         <v>195</v>
       </c>
-      <c r="G15" s="13" t="s">
+      <c r="E16" s="12" t="s">
         <v>194</v>
       </c>
-      <c r="H15" s="13"/>
-    </row>
-    <row r="16" spans="1:8" ht="51.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A16" s="12" t="s">
-        <v>15</v>
-      </c>
-      <c r="B16" s="13" t="s">
-        <v>199</v>
-      </c>
-      <c r="C16" s="13" t="s">
-        <v>198</v>
-      </c>
-      <c r="D16" s="13" t="s">
-        <v>197</v>
-      </c>
-      <c r="E16" s="13" t="s">
-        <v>196</v>
-      </c>
-      <c r="F16" s="13" t="s">
-        <v>195</v>
-      </c>
-      <c r="G16" s="13" t="s">
-        <v>194</v>
-      </c>
-      <c r="H16" s="13"/>
+      <c r="F16" s="12" t="s">
+        <v>193</v>
+      </c>
+      <c r="G16" s="12" t="s">
+        <v>192</v>
+      </c>
+      <c r="H16" s="12"/>
     </row>
     <row r="17" spans="1:8" ht="15.75" x14ac:dyDescent="0.25">
-      <c r="A17" s="12" t="s">
+      <c r="A17" s="11" t="s">
         <v>16</v>
       </c>
-      <c r="B17" s="14"/>
-      <c r="C17" s="14"/>
-      <c r="D17" s="14"/>
-      <c r="E17" s="14"/>
-      <c r="F17" s="14"/>
-      <c r="G17" s="14"/>
-      <c r="H17" s="14"/>
+      <c r="B17" s="13"/>
+      <c r="C17" s="13"/>
+      <c r="D17" s="13"/>
+      <c r="E17" s="13"/>
+      <c r="F17" s="13"/>
+      <c r="G17" s="13"/>
+      <c r="H17" s="13"/>
     </row>
     <row r="18" spans="1:8" ht="15.75" x14ac:dyDescent="0.25">
-      <c r="A18" s="12" t="s">
+      <c r="A18" s="11" t="s">
         <v>17</v>
       </c>
-      <c r="B18" s="13" t="s">
+      <c r="B18" s="12" t="s">
         <v>18</v>
       </c>
-      <c r="C18" s="13" t="s">
+      <c r="C18" s="12" t="s">
         <v>19</v>
       </c>
-      <c r="D18" s="13" t="s">
+      <c r="D18" s="12" t="s">
         <v>19</v>
       </c>
-      <c r="E18" s="13" t="s">
+      <c r="E18" s="12" t="s">
         <v>19</v>
       </c>
-      <c r="F18" s="13" t="s">
+      <c r="F18" s="12" t="s">
         <v>19</v>
       </c>
-      <c r="G18" s="13" t="s">
+      <c r="G18" s="12" t="s">
         <v>19</v>
       </c>
-      <c r="H18" s="13"/>
+      <c r="H18" s="12"/>
     </row>
     <row r="19" spans="1:8" ht="15.75" x14ac:dyDescent="0.25">
-      <c r="A19" s="12" t="s">
+      <c r="A19" s="11" t="s">
         <v>20</v>
       </c>
-      <c r="B19" s="11"/>
-      <c r="C19" s="10"/>
-      <c r="D19" s="10"/>
-      <c r="E19" s="10"/>
+      <c r="B19" s="10"/>
+      <c r="C19" s="9"/>
+      <c r="D19" s="9"/>
+      <c r="E19" s="9"/>
     </row>
     <row r="20" spans="1:8" ht="15.75" x14ac:dyDescent="0.25">
-      <c r="A20" s="12" t="s">
+      <c r="A20" s="11" t="s">
         <v>21</v>
       </c>
-      <c r="B20" s="11"/>
-      <c r="C20" s="10"/>
-      <c r="D20" s="10"/>
-      <c r="E20" s="10"/>
+      <c r="B20" s="10"/>
+      <c r="C20" s="9"/>
+      <c r="D20" s="9"/>
+      <c r="E20" s="9"/>
     </row>
     <row r="21" spans="1:8" ht="15.75" x14ac:dyDescent="0.25">
-      <c r="A21" s="12" t="s">
+      <c r="A21" s="11" t="s">
         <v>22</v>
       </c>
-      <c r="B21" s="11"/>
-      <c r="C21" s="10"/>
-      <c r="D21" s="10"/>
-      <c r="E21" s="10"/>
+      <c r="B21" s="10"/>
+      <c r="C21" s="9"/>
+      <c r="D21" s="9"/>
+      <c r="E21" s="9"/>
     </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
@@ -4055,22 +4084,22 @@
       <c r="A8" s="3" t="s">
         <v>6</v>
       </c>
-      <c r="B8" s="15" t="s">
+      <c r="B8" s="14" t="s">
         <v>7</v>
       </c>
-      <c r="C8" s="15" t="s">
+      <c r="C8" s="14" t="s">
         <v>7</v>
       </c>
-      <c r="D8" s="15" t="s">
+      <c r="D8" s="14" t="s">
         <v>7</v>
       </c>
-      <c r="E8" s="15" t="s">
+      <c r="E8" s="14" t="s">
         <v>7</v>
       </c>
-      <c r="F8" s="15" t="s">
+      <c r="F8" s="14" t="s">
         <v>7</v>
       </c>
-      <c r="G8" s="15"/>
+      <c r="G8" s="14"/>
       <c r="H8" s="1"/>
       <c r="I8" s="1"/>
     </row>
@@ -4078,22 +4107,22 @@
       <c r="A9" s="3" t="s">
         <v>8</v>
       </c>
-      <c r="B9" s="15" t="s">
-        <v>221</v>
-      </c>
-      <c r="C9" s="15" t="s">
-        <v>221</v>
-      </c>
-      <c r="D9" s="15" t="s">
-        <v>221</v>
-      </c>
-      <c r="E9" s="15" t="s">
-        <v>221</v>
-      </c>
-      <c r="F9" s="15" t="s">
-        <v>221</v>
-      </c>
-      <c r="G9" s="15"/>
+      <c r="B9" s="14" t="s">
+        <v>219</v>
+      </c>
+      <c r="C9" s="14" t="s">
+        <v>219</v>
+      </c>
+      <c r="D9" s="14" t="s">
+        <v>219</v>
+      </c>
+      <c r="E9" s="14" t="s">
+        <v>219</v>
+      </c>
+      <c r="F9" s="14" t="s">
+        <v>219</v>
+      </c>
+      <c r="G9" s="14"/>
       <c r="H9" s="1"/>
       <c r="I9" s="1"/>
     </row>
@@ -4101,22 +4130,22 @@
       <c r="A10" s="3" t="s">
         <v>9</v>
       </c>
-      <c r="B10" s="15" t="s">
+      <c r="B10" s="14" t="s">
         <v>102</v>
       </c>
-      <c r="C10" s="15" t="s">
+      <c r="C10" s="14" t="s">
         <v>101</v>
       </c>
-      <c r="D10" s="15" t="s">
+      <c r="D10" s="14" t="s">
         <v>100</v>
       </c>
-      <c r="E10" s="15" t="s">
+      <c r="E10" s="14" t="s">
         <v>99</v>
       </c>
-      <c r="F10" s="15" t="s">
+      <c r="F10" s="14" t="s">
         <v>98</v>
       </c>
-      <c r="G10" s="15"/>
+      <c r="G10" s="14"/>
       <c r="H10" s="1"/>
       <c r="I10" s="1"/>
     </row>
@@ -4124,22 +4153,22 @@
       <c r="A11" s="3" t="s">
         <v>10</v>
       </c>
-      <c r="B11" s="15" t="s">
+      <c r="B11" s="14" t="s">
+        <v>220</v>
+      </c>
+      <c r="C11" s="14" t="s">
+        <v>221</v>
+      </c>
+      <c r="D11" s="14" t="s">
         <v>222</v>
       </c>
-      <c r="C11" s="15" t="s">
+      <c r="E11" s="14" t="s">
         <v>223</v>
       </c>
-      <c r="D11" s="15" t="s">
+      <c r="F11" s="14" t="s">
         <v>224</v>
       </c>
-      <c r="E11" s="15" t="s">
-        <v>225</v>
-      </c>
-      <c r="F11" s="15" t="s">
-        <v>226</v>
-      </c>
-      <c r="G11" s="15"/>
+      <c r="G11" s="14"/>
       <c r="H11" s="1"/>
       <c r="I11" s="1"/>
     </row>
@@ -4147,22 +4176,22 @@
       <c r="A12" s="3" t="s">
         <v>11</v>
       </c>
-      <c r="B12" s="15" t="s">
+      <c r="B12" s="14" t="s">
+        <v>225</v>
+      </c>
+      <c r="C12" s="14" t="s">
+        <v>226</v>
+      </c>
+      <c r="D12" s="14" t="s">
         <v>227</v>
       </c>
-      <c r="C12" s="15" t="s">
+      <c r="E12" s="14" t="s">
         <v>228</v>
       </c>
-      <c r="D12" s="15" t="s">
+      <c r="F12" s="14" t="s">
         <v>229</v>
       </c>
-      <c r="E12" s="15" t="s">
-        <v>230</v>
-      </c>
-      <c r="F12" s="15" t="s">
-        <v>231</v>
-      </c>
-      <c r="G12" s="15"/>
+      <c r="G12" s="14"/>
       <c r="H12" s="1"/>
       <c r="I12" s="1"/>
     </row>
@@ -4170,22 +4199,22 @@
       <c r="A13" s="3" t="s">
         <v>12</v>
       </c>
-      <c r="B13" s="15" t="s">
-        <v>13</v>
-      </c>
-      <c r="C13" s="15" t="s">
-        <v>13</v>
-      </c>
-      <c r="D13" s="15" t="s">
-        <v>13</v>
-      </c>
-      <c r="E13" s="15" t="s">
-        <v>13</v>
-      </c>
-      <c r="F13" s="15" t="s">
-        <v>13</v>
-      </c>
-      <c r="G13" s="15"/>
+      <c r="B13" s="14" t="s">
+        <v>13</v>
+      </c>
+      <c r="C13" s="14" t="s">
+        <v>13</v>
+      </c>
+      <c r="D13" s="14" t="s">
+        <v>13</v>
+      </c>
+      <c r="E13" s="14" t="s">
+        <v>13</v>
+      </c>
+      <c r="F13" s="14" t="s">
+        <v>13</v>
+      </c>
+      <c r="G13" s="14"/>
       <c r="H13" s="1"/>
       <c r="I13" s="1"/>
     </row>
@@ -4193,22 +4222,22 @@
       <c r="A14" s="3" t="s">
         <v>13</v>
       </c>
-      <c r="B14" s="15" t="s">
+      <c r="B14" s="14" t="s">
+        <v>230</v>
+      </c>
+      <c r="C14" s="14" t="s">
+        <v>231</v>
+      </c>
+      <c r="D14" s="14" t="s">
         <v>232</v>
       </c>
-      <c r="C14" s="15" t="s">
+      <c r="E14" s="14" t="s">
         <v>233</v>
       </c>
-      <c r="D14" s="15" t="s">
+      <c r="F14" s="14" t="s">
         <v>234</v>
       </c>
-      <c r="E14" s="15" t="s">
-        <v>235</v>
-      </c>
-      <c r="F14" s="15" t="s">
-        <v>236</v>
-      </c>
-      <c r="G14" s="15"/>
+      <c r="G14" s="14"/>
       <c r="H14" s="1"/>
       <c r="I14" s="1"/>
     </row>
@@ -4216,22 +4245,22 @@
       <c r="A15" s="3" t="s">
         <v>14</v>
       </c>
-      <c r="B15" s="15" t="s">
-        <v>237</v>
-      </c>
-      <c r="C15" s="15" t="s">
-        <v>238</v>
-      </c>
-      <c r="D15" s="15" t="s">
-        <v>238</v>
-      </c>
-      <c r="E15" s="15" t="s">
-        <v>238</v>
-      </c>
-      <c r="F15" s="15" t="s">
-        <v>238</v>
-      </c>
-      <c r="G15" s="15"/>
+      <c r="B15" s="14" t="s">
+        <v>235</v>
+      </c>
+      <c r="C15" s="14" t="s">
+        <v>236</v>
+      </c>
+      <c r="D15" s="14" t="s">
+        <v>236</v>
+      </c>
+      <c r="E15" s="14" t="s">
+        <v>236</v>
+      </c>
+      <c r="F15" s="14" t="s">
+        <v>236</v>
+      </c>
+      <c r="G15" s="14"/>
       <c r="H15" s="1"/>
       <c r="I15" s="1"/>
     </row>
@@ -4239,22 +4268,22 @@
       <c r="A16" s="3" t="s">
         <v>15</v>
       </c>
-      <c r="B16" s="15" t="s">
+      <c r="B16" s="14" t="s">
+        <v>237</v>
+      </c>
+      <c r="C16" s="14" t="s">
+        <v>238</v>
+      </c>
+      <c r="D16" s="14" t="s">
         <v>239</v>
       </c>
-      <c r="C16" s="15" t="s">
+      <c r="E16" s="14" t="s">
         <v>240</v>
       </c>
-      <c r="D16" s="15" t="s">
+      <c r="F16" s="14" t="s">
         <v>241</v>
       </c>
-      <c r="E16" s="15" t="s">
-        <v>242</v>
-      </c>
-      <c r="F16" s="15" t="s">
-        <v>243</v>
-      </c>
-      <c r="G16" s="15"/>
+      <c r="G16" s="14"/>
       <c r="H16" s="1"/>
       <c r="I16" s="1"/>
     </row>
@@ -4262,33 +4291,33 @@
       <c r="A17" s="3" t="s">
         <v>16</v>
       </c>
-      <c r="B17" s="16"/>
-      <c r="C17" s="16"/>
-      <c r="D17" s="16"/>
-      <c r="E17" s="16"/>
-      <c r="F17" s="16"/>
-      <c r="G17" s="16"/>
+      <c r="B17" s="15"/>
+      <c r="C17" s="15"/>
+      <c r="D17" s="15"/>
+      <c r="E17" s="15"/>
+      <c r="F17" s="15"/>
+      <c r="G17" s="15"/>
     </row>
     <row r="18" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A18" s="3" t="s">
         <v>17</v>
       </c>
-      <c r="B18" s="15" t="s">
+      <c r="B18" s="14" t="s">
         <v>18</v>
       </c>
-      <c r="C18" s="15" t="s">
+      <c r="C18" s="14" t="s">
         <v>19</v>
       </c>
-      <c r="D18" s="15" t="s">
+      <c r="D18" s="14" t="s">
         <v>19</v>
       </c>
-      <c r="E18" s="15" t="s">
+      <c r="E18" s="14" t="s">
         <v>19</v>
       </c>
-      <c r="F18" s="15" t="s">
+      <c r="F18" s="14" t="s">
         <v>19</v>
       </c>
-      <c r="G18" s="15"/>
+      <c r="G18" s="14"/>
       <c r="H18" s="1"/>
       <c r="I18" s="1"/>
     </row>

--- a/Análise/Test Scenarios.xlsx
+++ b/Análise/Test Scenarios.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="E:\Documents\GitHub\upskill_java1_labprg_grupo3\Análise\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{AA18465D-EB57-4DBD-8FA6-C9617936B0DD}" xr6:coauthVersionLast="46" xr6:coauthVersionMax="46" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{FEB7CC73-9BA6-4F52-807F-9C61D498E67C}" xr6:coauthVersionLast="46" xr6:coauthVersionMax="46" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15840" tabRatio="993" activeTab="3" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15840" tabRatio="993" activeTab="2" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="UC 1 - Registar Organização" sheetId="7" r:id="rId1"/>
@@ -21,6 +21,7 @@
     <sheet name="UC 6 - Definir Tarefa" sheetId="14" r:id="rId6"/>
     <sheet name="UC 7-Publicar Tarefa" sheetId="15" r:id="rId7"/>
     <sheet name="UC 8 - Efectuar Candidatura" sheetId="16" r:id="rId8"/>
+    <sheet name="UC 7b-Selecionar Tarefa " sheetId="18" r:id="rId9"/>
   </sheets>
   <calcPr calcId="0" iterateDelta="1E-4"/>
   <extLst>
@@ -32,7 +33,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="592" uniqueCount="250">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="641" uniqueCount="261">
   <si>
     <t>Project Name</t>
   </si>
@@ -223,9 +224,6 @@
     <t>Message "Organization name invalid"</t>
   </si>
   <si>
-    <t>Popup Message "Organization name invalid"</t>
-  </si>
-  <si>
     <t>TC_UC1_005</t>
   </si>
   <si>
@@ -1022,13 +1020,6 @@
     <t>Applying to Task Functionality</t>
   </si>
   <si>
-    <t xml:space="preserve">Freelancer is Registered and able to sign in
-Freelancer Competences are verified
-The application is within the timeframe for the task
-Requirements for task are matched
-</t>
-  </si>
-  <si>
     <t xml:space="preserve">Freelancer is NOT Registered/ Cannot Sign in
 Freelancer Competences are verified
 The application is within the timeframe for the task
@@ -1055,12 +1046,6 @@
 The application is within the timeframe for the task
 Requirements for task are NOT matched
 </t>
-  </si>
-  <si>
-    <t>1. Freelancer enters valid username and password to log in
-2. Administrative verifies Freelancers competences
-3. Application submited within the timeframe set for the task
-4. Requirements for the task matchs the Freelancer competences</t>
   </si>
   <si>
     <t>1. Freelancer enters invalid username and/or password to log in
@@ -1175,6 +1160,54 @@
   </si>
   <si>
     <t>TC_List_AA_002</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> InvalidOrgNameException</t>
+  </si>
+  <si>
+    <t>Freelancer is Registered and able to sign in
+Freelancer Competences are verified
+Test Data</t>
+  </si>
+  <si>
+    <t xml:space="preserve">The application is within the timeframe for the task
+Requirements for task are matched
+</t>
+  </si>
+  <si>
+    <t>1. Application submited within the timeframe set for the task
+2. Requirements for the task matchs the Freelancer competences</t>
+  </si>
+  <si>
+    <t>Selecionar Tarefa</t>
+  </si>
+  <si>
+    <t>TC_UC7b_001</t>
+  </si>
+  <si>
+    <t>Lista de tarefas não tem elementos</t>
+  </si>
+  <si>
+    <t>TC_UC7b_002</t>
+  </si>
+  <si>
+    <t>Lista de tarefas tem elementos, seleciona-se uma tarefa</t>
+  </si>
+  <si>
+    <t>1. Lista é mostrada
+2. Select task to publish</t>
+  </si>
+  <si>
+    <t>Lista de tarefas tem elementos do tipo tarefa em modo draft</t>
+  </si>
+  <si>
+    <t>lista de tarefas</t>
+  </si>
+  <si>
+    <t>Tarefa selecionada com sucesso</t>
+  </si>
+  <si>
+    <t>Message "Task successfully selected"</t>
   </si>
 </sst>
 </file>
@@ -1210,7 +1243,7 @@
       <family val="2"/>
     </font>
   </fonts>
-  <fills count="3">
+  <fills count="4">
     <fill>
       <patternFill patternType="none"/>
     </fill>
@@ -1221,6 +1254,12 @@
       <patternFill patternType="solid">
         <fgColor rgb="FFFFFFCC"/>
         <bgColor rgb="FFFFFFFF"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFC000"/>
+        <bgColor indexed="64"/>
       </patternFill>
     </fill>
   </fills>
@@ -1257,7 +1296,7 @@
     <xf numFmtId="0" fontId="2" fillId="0" borderId="0"/>
     <xf numFmtId="0" fontId="2" fillId="2" borderId="1" applyProtection="0"/>
   </cellStyleXfs>
-  <cellXfs count="17">
+  <cellXfs count="19">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment wrapText="1"/>
@@ -1289,6 +1328,10 @@
       <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="2"/>
+    <xf numFmtId="0" fontId="0" fillId="3" borderId="0" xfId="0" applyFill="1" applyAlignment="1">
+      <alignment wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="3" borderId="0" xfId="0" applyFill="1"/>
   </cellXfs>
   <cellStyles count="7">
     <cellStyle name="Explanatory Text" xfId="1" builtinId="53" customBuiltin="1"/>
@@ -1704,7 +1747,7 @@
   <dimension ref="A1:J21"/>
   <sheetViews>
     <sheetView topLeftCell="A7" zoomScale="85" zoomScaleNormal="85" workbookViewId="0">
-      <selection activeCell="I19" sqref="I19"/>
+      <selection activeCell="E16" sqref="E16"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15.75" x14ac:dyDescent="0.25"/>
@@ -1758,10 +1801,10 @@
       <c r="B8" s="1" t="s">
         <v>7</v>
       </c>
-      <c r="C8" s="1" t="s">
+      <c r="C8" s="17" t="s">
         <v>7</v>
       </c>
-      <c r="D8" s="1" t="s">
+      <c r="D8" s="17" t="s">
         <v>7</v>
       </c>
       <c r="E8" s="1" t="s">
@@ -1790,10 +1833,10 @@
       <c r="B9" s="1" t="s">
         <v>23</v>
       </c>
-      <c r="C9" s="1" t="s">
+      <c r="C9" s="17" t="s">
         <v>23</v>
       </c>
-      <c r="D9" s="1" t="s">
+      <c r="D9" s="17" t="s">
         <v>23</v>
       </c>
       <c r="E9" s="1" t="s">
@@ -1822,29 +1865,29 @@
       <c r="B10" s="1" t="s">
         <v>24</v>
       </c>
-      <c r="C10" s="1" t="s">
+      <c r="C10" s="17" t="s">
         <v>25</v>
       </c>
-      <c r="D10" s="1" t="s">
+      <c r="D10" s="17" t="s">
         <v>26</v>
       </c>
       <c r="E10" s="1" t="s">
         <v>27</v>
       </c>
       <c r="F10" s="1" t="s">
+        <v>45</v>
+      </c>
+      <c r="G10" s="1" t="s">
         <v>46</v>
       </c>
-      <c r="G10" s="1" t="s">
+      <c r="H10" s="1" t="s">
         <v>47</v>
       </c>
-      <c r="H10" s="1" t="s">
+      <c r="I10" s="1" t="s">
         <v>48</v>
       </c>
-      <c r="I10" s="1" t="s">
+      <c r="J10" s="1" t="s">
         <v>49</v>
-      </c>
-      <c r="J10" s="1" t="s">
-        <v>50</v>
       </c>
     </row>
     <row r="11" spans="1:10" ht="94.5" x14ac:dyDescent="0.25">
@@ -1854,29 +1897,29 @@
       <c r="B11" s="1" t="s">
         <v>28</v>
       </c>
-      <c r="C11" s="1" t="s">
+      <c r="C11" s="17" t="s">
         <v>35</v>
       </c>
-      <c r="D11" s="1" t="s">
+      <c r="D11" s="17" t="s">
         <v>39</v>
       </c>
       <c r="E11" s="1" t="s">
         <v>33</v>
       </c>
       <c r="F11" s="1" t="s">
-        <v>51</v>
+        <v>50</v>
       </c>
       <c r="G11" s="1" t="s">
-        <v>56</v>
+        <v>55</v>
       </c>
       <c r="H11" s="1" t="s">
-        <v>61</v>
+        <v>60</v>
       </c>
       <c r="I11" s="1" t="s">
-        <v>66</v>
+        <v>65</v>
       </c>
       <c r="J11" s="1" t="s">
-        <v>70</v>
+        <v>69</v>
       </c>
     </row>
     <row r="12" spans="1:10" ht="141.75" x14ac:dyDescent="0.25">
@@ -1886,29 +1929,29 @@
       <c r="B12" s="1" t="s">
         <v>29</v>
       </c>
-      <c r="C12" s="1" t="s">
+      <c r="C12" s="17" t="s">
         <v>36</v>
       </c>
-      <c r="D12" s="1" t="s">
+      <c r="D12" s="17" t="s">
         <v>40</v>
       </c>
       <c r="E12" s="1" t="s">
         <v>34</v>
       </c>
       <c r="F12" s="1" t="s">
-        <v>52</v>
+        <v>51</v>
       </c>
       <c r="G12" s="1" t="s">
-        <v>57</v>
+        <v>56</v>
       </c>
       <c r="H12" s="1" t="s">
-        <v>62</v>
+        <v>61</v>
       </c>
       <c r="I12" s="1" t="s">
         <v>29</v>
       </c>
       <c r="J12" s="1" t="s">
-        <v>71</v>
+        <v>70</v>
       </c>
     </row>
     <row r="13" spans="1:10" x14ac:dyDescent="0.25">
@@ -1918,10 +1961,10 @@
       <c r="B13" s="1" t="s">
         <v>13</v>
       </c>
-      <c r="C13" s="1" t="s">
-        <v>13</v>
-      </c>
-      <c r="D13" s="1" t="s">
+      <c r="C13" s="17" t="s">
+        <v>13</v>
+      </c>
+      <c r="D13" s="17" t="s">
         <v>13</v>
       </c>
       <c r="E13" s="1" t="s">
@@ -1950,29 +1993,29 @@
       <c r="B14" s="1" t="s">
         <v>30</v>
       </c>
-      <c r="C14" s="1" t="s">
+      <c r="C14" s="17" t="s">
         <v>30</v>
       </c>
-      <c r="D14" s="1" t="s">
+      <c r="D14" s="17" t="s">
         <v>30</v>
       </c>
       <c r="E14" s="1" t="s">
         <v>43</v>
       </c>
       <c r="F14" s="1" t="s">
-        <v>53</v>
+        <v>52</v>
       </c>
       <c r="G14" s="1" t="s">
-        <v>58</v>
+        <v>57</v>
       </c>
       <c r="H14" s="1" t="s">
-        <v>63</v>
+        <v>62</v>
       </c>
       <c r="I14" s="1" t="s">
-        <v>67</v>
+        <v>66</v>
       </c>
       <c r="J14" s="1" t="s">
-        <v>72</v>
+        <v>71</v>
       </c>
     </row>
     <row r="15" spans="1:10" ht="31.5" x14ac:dyDescent="0.25">
@@ -1982,29 +2025,29 @@
       <c r="B15" s="1" t="s">
         <v>31</v>
       </c>
-      <c r="C15" s="1" t="s">
+      <c r="C15" s="17" t="s">
         <v>37</v>
       </c>
-      <c r="D15" s="1" t="s">
+      <c r="D15" s="17" t="s">
         <v>41</v>
       </c>
       <c r="E15" s="1" t="s">
         <v>44</v>
       </c>
       <c r="F15" s="1" t="s">
-        <v>54</v>
+        <v>53</v>
       </c>
       <c r="G15" s="1" t="s">
-        <v>59</v>
+        <v>58</v>
       </c>
       <c r="H15" s="1" t="s">
-        <v>64</v>
+        <v>63</v>
       </c>
       <c r="I15" s="1" t="s">
-        <v>68</v>
+        <v>67</v>
       </c>
       <c r="J15" s="1" t="s">
-        <v>73</v>
+        <v>72</v>
       </c>
     </row>
     <row r="16" spans="1:10" ht="47.25" x14ac:dyDescent="0.25">
@@ -2014,29 +2057,29 @@
       <c r="B16" s="1" t="s">
         <v>32</v>
       </c>
-      <c r="C16" s="1" t="s">
+      <c r="C16" s="17" t="s">
         <v>38</v>
       </c>
-      <c r="D16" s="1" t="s">
+      <c r="D16" s="17" t="s">
         <v>42</v>
       </c>
       <c r="E16" s="1" t="s">
-        <v>45</v>
+        <v>247</v>
       </c>
       <c r="F16" s="1" t="s">
-        <v>55</v>
+        <v>54</v>
       </c>
       <c r="G16" s="1" t="s">
-        <v>60</v>
+        <v>59</v>
       </c>
       <c r="H16" s="1" t="s">
-        <v>65</v>
+        <v>64</v>
       </c>
       <c r="I16" s="1" t="s">
-        <v>69</v>
+        <v>68</v>
       </c>
       <c r="J16" s="1" t="s">
-        <v>74</v>
+        <v>73</v>
       </c>
     </row>
     <row r="17" spans="1:10" x14ac:dyDescent="0.25">
@@ -2044,6 +2087,8 @@
         <v>16</v>
       </c>
       <c r="B17"/>
+      <c r="C17" s="18"/>
+      <c r="D17" s="18"/>
     </row>
     <row r="18" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A18" s="2" t="s">
@@ -2052,10 +2097,10 @@
       <c r="B18" s="1" t="s">
         <v>18</v>
       </c>
-      <c r="C18" s="1" t="s">
+      <c r="C18" s="17" t="s">
         <v>19</v>
       </c>
-      <c r="D18" s="1" t="s">
+      <c r="D18" s="17" t="s">
         <v>19</v>
       </c>
       <c r="E18" s="1" t="s">
@@ -2179,22 +2224,22 @@
         <v>8</v>
       </c>
       <c r="B9" s="1" t="s">
-        <v>103</v>
+        <v>102</v>
       </c>
       <c r="C9" s="1" t="s">
-        <v>103</v>
+        <v>102</v>
       </c>
       <c r="D9" s="1" t="s">
-        <v>103</v>
+        <v>102</v>
       </c>
       <c r="E9" s="1" t="s">
-        <v>103</v>
+        <v>102</v>
       </c>
       <c r="F9" s="1" t="s">
-        <v>103</v>
+        <v>102</v>
       </c>
       <c r="G9" s="1" t="s">
-        <v>103</v>
+        <v>102</v>
       </c>
       <c r="H9" s="1"/>
       <c r="I9" s="1"/>
@@ -2204,22 +2249,22 @@
         <v>9</v>
       </c>
       <c r="B10" s="1" t="s">
-        <v>102</v>
+        <v>101</v>
       </c>
       <c r="C10" s="1" t="s">
-        <v>101</v>
+        <v>100</v>
       </c>
       <c r="D10" s="1" t="s">
-        <v>100</v>
+        <v>99</v>
       </c>
       <c r="E10" s="1" t="s">
-        <v>99</v>
+        <v>98</v>
       </c>
       <c r="F10" s="1" t="s">
-        <v>98</v>
+        <v>97</v>
       </c>
       <c r="G10" s="1" t="s">
-        <v>97</v>
+        <v>96</v>
       </c>
       <c r="H10" s="1"/>
       <c r="I10" s="1"/>
@@ -2229,22 +2274,22 @@
         <v>10</v>
       </c>
       <c r="B11" s="1" t="s">
-        <v>96</v>
+        <v>95</v>
       </c>
       <c r="C11" s="1" t="s">
-        <v>95</v>
+        <v>94</v>
       </c>
       <c r="D11" s="1" t="s">
-        <v>95</v>
+        <v>94</v>
       </c>
       <c r="E11" s="1" t="s">
-        <v>94</v>
+        <v>93</v>
       </c>
       <c r="F11" s="1" t="s">
-        <v>94</v>
+        <v>93</v>
       </c>
       <c r="G11" s="1" t="s">
-        <v>93</v>
+        <v>92</v>
       </c>
       <c r="H11" s="1"/>
       <c r="I11" s="1"/>
@@ -2254,22 +2299,22 @@
         <v>11</v>
       </c>
       <c r="B12" s="1" t="s">
-        <v>92</v>
+        <v>91</v>
       </c>
       <c r="C12" s="1" t="s">
-        <v>91</v>
+        <v>90</v>
       </c>
       <c r="D12" s="1" t="s">
-        <v>91</v>
+        <v>90</v>
       </c>
       <c r="E12" s="1" t="s">
-        <v>90</v>
+        <v>89</v>
       </c>
       <c r="F12" s="1" t="s">
-        <v>90</v>
+        <v>89</v>
       </c>
       <c r="G12" s="1" t="s">
-        <v>89</v>
+        <v>88</v>
       </c>
       <c r="H12" s="1"/>
       <c r="I12" s="1"/>
@@ -2304,22 +2349,22 @@
         <v>13</v>
       </c>
       <c r="B14" s="1" t="s">
-        <v>88</v>
+        <v>87</v>
       </c>
       <c r="C14" s="1" t="s">
+        <v>86</v>
+      </c>
+      <c r="D14" s="1" t="s">
         <v>87</v>
       </c>
-      <c r="D14" s="1" t="s">
-        <v>88</v>
-      </c>
       <c r="E14" s="1" t="s">
-        <v>87</v>
+        <v>86</v>
       </c>
       <c r="F14" s="1" t="s">
-        <v>86</v>
+        <v>85</v>
       </c>
       <c r="G14" s="1" t="s">
-        <v>85</v>
+        <v>84</v>
       </c>
       <c r="H14" s="1"/>
       <c r="I14" s="1"/>
@@ -2329,22 +2374,22 @@
         <v>14</v>
       </c>
       <c r="B15" s="1" t="s">
-        <v>84</v>
+        <v>83</v>
       </c>
       <c r="C15" s="1" t="s">
-        <v>83</v>
+        <v>82</v>
       </c>
       <c r="D15" s="1" t="s">
-        <v>83</v>
+        <v>82</v>
       </c>
       <c r="E15" s="1" t="s">
-        <v>82</v>
+        <v>81</v>
       </c>
       <c r="F15" s="1" t="s">
-        <v>82</v>
+        <v>81</v>
       </c>
       <c r="G15" s="1" t="s">
-        <v>81</v>
+        <v>80</v>
       </c>
       <c r="H15" s="1"/>
       <c r="I15" s="1"/>
@@ -2354,22 +2399,22 @@
         <v>15</v>
       </c>
       <c r="B16" s="1" t="s">
-        <v>80</v>
+        <v>79</v>
       </c>
       <c r="C16" s="1" t="s">
-        <v>79</v>
+        <v>78</v>
       </c>
       <c r="D16" s="1" t="s">
-        <v>78</v>
+        <v>77</v>
       </c>
       <c r="E16" s="1" t="s">
-        <v>77</v>
+        <v>76</v>
       </c>
       <c r="F16" s="1" t="s">
-        <v>76</v>
+        <v>75</v>
       </c>
       <c r="G16" s="1" t="s">
-        <v>75</v>
+        <v>74</v>
       </c>
       <c r="H16" s="1"/>
       <c r="I16" s="1"/>
@@ -2429,8 +2474,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{312C4631-4654-4624-B019-66B47B8FA54E}">
   <dimension ref="B3:F23"/>
   <sheetViews>
-    <sheetView topLeftCell="B1" zoomScale="115" zoomScaleSheetLayoutView="100" workbookViewId="0">
-      <selection activeCell="E22" sqref="E22"/>
+    <sheetView tabSelected="1" topLeftCell="B1" zoomScale="115" zoomScaleSheetLayoutView="100" workbookViewId="0">
+      <selection activeCell="F3" sqref="F3"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9" defaultRowHeight="15.75" x14ac:dyDescent="0.25"/>
@@ -2446,7 +2491,7 @@
         <v>0</v>
       </c>
       <c r="C3" s="7" t="s">
-        <v>116</v>
+        <v>115</v>
       </c>
     </row>
     <row r="4" spans="2:6" x14ac:dyDescent="0.25">
@@ -2454,7 +2499,7 @@
         <v>1</v>
       </c>
       <c r="C4" s="16" t="s">
-        <v>115</v>
+        <v>114</v>
       </c>
       <c r="D4" s="16"/>
     </row>
@@ -2463,7 +2508,7 @@
         <v>2</v>
       </c>
       <c r="C5" s="7" t="s">
-        <v>114</v>
+        <v>113</v>
       </c>
     </row>
     <row r="6" spans="2:6" x14ac:dyDescent="0.25">
@@ -2492,16 +2537,16 @@
         <v>6</v>
       </c>
       <c r="C10" s="4" t="s">
-        <v>113</v>
+        <v>112</v>
       </c>
       <c r="D10" s="4" t="s">
-        <v>113</v>
+        <v>112</v>
       </c>
       <c r="E10" s="4" t="s">
-        <v>113</v>
+        <v>112</v>
       </c>
       <c r="F10" s="4" t="s">
-        <v>113</v>
+        <v>112</v>
       </c>
     </row>
     <row r="11" spans="2:6" ht="31.5" x14ac:dyDescent="0.25">
@@ -2509,16 +2554,16 @@
         <v>8</v>
       </c>
       <c r="C11" s="4" t="s">
-        <v>112</v>
+        <v>111</v>
       </c>
       <c r="D11" s="4" t="s">
-        <v>112</v>
+        <v>111</v>
       </c>
       <c r="E11" s="4" t="s">
-        <v>111</v>
+        <v>110</v>
       </c>
       <c r="F11" s="4" t="s">
-        <v>111</v>
+        <v>110</v>
       </c>
     </row>
     <row r="12" spans="2:6" x14ac:dyDescent="0.25">
@@ -2526,16 +2571,16 @@
         <v>9</v>
       </c>
       <c r="C12" s="4" t="s">
-        <v>110</v>
+        <v>109</v>
       </c>
       <c r="D12" s="4" t="s">
-        <v>249</v>
+        <v>246</v>
       </c>
       <c r="E12" s="4" t="s">
-        <v>248</v>
+        <v>245</v>
       </c>
       <c r="F12" s="4" t="s">
-        <v>109</v>
+        <v>108</v>
       </c>
     </row>
     <row r="13" spans="2:6" ht="31.5" x14ac:dyDescent="0.25">
@@ -2543,16 +2588,16 @@
         <v>10</v>
       </c>
       <c r="C13" s="4" t="s">
-        <v>108</v>
+        <v>107</v>
       </c>
       <c r="D13" s="4" t="s">
-        <v>108</v>
+        <v>107</v>
       </c>
       <c r="E13" s="4" t="s">
-        <v>107</v>
+        <v>106</v>
       </c>
       <c r="F13" s="4" t="s">
-        <v>107</v>
+        <v>106</v>
       </c>
     </row>
     <row r="14" spans="2:6" ht="31.5" x14ac:dyDescent="0.25">
@@ -2560,10 +2605,10 @@
         <v>11</v>
       </c>
       <c r="C14" s="4" t="s">
-        <v>106</v>
+        <v>105</v>
       </c>
       <c r="D14" s="4" t="s">
-        <v>247</v>
+        <v>244</v>
       </c>
       <c r="E14" s="4"/>
       <c r="F14" s="4"/>
@@ -2590,16 +2635,16 @@
         <v>13</v>
       </c>
       <c r="C16" s="4" t="s">
-        <v>105</v>
+        <v>104</v>
       </c>
       <c r="D16" s="4" t="s">
-        <v>105</v>
+        <v>104</v>
       </c>
       <c r="E16" s="4" t="s">
-        <v>104</v>
+        <v>103</v>
       </c>
       <c r="F16" s="4" t="s">
-        <v>104</v>
+        <v>103</v>
       </c>
     </row>
     <row r="17" spans="2:6" ht="31.5" x14ac:dyDescent="0.25">
@@ -2608,11 +2653,11 @@
       </c>
       <c r="C17" s="4"/>
       <c r="D17" s="4" t="s">
-        <v>246</v>
+        <v>243</v>
       </c>
       <c r="E17" s="4"/>
       <c r="F17" s="4" t="s">
-        <v>246</v>
+        <v>243</v>
       </c>
     </row>
     <row r="18" spans="2:6" ht="31.5" x14ac:dyDescent="0.25">
@@ -2621,10 +2666,10 @@
       </c>
       <c r="C18" s="4"/>
       <c r="D18" s="4" t="s">
-        <v>245</v>
+        <v>242</v>
       </c>
       <c r="F18" s="4" t="s">
-        <v>245</v>
+        <v>242</v>
       </c>
     </row>
     <row r="19" spans="2:6" x14ac:dyDescent="0.25">
@@ -2679,7 +2724,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{875D30BB-BDEF-4D64-AAE8-D6A6527966A1}">
   <dimension ref="A1:H21"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A7" workbookViewId="0">
+    <sheetView topLeftCell="A16" workbookViewId="0">
       <selection activeCell="D14" sqref="D14"/>
     </sheetView>
   </sheetViews>
@@ -2806,25 +2851,25 @@
         <v>8</v>
       </c>
       <c r="B9" s="10" t="s">
-        <v>157</v>
+        <v>156</v>
       </c>
       <c r="C9" s="10" t="s">
-        <v>157</v>
+        <v>156</v>
       </c>
       <c r="D9" s="10" t="s">
-        <v>157</v>
+        <v>156</v>
       </c>
       <c r="E9" s="10" t="s">
-        <v>157</v>
+        <v>156</v>
       </c>
       <c r="F9" s="10" t="s">
-        <v>157</v>
+        <v>156</v>
       </c>
       <c r="G9" s="10" t="s">
-        <v>157</v>
+        <v>156</v>
       </c>
       <c r="H9" s="10" t="s">
-        <v>157</v>
+        <v>156</v>
       </c>
     </row>
     <row r="10" spans="1:8" ht="15.75" x14ac:dyDescent="0.25">
@@ -2832,25 +2877,25 @@
         <v>9</v>
       </c>
       <c r="B10" s="10" t="s">
-        <v>156</v>
+        <v>155</v>
       </c>
       <c r="C10" s="10" t="s">
-        <v>155</v>
+        <v>154</v>
       </c>
       <c r="D10" s="10" t="s">
-        <v>154</v>
+        <v>153</v>
       </c>
       <c r="E10" s="10" t="s">
-        <v>153</v>
+        <v>152</v>
       </c>
       <c r="F10" s="10" t="s">
-        <v>152</v>
+        <v>151</v>
       </c>
       <c r="G10" s="10" t="s">
-        <v>151</v>
+        <v>150</v>
       </c>
       <c r="H10" s="10" t="s">
-        <v>150</v>
+        <v>149</v>
       </c>
     </row>
     <row r="11" spans="1:8" ht="100.5" customHeight="1" x14ac:dyDescent="0.25">
@@ -2858,25 +2903,25 @@
         <v>10</v>
       </c>
       <c r="B11" s="12" t="s">
-        <v>149</v>
+        <v>148</v>
       </c>
       <c r="C11" s="12" t="s">
-        <v>148</v>
+        <v>147</v>
       </c>
       <c r="D11" s="12" t="s">
-        <v>147</v>
+        <v>146</v>
       </c>
       <c r="E11" s="12" t="s">
-        <v>146</v>
+        <v>145</v>
       </c>
       <c r="F11" s="12" t="s">
-        <v>145</v>
+        <v>144</v>
       </c>
       <c r="G11" s="12" t="s">
-        <v>144</v>
+        <v>143</v>
       </c>
       <c r="H11" s="12" t="s">
-        <v>143</v>
+        <v>142</v>
       </c>
     </row>
     <row r="12" spans="1:8" ht="168" customHeight="1" x14ac:dyDescent="0.25">
@@ -2884,25 +2929,25 @@
         <v>11</v>
       </c>
       <c r="B12" s="12" t="s">
+        <v>137</v>
+      </c>
+      <c r="C12" s="12" t="s">
+        <v>141</v>
+      </c>
+      <c r="D12" s="12" t="s">
+        <v>140</v>
+      </c>
+      <c r="E12" s="12" t="s">
+        <v>139</v>
+      </c>
+      <c r="F12" s="12" t="s">
         <v>138</v>
       </c>
-      <c r="C12" s="12" t="s">
-        <v>142</v>
-      </c>
-      <c r="D12" s="12" t="s">
-        <v>141</v>
-      </c>
-      <c r="E12" s="12" t="s">
-        <v>140</v>
-      </c>
-      <c r="F12" s="12" t="s">
-        <v>139</v>
-      </c>
       <c r="G12" s="12" t="s">
-        <v>138</v>
+        <v>137</v>
       </c>
       <c r="H12" s="12" t="s">
-        <v>137</v>
+        <v>136</v>
       </c>
     </row>
     <row r="13" spans="1:8" ht="18" customHeight="1" x14ac:dyDescent="0.25">
@@ -2936,25 +2981,25 @@
         <v>13</v>
       </c>
       <c r="B14" s="12" t="s">
-        <v>136</v>
+        <v>135</v>
       </c>
       <c r="C14" s="12" t="s">
-        <v>135</v>
+        <v>134</v>
       </c>
       <c r="D14" s="12" t="s">
-        <v>134</v>
+        <v>133</v>
       </c>
       <c r="E14" s="12" t="s">
-        <v>133</v>
+        <v>132</v>
       </c>
       <c r="F14" s="12" t="s">
-        <v>132</v>
+        <v>131</v>
       </c>
       <c r="G14" s="12" t="s">
-        <v>131</v>
+        <v>130</v>
       </c>
       <c r="H14" s="12" t="s">
-        <v>130</v>
+        <v>129</v>
       </c>
     </row>
     <row r="15" spans="1:8" ht="32.25" customHeight="1" x14ac:dyDescent="0.25">
@@ -2962,25 +3007,25 @@
         <v>14</v>
       </c>
       <c r="B15" s="12" t="s">
-        <v>129</v>
+        <v>128</v>
       </c>
       <c r="C15" s="12" t="s">
-        <v>128</v>
+        <v>127</v>
       </c>
       <c r="D15" s="12" t="s">
-        <v>127</v>
+        <v>126</v>
       </c>
       <c r="E15" s="12" t="s">
-        <v>126</v>
+        <v>125</v>
       </c>
       <c r="F15" s="12" t="s">
-        <v>119</v>
+        <v>118</v>
       </c>
       <c r="G15" s="12" t="s">
-        <v>125</v>
+        <v>124</v>
       </c>
       <c r="H15" s="12" t="s">
-        <v>124</v>
+        <v>123</v>
       </c>
     </row>
     <row r="16" spans="1:8" ht="34.5" customHeight="1" x14ac:dyDescent="0.25">
@@ -2988,25 +3033,25 @@
         <v>15</v>
       </c>
       <c r="B16" s="12" t="s">
-        <v>123</v>
+        <v>122</v>
       </c>
       <c r="C16" s="12" t="s">
-        <v>122</v>
+        <v>121</v>
       </c>
       <c r="D16" s="12" t="s">
-        <v>121</v>
+        <v>120</v>
       </c>
       <c r="E16" s="12" t="s">
-        <v>120</v>
+        <v>119</v>
       </c>
       <c r="F16" s="12" t="s">
-        <v>119</v>
+        <v>118</v>
       </c>
       <c r="G16" s="12" t="s">
-        <v>118</v>
+        <v>117</v>
       </c>
       <c r="H16" s="12" t="s">
-        <v>117</v>
+        <v>116</v>
       </c>
     </row>
     <row r="17" spans="1:8" ht="15.75" x14ac:dyDescent="0.25">
@@ -3136,16 +3181,16 @@
         <v>6</v>
       </c>
       <c r="B8" s="1" t="s">
-        <v>181</v>
+        <v>180</v>
       </c>
       <c r="C8" s="1" t="s">
-        <v>181</v>
+        <v>180</v>
       </c>
       <c r="D8" s="1" t="s">
-        <v>181</v>
+        <v>180</v>
       </c>
       <c r="E8" s="1" t="s">
-        <v>181</v>
+        <v>180</v>
       </c>
       <c r="F8" s="1"/>
       <c r="G8" s="1"/>
@@ -3158,16 +3203,16 @@
         <v>8</v>
       </c>
       <c r="B9" s="1" t="s">
-        <v>180</v>
+        <v>179</v>
       </c>
       <c r="C9" s="1" t="s">
-        <v>180</v>
+        <v>179</v>
       </c>
       <c r="D9" s="1" t="s">
-        <v>180</v>
+        <v>179</v>
       </c>
       <c r="E9" s="1" t="s">
-        <v>180</v>
+        <v>179</v>
       </c>
       <c r="F9" s="1"/>
       <c r="G9" s="1"/>
@@ -3180,16 +3225,16 @@
         <v>9</v>
       </c>
       <c r="B10" s="1" t="s">
-        <v>179</v>
+        <v>178</v>
       </c>
       <c r="C10" s="1" t="s">
-        <v>178</v>
+        <v>177</v>
       </c>
       <c r="D10" s="1" t="s">
-        <v>177</v>
+        <v>176</v>
       </c>
       <c r="E10" s="1" t="s">
-        <v>177</v>
+        <v>176</v>
       </c>
       <c r="F10" s="1"/>
       <c r="G10" s="1"/>
@@ -3202,16 +3247,16 @@
         <v>10</v>
       </c>
       <c r="B11" s="1" t="s">
-        <v>176</v>
+        <v>175</v>
       </c>
       <c r="C11" s="1" t="s">
-        <v>175</v>
+        <v>174</v>
       </c>
       <c r="D11" s="1" t="s">
-        <v>174</v>
+        <v>173</v>
       </c>
       <c r="E11" s="1" t="s">
-        <v>173</v>
+        <v>172</v>
       </c>
       <c r="F11" s="1"/>
       <c r="G11" s="1"/>
@@ -3224,16 +3269,16 @@
         <v>11</v>
       </c>
       <c r="B12" s="1" t="s">
-        <v>172</v>
+        <v>171</v>
       </c>
       <c r="C12" s="1" t="s">
-        <v>171</v>
+        <v>170</v>
       </c>
       <c r="D12" s="1" t="s">
-        <v>170</v>
+        <v>169</v>
       </c>
       <c r="E12" s="1" t="s">
-        <v>169</v>
+        <v>168</v>
       </c>
       <c r="F12" s="1"/>
       <c r="G12" s="1"/>
@@ -3268,16 +3313,16 @@
         <v>13</v>
       </c>
       <c r="B14" s="1" t="s">
-        <v>168</v>
+        <v>167</v>
       </c>
       <c r="C14" s="1" t="s">
-        <v>168</v>
+        <v>167</v>
       </c>
       <c r="D14" s="1" t="s">
-        <v>167</v>
+        <v>166</v>
       </c>
       <c r="E14" s="1" t="s">
-        <v>166</v>
+        <v>165</v>
       </c>
       <c r="F14" s="1"/>
       <c r="G14" s="1"/>
@@ -3290,16 +3335,16 @@
         <v>14</v>
       </c>
       <c r="B15" s="1" t="s">
-        <v>165</v>
+        <v>164</v>
       </c>
       <c r="C15" s="1" t="s">
-        <v>164</v>
+        <v>163</v>
       </c>
       <c r="D15" s="1" t="s">
-        <v>163</v>
+        <v>162</v>
       </c>
       <c r="E15" s="1" t="s">
-        <v>162</v>
+        <v>161</v>
       </c>
       <c r="F15" s="1"/>
       <c r="G15" s="1"/>
@@ -3312,16 +3357,16 @@
         <v>15</v>
       </c>
       <c r="B16" s="1" t="s">
-        <v>161</v>
+        <v>160</v>
       </c>
       <c r="C16" s="1" t="s">
-        <v>160</v>
+        <v>159</v>
       </c>
       <c r="D16" s="1" t="s">
-        <v>159</v>
+        <v>158</v>
       </c>
       <c r="E16" s="1" t="s">
-        <v>158</v>
+        <v>157</v>
       </c>
       <c r="F16" s="1"/>
       <c r="G16" s="1"/>
@@ -3383,7 +3428,7 @@
   <dimension ref="A1:J21"/>
   <sheetViews>
     <sheetView topLeftCell="A7" zoomScale="85" zoomScaleNormal="85" workbookViewId="0">
-      <selection activeCell="E14" sqref="E14"/>
+      <selection activeCell="B13" sqref="B13"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15.75" x14ac:dyDescent="0.25"/>
@@ -3435,16 +3480,16 @@
         <v>6</v>
       </c>
       <c r="B8" s="1" t="s">
-        <v>182</v>
+        <v>181</v>
       </c>
       <c r="C8" s="1" t="s">
-        <v>182</v>
+        <v>181</v>
       </c>
       <c r="D8" s="1" t="s">
-        <v>182</v>
+        <v>181</v>
       </c>
       <c r="E8" s="1" t="s">
-        <v>182</v>
+        <v>181</v>
       </c>
       <c r="F8" s="1"/>
       <c r="G8" s="1"/>
@@ -3457,16 +3502,16 @@
         <v>8</v>
       </c>
       <c r="B9" s="1" t="s">
-        <v>183</v>
+        <v>182</v>
       </c>
       <c r="C9" s="1" t="s">
-        <v>183</v>
+        <v>182</v>
       </c>
       <c r="D9" s="1" t="s">
-        <v>183</v>
+        <v>182</v>
       </c>
       <c r="E9" s="1" t="s">
-        <v>183</v>
+        <v>182</v>
       </c>
       <c r="F9" s="1"/>
       <c r="G9" s="1"/>
@@ -3479,16 +3524,16 @@
         <v>9</v>
       </c>
       <c r="B10" s="1" t="s">
+        <v>183</v>
+      </c>
+      <c r="C10" s="1" t="s">
         <v>184</v>
       </c>
-      <c r="C10" s="1" t="s">
+      <c r="D10" s="1" t="s">
         <v>185</v>
       </c>
-      <c r="D10" s="1" t="s">
-        <v>186</v>
-      </c>
       <c r="E10" s="1" t="s">
-        <v>186</v>
+        <v>185</v>
       </c>
       <c r="F10" s="1"/>
       <c r="G10" s="1"/>
@@ -3501,16 +3546,16 @@
         <v>10</v>
       </c>
       <c r="B11" s="1" t="s">
-        <v>187</v>
+        <v>186</v>
       </c>
       <c r="C11" s="1" t="s">
-        <v>175</v>
+        <v>174</v>
       </c>
       <c r="D11" s="1" t="s">
-        <v>174</v>
+        <v>173</v>
       </c>
       <c r="E11" s="1" t="s">
-        <v>173</v>
+        <v>172</v>
       </c>
       <c r="F11" s="1"/>
       <c r="G11" s="1"/>
@@ -3523,7 +3568,7 @@
         <v>11</v>
       </c>
       <c r="B12" s="1" t="s">
-        <v>188</v>
+        <v>187</v>
       </c>
       <c r="C12" s="1"/>
       <c r="D12" s="1"/>
@@ -3555,7 +3600,7 @@
         <v>13</v>
       </c>
       <c r="B14" s="1" t="s">
-        <v>189</v>
+        <v>188</v>
       </c>
       <c r="C14" s="1"/>
       <c r="D14" s="1"/>
@@ -3571,7 +3616,7 @@
         <v>14</v>
       </c>
       <c r="B15" s="1" t="s">
-        <v>190</v>
+        <v>189</v>
       </c>
       <c r="C15" s="1"/>
       <c r="D15" s="1"/>
@@ -3587,7 +3632,7 @@
         <v>15</v>
       </c>
       <c r="B16" s="1" t="s">
-        <v>191</v>
+        <v>190</v>
       </c>
       <c r="C16" s="1"/>
       <c r="D16" s="1"/>
@@ -3652,7 +3697,7 @@
   <dimension ref="A1:H21"/>
   <sheetViews>
     <sheetView topLeftCell="A10" workbookViewId="0">
-      <selection activeCell="G11" sqref="G11"/>
+      <selection activeCell="H9" sqref="H9"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -3774,22 +3819,22 @@
         <v>8</v>
       </c>
       <c r="B9" s="10" t="s">
-        <v>218</v>
+        <v>217</v>
       </c>
       <c r="C9" s="10" t="s">
-        <v>218</v>
+        <v>217</v>
       </c>
       <c r="D9" s="10" t="s">
-        <v>218</v>
+        <v>217</v>
       </c>
       <c r="E9" s="10" t="s">
-        <v>218</v>
+        <v>217</v>
       </c>
       <c r="F9" s="10" t="s">
-        <v>218</v>
+        <v>217</v>
       </c>
       <c r="G9" s="10" t="s">
-        <v>218</v>
+        <v>217</v>
       </c>
       <c r="H9" s="10"/>
     </row>
@@ -3798,22 +3843,22 @@
         <v>9</v>
       </c>
       <c r="B10" s="10" t="s">
-        <v>217</v>
+        <v>216</v>
       </c>
       <c r="C10" s="10" t="s">
-        <v>216</v>
+        <v>215</v>
       </c>
       <c r="D10" s="10" t="s">
-        <v>215</v>
+        <v>214</v>
       </c>
       <c r="E10" s="10" t="s">
-        <v>214</v>
+        <v>213</v>
       </c>
       <c r="F10" s="10" t="s">
-        <v>213</v>
+        <v>212</v>
       </c>
       <c r="G10" s="10" t="s">
-        <v>212</v>
+        <v>211</v>
       </c>
       <c r="H10" s="10"/>
     </row>
@@ -3822,22 +3867,22 @@
         <v>10</v>
       </c>
       <c r="B11" s="12" t="s">
+        <v>209</v>
+      </c>
+      <c r="C11" s="12" t="s">
+        <v>202</v>
+      </c>
+      <c r="D11" s="12" t="s">
         <v>210</v>
       </c>
-      <c r="C11" s="12" t="s">
-        <v>203</v>
-      </c>
-      <c r="D11" s="12" t="s">
-        <v>211</v>
-      </c>
       <c r="E11" s="12" t="s">
-        <v>242</v>
+        <v>239</v>
       </c>
       <c r="F11" s="12" t="s">
-        <v>243</v>
+        <v>240</v>
       </c>
       <c r="G11" s="12" t="s">
-        <v>244</v>
+        <v>241</v>
       </c>
       <c r="H11" s="12"/>
     </row>
@@ -3846,22 +3891,22 @@
         <v>11</v>
       </c>
       <c r="B12" s="12" t="s">
-        <v>209</v>
+        <v>208</v>
       </c>
       <c r="C12" s="12" t="s">
-        <v>203</v>
+        <v>202</v>
       </c>
       <c r="D12" s="12" t="s">
-        <v>208</v>
+        <v>207</v>
       </c>
       <c r="E12" s="12" t="s">
-        <v>207</v>
+        <v>206</v>
       </c>
       <c r="F12" s="12" t="s">
-        <v>206</v>
+        <v>205</v>
       </c>
       <c r="G12" s="12" t="s">
-        <v>205</v>
+        <v>204</v>
       </c>
       <c r="H12" s="12"/>
     </row>
@@ -3894,22 +3939,22 @@
         <v>13</v>
       </c>
       <c r="B14" s="12" t="s">
-        <v>204</v>
+        <v>203</v>
       </c>
       <c r="C14" s="12" t="s">
-        <v>203</v>
+        <v>202</v>
       </c>
       <c r="D14" s="12" t="s">
-        <v>202</v>
+        <v>201</v>
       </c>
       <c r="E14" s="12" t="s">
-        <v>201</v>
+        <v>200</v>
       </c>
       <c r="F14" s="12" t="s">
-        <v>200</v>
+        <v>199</v>
       </c>
       <c r="G14" s="12" t="s">
-        <v>199</v>
+        <v>198</v>
       </c>
       <c r="H14" s="12"/>
     </row>
@@ -3918,22 +3963,22 @@
         <v>14</v>
       </c>
       <c r="B15" s="12" t="s">
-        <v>198</v>
+        <v>197</v>
       </c>
       <c r="C15" s="12" t="s">
-        <v>196</v>
+        <v>195</v>
       </c>
       <c r="D15" s="12" t="s">
-        <v>195</v>
+        <v>194</v>
       </c>
       <c r="E15" s="12" t="s">
-        <v>194</v>
+        <v>193</v>
       </c>
       <c r="F15" s="12" t="s">
-        <v>193</v>
+        <v>192</v>
       </c>
       <c r="G15" s="12" t="s">
-        <v>192</v>
+        <v>191</v>
       </c>
       <c r="H15" s="12"/>
     </row>
@@ -3942,22 +3987,22 @@
         <v>15</v>
       </c>
       <c r="B16" s="12" t="s">
-        <v>197</v>
+        <v>196</v>
       </c>
       <c r="C16" s="12" t="s">
-        <v>196</v>
+        <v>195</v>
       </c>
       <c r="D16" s="12" t="s">
-        <v>195</v>
+        <v>194</v>
       </c>
       <c r="E16" s="12" t="s">
-        <v>194</v>
+        <v>193</v>
       </c>
       <c r="F16" s="12" t="s">
-        <v>193</v>
+        <v>192</v>
       </c>
       <c r="G16" s="12" t="s">
-        <v>192</v>
+        <v>191</v>
       </c>
       <c r="H16" s="12"/>
     </row>
@@ -4034,7 +4079,7 @@
   <dimension ref="A1:I21"/>
   <sheetViews>
     <sheetView topLeftCell="A7" zoomScale="90" zoomScaleNormal="90" workbookViewId="0">
-      <selection activeCell="G12" sqref="G12"/>
+      <selection activeCell="B12" sqref="B12"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="23.125" defaultRowHeight="15.75" x14ac:dyDescent="0.25"/>
@@ -4108,19 +4153,19 @@
         <v>8</v>
       </c>
       <c r="B9" s="14" t="s">
-        <v>219</v>
+        <v>218</v>
       </c>
       <c r="C9" s="14" t="s">
-        <v>219</v>
+        <v>218</v>
       </c>
       <c r="D9" s="14" t="s">
-        <v>219</v>
+        <v>218</v>
       </c>
       <c r="E9" s="14" t="s">
-        <v>219</v>
+        <v>218</v>
       </c>
       <c r="F9" s="14" t="s">
-        <v>219</v>
+        <v>218</v>
       </c>
       <c r="G9" s="14"/>
       <c r="H9" s="1"/>
@@ -4131,19 +4176,19 @@
         <v>9</v>
       </c>
       <c r="B10" s="14" t="s">
-        <v>102</v>
+        <v>101</v>
       </c>
       <c r="C10" s="14" t="s">
-        <v>101</v>
+        <v>100</v>
       </c>
       <c r="D10" s="14" t="s">
-        <v>100</v>
+        <v>99</v>
       </c>
       <c r="E10" s="14" t="s">
-        <v>99</v>
+        <v>98</v>
       </c>
       <c r="F10" s="14" t="s">
-        <v>98</v>
+        <v>97</v>
       </c>
       <c r="G10" s="14"/>
       <c r="H10" s="1"/>
@@ -4154,19 +4199,19 @@
         <v>10</v>
       </c>
       <c r="B11" s="14" t="s">
+        <v>249</v>
+      </c>
+      <c r="C11" s="14" t="s">
+        <v>219</v>
+      </c>
+      <c r="D11" s="14" t="s">
         <v>220</v>
       </c>
-      <c r="C11" s="14" t="s">
+      <c r="E11" s="14" t="s">
         <v>221</v>
       </c>
-      <c r="D11" s="14" t="s">
+      <c r="F11" s="14" t="s">
         <v>222</v>
-      </c>
-      <c r="E11" s="14" t="s">
-        <v>223</v>
-      </c>
-      <c r="F11" s="14" t="s">
-        <v>224</v>
       </c>
       <c r="G11" s="14"/>
       <c r="H11" s="1"/>
@@ -4177,30 +4222,30 @@
         <v>11</v>
       </c>
       <c r="B12" s="14" t="s">
+        <v>250</v>
+      </c>
+      <c r="C12" s="14" t="s">
+        <v>223</v>
+      </c>
+      <c r="D12" s="14" t="s">
+        <v>224</v>
+      </c>
+      <c r="E12" s="14" t="s">
         <v>225</v>
       </c>
-      <c r="C12" s="14" t="s">
+      <c r="F12" s="14" t="s">
         <v>226</v>
-      </c>
-      <c r="D12" s="14" t="s">
-        <v>227</v>
-      </c>
-      <c r="E12" s="14" t="s">
-        <v>228</v>
-      </c>
-      <c r="F12" s="14" t="s">
-        <v>229</v>
       </c>
       <c r="G12" s="14"/>
       <c r="H12" s="1"/>
       <c r="I12" s="1"/>
     </row>
-    <row r="13" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="13" spans="1:9" ht="78.75" x14ac:dyDescent="0.25">
       <c r="A13" s="3" t="s">
         <v>12</v>
       </c>
       <c r="B13" s="14" t="s">
-        <v>13</v>
+        <v>248</v>
       </c>
       <c r="C13" s="14" t="s">
         <v>13</v>
@@ -4223,19 +4268,19 @@
         <v>13</v>
       </c>
       <c r="B14" s="14" t="s">
+        <v>227</v>
+      </c>
+      <c r="C14" s="14" t="s">
+        <v>228</v>
+      </c>
+      <c r="D14" s="14" t="s">
+        <v>229</v>
+      </c>
+      <c r="E14" s="14" t="s">
         <v>230</v>
       </c>
-      <c r="C14" s="14" t="s">
+      <c r="F14" s="14" t="s">
         <v>231</v>
-      </c>
-      <c r="D14" s="14" t="s">
-        <v>232</v>
-      </c>
-      <c r="E14" s="14" t="s">
-        <v>233</v>
-      </c>
-      <c r="F14" s="14" t="s">
-        <v>234</v>
       </c>
       <c r="G14" s="14"/>
       <c r="H14" s="1"/>
@@ -4246,19 +4291,19 @@
         <v>14</v>
       </c>
       <c r="B15" s="14" t="s">
-        <v>235</v>
+        <v>232</v>
       </c>
       <c r="C15" s="14" t="s">
-        <v>236</v>
+        <v>233</v>
       </c>
       <c r="D15" s="14" t="s">
-        <v>236</v>
+        <v>233</v>
       </c>
       <c r="E15" s="14" t="s">
-        <v>236</v>
+        <v>233</v>
       </c>
       <c r="F15" s="14" t="s">
-        <v>236</v>
+        <v>233</v>
       </c>
       <c r="G15" s="14"/>
       <c r="H15" s="1"/>
@@ -4269,19 +4314,19 @@
         <v>15</v>
       </c>
       <c r="B16" s="14" t="s">
+        <v>234</v>
+      </c>
+      <c r="C16" s="14" t="s">
+        <v>235</v>
+      </c>
+      <c r="D16" s="14" t="s">
+        <v>236</v>
+      </c>
+      <c r="E16" s="14" t="s">
         <v>237</v>
       </c>
-      <c r="C16" s="14" t="s">
+      <c r="F16" s="14" t="s">
         <v>238</v>
-      </c>
-      <c r="D16" s="14" t="s">
-        <v>239</v>
-      </c>
-      <c r="E16" s="14" t="s">
-        <v>240</v>
-      </c>
-      <c r="F16" s="14" t="s">
-        <v>241</v>
       </c>
       <c r="G16" s="14"/>
       <c r="H16" s="1"/>
@@ -4339,4 +4384,324 @@
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>
+</file>
+
+<file path=xl/worksheets/sheet9.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{CC40E1A4-48E6-46DD-942A-DB855D66C0CB}">
+  <dimension ref="A1:H21"/>
+  <sheetViews>
+    <sheetView topLeftCell="A8" workbookViewId="0">
+      <selection activeCell="B12" sqref="B12"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <cols>
+    <col min="1" max="4" width="24" style="8" customWidth="1"/>
+    <col min="5" max="6" width="23.875" style="8" customWidth="1"/>
+    <col min="7" max="8" width="24" style="8" customWidth="1"/>
+    <col min="9" max="16384" width="9" style="8"/>
+  </cols>
+  <sheetData>
+    <row r="1" spans="1:8" ht="15.75" x14ac:dyDescent="0.25">
+      <c r="A1" s="11" t="s">
+        <v>0</v>
+      </c>
+      <c r="B1" s="9"/>
+      <c r="C1" s="9"/>
+      <c r="D1" s="9"/>
+      <c r="E1" s="9"/>
+      <c r="F1" s="9"/>
+      <c r="G1" s="9"/>
+      <c r="H1" s="9"/>
+    </row>
+    <row r="2" spans="1:8" ht="15.75" x14ac:dyDescent="0.25">
+      <c r="A2" s="11" t="s">
+        <v>1</v>
+      </c>
+      <c r="B2" s="9"/>
+      <c r="C2" s="9"/>
+      <c r="D2" s="9"/>
+      <c r="E2" s="9"/>
+      <c r="F2" s="9"/>
+      <c r="G2" s="9"/>
+      <c r="H2" s="9"/>
+    </row>
+    <row r="3" spans="1:8" ht="15.75" x14ac:dyDescent="0.25">
+      <c r="A3" s="11" t="s">
+        <v>2</v>
+      </c>
+      <c r="B3" s="9"/>
+      <c r="C3" s="9"/>
+      <c r="D3" s="9"/>
+      <c r="E3" s="9"/>
+      <c r="F3" s="9"/>
+      <c r="G3" s="9"/>
+      <c r="H3" s="9"/>
+    </row>
+    <row r="4" spans="1:8" ht="15.75" x14ac:dyDescent="0.25">
+      <c r="A4" s="11" t="s">
+        <v>3</v>
+      </c>
+      <c r="B4" s="9"/>
+      <c r="C4" s="9"/>
+      <c r="D4" s="9"/>
+      <c r="E4" s="9"/>
+      <c r="F4" s="9"/>
+      <c r="G4" s="9"/>
+      <c r="H4" s="9"/>
+    </row>
+    <row r="5" spans="1:8" ht="15.75" x14ac:dyDescent="0.25">
+      <c r="A5" s="11" t="s">
+        <v>4</v>
+      </c>
+      <c r="B5" s="9"/>
+      <c r="C5" s="9"/>
+      <c r="D5" s="9"/>
+      <c r="E5" s="9"/>
+      <c r="F5" s="9"/>
+      <c r="G5" s="9"/>
+      <c r="H5" s="9"/>
+    </row>
+    <row r="6" spans="1:8" ht="15.75" x14ac:dyDescent="0.25">
+      <c r="A6" s="11" t="s">
+        <v>5</v>
+      </c>
+      <c r="B6" s="9"/>
+      <c r="C6" s="9"/>
+      <c r="D6" s="9"/>
+      <c r="E6" s="9"/>
+      <c r="F6" s="9"/>
+      <c r="G6" s="9"/>
+      <c r="H6" s="9"/>
+    </row>
+    <row r="7" spans="1:8" ht="15.75" x14ac:dyDescent="0.25">
+      <c r="A7" s="9"/>
+      <c r="B7" s="10"/>
+      <c r="C7" s="9"/>
+      <c r="D7" s="9"/>
+      <c r="E7" s="9"/>
+      <c r="F7" s="9"/>
+      <c r="G7" s="9"/>
+      <c r="H7" s="9"/>
+    </row>
+    <row r="8" spans="1:8" ht="15.75" x14ac:dyDescent="0.25">
+      <c r="A8" s="11" t="s">
+        <v>6</v>
+      </c>
+      <c r="B8" s="10" t="s">
+        <v>7</v>
+      </c>
+      <c r="C8" s="10" t="s">
+        <v>7</v>
+      </c>
+      <c r="D8" s="10"/>
+      <c r="E8" s="10"/>
+      <c r="F8" s="10"/>
+      <c r="G8" s="10"/>
+      <c r="H8" s="10"/>
+    </row>
+    <row r="9" spans="1:8" ht="15.75" x14ac:dyDescent="0.25">
+      <c r="A9" s="11" t="s">
+        <v>8</v>
+      </c>
+      <c r="B9" s="10" t="s">
+        <v>251</v>
+      </c>
+      <c r="C9" s="10" t="s">
+        <v>251</v>
+      </c>
+      <c r="D9" s="10"/>
+      <c r="E9" s="10"/>
+      <c r="F9" s="10"/>
+      <c r="G9" s="10"/>
+      <c r="H9" s="10"/>
+    </row>
+    <row r="10" spans="1:8" ht="15.75" x14ac:dyDescent="0.25">
+      <c r="A10" s="11" t="s">
+        <v>9</v>
+      </c>
+      <c r="B10" s="10" t="s">
+        <v>252</v>
+      </c>
+      <c r="C10" s="10" t="s">
+        <v>254</v>
+      </c>
+      <c r="D10" s="10"/>
+      <c r="E10" s="10"/>
+      <c r="F10" s="10"/>
+      <c r="G10" s="10"/>
+      <c r="H10" s="10"/>
+    </row>
+    <row r="11" spans="1:8" ht="99.75" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A11" s="11" t="s">
+        <v>10</v>
+      </c>
+      <c r="B11" s="12" t="s">
+        <v>255</v>
+      </c>
+      <c r="C11" s="12" t="s">
+        <v>253</v>
+      </c>
+      <c r="D11" s="12"/>
+      <c r="E11" s="12"/>
+      <c r="F11" s="12"/>
+      <c r="G11" s="12"/>
+      <c r="H11" s="12"/>
+    </row>
+    <row r="12" spans="1:8" ht="168.75" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A12" s="11" t="s">
+        <v>11</v>
+      </c>
+      <c r="B12" s="12" t="s">
+        <v>256</v>
+      </c>
+      <c r="C12" s="12"/>
+      <c r="D12" s="12"/>
+      <c r="E12" s="12"/>
+      <c r="F12" s="12"/>
+      <c r="G12" s="12"/>
+      <c r="H12" s="12"/>
+    </row>
+    <row r="13" spans="1:8" ht="47.25" x14ac:dyDescent="0.25">
+      <c r="A13" s="11" t="s">
+        <v>12</v>
+      </c>
+      <c r="B13" s="12" t="s">
+        <v>257</v>
+      </c>
+      <c r="C13" s="12"/>
+      <c r="D13" s="12"/>
+      <c r="E13" s="12"/>
+      <c r="F13" s="12"/>
+      <c r="G13" s="12"/>
+      <c r="H13" s="12"/>
+    </row>
+    <row r="14" spans="1:8" ht="209.25" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A14" s="11" t="s">
+        <v>13</v>
+      </c>
+      <c r="B14" s="12" t="s">
+        <v>258</v>
+      </c>
+      <c r="C14" s="12"/>
+      <c r="D14" s="12"/>
+      <c r="E14" s="12"/>
+      <c r="F14" s="12"/>
+      <c r="G14" s="12"/>
+      <c r="H14" s="12"/>
+    </row>
+    <row r="15" spans="1:8" ht="47.25" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A15" s="11" t="s">
+        <v>14</v>
+      </c>
+      <c r="B15" s="12" t="s">
+        <v>260</v>
+      </c>
+      <c r="C15" s="12" t="s">
+        <v>195</v>
+      </c>
+      <c r="D15" s="12" t="s">
+        <v>194</v>
+      </c>
+      <c r="E15" s="12" t="s">
+        <v>193</v>
+      </c>
+      <c r="F15" s="12" t="s">
+        <v>192</v>
+      </c>
+      <c r="G15" s="12" t="s">
+        <v>191</v>
+      </c>
+      <c r="H15" s="12"/>
+    </row>
+    <row r="16" spans="1:8" ht="51.75" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A16" s="11" t="s">
+        <v>15</v>
+      </c>
+      <c r="B16" s="12" t="s">
+        <v>259</v>
+      </c>
+      <c r="C16" s="12" t="s">
+        <v>195</v>
+      </c>
+      <c r="D16" s="12" t="s">
+        <v>194</v>
+      </c>
+      <c r="E16" s="12" t="s">
+        <v>193</v>
+      </c>
+      <c r="F16" s="12" t="s">
+        <v>192</v>
+      </c>
+      <c r="G16" s="12" t="s">
+        <v>191</v>
+      </c>
+      <c r="H16" s="12"/>
+    </row>
+    <row r="17" spans="1:8" ht="15.75" x14ac:dyDescent="0.25">
+      <c r="A17" s="11" t="s">
+        <v>16</v>
+      </c>
+      <c r="B17" s="13"/>
+      <c r="C17" s="13"/>
+      <c r="D17" s="13"/>
+      <c r="E17" s="13"/>
+      <c r="F17" s="13"/>
+      <c r="G17" s="13"/>
+      <c r="H17" s="13"/>
+    </row>
+    <row r="18" spans="1:8" ht="15.75" x14ac:dyDescent="0.25">
+      <c r="A18" s="11" t="s">
+        <v>17</v>
+      </c>
+      <c r="B18" s="12" t="s">
+        <v>18</v>
+      </c>
+      <c r="C18" s="12" t="s">
+        <v>19</v>
+      </c>
+      <c r="D18" s="12" t="s">
+        <v>19</v>
+      </c>
+      <c r="E18" s="12" t="s">
+        <v>19</v>
+      </c>
+      <c r="F18" s="12" t="s">
+        <v>19</v>
+      </c>
+      <c r="G18" s="12" t="s">
+        <v>19</v>
+      </c>
+      <c r="H18" s="12"/>
+    </row>
+    <row r="19" spans="1:8" ht="15.75" x14ac:dyDescent="0.25">
+      <c r="A19" s="11" t="s">
+        <v>20</v>
+      </c>
+      <c r="B19" s="10"/>
+      <c r="C19" s="9"/>
+      <c r="D19" s="9"/>
+      <c r="E19" s="9"/>
+    </row>
+    <row r="20" spans="1:8" ht="15.75" x14ac:dyDescent="0.25">
+      <c r="A20" s="11" t="s">
+        <v>21</v>
+      </c>
+      <c r="B20" s="10"/>
+      <c r="C20" s="9"/>
+      <c r="D20" s="9"/>
+      <c r="E20" s="9"/>
+    </row>
+    <row r="21" spans="1:8" ht="15.75" x14ac:dyDescent="0.25">
+      <c r="A21" s="11" t="s">
+        <v>22</v>
+      </c>
+      <c r="B21" s="10"/>
+      <c r="C21" s="9"/>
+      <c r="D21" s="9"/>
+      <c r="E21" s="9"/>
+    </row>
+  </sheetData>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+</worksheet>
 </file>
--- a/Análise/Test Scenarios.xlsx
+++ b/Análise/Test Scenarios.xlsx
@@ -8,22 +8,22 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="E:\Documents\GitHub\upskill_java1_labprg_grupo3\Análise\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{FEB7CC73-9BA6-4F52-807F-9C61D498E67C}" xr6:coauthVersionLast="46" xr6:coauthVersionMax="46" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{00B5ECBC-B3E4-4140-9BF6-7BDFB4A0A64B}" xr6:coauthVersionLast="46" xr6:coauthVersionMax="46" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15840" tabRatio="993" activeTab="2" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15840" tabRatio="993" activeTab="3" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="UC 1 - Registar Organização" sheetId="7" r:id="rId1"/>
     <sheet name="UC 2 - Definir Area Atividade" sheetId="10" r:id="rId2"/>
     <sheet name="UC 3 - Definir Cat Tarefa" sheetId="17" r:id="rId3"/>
-    <sheet name="UC 4-Especificar Comp.Técnica " sheetId="12" r:id="rId4"/>
+    <sheet name="UC 4-Especificar Comp.Técni" sheetId="20" r:id="rId4"/>
     <sheet name="UC 5 - Especificar Colaborador" sheetId="13" r:id="rId5"/>
     <sheet name="UC 6 - Definir Tarefa" sheetId="14" r:id="rId6"/>
-    <sheet name="UC 7-Publicar Tarefa" sheetId="15" r:id="rId7"/>
+    <sheet name="UC 7-Publicar Tarefa" sheetId="19" r:id="rId7"/>
     <sheet name="UC 8 - Efectuar Candidatura" sheetId="16" r:id="rId8"/>
     <sheet name="UC 7b-Selecionar Tarefa " sheetId="18" r:id="rId9"/>
   </sheets>
-  <calcPr calcId="0" iterateDelta="1E-4"/>
+  <calcPr calcId="0"/>
   <extLst>
     <ext xmlns:loext="http://schemas.libreoffice.org/" uri="{7626C862-2A13-11E5-B345-FEFF819CDC9F}">
       <loext:extCalcPr stringRefSyntax="ExcelA1"/>
@@ -33,7 +33,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="641" uniqueCount="261">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="631" uniqueCount="259">
   <si>
     <t>Project Name</t>
   </si>
@@ -542,24 +542,9 @@
     <t>T4J</t>
   </si>
   <si>
-    <t>Popup Message "Invalid proficiency degrees"</t>
-  </si>
-  <si>
-    <t>Popup Message "Invalid activity area"</t>
-  </si>
-  <si>
     <t>Message "Invalid detailed description"</t>
   </si>
   <si>
-    <t>Popup Message "Invalid brief description"</t>
-  </si>
-  <si>
-    <t>Popup Message "Invalid unique code"</t>
-  </si>
-  <si>
-    <t>Popup Message "Unique code already exists"</t>
-  </si>
-  <si>
     <t>Successful register a technical skill</t>
   </si>
   <si>
@@ -573,9 +558,6 @@
   </si>
   <si>
     <t>Message "Invalid unique code"</t>
-  </si>
-  <si>
-    <t>Message "Unique code already exists"</t>
   </si>
   <si>
     <t>Message "Technical skill sucefully registered"</t>
@@ -622,14 +604,6 @@
   </si>
   <si>
     <t xml:space="preserve">unique code: CP-01
-brief description: "Reparação Automóvel"
-detailed description: "Reparação mecánica automóvel, mecánica geral"
-activity area: "Mecánica"
-proficiency degrees: 0-5, from 0 for "really bad" to 5 for "master at mechanics"
-</t>
-  </si>
-  <si>
-    <t xml:space="preserve">unique code: CP-01
 brief description: "Pintura Imóveis"
 detailed description: "Pintura interior e exterior de imóveis"
 activity area: "Construção"
@@ -677,14 +651,6 @@
 6. Click register button</t>
   </si>
   <si>
-    <t>1. Enter an existant  unique code
-2. Enter valid brief description
-3. Enter valid detailed description
-4. Enter valid activity area
-5. Enter valid proficiency degrees
-6. Click register button</t>
-  </si>
-  <si>
     <t>Valid unique code
 Valid brief description
 Valid detailed description
@@ -720,21 +686,11 @@
 Valid proficiency degrees</t>
   </si>
   <si>
-    <t>Already existant unique code
-Valid brief description
-Valid detailed description
-Valid activity area
-Valid proficiency degrees</t>
-  </si>
-  <si>
     <t>Valid unique code
 Valid brief description
 Valid detailed description
 Valid activity area
 Valid proficiency degrees</t>
-  </si>
-  <si>
-    <t>TC_UC4_007</t>
   </si>
   <si>
     <t>TC_UC4_006</t>
@@ -1209,18 +1165,50 @@
   <si>
     <t>Message "Task successfully selected"</t>
   </si>
+  <si>
+    <t>InvalidSerializationSchemeException</t>
+  </si>
+  <si>
+    <t>InvalidPeriodDataException</t>
+  </si>
+  <si>
+    <t>Must have created tasks
+Test Data</t>
+  </si>
+  <si>
+    <t>InvalidProficiencyDegreesException</t>
+  </si>
+  <si>
+    <t>InvalidActivityAreaException</t>
+  </si>
+  <si>
+    <t>InvalidDetailedDescriptionException</t>
+  </si>
+  <si>
+    <t>InvalidBriefDescriptionException</t>
+  </si>
+  <si>
+    <t>InvalidUniqueCodeException</t>
+  </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
-  <fonts count="4" x14ac:knownFonts="1">
+  <fonts count="5" x14ac:knownFonts="1">
     <font>
       <sz val="12"/>
       <color rgb="FF000000"/>
       <name val="Calibri"/>
       <family val="2"/>
       <charset val="1"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color theme="1"/>
+      <name val="Calibri"/>
+      <family val="2"/>
+      <scheme val="minor"/>
     </font>
     <font>
       <sz val="11"/>
@@ -1243,7 +1231,7 @@
       <family val="2"/>
     </font>
   </fonts>
-  <fills count="4">
+  <fills count="5">
     <fill>
       <patternFill patternType="none"/>
     </fill>
@@ -1259,6 +1247,12 @@
     <fill>
       <patternFill patternType="solid">
         <fgColor rgb="FFFFC000"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFFF00"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -1287,38 +1281,39 @@
       <diagonal/>
     </border>
   </borders>
-  <cellStyleXfs count="7">
+  <cellStyleXfs count="8">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
-    <xf numFmtId="0" fontId="2" fillId="2" borderId="1" applyProtection="0"/>
+    <xf numFmtId="0" fontId="3" fillId="2" borderId="1" applyProtection="0"/>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="0"/>
+    <xf numFmtId="0" fontId="4" fillId="2" borderId="1" applyProtection="0"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0"/>
     <xf numFmtId="0" fontId="3" fillId="0" borderId="0"/>
     <xf numFmtId="0" fontId="3" fillId="2" borderId="1" applyProtection="0"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0"/>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="0"/>
-    <xf numFmtId="0" fontId="2" fillId="2" borderId="1" applyProtection="0"/>
   </cellStyleXfs>
-  <cellXfs count="19">
+  <cellXfs count="23">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="2" borderId="1" xfId="1" applyFont="1" applyAlignment="1" applyProtection="1"/>
     <xf numFmtId="0" fontId="0" fillId="2" borderId="1" xfId="1" applyFont="1" applyProtection="1"/>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="2" applyAlignment="1">
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" xfId="2" applyAlignment="1">
       <alignment wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="3" fillId="2" borderId="1" xfId="3" applyProtection="1"/>
-    <xf numFmtId="14" fontId="3" fillId="0" borderId="0" xfId="2" applyNumberFormat="1"/>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="2"/>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="4"/>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="5"/>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="5" applyAlignment="1">
+    <xf numFmtId="0" fontId="4" fillId="2" borderId="1" xfId="3" applyProtection="1"/>
+    <xf numFmtId="14" fontId="4" fillId="0" borderId="0" xfId="2" applyNumberFormat="1"/>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" xfId="2"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="4"/>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="5"/>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="5" applyAlignment="1">
       <alignment wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="2" fillId="2" borderId="1" xfId="6" applyProtection="1"/>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="5" applyAlignment="1">
+    <xf numFmtId="0" fontId="3" fillId="2" borderId="1" xfId="6" applyProtection="1"/>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="5" applyAlignment="1">
       <alignment vertical="top" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="5" applyAlignment="1">
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="5" applyAlignment="1">
       <alignment vertical="top"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
@@ -1327,19 +1322,30 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="2"/>
     <xf numFmtId="0" fontId="0" fillId="3" borderId="0" xfId="0" applyFill="1" applyAlignment="1">
       <alignment wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="3" borderId="0" xfId="0" applyFill="1"/>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" xfId="2"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="7"/>
+    <xf numFmtId="0" fontId="3" fillId="4" borderId="0" xfId="5" applyFill="1" applyAlignment="1">
+      <alignment vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="4" borderId="0" xfId="5" applyFill="1" applyAlignment="1">
+      <alignment vertical="top"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="4" borderId="0" xfId="5" applyFill="1" applyAlignment="1">
+      <alignment wrapText="1"/>
+    </xf>
   </cellXfs>
-  <cellStyles count="7">
+  <cellStyles count="8">
     <cellStyle name="Explanatory Text" xfId="1" builtinId="53" customBuiltin="1"/>
     <cellStyle name="Explanatory Text 2" xfId="3" xr:uid="{C5B8460D-CF4D-4191-A1D0-5839E7D08BF9}"/>
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
     <cellStyle name="Normal 2" xfId="2" xr:uid="{28567E4D-060C-40D8-8709-8231850AA33F}"/>
     <cellStyle name="Normal 2 2" xfId="5" xr:uid="{D279080A-799F-40E6-B468-054841510484}"/>
     <cellStyle name="Normal 3" xfId="4" xr:uid="{3289C431-8A80-44C7-AAF0-20A110D1168B}"/>
+    <cellStyle name="Normal 4" xfId="7" xr:uid="{1E45B35E-A450-4038-A393-96EA01C43654}"/>
     <cellStyle name="Texto Explicativo 2" xfId="6" xr:uid="{603E4701-A181-4397-927F-921D43BDE093}"/>
   </cellStyles>
   <dxfs count="0"/>
@@ -1801,10 +1807,10 @@
       <c r="B8" s="1" t="s">
         <v>7</v>
       </c>
-      <c r="C8" s="17" t="s">
+      <c r="C8" s="16" t="s">
         <v>7</v>
       </c>
-      <c r="D8" s="17" t="s">
+      <c r="D8" s="16" t="s">
         <v>7</v>
       </c>
       <c r="E8" s="1" t="s">
@@ -1833,10 +1839,10 @@
       <c r="B9" s="1" t="s">
         <v>23</v>
       </c>
-      <c r="C9" s="17" t="s">
+      <c r="C9" s="16" t="s">
         <v>23</v>
       </c>
-      <c r="D9" s="17" t="s">
+      <c r="D9" s="16" t="s">
         <v>23</v>
       </c>
       <c r="E9" s="1" t="s">
@@ -1865,10 +1871,10 @@
       <c r="B10" s="1" t="s">
         <v>24</v>
       </c>
-      <c r="C10" s="17" t="s">
+      <c r="C10" s="16" t="s">
         <v>25</v>
       </c>
-      <c r="D10" s="17" t="s">
+      <c r="D10" s="16" t="s">
         <v>26</v>
       </c>
       <c r="E10" s="1" t="s">
@@ -1897,10 +1903,10 @@
       <c r="B11" s="1" t="s">
         <v>28</v>
       </c>
-      <c r="C11" s="17" t="s">
+      <c r="C11" s="16" t="s">
         <v>35</v>
       </c>
-      <c r="D11" s="17" t="s">
+      <c r="D11" s="16" t="s">
         <v>39</v>
       </c>
       <c r="E11" s="1" t="s">
@@ -1929,10 +1935,10 @@
       <c r="B12" s="1" t="s">
         <v>29</v>
       </c>
-      <c r="C12" s="17" t="s">
+      <c r="C12" s="16" t="s">
         <v>36</v>
       </c>
-      <c r="D12" s="17" t="s">
+      <c r="D12" s="16" t="s">
         <v>40</v>
       </c>
       <c r="E12" s="1" t="s">
@@ -1961,10 +1967,10 @@
       <c r="B13" s="1" t="s">
         <v>13</v>
       </c>
-      <c r="C13" s="17" t="s">
+      <c r="C13" s="16" t="s">
         <v>13</v>
       </c>
-      <c r="D13" s="17" t="s">
+      <c r="D13" s="16" t="s">
         <v>13</v>
       </c>
       <c r="E13" s="1" t="s">
@@ -1993,10 +1999,10 @@
       <c r="B14" s="1" t="s">
         <v>30</v>
       </c>
-      <c r="C14" s="17" t="s">
+      <c r="C14" s="16" t="s">
         <v>30</v>
       </c>
-      <c r="D14" s="17" t="s">
+      <c r="D14" s="16" t="s">
         <v>30</v>
       </c>
       <c r="E14" s="1" t="s">
@@ -2025,10 +2031,10 @@
       <c r="B15" s="1" t="s">
         <v>31</v>
       </c>
-      <c r="C15" s="17" t="s">
+      <c r="C15" s="16" t="s">
         <v>37</v>
       </c>
-      <c r="D15" s="17" t="s">
+      <c r="D15" s="16" t="s">
         <v>41</v>
       </c>
       <c r="E15" s="1" t="s">
@@ -2057,14 +2063,14 @@
       <c r="B16" s="1" t="s">
         <v>32</v>
       </c>
-      <c r="C16" s="17" t="s">
+      <c r="C16" s="16" t="s">
         <v>38</v>
       </c>
-      <c r="D16" s="17" t="s">
+      <c r="D16" s="16" t="s">
         <v>42</v>
       </c>
       <c r="E16" s="1" t="s">
-        <v>247</v>
+        <v>237</v>
       </c>
       <c r="F16" s="1" t="s">
         <v>54</v>
@@ -2087,8 +2093,8 @@
         <v>16</v>
       </c>
       <c r="B17"/>
-      <c r="C17" s="18"/>
-      <c r="D17" s="18"/>
+      <c r="C17" s="17"/>
+      <c r="D17" s="17"/>
     </row>
     <row r="18" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A18" s="2" t="s">
@@ -2097,10 +2103,10 @@
       <c r="B18" s="1" t="s">
         <v>18</v>
       </c>
-      <c r="C18" s="17" t="s">
+      <c r="C18" s="16" t="s">
         <v>19</v>
       </c>
-      <c r="D18" s="17" t="s">
+      <c r="D18" s="16" t="s">
         <v>19</v>
       </c>
       <c r="E18" s="1" t="s">
@@ -2474,7 +2480,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{312C4631-4654-4624-B019-66B47B8FA54E}">
   <dimension ref="B3:F23"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="B1" zoomScale="115" zoomScaleSheetLayoutView="100" workbookViewId="0">
+    <sheetView topLeftCell="B7" zoomScale="115" zoomScaleSheetLayoutView="100" workbookViewId="0">
       <selection activeCell="F3" sqref="F3"/>
     </sheetView>
   </sheetViews>
@@ -2498,10 +2504,10 @@
       <c r="B4" s="5" t="s">
         <v>1</v>
       </c>
-      <c r="C4" s="16" t="s">
+      <c r="C4" s="18" t="s">
         <v>114</v>
       </c>
-      <c r="D4" s="16"/>
+      <c r="D4" s="18"/>
     </row>
     <row r="5" spans="2:6" x14ac:dyDescent="0.25">
       <c r="B5" s="5" t="s">
@@ -2574,10 +2580,10 @@
         <v>109</v>
       </c>
       <c r="D12" s="4" t="s">
-        <v>246</v>
+        <v>236</v>
       </c>
       <c r="E12" s="4" t="s">
-        <v>245</v>
+        <v>235</v>
       </c>
       <c r="F12" s="4" t="s">
         <v>108</v>
@@ -2608,7 +2614,7 @@
         <v>105</v>
       </c>
       <c r="D14" s="4" t="s">
-        <v>244</v>
+        <v>234</v>
       </c>
       <c r="E14" s="4"/>
       <c r="F14" s="4"/>
@@ -2653,11 +2659,11 @@
       </c>
       <c r="C17" s="4"/>
       <c r="D17" s="4" t="s">
-        <v>243</v>
+        <v>233</v>
       </c>
       <c r="E17" s="4"/>
       <c r="F17" s="4" t="s">
-        <v>243</v>
+        <v>233</v>
       </c>
     </row>
     <row r="18" spans="2:6" ht="31.5" x14ac:dyDescent="0.25">
@@ -2666,10 +2672,10 @@
       </c>
       <c r="C18" s="4"/>
       <c r="D18" s="4" t="s">
-        <v>242</v>
+        <v>232</v>
       </c>
       <c r="F18" s="4" t="s">
-        <v>242</v>
+        <v>232</v>
       </c>
     </row>
     <row r="19" spans="2:6" x14ac:dyDescent="0.25">
@@ -2721,24 +2727,24 @@
 </file>
 
 <file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{875D30BB-BDEF-4D64-AAE8-D6A6527966A1}">
-  <dimension ref="A1:H21"/>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{6BD69988-827F-4D18-A55A-34CFB4B2936D}">
+  <dimension ref="A1:G21"/>
   <sheetViews>
-    <sheetView topLeftCell="A16" workbookViewId="0">
-      <selection activeCell="D14" sqref="D14"/>
+    <sheetView tabSelected="1" topLeftCell="A13" workbookViewId="0">
+      <selection activeCell="D21" sqref="D21"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="1" max="1" width="23.875" style="8" customWidth="1"/>
-    <col min="2" max="3" width="24.125" style="8" customWidth="1"/>
-    <col min="4" max="5" width="23.875" style="8" customWidth="1"/>
-    <col min="6" max="7" width="24" style="8" customWidth="1"/>
-    <col min="8" max="8" width="24.125" style="8" customWidth="1"/>
-    <col min="9" max="16384" width="9" style="8"/>
+    <col min="1" max="1" width="23.875" style="19" customWidth="1"/>
+    <col min="2" max="2" width="24.125" style="19" customWidth="1"/>
+    <col min="3" max="4" width="23.875" style="19" customWidth="1"/>
+    <col min="5" max="6" width="24" style="19" customWidth="1"/>
+    <col min="7" max="7" width="24.125" style="19" customWidth="1"/>
+    <col min="8" max="16384" width="9" style="19"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:8" ht="15.75" x14ac:dyDescent="0.25">
+    <row r="1" spans="1:7" ht="15.75" x14ac:dyDescent="0.25">
       <c r="A1" s="11" t="s">
         <v>0</v>
       </c>
@@ -2748,9 +2754,8 @@
       <c r="E1" s="9"/>
       <c r="F1" s="9"/>
       <c r="G1" s="9"/>
-      <c r="H1" s="9"/>
-    </row>
-    <row r="2" spans="1:8" ht="15.75" x14ac:dyDescent="0.25">
+    </row>
+    <row r="2" spans="1:7" ht="15.75" x14ac:dyDescent="0.25">
       <c r="A2" s="11" t="s">
         <v>1</v>
       </c>
@@ -2760,9 +2765,8 @@
       <c r="E2" s="9"/>
       <c r="F2" s="9"/>
       <c r="G2" s="9"/>
-      <c r="H2" s="9"/>
-    </row>
-    <row r="3" spans="1:8" ht="15.75" x14ac:dyDescent="0.25">
+    </row>
+    <row r="3" spans="1:7" ht="15.75" x14ac:dyDescent="0.25">
       <c r="A3" s="11" t="s">
         <v>2</v>
       </c>
@@ -2772,9 +2776,8 @@
       <c r="E3" s="9"/>
       <c r="F3" s="9"/>
       <c r="G3" s="9"/>
-      <c r="H3" s="9"/>
-    </row>
-    <row r="4" spans="1:8" ht="15.75" x14ac:dyDescent="0.25">
+    </row>
+    <row r="4" spans="1:7" ht="15.75" x14ac:dyDescent="0.25">
       <c r="A4" s="11" t="s">
         <v>3</v>
       </c>
@@ -2784,9 +2787,8 @@
       <c r="E4" s="9"/>
       <c r="F4" s="9"/>
       <c r="G4" s="9"/>
-      <c r="H4" s="9"/>
-    </row>
-    <row r="5" spans="1:8" ht="15.75" x14ac:dyDescent="0.25">
+    </row>
+    <row r="5" spans="1:7" ht="15.75" x14ac:dyDescent="0.25">
       <c r="A5" s="11" t="s">
         <v>4</v>
       </c>
@@ -2796,9 +2798,8 @@
       <c r="E5" s="9"/>
       <c r="F5" s="9"/>
       <c r="G5" s="9"/>
-      <c r="H5" s="9"/>
-    </row>
-    <row r="6" spans="1:8" ht="15.75" x14ac:dyDescent="0.25">
+    </row>
+    <row r="6" spans="1:7" ht="15.75" x14ac:dyDescent="0.25">
       <c r="A6" s="11" t="s">
         <v>5</v>
       </c>
@@ -2808,9 +2809,8 @@
       <c r="E6" s="9"/>
       <c r="F6" s="9"/>
       <c r="G6" s="9"/>
-      <c r="H6" s="9"/>
-    </row>
-    <row r="7" spans="1:8" ht="15.75" x14ac:dyDescent="0.25">
+    </row>
+    <row r="7" spans="1:7" ht="15.75" x14ac:dyDescent="0.25">
       <c r="A7" s="9"/>
       <c r="B7" s="10"/>
       <c r="C7" s="9"/>
@@ -2818,9 +2818,8 @@
       <c r="E7" s="9"/>
       <c r="F7" s="9"/>
       <c r="G7" s="9"/>
-      <c r="H7" s="9"/>
-    </row>
-    <row r="8" spans="1:8" ht="15.75" x14ac:dyDescent="0.25">
+    </row>
+    <row r="8" spans="1:7" ht="15.75" x14ac:dyDescent="0.25">
       <c r="A8" s="11" t="s">
         <v>6</v>
       </c>
@@ -2842,115 +2841,100 @@
       <c r="G8" s="10" t="s">
         <v>7</v>
       </c>
-      <c r="H8" s="10" t="s">
-        <v>7</v>
-      </c>
-    </row>
-    <row r="9" spans="1:8" ht="51.75" customHeight="1" x14ac:dyDescent="0.25">
+    </row>
+    <row r="9" spans="1:7" ht="51.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A9" s="11" t="s">
         <v>8</v>
       </c>
       <c r="B9" s="10" t="s">
-        <v>156</v>
+        <v>146</v>
       </c>
       <c r="C9" s="10" t="s">
-        <v>156</v>
+        <v>146</v>
       </c>
       <c r="D9" s="10" t="s">
-        <v>156</v>
+        <v>146</v>
       </c>
       <c r="E9" s="10" t="s">
-        <v>156</v>
+        <v>146</v>
       </c>
       <c r="F9" s="10" t="s">
-        <v>156</v>
+        <v>146</v>
       </c>
       <c r="G9" s="10" t="s">
-        <v>156</v>
-      </c>
-      <c r="H9" s="10" t="s">
-        <v>156</v>
-      </c>
-    </row>
-    <row r="10" spans="1:8" ht="15.75" x14ac:dyDescent="0.25">
+        <v>146</v>
+      </c>
+    </row>
+    <row r="10" spans="1:7" ht="15.75" x14ac:dyDescent="0.25">
       <c r="A10" s="11" t="s">
         <v>9</v>
       </c>
       <c r="B10" s="10" t="s">
-        <v>155</v>
+        <v>145</v>
       </c>
       <c r="C10" s="10" t="s">
-        <v>154</v>
+        <v>144</v>
       </c>
       <c r="D10" s="10" t="s">
-        <v>153</v>
+        <v>143</v>
       </c>
       <c r="E10" s="10" t="s">
-        <v>152</v>
+        <v>142</v>
       </c>
       <c r="F10" s="10" t="s">
-        <v>151</v>
+        <v>141</v>
       </c>
       <c r="G10" s="10" t="s">
-        <v>150</v>
-      </c>
-      <c r="H10" s="10" t="s">
-        <v>149</v>
-      </c>
-    </row>
-    <row r="11" spans="1:8" ht="100.5" customHeight="1" x14ac:dyDescent="0.25">
+        <v>140</v>
+      </c>
+    </row>
+    <row r="11" spans="1:7" ht="100.5" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A11" s="11" t="s">
         <v>10</v>
       </c>
       <c r="B11" s="12" t="s">
-        <v>148</v>
+        <v>139</v>
       </c>
       <c r="C11" s="12" t="s">
-        <v>147</v>
+        <v>138</v>
       </c>
       <c r="D11" s="12" t="s">
-        <v>146</v>
+        <v>137</v>
       </c>
       <c r="E11" s="12" t="s">
-        <v>145</v>
+        <v>136</v>
       </c>
       <c r="F11" s="12" t="s">
-        <v>144</v>
+        <v>135</v>
       </c>
       <c r="G11" s="12" t="s">
-        <v>143</v>
-      </c>
-      <c r="H11" s="12" t="s">
-        <v>142</v>
-      </c>
-    </row>
-    <row r="12" spans="1:8" ht="168" customHeight="1" x14ac:dyDescent="0.25">
+        <v>134</v>
+      </c>
+    </row>
+    <row r="12" spans="1:7" ht="168" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A12" s="11" t="s">
         <v>11</v>
       </c>
       <c r="B12" s="12" t="s">
-        <v>137</v>
+        <v>130</v>
       </c>
       <c r="C12" s="12" t="s">
-        <v>141</v>
+        <v>133</v>
       </c>
       <c r="D12" s="12" t="s">
-        <v>140</v>
+        <v>132</v>
       </c>
       <c r="E12" s="12" t="s">
-        <v>139</v>
+        <v>131</v>
       </c>
       <c r="F12" s="12" t="s">
-        <v>138</v>
+        <v>130</v>
       </c>
       <c r="G12" s="12" t="s">
-        <v>137</v>
-      </c>
-      <c r="H12" s="12" t="s">
-        <v>136</v>
-      </c>
-    </row>
-    <row r="13" spans="1:8" ht="18" customHeight="1" x14ac:dyDescent="0.25">
+        <v>129</v>
+      </c>
+    </row>
+    <row r="13" spans="1:7" ht="18" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A13" s="11" t="s">
         <v>12</v>
       </c>
@@ -2972,89 +2956,77 @@
       <c r="G13" s="12" t="s">
         <v>13</v>
       </c>
-      <c r="H13" s="12" t="s">
-        <v>13</v>
-      </c>
-    </row>
-    <row r="14" spans="1:8" ht="179.25" customHeight="1" x14ac:dyDescent="0.25">
+    </row>
+    <row r="14" spans="1:7" ht="179.25" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A14" s="11" t="s">
         <v>13</v>
       </c>
       <c r="B14" s="12" t="s">
-        <v>135</v>
+        <v>128</v>
       </c>
       <c r="C14" s="12" t="s">
-        <v>134</v>
+        <v>127</v>
       </c>
       <c r="D14" s="12" t="s">
-        <v>133</v>
+        <v>126</v>
       </c>
       <c r="E14" s="12" t="s">
-        <v>132</v>
+        <v>125</v>
       </c>
       <c r="F14" s="12" t="s">
-        <v>131</v>
+        <v>124</v>
       </c>
       <c r="G14" s="12" t="s">
-        <v>130</v>
-      </c>
-      <c r="H14" s="12" t="s">
-        <v>129</v>
-      </c>
-    </row>
-    <row r="15" spans="1:8" ht="32.25" customHeight="1" x14ac:dyDescent="0.25">
+        <v>123</v>
+      </c>
+    </row>
+    <row r="15" spans="1:7" ht="32.25" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A15" s="11" t="s">
         <v>14</v>
       </c>
       <c r="B15" s="12" t="s">
-        <v>128</v>
+        <v>122</v>
       </c>
       <c r="C15" s="12" t="s">
-        <v>127</v>
+        <v>121</v>
       </c>
       <c r="D15" s="12" t="s">
-        <v>126</v>
+        <v>120</v>
       </c>
       <c r="E15" s="12" t="s">
-        <v>125</v>
+        <v>116</v>
       </c>
       <c r="F15" s="12" t="s">
+        <v>119</v>
+      </c>
+      <c r="G15" s="12" t="s">
         <v>118</v>
       </c>
-      <c r="G15" s="12" t="s">
-        <v>124</v>
-      </c>
-      <c r="H15" s="12" t="s">
-        <v>123</v>
-      </c>
-    </row>
-    <row r="16" spans="1:8" ht="34.5" customHeight="1" x14ac:dyDescent="0.25">
+    </row>
+    <row r="16" spans="1:7" ht="34.5" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A16" s="11" t="s">
         <v>15</v>
       </c>
       <c r="B16" s="12" t="s">
-        <v>122</v>
+        <v>117</v>
       </c>
       <c r="C16" s="12" t="s">
-        <v>121</v>
+        <v>258</v>
       </c>
       <c r="D16" s="12" t="s">
-        <v>120</v>
+        <v>257</v>
       </c>
       <c r="E16" s="12" t="s">
-        <v>119</v>
+        <v>256</v>
       </c>
       <c r="F16" s="12" t="s">
-        <v>118</v>
+        <v>255</v>
       </c>
       <c r="G16" s="12" t="s">
-        <v>117</v>
-      </c>
-      <c r="H16" s="12" t="s">
-        <v>116</v>
-      </c>
-    </row>
-    <row r="17" spans="1:8" ht="15.75" x14ac:dyDescent="0.25">
+        <v>254</v>
+      </c>
+    </row>
+    <row r="17" spans="1:7" ht="15.75" x14ac:dyDescent="0.25">
       <c r="A17" s="11" t="s">
         <v>16</v>
       </c>
@@ -3064,9 +3036,8 @@
       <c r="E17" s="13"/>
       <c r="F17" s="13"/>
       <c r="G17" s="13"/>
-      <c r="H17" s="13"/>
-    </row>
-    <row r="18" spans="1:8" ht="15.75" x14ac:dyDescent="0.25">
+    </row>
+    <row r="18" spans="1:7" ht="15.75" x14ac:dyDescent="0.25">
       <c r="A18" s="11" t="s">
         <v>17</v>
       </c>
@@ -3088,36 +3059,30 @@
       <c r="G18" s="12" t="s">
         <v>19</v>
       </c>
-      <c r="H18" s="12" t="s">
-        <v>19</v>
-      </c>
-    </row>
-    <row r="19" spans="1:8" ht="15.75" x14ac:dyDescent="0.25">
+    </row>
+    <row r="19" spans="1:7" ht="15.75" x14ac:dyDescent="0.25">
       <c r="A19" s="11" t="s">
         <v>20</v>
       </c>
       <c r="B19" s="10"/>
       <c r="C19" s="9"/>
       <c r="D19" s="9"/>
-      <c r="E19" s="9"/>
-    </row>
-    <row r="20" spans="1:8" ht="15.75" x14ac:dyDescent="0.25">
+    </row>
+    <row r="20" spans="1:7" ht="15.75" x14ac:dyDescent="0.25">
       <c r="A20" s="11" t="s">
         <v>21</v>
       </c>
       <c r="B20" s="10"/>
       <c r="C20" s="9"/>
       <c r="D20" s="9"/>
-      <c r="E20" s="9"/>
-    </row>
-    <row r="21" spans="1:8" ht="15.75" x14ac:dyDescent="0.25">
+    </row>
+    <row r="21" spans="1:7" ht="15.75" x14ac:dyDescent="0.25">
       <c r="A21" s="11" t="s">
         <v>22</v>
       </c>
       <c r="B21" s="10"/>
       <c r="C21" s="9"/>
       <c r="D21" s="9"/>
-      <c r="E21" s="9"/>
     </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
@@ -3181,16 +3146,16 @@
         <v>6</v>
       </c>
       <c r="B8" s="1" t="s">
-        <v>180</v>
+        <v>170</v>
       </c>
       <c r="C8" s="1" t="s">
-        <v>180</v>
+        <v>170</v>
       </c>
       <c r="D8" s="1" t="s">
-        <v>180</v>
+        <v>170</v>
       </c>
       <c r="E8" s="1" t="s">
-        <v>180</v>
+        <v>170</v>
       </c>
       <c r="F8" s="1"/>
       <c r="G8" s="1"/>
@@ -3203,16 +3168,16 @@
         <v>8</v>
       </c>
       <c r="B9" s="1" t="s">
-        <v>179</v>
+        <v>169</v>
       </c>
       <c r="C9" s="1" t="s">
-        <v>179</v>
+        <v>169</v>
       </c>
       <c r="D9" s="1" t="s">
-        <v>179</v>
+        <v>169</v>
       </c>
       <c r="E9" s="1" t="s">
-        <v>179</v>
+        <v>169</v>
       </c>
       <c r="F9" s="1"/>
       <c r="G9" s="1"/>
@@ -3225,16 +3190,16 @@
         <v>9</v>
       </c>
       <c r="B10" s="1" t="s">
-        <v>178</v>
+        <v>168</v>
       </c>
       <c r="C10" s="1" t="s">
-        <v>177</v>
+        <v>167</v>
       </c>
       <c r="D10" s="1" t="s">
-        <v>176</v>
+        <v>166</v>
       </c>
       <c r="E10" s="1" t="s">
-        <v>176</v>
+        <v>166</v>
       </c>
       <c r="F10" s="1"/>
       <c r="G10" s="1"/>
@@ -3247,16 +3212,16 @@
         <v>10</v>
       </c>
       <c r="B11" s="1" t="s">
-        <v>175</v>
+        <v>165</v>
       </c>
       <c r="C11" s="1" t="s">
-        <v>174</v>
+        <v>164</v>
       </c>
       <c r="D11" s="1" t="s">
-        <v>173</v>
+        <v>163</v>
       </c>
       <c r="E11" s="1" t="s">
-        <v>172</v>
+        <v>162</v>
       </c>
       <c r="F11" s="1"/>
       <c r="G11" s="1"/>
@@ -3269,16 +3234,16 @@
         <v>11</v>
       </c>
       <c r="B12" s="1" t="s">
-        <v>171</v>
+        <v>161</v>
       </c>
       <c r="C12" s="1" t="s">
-        <v>170</v>
+        <v>160</v>
       </c>
       <c r="D12" s="1" t="s">
-        <v>169</v>
+        <v>159</v>
       </c>
       <c r="E12" s="1" t="s">
-        <v>168</v>
+        <v>158</v>
       </c>
       <c r="F12" s="1"/>
       <c r="G12" s="1"/>
@@ -3313,16 +3278,16 @@
         <v>13</v>
       </c>
       <c r="B14" s="1" t="s">
-        <v>167</v>
+        <v>157</v>
       </c>
       <c r="C14" s="1" t="s">
-        <v>167</v>
+        <v>157</v>
       </c>
       <c r="D14" s="1" t="s">
-        <v>166</v>
+        <v>156</v>
       </c>
       <c r="E14" s="1" t="s">
-        <v>165</v>
+        <v>155</v>
       </c>
       <c r="F14" s="1"/>
       <c r="G14" s="1"/>
@@ -3335,16 +3300,16 @@
         <v>14</v>
       </c>
       <c r="B15" s="1" t="s">
-        <v>164</v>
+        <v>154</v>
       </c>
       <c r="C15" s="1" t="s">
-        <v>163</v>
+        <v>153</v>
       </c>
       <c r="D15" s="1" t="s">
-        <v>162</v>
+        <v>152</v>
       </c>
       <c r="E15" s="1" t="s">
-        <v>161</v>
+        <v>151</v>
       </c>
       <c r="F15" s="1"/>
       <c r="G15" s="1"/>
@@ -3357,16 +3322,16 @@
         <v>15</v>
       </c>
       <c r="B16" s="1" t="s">
-        <v>160</v>
+        <v>150</v>
       </c>
       <c r="C16" s="1" t="s">
-        <v>159</v>
+        <v>149</v>
       </c>
       <c r="D16" s="1" t="s">
-        <v>158</v>
+        <v>148</v>
       </c>
       <c r="E16" s="1" t="s">
-        <v>157</v>
+        <v>147</v>
       </c>
       <c r="F16" s="1"/>
       <c r="G16" s="1"/>
@@ -3480,16 +3445,16 @@
         <v>6</v>
       </c>
       <c r="B8" s="1" t="s">
-        <v>181</v>
+        <v>171</v>
       </c>
       <c r="C8" s="1" t="s">
-        <v>181</v>
+        <v>171</v>
       </c>
       <c r="D8" s="1" t="s">
-        <v>181</v>
+        <v>171</v>
       </c>
       <c r="E8" s="1" t="s">
-        <v>181</v>
+        <v>171</v>
       </c>
       <c r="F8" s="1"/>
       <c r="G8" s="1"/>
@@ -3502,16 +3467,16 @@
         <v>8</v>
       </c>
       <c r="B9" s="1" t="s">
-        <v>182</v>
+        <v>172</v>
       </c>
       <c r="C9" s="1" t="s">
-        <v>182</v>
+        <v>172</v>
       </c>
       <c r="D9" s="1" t="s">
-        <v>182</v>
+        <v>172</v>
       </c>
       <c r="E9" s="1" t="s">
-        <v>182</v>
+        <v>172</v>
       </c>
       <c r="F9" s="1"/>
       <c r="G9" s="1"/>
@@ -3524,16 +3489,16 @@
         <v>9</v>
       </c>
       <c r="B10" s="1" t="s">
-        <v>183</v>
+        <v>173</v>
       </c>
       <c r="C10" s="1" t="s">
-        <v>184</v>
+        <v>174</v>
       </c>
       <c r="D10" s="1" t="s">
-        <v>185</v>
+        <v>175</v>
       </c>
       <c r="E10" s="1" t="s">
-        <v>185</v>
+        <v>175</v>
       </c>
       <c r="F10" s="1"/>
       <c r="G10" s="1"/>
@@ -3546,16 +3511,16 @@
         <v>10</v>
       </c>
       <c r="B11" s="1" t="s">
-        <v>186</v>
+        <v>176</v>
       </c>
       <c r="C11" s="1" t="s">
-        <v>174</v>
+        <v>164</v>
       </c>
       <c r="D11" s="1" t="s">
-        <v>173</v>
+        <v>163</v>
       </c>
       <c r="E11" s="1" t="s">
-        <v>172</v>
+        <v>162</v>
       </c>
       <c r="F11" s="1"/>
       <c r="G11" s="1"/>
@@ -3568,7 +3533,7 @@
         <v>11</v>
       </c>
       <c r="B12" s="1" t="s">
-        <v>187</v>
+        <v>177</v>
       </c>
       <c r="C12" s="1"/>
       <c r="D12" s="1"/>
@@ -3600,7 +3565,7 @@
         <v>13</v>
       </c>
       <c r="B14" s="1" t="s">
-        <v>188</v>
+        <v>178</v>
       </c>
       <c r="C14" s="1"/>
       <c r="D14" s="1"/>
@@ -3616,7 +3581,7 @@
         <v>14</v>
       </c>
       <c r="B15" s="1" t="s">
-        <v>189</v>
+        <v>179</v>
       </c>
       <c r="C15" s="1"/>
       <c r="D15" s="1"/>
@@ -3632,7 +3597,7 @@
         <v>15</v>
       </c>
       <c r="B16" s="1" t="s">
-        <v>190</v>
+        <v>180</v>
       </c>
       <c r="C16" s="1"/>
       <c r="D16" s="1"/>
@@ -3693,19 +3658,19 @@
 </file>
 
 <file path=xl/worksheets/sheet7.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00101E15-BC09-4460-981F-12433DE1EE08}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{26771603-BE16-4D62-B5DC-77BE6963F5DF}">
   <dimension ref="A1:H21"/>
   <sheetViews>
     <sheetView topLeftCell="A10" workbookViewId="0">
-      <selection activeCell="H9" sqref="H9"/>
+      <selection activeCell="C6" sqref="C6:C13"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="1" max="4" width="24" style="8" customWidth="1"/>
-    <col min="5" max="6" width="23.875" style="8" customWidth="1"/>
-    <col min="7" max="8" width="24" style="8" customWidth="1"/>
-    <col min="9" max="16384" width="9" style="8"/>
+    <col min="1" max="4" width="24" style="19" customWidth="1"/>
+    <col min="5" max="6" width="23.875" style="19" customWidth="1"/>
+    <col min="7" max="8" width="24" style="19" customWidth="1"/>
+    <col min="9" max="16384" width="9" style="19"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:8" ht="15.75" x14ac:dyDescent="0.25">
@@ -3797,7 +3762,7 @@
       <c r="B8" s="10" t="s">
         <v>7</v>
       </c>
-      <c r="C8" s="10" t="s">
+      <c r="C8" s="22" t="s">
         <v>7</v>
       </c>
       <c r="D8" s="10" t="s">
@@ -3819,22 +3784,22 @@
         <v>8</v>
       </c>
       <c r="B9" s="10" t="s">
-        <v>217</v>
-      </c>
-      <c r="C9" s="10" t="s">
-        <v>217</v>
+        <v>207</v>
+      </c>
+      <c r="C9" s="22" t="s">
+        <v>207</v>
       </c>
       <c r="D9" s="10" t="s">
-        <v>217</v>
+        <v>207</v>
       </c>
       <c r="E9" s="10" t="s">
-        <v>217</v>
+        <v>207</v>
       </c>
       <c r="F9" s="10" t="s">
-        <v>217</v>
+        <v>207</v>
       </c>
       <c r="G9" s="10" t="s">
-        <v>217</v>
+        <v>207</v>
       </c>
       <c r="H9" s="10"/>
     </row>
@@ -3843,22 +3808,22 @@
         <v>9</v>
       </c>
       <c r="B10" s="10" t="s">
-        <v>216</v>
-      </c>
-      <c r="C10" s="10" t="s">
-        <v>215</v>
+        <v>206</v>
+      </c>
+      <c r="C10" s="22" t="s">
+        <v>205</v>
       </c>
       <c r="D10" s="10" t="s">
-        <v>214</v>
+        <v>204</v>
       </c>
       <c r="E10" s="10" t="s">
-        <v>213</v>
+        <v>203</v>
       </c>
       <c r="F10" s="10" t="s">
-        <v>212</v>
+        <v>202</v>
       </c>
       <c r="G10" s="10" t="s">
-        <v>211</v>
+        <v>201</v>
       </c>
       <c r="H10" s="10"/>
     </row>
@@ -3867,22 +3832,22 @@
         <v>10</v>
       </c>
       <c r="B11" s="12" t="s">
-        <v>209</v>
-      </c>
-      <c r="C11" s="12" t="s">
-        <v>202</v>
+        <v>199</v>
+      </c>
+      <c r="C11" s="20" t="s">
+        <v>192</v>
       </c>
       <c r="D11" s="12" t="s">
-        <v>210</v>
+        <v>200</v>
       </c>
       <c r="E11" s="12" t="s">
-        <v>239</v>
+        <v>229</v>
       </c>
       <c r="F11" s="12" t="s">
-        <v>240</v>
+        <v>230</v>
       </c>
       <c r="G11" s="12" t="s">
-        <v>241</v>
+        <v>231</v>
       </c>
       <c r="H11" s="12"/>
     </row>
@@ -3891,46 +3856,46 @@
         <v>11</v>
       </c>
       <c r="B12" s="12" t="s">
-        <v>208</v>
-      </c>
-      <c r="C12" s="12" t="s">
-        <v>202</v>
+        <v>198</v>
+      </c>
+      <c r="C12" s="20" t="s">
+        <v>192</v>
       </c>
       <c r="D12" s="12" t="s">
-        <v>207</v>
+        <v>197</v>
       </c>
       <c r="E12" s="12" t="s">
-        <v>206</v>
+        <v>196</v>
       </c>
       <c r="F12" s="12" t="s">
-        <v>205</v>
+        <v>195</v>
       </c>
       <c r="G12" s="12" t="s">
-        <v>204</v>
+        <v>194</v>
       </c>
       <c r="H12" s="12"/>
     </row>
-    <row r="13" spans="1:8" ht="15.75" x14ac:dyDescent="0.25">
+    <row r="13" spans="1:8" ht="31.5" x14ac:dyDescent="0.25">
       <c r="A13" s="11" t="s">
         <v>12</v>
       </c>
       <c r="B13" s="12" t="s">
-        <v>13</v>
-      </c>
-      <c r="C13" s="12" t="s">
-        <v>13</v>
+        <v>253</v>
+      </c>
+      <c r="C13" s="20" t="s">
+        <v>253</v>
       </c>
       <c r="D13" s="12" t="s">
-        <v>13</v>
+        <v>253</v>
       </c>
       <c r="E13" s="12" t="s">
-        <v>13</v>
+        <v>253</v>
       </c>
       <c r="F13" s="12" t="s">
-        <v>13</v>
+        <v>253</v>
       </c>
       <c r="G13" s="12" t="s">
-        <v>13</v>
+        <v>253</v>
       </c>
       <c r="H13" s="12"/>
     </row>
@@ -3939,22 +3904,22 @@
         <v>13</v>
       </c>
       <c r="B14" s="12" t="s">
-        <v>203</v>
-      </c>
-      <c r="C14" s="12" t="s">
-        <v>202</v>
+        <v>193</v>
+      </c>
+      <c r="C14" s="20" t="s">
+        <v>192</v>
       </c>
       <c r="D14" s="12" t="s">
-        <v>201</v>
+        <v>191</v>
       </c>
       <c r="E14" s="12" t="s">
-        <v>200</v>
+        <v>190</v>
       </c>
       <c r="F14" s="12" t="s">
-        <v>199</v>
+        <v>189</v>
       </c>
       <c r="G14" s="12" t="s">
-        <v>198</v>
+        <v>188</v>
       </c>
       <c r="H14" s="12"/>
     </row>
@@ -3963,22 +3928,22 @@
         <v>14</v>
       </c>
       <c r="B15" s="12" t="s">
-        <v>197</v>
-      </c>
-      <c r="C15" s="12" t="s">
-        <v>195</v>
+        <v>187</v>
+      </c>
+      <c r="C15" s="20" t="s">
+        <v>185</v>
       </c>
       <c r="D15" s="12" t="s">
-        <v>194</v>
+        <v>184</v>
       </c>
       <c r="E15" s="12" t="s">
-        <v>193</v>
+        <v>183</v>
       </c>
       <c r="F15" s="12" t="s">
-        <v>192</v>
+        <v>182</v>
       </c>
       <c r="G15" s="12" t="s">
-        <v>191</v>
+        <v>181</v>
       </c>
       <c r="H15" s="12"/>
     </row>
@@ -3987,22 +3952,22 @@
         <v>15</v>
       </c>
       <c r="B16" s="12" t="s">
-        <v>196</v>
-      </c>
-      <c r="C16" s="12" t="s">
-        <v>195</v>
+        <v>186</v>
+      </c>
+      <c r="C16" s="20" t="s">
+        <v>185</v>
       </c>
       <c r="D16" s="12" t="s">
-        <v>194</v>
+        <v>252</v>
       </c>
       <c r="E16" s="12" t="s">
-        <v>193</v>
+        <v>252</v>
       </c>
       <c r="F16" s="12" t="s">
-        <v>192</v>
+        <v>252</v>
       </c>
       <c r="G16" s="12" t="s">
-        <v>191</v>
+        <v>251</v>
       </c>
       <c r="H16" s="12"/>
     </row>
@@ -4011,7 +3976,7 @@
         <v>16</v>
       </c>
       <c r="B17" s="13"/>
-      <c r="C17" s="13"/>
+      <c r="C17" s="21"/>
       <c r="D17" s="13"/>
       <c r="E17" s="13"/>
       <c r="F17" s="13"/>
@@ -4025,7 +3990,7 @@
       <c r="B18" s="12" t="s">
         <v>18</v>
       </c>
-      <c r="C18" s="12" t="s">
+      <c r="C18" s="20" t="s">
         <v>19</v>
       </c>
       <c r="D18" s="12" t="s">
@@ -4153,19 +4118,19 @@
         <v>8</v>
       </c>
       <c r="B9" s="14" t="s">
-        <v>218</v>
+        <v>208</v>
       </c>
       <c r="C9" s="14" t="s">
-        <v>218</v>
+        <v>208</v>
       </c>
       <c r="D9" s="14" t="s">
-        <v>218</v>
+        <v>208</v>
       </c>
       <c r="E9" s="14" t="s">
-        <v>218</v>
+        <v>208</v>
       </c>
       <c r="F9" s="14" t="s">
-        <v>218</v>
+        <v>208</v>
       </c>
       <c r="G9" s="14"/>
       <c r="H9" s="1"/>
@@ -4199,19 +4164,19 @@
         <v>10</v>
       </c>
       <c r="B11" s="14" t="s">
-        <v>249</v>
+        <v>239</v>
       </c>
       <c r="C11" s="14" t="s">
-        <v>219</v>
+        <v>209</v>
       </c>
       <c r="D11" s="14" t="s">
-        <v>220</v>
+        <v>210</v>
       </c>
       <c r="E11" s="14" t="s">
-        <v>221</v>
+        <v>211</v>
       </c>
       <c r="F11" s="14" t="s">
-        <v>222</v>
+        <v>212</v>
       </c>
       <c r="G11" s="14"/>
       <c r="H11" s="1"/>
@@ -4222,19 +4187,19 @@
         <v>11</v>
       </c>
       <c r="B12" s="14" t="s">
-        <v>250</v>
+        <v>240</v>
       </c>
       <c r="C12" s="14" t="s">
-        <v>223</v>
+        <v>213</v>
       </c>
       <c r="D12" s="14" t="s">
-        <v>224</v>
+        <v>214</v>
       </c>
       <c r="E12" s="14" t="s">
-        <v>225</v>
+        <v>215</v>
       </c>
       <c r="F12" s="14" t="s">
-        <v>226</v>
+        <v>216</v>
       </c>
       <c r="G12" s="14"/>
       <c r="H12" s="1"/>
@@ -4245,7 +4210,7 @@
         <v>12</v>
       </c>
       <c r="B13" s="14" t="s">
-        <v>248</v>
+        <v>238</v>
       </c>
       <c r="C13" s="14" t="s">
         <v>13</v>
@@ -4268,19 +4233,19 @@
         <v>13</v>
       </c>
       <c r="B14" s="14" t="s">
-        <v>227</v>
+        <v>217</v>
       </c>
       <c r="C14" s="14" t="s">
-        <v>228</v>
+        <v>218</v>
       </c>
       <c r="D14" s="14" t="s">
-        <v>229</v>
+        <v>219</v>
       </c>
       <c r="E14" s="14" t="s">
-        <v>230</v>
+        <v>220</v>
       </c>
       <c r="F14" s="14" t="s">
-        <v>231</v>
+        <v>221</v>
       </c>
       <c r="G14" s="14"/>
       <c r="H14" s="1"/>
@@ -4291,19 +4256,19 @@
         <v>14</v>
       </c>
       <c r="B15" s="14" t="s">
-        <v>232</v>
+        <v>222</v>
       </c>
       <c r="C15" s="14" t="s">
-        <v>233</v>
+        <v>223</v>
       </c>
       <c r="D15" s="14" t="s">
-        <v>233</v>
+        <v>223</v>
       </c>
       <c r="E15" s="14" t="s">
-        <v>233</v>
+        <v>223</v>
       </c>
       <c r="F15" s="14" t="s">
-        <v>233</v>
+        <v>223</v>
       </c>
       <c r="G15" s="14"/>
       <c r="H15" s="1"/>
@@ -4314,19 +4279,19 @@
         <v>15</v>
       </c>
       <c r="B16" s="14" t="s">
-        <v>234</v>
+        <v>224</v>
       </c>
       <c r="C16" s="14" t="s">
-        <v>235</v>
+        <v>225</v>
       </c>
       <c r="D16" s="14" t="s">
-        <v>236</v>
+        <v>226</v>
       </c>
       <c r="E16" s="14" t="s">
-        <v>237</v>
+        <v>227</v>
       </c>
       <c r="F16" s="14" t="s">
-        <v>238</v>
+        <v>228</v>
       </c>
       <c r="G16" s="14"/>
       <c r="H16" s="1"/>
@@ -4505,10 +4470,10 @@
         <v>8</v>
       </c>
       <c r="B9" s="10" t="s">
-        <v>251</v>
+        <v>241</v>
       </c>
       <c r="C9" s="10" t="s">
-        <v>251</v>
+        <v>241</v>
       </c>
       <c r="D9" s="10"/>
       <c r="E9" s="10"/>
@@ -4521,10 +4486,10 @@
         <v>9</v>
       </c>
       <c r="B10" s="10" t="s">
-        <v>252</v>
+        <v>242</v>
       </c>
       <c r="C10" s="10" t="s">
-        <v>254</v>
+        <v>244</v>
       </c>
       <c r="D10" s="10"/>
       <c r="E10" s="10"/>
@@ -4537,10 +4502,10 @@
         <v>10</v>
       </c>
       <c r="B11" s="12" t="s">
-        <v>255</v>
+        <v>245</v>
       </c>
       <c r="C11" s="12" t="s">
-        <v>253</v>
+        <v>243</v>
       </c>
       <c r="D11" s="12"/>
       <c r="E11" s="12"/>
@@ -4553,7 +4518,7 @@
         <v>11</v>
       </c>
       <c r="B12" s="12" t="s">
-        <v>256</v>
+        <v>246</v>
       </c>
       <c r="C12" s="12"/>
       <c r="D12" s="12"/>
@@ -4567,7 +4532,7 @@
         <v>12</v>
       </c>
       <c r="B13" s="12" t="s">
-        <v>257</v>
+        <v>247</v>
       </c>
       <c r="C13" s="12"/>
       <c r="D13" s="12"/>
@@ -4581,7 +4546,7 @@
         <v>13</v>
       </c>
       <c r="B14" s="12" t="s">
-        <v>258</v>
+        <v>248</v>
       </c>
       <c r="C14" s="12"/>
       <c r="D14" s="12"/>
@@ -4595,22 +4560,22 @@
         <v>14</v>
       </c>
       <c r="B15" s="12" t="s">
-        <v>260</v>
+        <v>250</v>
       </c>
       <c r="C15" s="12" t="s">
-        <v>195</v>
+        <v>185</v>
       </c>
       <c r="D15" s="12" t="s">
-        <v>194</v>
+        <v>184</v>
       </c>
       <c r="E15" s="12" t="s">
-        <v>193</v>
+        <v>183</v>
       </c>
       <c r="F15" s="12" t="s">
-        <v>192</v>
+        <v>182</v>
       </c>
       <c r="G15" s="12" t="s">
-        <v>191</v>
+        <v>181</v>
       </c>
       <c r="H15" s="12"/>
     </row>
@@ -4619,22 +4584,22 @@
         <v>15</v>
       </c>
       <c r="B16" s="12" t="s">
-        <v>259</v>
+        <v>249</v>
       </c>
       <c r="C16" s="12" t="s">
-        <v>195</v>
+        <v>185</v>
       </c>
       <c r="D16" s="12" t="s">
-        <v>194</v>
+        <v>184</v>
       </c>
       <c r="E16" s="12" t="s">
-        <v>193</v>
+        <v>183</v>
       </c>
       <c r="F16" s="12" t="s">
-        <v>192</v>
+        <v>182</v>
       </c>
       <c r="G16" s="12" t="s">
-        <v>191</v>
+        <v>181</v>
       </c>
       <c r="H16" s="12"/>
     </row>

--- a/Análise/Test Scenarios.xlsx
+++ b/Análise/Test Scenarios.xlsx
@@ -5,23 +5,25 @@
   <workbookPr defaultThemeVersion="124226"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="E:\Documents\GitHub\upskill_java1_labprg_grupo3\Análise\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="E:\Documents\GitHub\upskill_java1_labprg_grupo3\Sprint 2\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{00B5ECBC-B3E4-4140-9BF6-7BDFB4A0A64B}" xr6:coauthVersionLast="46" xr6:coauthVersionMax="46" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{AEBB2B6D-6ADD-4017-A9AF-C9ADAB56F7FE}" xr6:coauthVersionLast="46" xr6:coauthVersionMax="46" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15840" tabRatio="993" activeTab="3" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15840" tabRatio="993" activeTab="4" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="UC 1 - Registar Organização" sheetId="7" r:id="rId1"/>
-    <sheet name="UC 2 - Definir Area Atividade" sheetId="10" r:id="rId2"/>
-    <sheet name="UC 3 - Definir Cat Tarefa" sheetId="17" r:id="rId3"/>
-    <sheet name="UC 4-Especificar Comp.Técni" sheetId="20" r:id="rId4"/>
-    <sheet name="UC 5 - Especificar Colaborador" sheetId="13" r:id="rId5"/>
-    <sheet name="UC 6 - Definir Tarefa" sheetId="14" r:id="rId6"/>
-    <sheet name="UC 7-Publicar Tarefa" sheetId="19" r:id="rId7"/>
-    <sheet name="UC 8 - Efectuar Candidatura" sheetId="16" r:id="rId8"/>
-    <sheet name="UC 7b-Selecionar Tarefa " sheetId="18" r:id="rId9"/>
+    <sheet name="UC 1b - Registar Gestor" sheetId="21" r:id="rId2"/>
+    <sheet name="UC 2 - Definir Area Atividade" sheetId="10" r:id="rId3"/>
+    <sheet name="UC 3 - Definir Cat Tarefa" sheetId="17" r:id="rId4"/>
+    <sheet name="UC 3b - Add CT a Cat Tarefa" sheetId="22" r:id="rId5"/>
+    <sheet name="UC 4-Especificar Comp.Técni" sheetId="20" r:id="rId6"/>
+    <sheet name="UC 5 - Especificar Colaborador" sheetId="13" r:id="rId7"/>
+    <sheet name="UC 6 - Definir Tarefa" sheetId="14" r:id="rId8"/>
+    <sheet name="UC 7-Publicar Tarefa" sheetId="19" r:id="rId9"/>
+    <sheet name="UC 8 - Efectuar Candidatura" sheetId="16" r:id="rId10"/>
+    <sheet name="UC 7b-Selecionar Tarefa " sheetId="18" r:id="rId11"/>
   </sheets>
   <calcPr calcId="0"/>
   <extLst>
@@ -33,7 +35,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="631" uniqueCount="259">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="729" uniqueCount="301">
   <si>
     <t>Project Name</t>
   </si>
@@ -167,52 +169,6 @@
 7. Click register button</t>
   </si>
   <si>
-    <t>Already Existant Org Name
-Valid Org NIF
-Valid Org Email
-Valid Org Website
-Valid Org Phone Number
-Valid Org Address</t>
-  </si>
-  <si>
-    <t>1. Enter already existant org name
-2. Enter valid org nif
-3. Enter valid org email
-4. Enter valid org website
-5. Enter valid org phone number
-6. Enter valid org address
-7. Click register button</t>
-  </si>
-  <si>
-    <t>Message "Organization name already exists"</t>
-  </si>
-  <si>
-    <t>Popup Message "Organization name already exists"</t>
-  </si>
-  <si>
-    <t>Valid Org Name
-Already Existant Org NIF
-Valid Org Email
-Valid Org Website
-Valid Org Phone Number
-Valid Org Address</t>
-  </si>
-  <si>
-    <t>1. Enter valid org name
-2. Enter already existant org nif
-3. Enter valid org email
-4. Enter valid org website
-5. Enter valid org phone number
-6. Enter valid org address
-7. Click register button</t>
-  </si>
-  <si>
-    <t>Message "Organization NIF already exists"</t>
-  </si>
-  <si>
-    <t>Popup Message "Organization NIF already exists"</t>
-  </si>
-  <si>
     <t>org name: *   org?  123
 org nif: 123456789
 org email: org123@org123.com
@@ -231,12 +187,6 @@
   </si>
   <si>
     <t>TC_UC1_007</t>
-  </si>
-  <si>
-    <t>TC_UC1_008</t>
-  </si>
-  <si>
-    <t>TC_UC1_009</t>
   </si>
   <si>
     <t>Valid Org Name
@@ -500,36 +450,6 @@
     <t>Define Activity Area functionality</t>
   </si>
   <si>
-    <t>check if list of 'Technical Skill' exists</t>
-  </si>
-  <si>
-    <t>check if list of 'Activity Area' exists</t>
-  </si>
-  <si>
-    <t>1. Enter valid option
-2. Click OK button</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Valid option_list_ts
-</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Valid option_list_aa
-</t>
-  </si>
-  <si>
-    <t>TC_List_TS_002</t>
-  </si>
-  <si>
-    <t>TC_List_AA_001</t>
-  </si>
-  <si>
-    <t>Check 'Technical Skills' functionality</t>
-  </si>
-  <si>
-    <t>Check 'Activity Area' functionality</t>
-  </si>
-  <si>
     <t>TS_003</t>
   </si>
   <si>
@@ -1102,22 +1022,6 @@
 invalid serialization scheme</t>
   </si>
   <si>
-    <t>Popup Message: No list available!</t>
-  </si>
-  <si>
-    <t>Error message "The list is empty!"</t>
-  </si>
-  <si>
-    <t>1. Enter invalid option
-2. Click OK button</t>
-  </si>
-  <si>
-    <t>TC_List_TS_001</t>
-  </si>
-  <si>
-    <t>TC_List_AA_002</t>
-  </si>
-  <si>
     <t xml:space="preserve"> InvalidOrgNameException</t>
   </si>
   <si>
@@ -1189,13 +1093,255 @@
   </si>
   <si>
     <t>InvalidUniqueCodeException</t>
+  </si>
+  <si>
+    <t>TC_UC1b_001</t>
+  </si>
+  <si>
+    <t>TC_UC1b_002</t>
+  </si>
+  <si>
+    <t>TC_UC1b_003</t>
+  </si>
+  <si>
+    <t>TC_UC1b_004</t>
+  </si>
+  <si>
+    <t>Verificar funcionalidade Registar Gestor</t>
+  </si>
+  <si>
+    <t>Dados válidos</t>
+  </si>
+  <si>
+    <t>1. Nome gestor válido
+2. Telefone gestor válido
+3. Email gestor válido</t>
+  </si>
+  <si>
+    <t>nome gestor: gestor
+telefone gestor: 999999999
+email gestor: gestor@org.com</t>
+  </si>
+  <si>
+    <t>Nome gestor inválido</t>
+  </si>
+  <si>
+    <t>1. Nome gestor inválido
+2. Telefone gestor válido
+3. Email gestor válido</t>
+  </si>
+  <si>
+    <t>nome gestor: _    * '
+telefone gestor: 999999999
+email gestor: gestor@org.com</t>
+  </si>
+  <si>
+    <t>Message "Manager name invalid"</t>
+  </si>
+  <si>
+    <t>telefone gestor inválido</t>
+  </si>
+  <si>
+    <t>1. Nome gestor válido
+2. Telefone gestor inválido
+3. Email gestor válido</t>
+  </si>
+  <si>
+    <t>nome gestor: gestor
+telefone gestor: 9999999991
+email gestor: gestor@org.com</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> InvalidNameException</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> InvalidTelephoneException</t>
+  </si>
+  <si>
+    <t>email gestor inválido</t>
+  </si>
+  <si>
+    <t>1. Nome gestor válido
+2. Telefone gestor válido
+3. Email gestor inválido</t>
+  </si>
+  <si>
+    <t>nome gestor: gestor
+telefone gestor: 999999999
+email gestor: gestor@org-com</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> InvalidEmailException</t>
+  </si>
+  <si>
+    <t>Message "Manager telephone number invalid"</t>
+  </si>
+  <si>
+    <t>Message "Manager email invalid"</t>
+  </si>
+  <si>
+    <t>TS_002</t>
+  </si>
+  <si>
+    <t>TS_004</t>
+  </si>
+  <si>
+    <t>Verificar funcionalidade - Definir Categoria de Tarefa</t>
+  </si>
+  <si>
+    <t>TC_DefCatTarefa_001</t>
+  </si>
+  <si>
+    <t>1. idCategoria válido
+2. descrição válida
+3. area de atividade válida</t>
+  </si>
+  <si>
+    <t>idCategoria: 001
+descricao: categoria
+area de atividade: area</t>
+  </si>
+  <si>
+    <t>Mensagem "Categoria de Tarefa Criada com Sucesso"</t>
+  </si>
+  <si>
+    <t>Criação de nova categoria de tarefa</t>
+  </si>
+  <si>
+    <t>idCategoria inválido</t>
+  </si>
+  <si>
+    <t>1. idCategoria inválido
+2. descrição válida
+3. area de atividade válida</t>
+  </si>
+  <si>
+    <t>idCategoria: ABC
+descricao: categoria
+area de atividade: area</t>
+  </si>
+  <si>
+    <t>idCategoriaInvalidoException</t>
+  </si>
+  <si>
+    <t>Mensagem "Identificador de Categoria Invalido"</t>
+  </si>
+  <si>
+    <t>descrição inválida</t>
+  </si>
+  <si>
+    <t>1. idCategoria válido
+2. descrição inválida
+3. area de atividade válida</t>
+  </si>
+  <si>
+    <t>Mensagem "Descrição de Categoria Invalido"</t>
+  </si>
+  <si>
+    <t>DescricaoInvalidaException</t>
+  </si>
+  <si>
+    <t>area de atividade inválida</t>
+  </si>
+  <si>
+    <t>1. idCategoria válido
+2. descrição válida
+3. area de atividade inválida</t>
+  </si>
+  <si>
+    <t>idCategoria: 001
+descricao:1    *
+area de atividade: area</t>
+  </si>
+  <si>
+    <t>idCategoria: 001
+descricao: categoria
+area de atividade: ---1</t>
+  </si>
+  <si>
+    <t>Mensagem "Area de atividade Invalida"</t>
+  </si>
+  <si>
+    <t>AreaAtividadeInvalidaException</t>
+  </si>
+  <si>
+    <t>TC_DefCatTarefa_002</t>
+  </si>
+  <si>
+    <t>TC_DefCatTarefa_003</t>
+  </si>
+  <si>
+    <t>TC_DefCatTarefa_004</t>
+  </si>
+  <si>
+    <t>Verificar funcionalidade - Adicionar CTCategoriaTarefa a Categoria de Tarefa</t>
+  </si>
+  <si>
+    <t>TC_UC3b_001</t>
+  </si>
+  <si>
+    <t>identificadorCompetenciaTecnica: 001
+caracterizacao: obrigatoria
+grauMinProficiencia: 3</t>
+  </si>
+  <si>
+    <t>Mensagem "Competencia Tecnica Adicionada com Sucesso"</t>
+  </si>
+  <si>
+    <t>Adição de CTCategoriaTarefa a uma Categoria de Tarefa</t>
+  </si>
+  <si>
+    <t>FAIL</t>
+  </si>
+  <si>
+    <t>1. identificadorCompetenciaTecnica válido
+2. caracter válido
+3. grauMinProficiencia válido</t>
+  </si>
+  <si>
+    <t>1. identificadorCompetenciaTecnica inválido
+2. caracter válido
+3. grauMinProficiencia válido</t>
+  </si>
+  <si>
+    <t>identificadorCompetenciaTecnica: 010 (não existe)
+caracterizacao: obrigatoria
+grauMinProficiencia: 3</t>
+  </si>
+  <si>
+    <t>Mensagem "Identificador de Competencia Tecnica não existe"</t>
+  </si>
+  <si>
+    <t>IdentificadorCompetenciaTecnicaInvalidoException</t>
+  </si>
+  <si>
+    <t>Id inválido</t>
+  </si>
+  <si>
+    <t>grauMinProficiencia</t>
+  </si>
+  <si>
+    <t>1. identificadorCompetenciaTecnica válido
+2. caracter válido
+3. grauMinProficiencia inválido</t>
+  </si>
+  <si>
+    <t>identificadorCompetenciaTecnica: 001
+caracterizacao: 
+grauMinProficiencia: 6 ( não existe)</t>
+  </si>
+  <si>
+    <t>Mensagem "Grau mínimo indicado inválido"</t>
+  </si>
+  <si>
+    <t>GrauMinimoProficienciaException</t>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
-  <fonts count="5" x14ac:knownFonts="1">
+  <fonts count="6" x14ac:knownFonts="1">
     <font>
       <sz val="12"/>
       <color rgb="FF000000"/>
@@ -1230,8 +1376,14 @@
       <name val="Calibri"/>
       <family val="2"/>
     </font>
+    <font>
+      <sz val="8"/>
+      <name val="Calibri"/>
+      <family val="2"/>
+      <charset val="1"/>
+    </font>
   </fonts>
-  <fills count="5">
+  <fills count="4">
     <fill>
       <patternFill patternType="none"/>
     </fill>
@@ -1242,12 +1394,6 @@
       <patternFill patternType="solid">
         <fgColor rgb="FFFFFFCC"/>
         <bgColor rgb="FFFFFFFF"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFC000"/>
-        <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
@@ -1291,7 +1437,7 @@
     <xf numFmtId="0" fontId="3" fillId="2" borderId="1" applyProtection="0"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="23">
+  <cellXfs count="24">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment wrapText="1"/>
@@ -1302,7 +1448,6 @@
       <alignment wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="4" fillId="2" borderId="1" xfId="3" applyProtection="1"/>
-    <xf numFmtId="14" fontId="4" fillId="0" borderId="0" xfId="2" applyNumberFormat="1"/>
     <xf numFmtId="0" fontId="4" fillId="0" borderId="0" xfId="2"/>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="4"/>
     <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="5"/>
@@ -1322,20 +1467,28 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="3" borderId="0" xfId="0" applyFill="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" xfId="2"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="7"/>
+    <xf numFmtId="0" fontId="3" fillId="3" borderId="0" xfId="5" applyFill="1" applyAlignment="1">
+      <alignment vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="3" borderId="0" xfId="5" applyFill="1" applyAlignment="1">
+      <alignment vertical="top"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="3" borderId="0" xfId="5" applyFill="1" applyAlignment="1">
       <alignment wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="3" borderId="0" xfId="0" applyFill="1"/>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" xfId="2"/>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="7"/>
-    <xf numFmtId="0" fontId="3" fillId="4" borderId="0" xfId="5" applyFill="1" applyAlignment="1">
-      <alignment vertical="top" wrapText="1"/>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" xfId="2" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="3" fillId="4" borderId="0" xfId="5" applyFill="1" applyAlignment="1">
-      <alignment vertical="top"/>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" xfId="2" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="3" fillId="4" borderId="0" xfId="5" applyFill="1" applyAlignment="1">
-      <alignment wrapText="1"/>
+    <xf numFmtId="14" fontId="4" fillId="0" borderId="0" xfId="2" applyNumberFormat="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" xfId="2" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
   </cellXfs>
   <cellStyles count="8">
@@ -1750,67 +1903,67 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{9B64CDF4-CC92-40F1-801A-4C473A6BB3C1}">
-  <dimension ref="A1:J21"/>
+  <dimension ref="A1:H21"/>
   <sheetViews>
-    <sheetView topLeftCell="A7" zoomScale="85" zoomScaleNormal="85" workbookViewId="0">
-      <selection activeCell="E16" sqref="E16"/>
+    <sheetView zoomScale="85" zoomScaleNormal="85" workbookViewId="0">
+      <selection activeCell="I11" sqref="I11"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15.75" x14ac:dyDescent="0.25"/>
   <cols>
     <col min="1" max="1" width="25.25" customWidth="1"/>
     <col min="2" max="2" width="25.25" style="1" customWidth="1"/>
-    <col min="3" max="5" width="25.25" customWidth="1"/>
-    <col min="6" max="10" width="24.375" customWidth="1"/>
+    <col min="3" max="3" width="25.25" customWidth="1"/>
+    <col min="4" max="8" width="24.375" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="1" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A1" s="2" t="s">
         <v>0</v>
       </c>
       <c r="B1"/>
     </row>
-    <row r="2" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="2" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A2" s="2" t="s">
         <v>1</v>
       </c>
       <c r="B2"/>
     </row>
-    <row r="3" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="3" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A3" s="2" t="s">
         <v>2</v>
       </c>
       <c r="B3"/>
     </row>
-    <row r="4" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="4" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A4" s="2" t="s">
         <v>3</v>
       </c>
       <c r="B4"/>
     </row>
-    <row r="5" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="5" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A5" s="2" t="s">
         <v>4</v>
       </c>
       <c r="B5"/>
     </row>
-    <row r="6" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="6" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A6" s="2" t="s">
         <v>5</v>
       </c>
       <c r="B6"/>
     </row>
-    <row r="8" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="8" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A8" s="2" t="s">
         <v>6</v>
       </c>
       <c r="B8" s="1" t="s">
         <v>7</v>
       </c>
-      <c r="C8" s="16" t="s">
+      <c r="C8" s="1" t="s">
         <v>7</v>
       </c>
-      <c r="D8" s="16" t="s">
+      <c r="D8" s="1" t="s">
         <v>7</v>
       </c>
       <c r="E8" s="1" t="s">
@@ -1825,24 +1978,18 @@
       <c r="H8" s="1" t="s">
         <v>7</v>
       </c>
-      <c r="I8" s="1" t="s">
-        <v>7</v>
-      </c>
-      <c r="J8" s="1" t="s">
-        <v>7</v>
-      </c>
-    </row>
-    <row r="9" spans="1:10" ht="31.5" x14ac:dyDescent="0.25">
+    </row>
+    <row r="9" spans="1:8" ht="31.5" x14ac:dyDescent="0.25">
       <c r="A9" s="2" t="s">
         <v>8</v>
       </c>
       <c r="B9" s="1" t="s">
         <v>23</v>
       </c>
-      <c r="C9" s="16" t="s">
+      <c r="C9" s="1" t="s">
         <v>23</v>
       </c>
-      <c r="D9" s="16" t="s">
+      <c r="D9" s="1" t="s">
         <v>23</v>
       </c>
       <c r="E9" s="1" t="s">
@@ -1857,60 +2004,48 @@
       <c r="H9" s="1" t="s">
         <v>23</v>
       </c>
-      <c r="I9" s="1" t="s">
-        <v>23</v>
-      </c>
-      <c r="J9" s="1" t="s">
-        <v>23</v>
-      </c>
-    </row>
-    <row r="10" spans="1:10" x14ac:dyDescent="0.25">
+    </row>
+    <row r="10" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A10" s="2" t="s">
         <v>9</v>
       </c>
       <c r="B10" s="1" t="s">
         <v>24</v>
       </c>
-      <c r="C10" s="16" t="s">
+      <c r="C10" s="1" t="s">
         <v>25</v>
       </c>
-      <c r="D10" s="16" t="s">
+      <c r="D10" s="1" t="s">
         <v>26</v>
       </c>
       <c r="E10" s="1" t="s">
         <v>27</v>
       </c>
       <c r="F10" s="1" t="s">
-        <v>45</v>
+        <v>37</v>
       </c>
       <c r="G10" s="1" t="s">
-        <v>46</v>
+        <v>38</v>
       </c>
       <c r="H10" s="1" t="s">
-        <v>47</v>
-      </c>
-      <c r="I10" s="1" t="s">
-        <v>48</v>
-      </c>
-      <c r="J10" s="1" t="s">
-        <v>49</v>
-      </c>
-    </row>
-    <row r="11" spans="1:10" ht="94.5" x14ac:dyDescent="0.25">
+        <v>39</v>
+      </c>
+    </row>
+    <row r="11" spans="1:8" ht="94.5" x14ac:dyDescent="0.25">
       <c r="A11" s="2" t="s">
         <v>10</v>
       </c>
       <c r="B11" s="1" t="s">
         <v>28</v>
       </c>
-      <c r="C11" s="16" t="s">
-        <v>35</v>
-      </c>
-      <c r="D11" s="16" t="s">
-        <v>39</v>
+      <c r="C11" s="1" t="s">
+        <v>33</v>
+      </c>
+      <c r="D11" s="1" t="s">
+        <v>40</v>
       </c>
       <c r="E11" s="1" t="s">
-        <v>33</v>
+        <v>45</v>
       </c>
       <c r="F11" s="1" t="s">
         <v>50</v>
@@ -1919,58 +2054,46 @@
         <v>55</v>
       </c>
       <c r="H11" s="1" t="s">
-        <v>60</v>
-      </c>
-      <c r="I11" s="1" t="s">
-        <v>65</v>
-      </c>
-      <c r="J11" s="1" t="s">
-        <v>69</v>
-      </c>
-    </row>
-    <row r="12" spans="1:10" ht="141.75" x14ac:dyDescent="0.25">
+        <v>59</v>
+      </c>
+    </row>
+    <row r="12" spans="1:8" ht="126" x14ac:dyDescent="0.25">
       <c r="A12" s="2" t="s">
         <v>11</v>
       </c>
       <c r="B12" s="1" t="s">
         <v>29</v>
       </c>
-      <c r="C12" s="16" t="s">
-        <v>36</v>
-      </c>
-      <c r="D12" s="16" t="s">
-        <v>40</v>
+      <c r="C12" s="1" t="s">
+        <v>34</v>
+      </c>
+      <c r="D12" s="1" t="s">
+        <v>41</v>
       </c>
       <c r="E12" s="1" t="s">
-        <v>34</v>
+        <v>46</v>
       </c>
       <c r="F12" s="1" t="s">
         <v>51</v>
       </c>
       <c r="G12" s="1" t="s">
-        <v>56</v>
+        <v>29</v>
       </c>
       <c r="H12" s="1" t="s">
-        <v>61</v>
-      </c>
-      <c r="I12" s="1" t="s">
-        <v>29</v>
-      </c>
-      <c r="J12" s="1" t="s">
-        <v>70</v>
-      </c>
-    </row>
-    <row r="13" spans="1:10" x14ac:dyDescent="0.25">
+        <v>60</v>
+      </c>
+    </row>
+    <row r="13" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A13" s="2" t="s">
         <v>12</v>
       </c>
       <c r="B13" s="1" t="s">
         <v>13</v>
       </c>
-      <c r="C13" s="16" t="s">
+      <c r="C13" s="1" t="s">
         <v>13</v>
       </c>
-      <c r="D13" s="16" t="s">
+      <c r="D13" s="1" t="s">
         <v>13</v>
       </c>
       <c r="E13" s="1" t="s">
@@ -1985,128 +2108,102 @@
       <c r="H13" s="1" t="s">
         <v>13</v>
       </c>
-      <c r="I13" s="1" t="s">
-        <v>13</v>
-      </c>
-      <c r="J13" s="1" t="s">
-        <v>13</v>
-      </c>
-    </row>
-    <row r="14" spans="1:10" ht="141.75" x14ac:dyDescent="0.25">
+    </row>
+    <row r="14" spans="1:8" ht="141.75" x14ac:dyDescent="0.25">
       <c r="A14" s="2" t="s">
         <v>13</v>
       </c>
       <c r="B14" s="1" t="s">
         <v>30</v>
       </c>
-      <c r="C14" s="16" t="s">
-        <v>30</v>
-      </c>
-      <c r="D14" s="16" t="s">
-        <v>30</v>
+      <c r="C14" s="1" t="s">
+        <v>35</v>
+      </c>
+      <c r="D14" s="1" t="s">
+        <v>42</v>
       </c>
       <c r="E14" s="1" t="s">
-        <v>43</v>
+        <v>47</v>
       </c>
       <c r="F14" s="1" t="s">
         <v>52</v>
       </c>
       <c r="G14" s="1" t="s">
-        <v>57</v>
+        <v>56</v>
       </c>
       <c r="H14" s="1" t="s">
-        <v>62</v>
-      </c>
-      <c r="I14" s="1" t="s">
-        <v>66</v>
-      </c>
-      <c r="J14" s="1" t="s">
-        <v>71</v>
-      </c>
-    </row>
-    <row r="15" spans="1:10" ht="31.5" x14ac:dyDescent="0.25">
+        <v>61</v>
+      </c>
+    </row>
+    <row r="15" spans="1:8" ht="31.5" x14ac:dyDescent="0.25">
       <c r="A15" s="2" t="s">
         <v>14</v>
       </c>
       <c r="B15" s="1" t="s">
         <v>31</v>
       </c>
-      <c r="C15" s="16" t="s">
-        <v>37</v>
-      </c>
-      <c r="D15" s="16" t="s">
-        <v>41</v>
+      <c r="C15" s="1" t="s">
+        <v>36</v>
+      </c>
+      <c r="D15" s="1" t="s">
+        <v>43</v>
       </c>
       <c r="E15" s="1" t="s">
-        <v>44</v>
+        <v>48</v>
       </c>
       <c r="F15" s="1" t="s">
         <v>53</v>
       </c>
       <c r="G15" s="1" t="s">
-        <v>58</v>
+        <v>57</v>
       </c>
       <c r="H15" s="1" t="s">
-        <v>63</v>
-      </c>
-      <c r="I15" s="1" t="s">
-        <v>67</v>
-      </c>
-      <c r="J15" s="1" t="s">
-        <v>72</v>
-      </c>
-    </row>
-    <row r="16" spans="1:10" ht="47.25" x14ac:dyDescent="0.25">
+        <v>62</v>
+      </c>
+    </row>
+    <row r="16" spans="1:8" ht="47.25" x14ac:dyDescent="0.25">
       <c r="A16" s="2" t="s">
         <v>15</v>
       </c>
       <c r="B16" s="1" t="s">
         <v>32</v>
       </c>
-      <c r="C16" s="16" t="s">
-        <v>38</v>
-      </c>
-      <c r="D16" s="16" t="s">
-        <v>42</v>
+      <c r="C16" s="1" t="s">
+        <v>213</v>
+      </c>
+      <c r="D16" s="1" t="s">
+        <v>44</v>
       </c>
       <c r="E16" s="1" t="s">
-        <v>237</v>
+        <v>49</v>
       </c>
       <c r="F16" s="1" t="s">
         <v>54</v>
       </c>
       <c r="G16" s="1" t="s">
-        <v>59</v>
+        <v>58</v>
       </c>
       <c r="H16" s="1" t="s">
-        <v>64</v>
-      </c>
-      <c r="I16" s="1" t="s">
-        <v>68</v>
-      </c>
-      <c r="J16" s="1" t="s">
-        <v>73</v>
-      </c>
-    </row>
-    <row r="17" spans="1:10" x14ac:dyDescent="0.25">
+        <v>63</v>
+      </c>
+    </row>
+    <row r="17" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A17" s="2" t="s">
         <v>16</v>
       </c>
       <c r="B17"/>
-      <c r="C17" s="17"/>
-      <c r="D17" s="17"/>
-    </row>
-    <row r="18" spans="1:10" x14ac:dyDescent="0.25">
+    </row>
+    <row r="18" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A18" s="2" t="s">
         <v>17</v>
       </c>
       <c r="B18" s="1" t="s">
         <v>18</v>
       </c>
-      <c r="C18" s="16" t="s">
+      <c r="C18" s="1" t="s">
         <v>19</v>
       </c>
-      <c r="D18" s="16" t="s">
+      <c r="D18" s="1" t="s">
         <v>19</v>
       </c>
       <c r="E18" s="1" t="s">
@@ -2121,24 +2218,18 @@
       <c r="H18" s="1" t="s">
         <v>19</v>
       </c>
-      <c r="I18" s="1" t="s">
-        <v>19</v>
-      </c>
-      <c r="J18" s="1" t="s">
-        <v>19</v>
-      </c>
-    </row>
-    <row r="19" spans="1:10" x14ac:dyDescent="0.25">
+    </row>
+    <row r="19" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A19" s="2" t="s">
         <v>20</v>
       </c>
     </row>
-    <row r="20" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="20" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A20" s="2" t="s">
         <v>21</v>
       </c>
     </row>
-    <row r="21" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="21" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A21" s="2" t="s">
         <v>22</v>
       </c>
@@ -2149,12 +2240,12 @@
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{8CFC03BD-A838-4A20-B06F-8E357EB6DBB0}">
+<file path=xl/worksheets/sheet10.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{3D398E08-538A-4861-A325-F61FCDD9C3FB}">
   <dimension ref="A1:I21"/>
   <sheetViews>
     <sheetView topLeftCell="A7" zoomScale="90" zoomScaleNormal="90" workbookViewId="0">
-      <selection activeCell="G12" sqref="G12"/>
+      <selection activeCell="B12" sqref="B12"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="23.125" defaultRowHeight="15.75" x14ac:dyDescent="0.25"/>
@@ -2204,24 +2295,22 @@
       <c r="A8" s="3" t="s">
         <v>6</v>
       </c>
-      <c r="B8" s="1" t="s">
+      <c r="B8" s="13" t="s">
         <v>7</v>
       </c>
-      <c r="C8" s="1" t="s">
+      <c r="C8" s="13" t="s">
         <v>7</v>
       </c>
-      <c r="D8" s="1" t="s">
+      <c r="D8" s="13" t="s">
         <v>7</v>
       </c>
-      <c r="E8" s="1" t="s">
+      <c r="E8" s="13" t="s">
         <v>7</v>
       </c>
-      <c r="F8" s="1" t="s">
+      <c r="F8" s="13" t="s">
         <v>7</v>
       </c>
-      <c r="G8" s="1" t="s">
-        <v>7</v>
-      </c>
+      <c r="G8" s="13"/>
       <c r="H8" s="1"/>
       <c r="I8" s="1"/>
     </row>
@@ -2229,24 +2318,22 @@
       <c r="A9" s="3" t="s">
         <v>8</v>
       </c>
-      <c r="B9" s="1" t="s">
-        <v>102</v>
-      </c>
-      <c r="C9" s="1" t="s">
-        <v>102</v>
-      </c>
-      <c r="D9" s="1" t="s">
-        <v>102</v>
-      </c>
-      <c r="E9" s="1" t="s">
-        <v>102</v>
-      </c>
-      <c r="F9" s="1" t="s">
-        <v>102</v>
-      </c>
-      <c r="G9" s="1" t="s">
-        <v>102</v>
-      </c>
+      <c r="B9" s="13" t="s">
+        <v>189</v>
+      </c>
+      <c r="C9" s="13" t="s">
+        <v>189</v>
+      </c>
+      <c r="D9" s="13" t="s">
+        <v>189</v>
+      </c>
+      <c r="E9" s="13" t="s">
+        <v>189</v>
+      </c>
+      <c r="F9" s="13" t="s">
+        <v>189</v>
+      </c>
+      <c r="G9" s="13"/>
       <c r="H9" s="1"/>
       <c r="I9" s="1"/>
     </row>
@@ -2254,174 +2341,160 @@
       <c r="A10" s="3" t="s">
         <v>9</v>
       </c>
-      <c r="B10" s="1" t="s">
-        <v>101</v>
-      </c>
-      <c r="C10" s="1" t="s">
-        <v>100</v>
-      </c>
-      <c r="D10" s="1" t="s">
-        <v>99</v>
-      </c>
-      <c r="E10" s="1" t="s">
-        <v>98</v>
-      </c>
-      <c r="F10" s="1" t="s">
-        <v>97</v>
-      </c>
-      <c r="G10" s="1" t="s">
-        <v>96</v>
-      </c>
+      <c r="B10" s="13" t="s">
+        <v>91</v>
+      </c>
+      <c r="C10" s="13" t="s">
+        <v>90</v>
+      </c>
+      <c r="D10" s="13" t="s">
+        <v>89</v>
+      </c>
+      <c r="E10" s="13" t="s">
+        <v>88</v>
+      </c>
+      <c r="F10" s="13" t="s">
+        <v>87</v>
+      </c>
+      <c r="G10" s="13"/>
       <c r="H10" s="1"/>
       <c r="I10" s="1"/>
     </row>
-    <row r="11" spans="1:9" ht="63" x14ac:dyDescent="0.25">
+    <row r="11" spans="1:9" ht="141.75" x14ac:dyDescent="0.25">
       <c r="A11" s="3" t="s">
         <v>10</v>
       </c>
-      <c r="B11" s="1" t="s">
-        <v>95</v>
-      </c>
-      <c r="C11" s="1" t="s">
-        <v>94</v>
-      </c>
-      <c r="D11" s="1" t="s">
-        <v>94</v>
-      </c>
-      <c r="E11" s="1" t="s">
-        <v>93</v>
-      </c>
-      <c r="F11" s="1" t="s">
-        <v>93</v>
-      </c>
-      <c r="G11" s="1" t="s">
-        <v>92</v>
-      </c>
+      <c r="B11" s="13" t="s">
+        <v>215</v>
+      </c>
+      <c r="C11" s="13" t="s">
+        <v>190</v>
+      </c>
+      <c r="D11" s="13" t="s">
+        <v>191</v>
+      </c>
+      <c r="E11" s="13" t="s">
+        <v>192</v>
+      </c>
+      <c r="F11" s="13" t="s">
+        <v>193</v>
+      </c>
+      <c r="G11" s="13"/>
       <c r="H11" s="1"/>
       <c r="I11" s="1"/>
     </row>
-    <row r="12" spans="1:9" ht="110.25" x14ac:dyDescent="0.25">
+    <row r="12" spans="1:9" ht="204.75" x14ac:dyDescent="0.25">
       <c r="A12" s="3" t="s">
         <v>11</v>
       </c>
-      <c r="B12" s="1" t="s">
-        <v>91</v>
-      </c>
-      <c r="C12" s="1" t="s">
-        <v>90</v>
-      </c>
-      <c r="D12" s="1" t="s">
-        <v>90</v>
-      </c>
-      <c r="E12" s="1" t="s">
-        <v>89</v>
-      </c>
-      <c r="F12" s="1" t="s">
-        <v>89</v>
-      </c>
-      <c r="G12" s="1" t="s">
-        <v>88</v>
-      </c>
+      <c r="B12" s="13" t="s">
+        <v>216</v>
+      </c>
+      <c r="C12" s="13" t="s">
+        <v>194</v>
+      </c>
+      <c r="D12" s="13" t="s">
+        <v>195</v>
+      </c>
+      <c r="E12" s="13" t="s">
+        <v>196</v>
+      </c>
+      <c r="F12" s="13" t="s">
+        <v>197</v>
+      </c>
+      <c r="G12" s="13"/>
       <c r="H12" s="1"/>
       <c r="I12" s="1"/>
     </row>
-    <row r="13" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="13" spans="1:9" ht="78.75" x14ac:dyDescent="0.25">
       <c r="A13" s="3" t="s">
         <v>12</v>
       </c>
-      <c r="B13" s="1" t="s">
+      <c r="B13" s="13" t="s">
+        <v>214</v>
+      </c>
+      <c r="C13" s="13" t="s">
         <v>13</v>
       </c>
-      <c r="C13" s="1" t="s">
+      <c r="D13" s="13" t="s">
         <v>13</v>
       </c>
-      <c r="D13" s="1" t="s">
+      <c r="E13" s="13" t="s">
         <v>13</v>
       </c>
-      <c r="E13" s="1" t="s">
+      <c r="F13" s="13" t="s">
         <v>13</v>
       </c>
-      <c r="F13" s="1" t="s">
-        <v>13</v>
-      </c>
-      <c r="G13" s="1" t="s">
-        <v>13</v>
-      </c>
+      <c r="G13" s="13"/>
       <c r="H13" s="1"/>
       <c r="I13" s="1"/>
     </row>
-    <row r="14" spans="1:9" ht="110.25" x14ac:dyDescent="0.25">
+    <row r="14" spans="1:9" ht="220.5" x14ac:dyDescent="0.25">
       <c r="A14" s="3" t="s">
         <v>13</v>
       </c>
-      <c r="B14" s="1" t="s">
-        <v>87</v>
-      </c>
-      <c r="C14" s="1" t="s">
-        <v>86</v>
-      </c>
-      <c r="D14" s="1" t="s">
-        <v>87</v>
-      </c>
-      <c r="E14" s="1" t="s">
-        <v>86</v>
-      </c>
-      <c r="F14" s="1" t="s">
-        <v>85</v>
-      </c>
-      <c r="G14" s="1" t="s">
-        <v>84</v>
-      </c>
+      <c r="B14" s="13" t="s">
+        <v>198</v>
+      </c>
+      <c r="C14" s="13" t="s">
+        <v>199</v>
+      </c>
+      <c r="D14" s="13" t="s">
+        <v>200</v>
+      </c>
+      <c r="E14" s="13" t="s">
+        <v>201</v>
+      </c>
+      <c r="F14" s="13" t="s">
+        <v>202</v>
+      </c>
+      <c r="G14" s="13"/>
       <c r="H14" s="1"/>
       <c r="I14" s="1"/>
     </row>
-    <row r="15" spans="1:9" ht="47.25" x14ac:dyDescent="0.25">
+    <row r="15" spans="1:9" ht="63" x14ac:dyDescent="0.25">
       <c r="A15" s="3" t="s">
         <v>14</v>
       </c>
-      <c r="B15" s="1" t="s">
-        <v>83</v>
-      </c>
-      <c r="C15" s="1" t="s">
-        <v>82</v>
-      </c>
-      <c r="D15" s="1" t="s">
-        <v>82</v>
-      </c>
-      <c r="E15" s="1" t="s">
-        <v>81</v>
-      </c>
-      <c r="F15" s="1" t="s">
-        <v>81</v>
-      </c>
-      <c r="G15" s="1" t="s">
-        <v>80</v>
-      </c>
+      <c r="B15" s="13" t="s">
+        <v>203</v>
+      </c>
+      <c r="C15" s="13" t="s">
+        <v>204</v>
+      </c>
+      <c r="D15" s="13" t="s">
+        <v>204</v>
+      </c>
+      <c r="E15" s="13" t="s">
+        <v>204</v>
+      </c>
+      <c r="F15" s="13" t="s">
+        <v>204</v>
+      </c>
+      <c r="G15" s="13"/>
       <c r="H15" s="1"/>
       <c r="I15" s="1"/>
     </row>
-    <row r="16" spans="1:9" ht="63" x14ac:dyDescent="0.25">
+    <row r="16" spans="1:9" ht="78.75" x14ac:dyDescent="0.25">
       <c r="A16" s="3" t="s">
         <v>15</v>
       </c>
-      <c r="B16" s="1" t="s">
-        <v>79</v>
-      </c>
-      <c r="C16" s="1" t="s">
-        <v>78</v>
-      </c>
-      <c r="D16" s="1" t="s">
-        <v>77</v>
-      </c>
-      <c r="E16" s="1" t="s">
-        <v>76</v>
-      </c>
-      <c r="F16" s="1" t="s">
-        <v>75</v>
-      </c>
-      <c r="G16" s="1" t="s">
-        <v>74</v>
-      </c>
+      <c r="B16" s="13" t="s">
+        <v>205</v>
+      </c>
+      <c r="C16" s="13" t="s">
+        <v>206</v>
+      </c>
+      <c r="D16" s="13" t="s">
+        <v>207</v>
+      </c>
+      <c r="E16" s="13" t="s">
+        <v>208</v>
+      </c>
+      <c r="F16" s="13" t="s">
+        <v>209</v>
+      </c>
+      <c r="G16" s="13"/>
       <c r="H16" s="1"/>
       <c r="I16" s="1"/>
     </row>
@@ -2429,30 +2502,33 @@
       <c r="A17" s="3" t="s">
         <v>16</v>
       </c>
-      <c r="B17"/>
+      <c r="B17" s="14"/>
+      <c r="C17" s="14"/>
+      <c r="D17" s="14"/>
+      <c r="E17" s="14"/>
+      <c r="F17" s="14"/>
+      <c r="G17" s="14"/>
     </row>
     <row r="18" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A18" s="3" t="s">
         <v>17</v>
       </c>
-      <c r="B18" s="1" t="s">
+      <c r="B18" s="13" t="s">
         <v>18</v>
       </c>
-      <c r="C18" s="1" t="s">
+      <c r="C18" s="13" t="s">
         <v>19</v>
       </c>
-      <c r="D18" s="1" t="s">
+      <c r="D18" s="13" t="s">
         <v>19</v>
       </c>
-      <c r="E18" s="1" t="s">
+      <c r="E18" s="13" t="s">
         <v>19</v>
       </c>
-      <c r="F18" s="1" t="s">
+      <c r="F18" s="13" t="s">
         <v>19</v>
       </c>
-      <c r="G18" s="1" t="s">
-        <v>19</v>
-      </c>
+      <c r="G18" s="13"/>
       <c r="H18" s="1"/>
       <c r="I18" s="1"/>
     </row>
@@ -2476,243 +2552,1237 @@
 </worksheet>
 </file>
 
+<file path=xl/worksheets/sheet11.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{CC40E1A4-48E6-46DD-942A-DB855D66C0CB}">
+  <dimension ref="A1:H21"/>
+  <sheetViews>
+    <sheetView topLeftCell="A8" workbookViewId="0">
+      <selection activeCell="B12" sqref="B12"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <cols>
+    <col min="1" max="4" width="24" style="7" customWidth="1"/>
+    <col min="5" max="6" width="23.875" style="7" customWidth="1"/>
+    <col min="7" max="8" width="24" style="7" customWidth="1"/>
+    <col min="9" max="16384" width="9" style="7"/>
+  </cols>
+  <sheetData>
+    <row r="1" spans="1:8" ht="15.75" x14ac:dyDescent="0.25">
+      <c r="A1" s="10" t="s">
+        <v>0</v>
+      </c>
+      <c r="B1" s="8"/>
+      <c r="C1" s="8"/>
+      <c r="D1" s="8"/>
+      <c r="E1" s="8"/>
+      <c r="F1" s="8"/>
+      <c r="G1" s="8"/>
+      <c r="H1" s="8"/>
+    </row>
+    <row r="2" spans="1:8" ht="15.75" x14ac:dyDescent="0.25">
+      <c r="A2" s="10" t="s">
+        <v>1</v>
+      </c>
+      <c r="B2" s="8"/>
+      <c r="C2" s="8"/>
+      <c r="D2" s="8"/>
+      <c r="E2" s="8"/>
+      <c r="F2" s="8"/>
+      <c r="G2" s="8"/>
+      <c r="H2" s="8"/>
+    </row>
+    <row r="3" spans="1:8" ht="15.75" x14ac:dyDescent="0.25">
+      <c r="A3" s="10" t="s">
+        <v>2</v>
+      </c>
+      <c r="B3" s="8"/>
+      <c r="C3" s="8"/>
+      <c r="D3" s="8"/>
+      <c r="E3" s="8"/>
+      <c r="F3" s="8"/>
+      <c r="G3" s="8"/>
+      <c r="H3" s="8"/>
+    </row>
+    <row r="4" spans="1:8" ht="15.75" x14ac:dyDescent="0.25">
+      <c r="A4" s="10" t="s">
+        <v>3</v>
+      </c>
+      <c r="B4" s="8"/>
+      <c r="C4" s="8"/>
+      <c r="D4" s="8"/>
+      <c r="E4" s="8"/>
+      <c r="F4" s="8"/>
+      <c r="G4" s="8"/>
+      <c r="H4" s="8"/>
+    </row>
+    <row r="5" spans="1:8" ht="15.75" x14ac:dyDescent="0.25">
+      <c r="A5" s="10" t="s">
+        <v>4</v>
+      </c>
+      <c r="B5" s="8"/>
+      <c r="C5" s="8"/>
+      <c r="D5" s="8"/>
+      <c r="E5" s="8"/>
+      <c r="F5" s="8"/>
+      <c r="G5" s="8"/>
+      <c r="H5" s="8"/>
+    </row>
+    <row r="6" spans="1:8" ht="15.75" x14ac:dyDescent="0.25">
+      <c r="A6" s="10" t="s">
+        <v>5</v>
+      </c>
+      <c r="B6" s="8"/>
+      <c r="C6" s="8"/>
+      <c r="D6" s="8"/>
+      <c r="E6" s="8"/>
+      <c r="F6" s="8"/>
+      <c r="G6" s="8"/>
+      <c r="H6" s="8"/>
+    </row>
+    <row r="7" spans="1:8" ht="15.75" x14ac:dyDescent="0.25">
+      <c r="A7" s="8"/>
+      <c r="B7" s="9"/>
+      <c r="C7" s="8"/>
+      <c r="D7" s="8"/>
+      <c r="E7" s="8"/>
+      <c r="F7" s="8"/>
+      <c r="G7" s="8"/>
+      <c r="H7" s="8"/>
+    </row>
+    <row r="8" spans="1:8" ht="15.75" x14ac:dyDescent="0.25">
+      <c r="A8" s="10" t="s">
+        <v>6</v>
+      </c>
+      <c r="B8" s="9" t="s">
+        <v>7</v>
+      </c>
+      <c r="C8" s="9" t="s">
+        <v>7</v>
+      </c>
+      <c r="D8" s="9"/>
+      <c r="E8" s="9"/>
+      <c r="F8" s="9"/>
+      <c r="G8" s="9"/>
+      <c r="H8" s="9"/>
+    </row>
+    <row r="9" spans="1:8" ht="15.75" x14ac:dyDescent="0.25">
+      <c r="A9" s="10" t="s">
+        <v>8</v>
+      </c>
+      <c r="B9" s="9" t="s">
+        <v>217</v>
+      </c>
+      <c r="C9" s="9" t="s">
+        <v>217</v>
+      </c>
+      <c r="D9" s="9"/>
+      <c r="E9" s="9"/>
+      <c r="F9" s="9"/>
+      <c r="G9" s="9"/>
+      <c r="H9" s="9"/>
+    </row>
+    <row r="10" spans="1:8" ht="15.75" x14ac:dyDescent="0.25">
+      <c r="A10" s="10" t="s">
+        <v>9</v>
+      </c>
+      <c r="B10" s="9" t="s">
+        <v>218</v>
+      </c>
+      <c r="C10" s="9" t="s">
+        <v>220</v>
+      </c>
+      <c r="D10" s="9"/>
+      <c r="E10" s="9"/>
+      <c r="F10" s="9"/>
+      <c r="G10" s="9"/>
+      <c r="H10" s="9"/>
+    </row>
+    <row r="11" spans="1:8" ht="99.75" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A11" s="10" t="s">
+        <v>10</v>
+      </c>
+      <c r="B11" s="11" t="s">
+        <v>221</v>
+      </c>
+      <c r="C11" s="11" t="s">
+        <v>219</v>
+      </c>
+      <c r="D11" s="11"/>
+      <c r="E11" s="11"/>
+      <c r="F11" s="11"/>
+      <c r="G11" s="11"/>
+      <c r="H11" s="11"/>
+    </row>
+    <row r="12" spans="1:8" ht="168.75" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A12" s="10" t="s">
+        <v>11</v>
+      </c>
+      <c r="B12" s="11" t="s">
+        <v>222</v>
+      </c>
+      <c r="C12" s="11"/>
+      <c r="D12" s="11"/>
+      <c r="E12" s="11"/>
+      <c r="F12" s="11"/>
+      <c r="G12" s="11"/>
+      <c r="H12" s="11"/>
+    </row>
+    <row r="13" spans="1:8" ht="47.25" x14ac:dyDescent="0.25">
+      <c r="A13" s="10" t="s">
+        <v>12</v>
+      </c>
+      <c r="B13" s="11" t="s">
+        <v>223</v>
+      </c>
+      <c r="C13" s="11"/>
+      <c r="D13" s="11"/>
+      <c r="E13" s="11"/>
+      <c r="F13" s="11"/>
+      <c r="G13" s="11"/>
+      <c r="H13" s="11"/>
+    </row>
+    <row r="14" spans="1:8" ht="209.25" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A14" s="10" t="s">
+        <v>13</v>
+      </c>
+      <c r="B14" s="11" t="s">
+        <v>224</v>
+      </c>
+      <c r="C14" s="11"/>
+      <c r="D14" s="11"/>
+      <c r="E14" s="11"/>
+      <c r="F14" s="11"/>
+      <c r="G14" s="11"/>
+      <c r="H14" s="11"/>
+    </row>
+    <row r="15" spans="1:8" ht="47.25" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A15" s="10" t="s">
+        <v>14</v>
+      </c>
+      <c r="B15" s="11" t="s">
+        <v>226</v>
+      </c>
+      <c r="C15" s="11" t="s">
+        <v>166</v>
+      </c>
+      <c r="D15" s="11" t="s">
+        <v>165</v>
+      </c>
+      <c r="E15" s="11" t="s">
+        <v>164</v>
+      </c>
+      <c r="F15" s="11" t="s">
+        <v>163</v>
+      </c>
+      <c r="G15" s="11" t="s">
+        <v>162</v>
+      </c>
+      <c r="H15" s="11"/>
+    </row>
+    <row r="16" spans="1:8" ht="51.75" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A16" s="10" t="s">
+        <v>15</v>
+      </c>
+      <c r="B16" s="11" t="s">
+        <v>225</v>
+      </c>
+      <c r="C16" s="11" t="s">
+        <v>166</v>
+      </c>
+      <c r="D16" s="11" t="s">
+        <v>165</v>
+      </c>
+      <c r="E16" s="11" t="s">
+        <v>164</v>
+      </c>
+      <c r="F16" s="11" t="s">
+        <v>163</v>
+      </c>
+      <c r="G16" s="11" t="s">
+        <v>162</v>
+      </c>
+      <c r="H16" s="11"/>
+    </row>
+    <row r="17" spans="1:8" ht="15.75" x14ac:dyDescent="0.25">
+      <c r="A17" s="10" t="s">
+        <v>16</v>
+      </c>
+      <c r="B17" s="12"/>
+      <c r="C17" s="12"/>
+      <c r="D17" s="12"/>
+      <c r="E17" s="12"/>
+      <c r="F17" s="12"/>
+      <c r="G17" s="12"/>
+      <c r="H17" s="12"/>
+    </row>
+    <row r="18" spans="1:8" ht="15.75" x14ac:dyDescent="0.25">
+      <c r="A18" s="10" t="s">
+        <v>17</v>
+      </c>
+      <c r="B18" s="11" t="s">
+        <v>18</v>
+      </c>
+      <c r="C18" s="11" t="s">
+        <v>19</v>
+      </c>
+      <c r="D18" s="11" t="s">
+        <v>19</v>
+      </c>
+      <c r="E18" s="11" t="s">
+        <v>19</v>
+      </c>
+      <c r="F18" s="11" t="s">
+        <v>19</v>
+      </c>
+      <c r="G18" s="11" t="s">
+        <v>19</v>
+      </c>
+      <c r="H18" s="11"/>
+    </row>
+    <row r="19" spans="1:8" ht="15.75" x14ac:dyDescent="0.25">
+      <c r="A19" s="10" t="s">
+        <v>20</v>
+      </c>
+      <c r="B19" s="9"/>
+      <c r="C19" s="8"/>
+      <c r="D19" s="8"/>
+      <c r="E19" s="8"/>
+    </row>
+    <row r="20" spans="1:8" ht="15.75" x14ac:dyDescent="0.25">
+      <c r="A20" s="10" t="s">
+        <v>21</v>
+      </c>
+      <c r="B20" s="9"/>
+      <c r="C20" s="8"/>
+      <c r="D20" s="8"/>
+      <c r="E20" s="8"/>
+    </row>
+    <row r="21" spans="1:8" ht="15.75" x14ac:dyDescent="0.25">
+      <c r="A21" s="10" t="s">
+        <v>22</v>
+      </c>
+      <c r="B21" s="9"/>
+      <c r="C21" s="8"/>
+      <c r="D21" s="8"/>
+      <c r="E21" s="8"/>
+    </row>
+  </sheetData>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{738F41C2-479E-4DAB-ABF4-E5FCA115C7E0}">
+  <dimension ref="A1:H21"/>
+  <sheetViews>
+    <sheetView zoomScale="85" zoomScaleNormal="85" workbookViewId="0">
+      <selection activeCell="F9" sqref="F9"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="15.75" x14ac:dyDescent="0.25"/>
+  <cols>
+    <col min="1" max="1" width="25.25" customWidth="1"/>
+    <col min="2" max="2" width="25.25" style="1" customWidth="1"/>
+    <col min="3" max="3" width="25.25" customWidth="1"/>
+    <col min="4" max="8" width="24.375" customWidth="1"/>
+  </cols>
+  <sheetData>
+    <row r="1" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A1" s="2" t="s">
+        <v>0</v>
+      </c>
+      <c r="B1"/>
+    </row>
+    <row r="2" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A2" s="2" t="s">
+        <v>1</v>
+      </c>
+      <c r="B2"/>
+    </row>
+    <row r="3" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A3" s="2" t="s">
+        <v>2</v>
+      </c>
+      <c r="B3"/>
+    </row>
+    <row r="4" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A4" s="2" t="s">
+        <v>3</v>
+      </c>
+      <c r="B4"/>
+    </row>
+    <row r="5" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A5" s="2" t="s">
+        <v>4</v>
+      </c>
+      <c r="B5"/>
+    </row>
+    <row r="6" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A6" s="2" t="s">
+        <v>5</v>
+      </c>
+      <c r="B6"/>
+    </row>
+    <row r="8" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A8" s="2" t="s">
+        <v>6</v>
+      </c>
+      <c r="B8" s="1" t="s">
+        <v>258</v>
+      </c>
+      <c r="C8" s="1" t="s">
+        <v>258</v>
+      </c>
+      <c r="D8" s="1" t="s">
+        <v>258</v>
+      </c>
+      <c r="E8" s="1" t="s">
+        <v>258</v>
+      </c>
+      <c r="F8" s="1"/>
+      <c r="G8" s="1"/>
+      <c r="H8" s="1"/>
+    </row>
+    <row r="9" spans="1:8" ht="31.5" x14ac:dyDescent="0.25">
+      <c r="A9" s="2" t="s">
+        <v>8</v>
+      </c>
+      <c r="B9" s="1" t="s">
+        <v>239</v>
+      </c>
+      <c r="C9" s="1" t="s">
+        <v>239</v>
+      </c>
+      <c r="D9" s="1" t="s">
+        <v>239</v>
+      </c>
+      <c r="E9" s="1" t="s">
+        <v>239</v>
+      </c>
+      <c r="F9" s="1"/>
+      <c r="G9" s="1"/>
+      <c r="H9" s="1"/>
+    </row>
+    <row r="10" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A10" s="2" t="s">
+        <v>9</v>
+      </c>
+      <c r="B10" s="1" t="s">
+        <v>235</v>
+      </c>
+      <c r="C10" s="1" t="s">
+        <v>236</v>
+      </c>
+      <c r="D10" s="1" t="s">
+        <v>237</v>
+      </c>
+      <c r="E10" s="1" t="s">
+        <v>238</v>
+      </c>
+      <c r="F10" s="1"/>
+      <c r="G10" s="1"/>
+      <c r="H10" s="1"/>
+    </row>
+    <row r="11" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A11" s="2" t="s">
+        <v>10</v>
+      </c>
+      <c r="B11" s="13" t="s">
+        <v>240</v>
+      </c>
+      <c r="C11" s="13" t="s">
+        <v>243</v>
+      </c>
+      <c r="D11" s="13" t="s">
+        <v>247</v>
+      </c>
+      <c r="E11" s="13" t="s">
+        <v>252</v>
+      </c>
+      <c r="F11" s="13"/>
+      <c r="G11" s="13"/>
+      <c r="H11" s="13"/>
+    </row>
+    <row r="12" spans="1:8" ht="47.25" x14ac:dyDescent="0.25">
+      <c r="A12" s="2" t="s">
+        <v>11</v>
+      </c>
+      <c r="B12" s="13" t="s">
+        <v>241</v>
+      </c>
+      <c r="C12" s="13" t="s">
+        <v>244</v>
+      </c>
+      <c r="D12" s="13" t="s">
+        <v>248</v>
+      </c>
+      <c r="E12" s="13" t="s">
+        <v>253</v>
+      </c>
+      <c r="F12" s="13"/>
+      <c r="G12" s="13"/>
+      <c r="H12" s="13"/>
+    </row>
+    <row r="13" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A13" s="2" t="s">
+        <v>12</v>
+      </c>
+      <c r="B13" s="13" t="s">
+        <v>13</v>
+      </c>
+      <c r="C13" s="13" t="s">
+        <v>13</v>
+      </c>
+      <c r="D13" s="13" t="s">
+        <v>13</v>
+      </c>
+      <c r="E13" s="13" t="s">
+        <v>13</v>
+      </c>
+      <c r="F13" s="13"/>
+      <c r="G13" s="13"/>
+      <c r="H13" s="13"/>
+    </row>
+    <row r="14" spans="1:8" ht="78.75" x14ac:dyDescent="0.25">
+      <c r="A14" s="2" t="s">
+        <v>13</v>
+      </c>
+      <c r="B14" s="13" t="s">
+        <v>242</v>
+      </c>
+      <c r="C14" s="13" t="s">
+        <v>245</v>
+      </c>
+      <c r="D14" s="13" t="s">
+        <v>249</v>
+      </c>
+      <c r="E14" s="13" t="s">
+        <v>254</v>
+      </c>
+      <c r="F14" s="13"/>
+      <c r="G14" s="13"/>
+      <c r="H14" s="13"/>
+    </row>
+    <row r="15" spans="1:8" ht="31.5" x14ac:dyDescent="0.25">
+      <c r="A15" s="2" t="s">
+        <v>14</v>
+      </c>
+      <c r="B15" s="13" t="s">
+        <v>31</v>
+      </c>
+      <c r="C15" s="13" t="s">
+        <v>246</v>
+      </c>
+      <c r="D15" s="13" t="s">
+        <v>256</v>
+      </c>
+      <c r="E15" s="13" t="s">
+        <v>257</v>
+      </c>
+      <c r="F15" s="13"/>
+      <c r="G15" s="13"/>
+      <c r="H15" s="13"/>
+    </row>
+    <row r="16" spans="1:8" ht="31.5" x14ac:dyDescent="0.25">
+      <c r="A16" s="2" t="s">
+        <v>15</v>
+      </c>
+      <c r="B16" s="13" t="s">
+        <v>32</v>
+      </c>
+      <c r="C16" s="13" t="s">
+        <v>250</v>
+      </c>
+      <c r="D16" s="13" t="s">
+        <v>251</v>
+      </c>
+      <c r="E16" s="13" t="s">
+        <v>255</v>
+      </c>
+      <c r="F16" s="13"/>
+      <c r="G16" s="13"/>
+      <c r="H16" s="13"/>
+    </row>
+    <row r="17" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A17" s="2" t="s">
+        <v>16</v>
+      </c>
+      <c r="B17" s="14"/>
+      <c r="C17" s="14"/>
+      <c r="D17" s="14"/>
+      <c r="E17" s="14"/>
+      <c r="F17" s="14"/>
+      <c r="G17" s="14"/>
+      <c r="H17" s="14"/>
+    </row>
+    <row r="18" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A18" s="2" t="s">
+        <v>17</v>
+      </c>
+      <c r="B18" s="13" t="s">
+        <v>18</v>
+      </c>
+      <c r="C18" s="13" t="s">
+        <v>19</v>
+      </c>
+      <c r="D18" s="13" t="s">
+        <v>19</v>
+      </c>
+      <c r="E18" s="13" t="s">
+        <v>19</v>
+      </c>
+      <c r="F18" s="13"/>
+      <c r="G18" s="13"/>
+      <c r="H18" s="13"/>
+    </row>
+    <row r="19" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A19" s="2" t="s">
+        <v>20</v>
+      </c>
+    </row>
+    <row r="20" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A20" s="2" t="s">
+        <v>21</v>
+      </c>
+    </row>
+    <row r="21" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A21" s="2" t="s">
+        <v>22</v>
+      </c>
+    </row>
+  </sheetData>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.51180555555555496" footer="0.51180555555555496"/>
+  <pageSetup paperSize="0" scale="0" firstPageNumber="0" orientation="portrait" usePrinterDefaults="0" horizontalDpi="0" verticalDpi="0" copies="0"/>
+</worksheet>
+</file>
+
 <file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{8CFC03BD-A838-4A20-B06F-8E357EB6DBB0}">
+  <dimension ref="A1:I21"/>
+  <sheetViews>
+    <sheetView topLeftCell="A7" zoomScale="90" zoomScaleNormal="90" workbookViewId="0">
+      <selection activeCell="F11" sqref="F11"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultColWidth="23.125" defaultRowHeight="15.75" x14ac:dyDescent="0.25"/>
+  <cols>
+    <col min="2" max="2" width="23.125" style="1"/>
+    <col min="5" max="6" width="25.375" customWidth="1"/>
+    <col min="7" max="7" width="23.125" customWidth="1"/>
+  </cols>
+  <sheetData>
+    <row r="1" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A1" s="3" t="s">
+        <v>0</v>
+      </c>
+      <c r="B1"/>
+    </row>
+    <row r="2" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A2" s="3" t="s">
+        <v>1</v>
+      </c>
+      <c r="B2"/>
+    </row>
+    <row r="3" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A3" s="3" t="s">
+        <v>2</v>
+      </c>
+      <c r="B3"/>
+    </row>
+    <row r="4" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A4" s="3" t="s">
+        <v>3</v>
+      </c>
+      <c r="B4"/>
+    </row>
+    <row r="5" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A5" s="3" t="s">
+        <v>4</v>
+      </c>
+      <c r="B5"/>
+    </row>
+    <row r="6" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A6" s="3" t="s">
+        <v>5</v>
+      </c>
+      <c r="B6"/>
+    </row>
+    <row r="8" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A8" s="3" t="s">
+        <v>6</v>
+      </c>
+      <c r="B8" s="1" t="s">
+        <v>93</v>
+      </c>
+      <c r="C8" s="1" t="s">
+        <v>93</v>
+      </c>
+      <c r="D8" s="1" t="s">
+        <v>93</v>
+      </c>
+      <c r="E8" s="1" t="s">
+        <v>93</v>
+      </c>
+      <c r="F8" s="1" t="s">
+        <v>93</v>
+      </c>
+      <c r="G8" s="1" t="s">
+        <v>93</v>
+      </c>
+      <c r="H8" s="1"/>
+      <c r="I8" s="1"/>
+    </row>
+    <row r="9" spans="1:9" ht="31.5" x14ac:dyDescent="0.25">
+      <c r="A9" s="3" t="s">
+        <v>8</v>
+      </c>
+      <c r="B9" s="1" t="s">
+        <v>92</v>
+      </c>
+      <c r="C9" s="1" t="s">
+        <v>92</v>
+      </c>
+      <c r="D9" s="1" t="s">
+        <v>92</v>
+      </c>
+      <c r="E9" s="1" t="s">
+        <v>92</v>
+      </c>
+      <c r="F9" s="1" t="s">
+        <v>92</v>
+      </c>
+      <c r="G9" s="1" t="s">
+        <v>92</v>
+      </c>
+      <c r="H9" s="1"/>
+      <c r="I9" s="1"/>
+    </row>
+    <row r="10" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A10" s="3" t="s">
+        <v>9</v>
+      </c>
+      <c r="B10" s="1" t="s">
+        <v>91</v>
+      </c>
+      <c r="C10" s="1" t="s">
+        <v>90</v>
+      </c>
+      <c r="D10" s="1" t="s">
+        <v>89</v>
+      </c>
+      <c r="E10" s="1" t="s">
+        <v>88</v>
+      </c>
+      <c r="F10" s="1" t="s">
+        <v>87</v>
+      </c>
+      <c r="G10" s="1" t="s">
+        <v>86</v>
+      </c>
+      <c r="H10" s="1"/>
+      <c r="I10" s="1"/>
+    </row>
+    <row r="11" spans="1:9" ht="63" x14ac:dyDescent="0.25">
+      <c r="A11" s="3" t="s">
+        <v>10</v>
+      </c>
+      <c r="B11" s="1" t="s">
+        <v>85</v>
+      </c>
+      <c r="C11" s="1" t="s">
+        <v>84</v>
+      </c>
+      <c r="D11" s="1" t="s">
+        <v>84</v>
+      </c>
+      <c r="E11" s="1" t="s">
+        <v>83</v>
+      </c>
+      <c r="F11" s="1" t="s">
+        <v>83</v>
+      </c>
+      <c r="G11" s="1" t="s">
+        <v>82</v>
+      </c>
+      <c r="H11" s="1"/>
+      <c r="I11" s="1"/>
+    </row>
+    <row r="12" spans="1:9" ht="110.25" x14ac:dyDescent="0.25">
+      <c r="A12" s="3" t="s">
+        <v>11</v>
+      </c>
+      <c r="B12" s="1" t="s">
+        <v>81</v>
+      </c>
+      <c r="C12" s="1" t="s">
+        <v>80</v>
+      </c>
+      <c r="D12" s="1" t="s">
+        <v>80</v>
+      </c>
+      <c r="E12" s="1" t="s">
+        <v>79</v>
+      </c>
+      <c r="F12" s="1" t="s">
+        <v>79</v>
+      </c>
+      <c r="G12" s="1" t="s">
+        <v>78</v>
+      </c>
+      <c r="H12" s="1"/>
+      <c r="I12" s="1"/>
+    </row>
+    <row r="13" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A13" s="3" t="s">
+        <v>12</v>
+      </c>
+      <c r="B13" s="1" t="s">
+        <v>13</v>
+      </c>
+      <c r="C13" s="1" t="s">
+        <v>13</v>
+      </c>
+      <c r="D13" s="1" t="s">
+        <v>13</v>
+      </c>
+      <c r="E13" s="1" t="s">
+        <v>13</v>
+      </c>
+      <c r="F13" s="1" t="s">
+        <v>13</v>
+      </c>
+      <c r="G13" s="1" t="s">
+        <v>13</v>
+      </c>
+      <c r="H13" s="1"/>
+      <c r="I13" s="1"/>
+    </row>
+    <row r="14" spans="1:9" ht="110.25" x14ac:dyDescent="0.25">
+      <c r="A14" s="3" t="s">
+        <v>13</v>
+      </c>
+      <c r="B14" s="1" t="s">
+        <v>77</v>
+      </c>
+      <c r="C14" s="1" t="s">
+        <v>76</v>
+      </c>
+      <c r="D14" s="1" t="s">
+        <v>77</v>
+      </c>
+      <c r="E14" s="1" t="s">
+        <v>76</v>
+      </c>
+      <c r="F14" s="1" t="s">
+        <v>75</v>
+      </c>
+      <c r="G14" s="1" t="s">
+        <v>74</v>
+      </c>
+      <c r="H14" s="1"/>
+      <c r="I14" s="1"/>
+    </row>
+    <row r="15" spans="1:9" ht="47.25" x14ac:dyDescent="0.25">
+      <c r="A15" s="3" t="s">
+        <v>14</v>
+      </c>
+      <c r="B15" s="1" t="s">
+        <v>73</v>
+      </c>
+      <c r="C15" s="1" t="s">
+        <v>72</v>
+      </c>
+      <c r="D15" s="1" t="s">
+        <v>72</v>
+      </c>
+      <c r="E15" s="1" t="s">
+        <v>71</v>
+      </c>
+      <c r="F15" s="1" t="s">
+        <v>71</v>
+      </c>
+      <c r="G15" s="1" t="s">
+        <v>70</v>
+      </c>
+      <c r="H15" s="1"/>
+      <c r="I15" s="1"/>
+    </row>
+    <row r="16" spans="1:9" ht="63" x14ac:dyDescent="0.25">
+      <c r="A16" s="3" t="s">
+        <v>15</v>
+      </c>
+      <c r="B16" s="1" t="s">
+        <v>69</v>
+      </c>
+      <c r="C16" s="1" t="s">
+        <v>68</v>
+      </c>
+      <c r="D16" s="1" t="s">
+        <v>67</v>
+      </c>
+      <c r="E16" s="1" t="s">
+        <v>66</v>
+      </c>
+      <c r="F16" s="1" t="s">
+        <v>65</v>
+      </c>
+      <c r="G16" s="1" t="s">
+        <v>64</v>
+      </c>
+      <c r="H16" s="1"/>
+      <c r="I16" s="1"/>
+    </row>
+    <row r="17" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A17" s="3" t="s">
+        <v>16</v>
+      </c>
+      <c r="B17"/>
+    </row>
+    <row r="18" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A18" s="3" t="s">
+        <v>17</v>
+      </c>
+      <c r="B18" s="1" t="s">
+        <v>18</v>
+      </c>
+      <c r="C18" s="1" t="s">
+        <v>19</v>
+      </c>
+      <c r="D18" s="1" t="s">
+        <v>19</v>
+      </c>
+      <c r="E18" s="1" t="s">
+        <v>19</v>
+      </c>
+      <c r="F18" s="1" t="s">
+        <v>19</v>
+      </c>
+      <c r="G18" s="1" t="s">
+        <v>19</v>
+      </c>
+      <c r="H18" s="1"/>
+      <c r="I18" s="1"/>
+    </row>
+    <row r="19" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A19" s="3" t="s">
+        <v>20</v>
+      </c>
+    </row>
+    <row r="20" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A20" s="3" t="s">
+        <v>21</v>
+      </c>
+    </row>
+    <row r="21" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A21" s="3" t="s">
+        <v>22</v>
+      </c>
+    </row>
+  </sheetData>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{312C4631-4654-4624-B019-66B47B8FA54E}">
-  <dimension ref="B3:F23"/>
+  <dimension ref="B3:H23"/>
   <sheetViews>
-    <sheetView topLeftCell="B7" zoomScale="115" zoomScaleSheetLayoutView="100" workbookViewId="0">
-      <selection activeCell="F3" sqref="F3"/>
+    <sheetView zoomScale="70" zoomScaleNormal="70" zoomScaleSheetLayoutView="100" workbookViewId="0">
+      <selection activeCell="G14" sqref="G14"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9" defaultRowHeight="15.75" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="1" max="1" width="9" style="7"/>
-    <col min="2" max="5" width="27" style="7" customWidth="1"/>
-    <col min="6" max="6" width="27.125" style="7" customWidth="1"/>
-    <col min="7" max="16384" width="9" style="7"/>
+    <col min="1" max="1" width="9" style="6"/>
+    <col min="2" max="5" width="27" style="6" customWidth="1"/>
+    <col min="6" max="6" width="27.125" style="6" customWidth="1"/>
+    <col min="7" max="8" width="22.625" style="6" customWidth="1"/>
+    <col min="9" max="16384" width="9" style="6"/>
   </cols>
   <sheetData>
-    <row r="3" spans="2:6" x14ac:dyDescent="0.25">
+    <row r="3" spans="2:8" x14ac:dyDescent="0.25">
       <c r="B3" s="5" t="s">
         <v>0</v>
       </c>
-      <c r="C3" s="7" t="s">
-        <v>115</v>
-      </c>
-    </row>
-    <row r="4" spans="2:6" x14ac:dyDescent="0.25">
+      <c r="C3" s="20" t="s">
+        <v>96</v>
+      </c>
+      <c r="D3" s="20"/>
+      <c r="E3" s="20"/>
+      <c r="F3" s="20"/>
+    </row>
+    <row r="4" spans="2:8" x14ac:dyDescent="0.25">
       <c r="B4" s="5" t="s">
         <v>1</v>
       </c>
-      <c r="C4" s="18" t="s">
-        <v>114</v>
-      </c>
-      <c r="D4" s="18"/>
-    </row>
-    <row r="5" spans="2:6" x14ac:dyDescent="0.25">
+      <c r="C4" s="21" t="s">
+        <v>95</v>
+      </c>
+      <c r="D4" s="21"/>
+      <c r="E4" s="20"/>
+      <c r="F4" s="20"/>
+    </row>
+    <row r="5" spans="2:8" x14ac:dyDescent="0.25">
       <c r="B5" s="5" t="s">
         <v>2</v>
       </c>
-      <c r="C5" s="7" t="s">
-        <v>113</v>
-      </c>
-    </row>
-    <row r="6" spans="2:6" x14ac:dyDescent="0.25">
+      <c r="C5" s="20" t="s">
+        <v>94</v>
+      </c>
+      <c r="D5" s="20"/>
+      <c r="E5" s="20"/>
+      <c r="F5" s="20"/>
+    </row>
+    <row r="6" spans="2:8" x14ac:dyDescent="0.25">
       <c r="B6" s="5" t="s">
         <v>3</v>
       </c>
-      <c r="C6" s="6">
+      <c r="C6" s="22">
         <v>44221</v>
       </c>
-    </row>
-    <row r="7" spans="2:6" x14ac:dyDescent="0.25">
+      <c r="D6" s="20"/>
+      <c r="E6" s="20"/>
+      <c r="F6" s="20"/>
+    </row>
+    <row r="7" spans="2:8" x14ac:dyDescent="0.25">
       <c r="B7" s="5" t="s">
         <v>4</v>
       </c>
-    </row>
-    <row r="8" spans="2:6" x14ac:dyDescent="0.25">
+      <c r="C7" s="20"/>
+      <c r="D7" s="20"/>
+      <c r="E7" s="20"/>
+      <c r="F7" s="20"/>
+    </row>
+    <row r="8" spans="2:8" x14ac:dyDescent="0.25">
       <c r="B8" s="5" t="s">
         <v>5</v>
       </c>
-    </row>
-    <row r="9" spans="2:6" x14ac:dyDescent="0.25">
-      <c r="C9" s="4"/>
-    </row>
-    <row r="10" spans="2:6" x14ac:dyDescent="0.25">
+      <c r="C8" s="20"/>
+      <c r="D8" s="20"/>
+      <c r="E8" s="20"/>
+      <c r="F8" s="20"/>
+    </row>
+    <row r="9" spans="2:8" x14ac:dyDescent="0.25">
+      <c r="C9" s="23"/>
+      <c r="D9" s="20"/>
+      <c r="E9" s="20"/>
+      <c r="F9" s="20"/>
+    </row>
+    <row r="10" spans="2:8" x14ac:dyDescent="0.25">
       <c r="B10" s="5" t="s">
         <v>6</v>
       </c>
-      <c r="C10" s="4" t="s">
-        <v>112</v>
-      </c>
-      <c r="D10" s="4" t="s">
-        <v>112</v>
-      </c>
-      <c r="E10" s="4" t="s">
-        <v>112</v>
-      </c>
-      <c r="F10" s="4" t="s">
-        <v>112</v>
-      </c>
-    </row>
-    <row r="11" spans="2:6" ht="31.5" x14ac:dyDescent="0.25">
+      <c r="C10" s="13" t="s">
+        <v>259</v>
+      </c>
+      <c r="D10" s="13" t="s">
+        <v>259</v>
+      </c>
+      <c r="E10" s="13" t="s">
+        <v>259</v>
+      </c>
+      <c r="F10" s="13" t="s">
+        <v>259</v>
+      </c>
+      <c r="G10" s="1"/>
+      <c r="H10" s="1"/>
+    </row>
+    <row r="11" spans="2:8" ht="31.5" x14ac:dyDescent="0.25">
       <c r="B11" s="5" t="s">
         <v>8</v>
       </c>
-      <c r="C11" s="4" t="s">
-        <v>111</v>
-      </c>
-      <c r="D11" s="4" t="s">
-        <v>111</v>
-      </c>
-      <c r="E11" s="4" t="s">
-        <v>110</v>
-      </c>
-      <c r="F11" s="4" t="s">
-        <v>110</v>
-      </c>
-    </row>
-    <row r="12" spans="2:6" x14ac:dyDescent="0.25">
+      <c r="C11" s="13" t="s">
+        <v>260</v>
+      </c>
+      <c r="D11" s="13" t="s">
+        <v>260</v>
+      </c>
+      <c r="E11" s="13" t="s">
+        <v>260</v>
+      </c>
+      <c r="F11" s="13" t="s">
+        <v>260</v>
+      </c>
+      <c r="G11" s="1"/>
+      <c r="H11" s="1"/>
+    </row>
+    <row r="12" spans="2:8" x14ac:dyDescent="0.25">
       <c r="B12" s="5" t="s">
         <v>9</v>
       </c>
-      <c r="C12" s="4" t="s">
-        <v>109</v>
-      </c>
-      <c r="D12" s="4" t="s">
-        <v>236</v>
-      </c>
-      <c r="E12" s="4" t="s">
-        <v>235</v>
-      </c>
-      <c r="F12" s="4" t="s">
-        <v>108</v>
-      </c>
-    </row>
-    <row r="13" spans="2:6" ht="31.5" x14ac:dyDescent="0.25">
+      <c r="C12" s="13" t="s">
+        <v>261</v>
+      </c>
+      <c r="D12" s="13" t="s">
+        <v>281</v>
+      </c>
+      <c r="E12" s="13" t="s">
+        <v>282</v>
+      </c>
+      <c r="F12" s="13" t="s">
+        <v>283</v>
+      </c>
+      <c r="G12" s="1"/>
+      <c r="H12" s="1"/>
+    </row>
+    <row r="13" spans="2:8" x14ac:dyDescent="0.25">
       <c r="B13" s="5" t="s">
         <v>10</v>
       </c>
-      <c r="C13" s="4" t="s">
-        <v>107</v>
-      </c>
-      <c r="D13" s="4" t="s">
-        <v>107</v>
-      </c>
-      <c r="E13" s="4" t="s">
-        <v>106</v>
-      </c>
-      <c r="F13" s="4" t="s">
-        <v>106</v>
-      </c>
-    </row>
-    <row r="14" spans="2:6" ht="31.5" x14ac:dyDescent="0.25">
+      <c r="C13" s="13" t="s">
+        <v>240</v>
+      </c>
+      <c r="D13" s="13" t="s">
+        <v>266</v>
+      </c>
+      <c r="E13" s="13" t="s">
+        <v>271</v>
+      </c>
+      <c r="F13" s="13" t="s">
+        <v>275</v>
+      </c>
+      <c r="G13" s="13"/>
+      <c r="H13" s="13"/>
+    </row>
+    <row r="14" spans="2:8" ht="116.25" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B14" s="5" t="s">
         <v>11</v>
       </c>
-      <c r="C14" s="4" t="s">
-        <v>105</v>
-      </c>
-      <c r="D14" s="4" t="s">
-        <v>234</v>
-      </c>
-      <c r="E14" s="4"/>
-      <c r="F14" s="4"/>
-    </row>
-    <row r="15" spans="2:6" x14ac:dyDescent="0.25">
+      <c r="C14" s="13" t="s">
+        <v>262</v>
+      </c>
+      <c r="D14" s="13" t="s">
+        <v>267</v>
+      </c>
+      <c r="E14" s="13" t="s">
+        <v>272</v>
+      </c>
+      <c r="F14" s="13" t="s">
+        <v>276</v>
+      </c>
+      <c r="G14" s="13"/>
+      <c r="H14" s="13"/>
+    </row>
+    <row r="15" spans="2:8" ht="39" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B15" s="5" t="s">
         <v>12</v>
       </c>
-      <c r="C15" s="4" t="s">
+      <c r="C15" s="13" t="s">
         <v>13</v>
       </c>
-      <c r="D15" s="4" t="s">
+      <c r="D15" s="13" t="s">
         <v>13</v>
       </c>
-      <c r="E15" s="4" t="s">
+      <c r="E15" s="13" t="s">
         <v>13</v>
       </c>
-      <c r="F15" s="4" t="s">
+      <c r="F15" s="13" t="s">
         <v>13</v>
       </c>
-    </row>
-    <row r="16" spans="2:6" ht="31.5" x14ac:dyDescent="0.25">
+      <c r="G15" s="13"/>
+      <c r="H15" s="13"/>
+    </row>
+    <row r="16" spans="2:8" ht="47.25" x14ac:dyDescent="0.25">
       <c r="B16" s="5" t="s">
         <v>13</v>
       </c>
-      <c r="C16" s="4" t="s">
-        <v>104</v>
-      </c>
-      <c r="D16" s="4" t="s">
-        <v>104</v>
-      </c>
-      <c r="E16" s="4" t="s">
-        <v>103</v>
-      </c>
-      <c r="F16" s="4" t="s">
-        <v>103</v>
-      </c>
-    </row>
-    <row r="17" spans="2:6" ht="31.5" x14ac:dyDescent="0.25">
+      <c r="C16" s="13" t="s">
+        <v>263</v>
+      </c>
+      <c r="D16" s="13" t="s">
+        <v>268</v>
+      </c>
+      <c r="E16" s="13" t="s">
+        <v>277</v>
+      </c>
+      <c r="F16" s="13" t="s">
+        <v>278</v>
+      </c>
+      <c r="G16" s="13"/>
+      <c r="H16" s="13"/>
+    </row>
+    <row r="17" spans="2:8" ht="31.5" x14ac:dyDescent="0.25">
       <c r="B17" s="5" t="s">
         <v>14</v>
       </c>
-      <c r="C17" s="4"/>
-      <c r="D17" s="4" t="s">
-        <v>233</v>
-      </c>
-      <c r="E17" s="4"/>
-      <c r="F17" s="4" t="s">
-        <v>233</v>
-      </c>
-    </row>
-    <row r="18" spans="2:6" ht="31.5" x14ac:dyDescent="0.25">
+      <c r="C17" s="13" t="s">
+        <v>264</v>
+      </c>
+      <c r="D17" s="13" t="s">
+        <v>270</v>
+      </c>
+      <c r="E17" s="13" t="s">
+        <v>273</v>
+      </c>
+      <c r="F17" s="13" t="s">
+        <v>279</v>
+      </c>
+      <c r="G17" s="13"/>
+      <c r="H17" s="13"/>
+    </row>
+    <row r="18" spans="2:8" ht="31.5" x14ac:dyDescent="0.25">
       <c r="B18" s="5" t="s">
         <v>15</v>
       </c>
-      <c r="C18" s="4"/>
-      <c r="D18" s="4" t="s">
-        <v>232</v>
-      </c>
-      <c r="F18" s="4" t="s">
-        <v>232</v>
-      </c>
-    </row>
-    <row r="19" spans="2:6" x14ac:dyDescent="0.25">
+      <c r="C18" s="13" t="s">
+        <v>265</v>
+      </c>
+      <c r="D18" s="13" t="s">
+        <v>269</v>
+      </c>
+      <c r="E18" s="13" t="s">
+        <v>274</v>
+      </c>
+      <c r="F18" s="13" t="s">
+        <v>280</v>
+      </c>
+      <c r="G18" s="13"/>
+      <c r="H18" s="13"/>
+    </row>
+    <row r="19" spans="2:8" x14ac:dyDescent="0.25">
       <c r="B19" s="5" t="s">
         <v>16</v>
       </c>
-    </row>
-    <row r="20" spans="2:6" x14ac:dyDescent="0.25">
+      <c r="C19" s="14"/>
+      <c r="D19" s="14"/>
+      <c r="E19" s="14"/>
+      <c r="F19" s="14"/>
+      <c r="G19" s="14"/>
+      <c r="H19" s="14"/>
+    </row>
+    <row r="20" spans="2:8" x14ac:dyDescent="0.25">
       <c r="B20" s="5" t="s">
         <v>17</v>
       </c>
-      <c r="C20" s="4" t="s">
+      <c r="C20" s="13" t="s">
         <v>18</v>
       </c>
-      <c r="D20" s="4" t="s">
+      <c r="D20" s="13" t="s">
         <v>19</v>
       </c>
-      <c r="E20" s="4" t="s">
-        <v>18</v>
-      </c>
-      <c r="F20" s="4" t="s">
+      <c r="E20" s="13" t="s">
         <v>19</v>
       </c>
-    </row>
-    <row r="21" spans="2:6" x14ac:dyDescent="0.25">
+      <c r="F20" s="13" t="s">
+        <v>19</v>
+      </c>
+      <c r="G20" s="13"/>
+      <c r="H20" s="13"/>
+    </row>
+    <row r="21" spans="2:8" x14ac:dyDescent="0.25">
       <c r="B21" s="5" t="s">
         <v>20</v>
       </c>
       <c r="C21" s="4"/>
     </row>
-    <row r="22" spans="2:6" x14ac:dyDescent="0.25">
+    <row r="22" spans="2:8" x14ac:dyDescent="0.25">
       <c r="B22" s="5" t="s">
         <v>21</v>
       </c>
       <c r="C22" s="4"/>
     </row>
-    <row r="23" spans="2:6" x14ac:dyDescent="0.25">
+    <row r="23" spans="2:8" x14ac:dyDescent="0.25">
       <c r="B23" s="5" t="s">
         <v>22</v>
       </c>
@@ -2722,374 +3792,666 @@
   <mergeCells count="1">
     <mergeCell ref="C4:D4"/>
   </mergeCells>
+  <phoneticPr fontId="5" type="noConversion"/>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/worksheets/sheet5.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{B8796572-4ED8-4BC6-A9AD-BF29874C43FA}">
+  <dimension ref="B3:H23"/>
+  <sheetViews>
+    <sheetView tabSelected="1" zoomScale="70" zoomScaleNormal="70" zoomScaleSheetLayoutView="100" workbookViewId="0">
+      <selection activeCell="F14" sqref="F14"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultColWidth="9" defaultRowHeight="15.75" x14ac:dyDescent="0.25"/>
+  <cols>
+    <col min="1" max="1" width="9" style="15"/>
+    <col min="2" max="2" width="27" style="15" customWidth="1"/>
+    <col min="3" max="6" width="37.75" style="15" customWidth="1"/>
+    <col min="7" max="8" width="22.625" style="15" customWidth="1"/>
+    <col min="9" max="16384" width="9" style="15"/>
+  </cols>
+  <sheetData>
+    <row r="3" spans="2:8" x14ac:dyDescent="0.25">
+      <c r="B3" s="5" t="s">
+        <v>0</v>
+      </c>
+      <c r="C3" s="20" t="s">
+        <v>96</v>
+      </c>
+      <c r="D3" s="20"/>
+      <c r="E3" s="20"/>
+      <c r="F3" s="20"/>
+    </row>
+    <row r="4" spans="2:8" x14ac:dyDescent="0.25">
+      <c r="B4" s="5" t="s">
+        <v>1</v>
+      </c>
+      <c r="C4" s="21"/>
+      <c r="D4" s="21"/>
+      <c r="E4" s="20"/>
+      <c r="F4" s="20"/>
+    </row>
+    <row r="5" spans="2:8" x14ac:dyDescent="0.25">
+      <c r="B5" s="5" t="s">
+        <v>2</v>
+      </c>
+      <c r="C5" s="20" t="s">
+        <v>94</v>
+      </c>
+      <c r="D5" s="20"/>
+      <c r="E5" s="20"/>
+      <c r="F5" s="20"/>
+    </row>
+    <row r="6" spans="2:8" x14ac:dyDescent="0.25">
+      <c r="B6" s="5" t="s">
+        <v>3</v>
+      </c>
+      <c r="C6" s="22">
+        <v>44221</v>
+      </c>
+      <c r="D6" s="20"/>
+      <c r="E6" s="20"/>
+      <c r="F6" s="20"/>
+    </row>
+    <row r="7" spans="2:8" x14ac:dyDescent="0.25">
+      <c r="B7" s="5" t="s">
+        <v>4</v>
+      </c>
+      <c r="C7" s="20"/>
+      <c r="D7" s="20"/>
+      <c r="E7" s="20"/>
+      <c r="F7" s="20"/>
+    </row>
+    <row r="8" spans="2:8" x14ac:dyDescent="0.25">
+      <c r="B8" s="5" t="s">
+        <v>5</v>
+      </c>
+      <c r="C8" s="20"/>
+      <c r="D8" s="20"/>
+      <c r="E8" s="20"/>
+      <c r="F8" s="20"/>
+    </row>
+    <row r="9" spans="2:8" x14ac:dyDescent="0.25">
+      <c r="C9" s="23"/>
+      <c r="D9" s="20"/>
+      <c r="E9" s="20"/>
+      <c r="F9" s="20"/>
+    </row>
+    <row r="10" spans="2:8" x14ac:dyDescent="0.25">
+      <c r="B10" s="5" t="s">
+        <v>6</v>
+      </c>
+      <c r="C10" s="13" t="s">
+        <v>151</v>
+      </c>
+      <c r="D10" s="13" t="s">
+        <v>151</v>
+      </c>
+      <c r="E10" s="13" t="s">
+        <v>151</v>
+      </c>
+      <c r="F10" s="13"/>
+      <c r="G10" s="1"/>
+      <c r="H10" s="1"/>
+    </row>
+    <row r="11" spans="2:8" ht="69.75" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="B11" s="5" t="s">
+        <v>8</v>
+      </c>
+      <c r="C11" s="13" t="s">
+        <v>284</v>
+      </c>
+      <c r="D11" s="13" t="s">
+        <v>284</v>
+      </c>
+      <c r="E11" s="13" t="s">
+        <v>284</v>
+      </c>
+      <c r="F11" s="13"/>
+      <c r="G11" s="1"/>
+      <c r="H11" s="1"/>
+    </row>
+    <row r="12" spans="2:8" x14ac:dyDescent="0.25">
+      <c r="B12" s="5" t="s">
+        <v>9</v>
+      </c>
+      <c r="C12" s="13" t="s">
+        <v>285</v>
+      </c>
+      <c r="D12" s="13" t="s">
+        <v>285</v>
+      </c>
+      <c r="E12" s="13" t="s">
+        <v>285</v>
+      </c>
+      <c r="F12" s="13"/>
+      <c r="G12" s="1"/>
+      <c r="H12" s="1"/>
+    </row>
+    <row r="13" spans="2:8" x14ac:dyDescent="0.25">
+      <c r="B13" s="5" t="s">
+        <v>10</v>
+      </c>
+      <c r="C13" s="13" t="s">
+        <v>240</v>
+      </c>
+      <c r="D13" s="13" t="s">
+        <v>295</v>
+      </c>
+      <c r="E13" s="13" t="s">
+        <v>296</v>
+      </c>
+      <c r="F13" s="13"/>
+      <c r="G13" s="13"/>
+      <c r="H13" s="13"/>
+    </row>
+    <row r="14" spans="2:8" ht="116.25" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="B14" s="5" t="s">
+        <v>11</v>
+      </c>
+      <c r="C14" s="13" t="s">
+        <v>290</v>
+      </c>
+      <c r="D14" s="13" t="s">
+        <v>291</v>
+      </c>
+      <c r="E14" s="13" t="s">
+        <v>297</v>
+      </c>
+      <c r="F14" s="13"/>
+      <c r="G14" s="13"/>
+      <c r="H14" s="13"/>
+    </row>
+    <row r="15" spans="2:8" ht="39" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="B15" s="5" t="s">
+        <v>12</v>
+      </c>
+      <c r="C15" s="13" t="s">
+        <v>13</v>
+      </c>
+      <c r="D15" s="13" t="s">
+        <v>13</v>
+      </c>
+      <c r="E15" s="13" t="s">
+        <v>13</v>
+      </c>
+      <c r="F15" s="13"/>
+      <c r="G15" s="13"/>
+      <c r="H15" s="13"/>
+    </row>
+    <row r="16" spans="2:8" ht="63" x14ac:dyDescent="0.25">
+      <c r="B16" s="5" t="s">
+        <v>13</v>
+      </c>
+      <c r="C16" s="13" t="s">
+        <v>286</v>
+      </c>
+      <c r="D16" s="13" t="s">
+        <v>292</v>
+      </c>
+      <c r="E16" s="13" t="s">
+        <v>298</v>
+      </c>
+      <c r="F16" s="13"/>
+      <c r="G16" s="13"/>
+      <c r="H16" s="13"/>
+    </row>
+    <row r="17" spans="2:8" ht="31.5" x14ac:dyDescent="0.25">
+      <c r="B17" s="5" t="s">
+        <v>14</v>
+      </c>
+      <c r="C17" s="13" t="s">
+        <v>287</v>
+      </c>
+      <c r="D17" s="13" t="s">
+        <v>293</v>
+      </c>
+      <c r="E17" s="13" t="s">
+        <v>299</v>
+      </c>
+      <c r="F17" s="13"/>
+      <c r="G17" s="13"/>
+      <c r="H17" s="13"/>
+    </row>
+    <row r="18" spans="2:8" ht="39.75" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="B18" s="5" t="s">
+        <v>15</v>
+      </c>
+      <c r="C18" s="13" t="s">
+        <v>288</v>
+      </c>
+      <c r="D18" s="13" t="s">
+        <v>294</v>
+      </c>
+      <c r="E18" s="13" t="s">
+        <v>300</v>
+      </c>
+      <c r="F18" s="13"/>
+      <c r="G18" s="13"/>
+      <c r="H18" s="13"/>
+    </row>
+    <row r="19" spans="2:8" x14ac:dyDescent="0.25">
+      <c r="B19" s="5" t="s">
+        <v>16</v>
+      </c>
+      <c r="C19" s="14"/>
+      <c r="D19" s="14"/>
+      <c r="E19" s="14"/>
+      <c r="F19" s="14"/>
+      <c r="G19" s="14"/>
+      <c r="H19" s="14"/>
+    </row>
+    <row r="20" spans="2:8" x14ac:dyDescent="0.25">
+      <c r="B20" s="5" t="s">
+        <v>17</v>
+      </c>
+      <c r="C20" s="13" t="s">
+        <v>18</v>
+      </c>
+      <c r="D20" s="13" t="s">
+        <v>289</v>
+      </c>
+      <c r="E20" s="13" t="s">
+        <v>289</v>
+      </c>
+      <c r="F20" s="13"/>
+      <c r="G20" s="13"/>
+      <c r="H20" s="13"/>
+    </row>
+    <row r="21" spans="2:8" x14ac:dyDescent="0.25">
+      <c r="B21" s="5" t="s">
+        <v>20</v>
+      </c>
+      <c r="C21" s="4"/>
+    </row>
+    <row r="22" spans="2:8" x14ac:dyDescent="0.25">
+      <c r="B22" s="5" t="s">
+        <v>21</v>
+      </c>
+      <c r="C22" s="4"/>
+    </row>
+    <row r="23" spans="2:8" x14ac:dyDescent="0.25">
+      <c r="B23" s="5" t="s">
+        <v>22</v>
+      </c>
+      <c r="C23" s="4"/>
+    </row>
+  </sheetData>
+  <mergeCells count="1">
+    <mergeCell ref="C4:D4"/>
+  </mergeCells>
+  <phoneticPr fontId="5" type="noConversion"/>
+  <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet6.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{6BD69988-827F-4D18-A55A-34CFB4B2936D}">
   <dimension ref="A1:G21"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A13" workbookViewId="0">
+    <sheetView topLeftCell="A13" workbookViewId="0">
       <selection activeCell="D21" sqref="D21"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="1" max="1" width="23.875" style="19" customWidth="1"/>
-    <col min="2" max="2" width="24.125" style="19" customWidth="1"/>
-    <col min="3" max="4" width="23.875" style="19" customWidth="1"/>
-    <col min="5" max="6" width="24" style="19" customWidth="1"/>
-    <col min="7" max="7" width="24.125" style="19" customWidth="1"/>
-    <col min="8" max="16384" width="9" style="19"/>
+    <col min="1" max="1" width="23.875" style="16" customWidth="1"/>
+    <col min="2" max="2" width="24.125" style="16" customWidth="1"/>
+    <col min="3" max="4" width="23.875" style="16" customWidth="1"/>
+    <col min="5" max="6" width="24" style="16" customWidth="1"/>
+    <col min="7" max="7" width="24.125" style="16" customWidth="1"/>
+    <col min="8" max="16384" width="9" style="16"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:7" ht="15.75" x14ac:dyDescent="0.25">
-      <c r="A1" s="11" t="s">
+      <c r="A1" s="10" t="s">
         <v>0</v>
       </c>
-      <c r="B1" s="9"/>
-      <c r="C1" s="9"/>
-      <c r="D1" s="9"/>
-      <c r="E1" s="9"/>
-      <c r="F1" s="9"/>
-      <c r="G1" s="9"/>
+      <c r="B1" s="8"/>
+      <c r="C1" s="8"/>
+      <c r="D1" s="8"/>
+      <c r="E1" s="8"/>
+      <c r="F1" s="8"/>
+      <c r="G1" s="8"/>
     </row>
     <row r="2" spans="1:7" ht="15.75" x14ac:dyDescent="0.25">
-      <c r="A2" s="11" t="s">
+      <c r="A2" s="10" t="s">
         <v>1</v>
       </c>
-      <c r="B2" s="9"/>
-      <c r="C2" s="9"/>
-      <c r="D2" s="9"/>
-      <c r="E2" s="9"/>
-      <c r="F2" s="9"/>
-      <c r="G2" s="9"/>
+      <c r="B2" s="8"/>
+      <c r="C2" s="8"/>
+      <c r="D2" s="8"/>
+      <c r="E2" s="8"/>
+      <c r="F2" s="8"/>
+      <c r="G2" s="8"/>
     </row>
     <row r="3" spans="1:7" ht="15.75" x14ac:dyDescent="0.25">
-      <c r="A3" s="11" t="s">
+      <c r="A3" s="10" t="s">
         <v>2</v>
       </c>
-      <c r="B3" s="9"/>
-      <c r="C3" s="9"/>
-      <c r="D3" s="9"/>
-      <c r="E3" s="9"/>
-      <c r="F3" s="9"/>
-      <c r="G3" s="9"/>
+      <c r="B3" s="8"/>
+      <c r="C3" s="8"/>
+      <c r="D3" s="8"/>
+      <c r="E3" s="8"/>
+      <c r="F3" s="8"/>
+      <c r="G3" s="8"/>
     </row>
     <row r="4" spans="1:7" ht="15.75" x14ac:dyDescent="0.25">
-      <c r="A4" s="11" t="s">
+      <c r="A4" s="10" t="s">
         <v>3</v>
       </c>
-      <c r="B4" s="9"/>
-      <c r="C4" s="9"/>
-      <c r="D4" s="9"/>
-      <c r="E4" s="9"/>
-      <c r="F4" s="9"/>
-      <c r="G4" s="9"/>
+      <c r="B4" s="8"/>
+      <c r="C4" s="8"/>
+      <c r="D4" s="8"/>
+      <c r="E4" s="8"/>
+      <c r="F4" s="8"/>
+      <c r="G4" s="8"/>
     </row>
     <row r="5" spans="1:7" ht="15.75" x14ac:dyDescent="0.25">
-      <c r="A5" s="11" t="s">
+      <c r="A5" s="10" t="s">
         <v>4</v>
       </c>
-      <c r="B5" s="9"/>
-      <c r="C5" s="9"/>
-      <c r="D5" s="9"/>
-      <c r="E5" s="9"/>
-      <c r="F5" s="9"/>
-      <c r="G5" s="9"/>
+      <c r="B5" s="8"/>
+      <c r="C5" s="8"/>
+      <c r="D5" s="8"/>
+      <c r="E5" s="8"/>
+      <c r="F5" s="8"/>
+      <c r="G5" s="8"/>
     </row>
     <row r="6" spans="1:7" ht="15.75" x14ac:dyDescent="0.25">
-      <c r="A6" s="11" t="s">
+      <c r="A6" s="10" t="s">
         <v>5</v>
       </c>
-      <c r="B6" s="9"/>
-      <c r="C6" s="9"/>
-      <c r="D6" s="9"/>
-      <c r="E6" s="9"/>
-      <c r="F6" s="9"/>
-      <c r="G6" s="9"/>
+      <c r="B6" s="8"/>
+      <c r="C6" s="8"/>
+      <c r="D6" s="8"/>
+      <c r="E6" s="8"/>
+      <c r="F6" s="8"/>
+      <c r="G6" s="8"/>
     </row>
     <row r="7" spans="1:7" ht="15.75" x14ac:dyDescent="0.25">
-      <c r="A7" s="9"/>
-      <c r="B7" s="10"/>
-      <c r="C7" s="9"/>
-      <c r="D7" s="9"/>
-      <c r="E7" s="9"/>
-      <c r="F7" s="9"/>
-      <c r="G7" s="9"/>
+      <c r="A7" s="8"/>
+      <c r="B7" s="9"/>
+      <c r="C7" s="8"/>
+      <c r="D7" s="8"/>
+      <c r="E7" s="8"/>
+      <c r="F7" s="8"/>
+      <c r="G7" s="8"/>
     </row>
     <row r="8" spans="1:7" ht="15.75" x14ac:dyDescent="0.25">
-      <c r="A8" s="11" t="s">
+      <c r="A8" s="10" t="s">
         <v>6</v>
       </c>
-      <c r="B8" s="10" t="s">
+      <c r="B8" s="9" t="s">
         <v>7</v>
       </c>
-      <c r="C8" s="10" t="s">
+      <c r="C8" s="9" t="s">
         <v>7</v>
       </c>
-      <c r="D8" s="10" t="s">
+      <c r="D8" s="9" t="s">
         <v>7</v>
       </c>
-      <c r="E8" s="10" t="s">
+      <c r="E8" s="9" t="s">
         <v>7</v>
       </c>
-      <c r="F8" s="10" t="s">
+      <c r="F8" s="9" t="s">
         <v>7</v>
       </c>
-      <c r="G8" s="10" t="s">
+      <c r="G8" s="9" t="s">
         <v>7</v>
       </c>
     </row>
     <row r="9" spans="1:7" ht="51.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A9" s="11" t="s">
+      <c r="A9" s="10" t="s">
         <v>8</v>
       </c>
-      <c r="B9" s="10" t="s">
-        <v>146</v>
-      </c>
-      <c r="C9" s="10" t="s">
-        <v>146</v>
-      </c>
-      <c r="D9" s="10" t="s">
-        <v>146</v>
-      </c>
-      <c r="E9" s="10" t="s">
-        <v>146</v>
-      </c>
-      <c r="F9" s="10" t="s">
-        <v>146</v>
-      </c>
-      <c r="G9" s="10" t="s">
-        <v>146</v>
+      <c r="B9" s="9" t="s">
+        <v>127</v>
+      </c>
+      <c r="C9" s="9" t="s">
+        <v>127</v>
+      </c>
+      <c r="D9" s="9" t="s">
+        <v>127</v>
+      </c>
+      <c r="E9" s="9" t="s">
+        <v>127</v>
+      </c>
+      <c r="F9" s="9" t="s">
+        <v>127</v>
+      </c>
+      <c r="G9" s="9" t="s">
+        <v>127</v>
       </c>
     </row>
     <row r="10" spans="1:7" ht="15.75" x14ac:dyDescent="0.25">
-      <c r="A10" s="11" t="s">
+      <c r="A10" s="10" t="s">
         <v>9</v>
       </c>
-      <c r="B10" s="10" t="s">
-        <v>145</v>
-      </c>
-      <c r="C10" s="10" t="s">
-        <v>144</v>
-      </c>
-      <c r="D10" s="10" t="s">
-        <v>143</v>
-      </c>
-      <c r="E10" s="10" t="s">
-        <v>142</v>
-      </c>
-      <c r="F10" s="10" t="s">
-        <v>141</v>
-      </c>
-      <c r="G10" s="10" t="s">
-        <v>140</v>
+      <c r="B10" s="9" t="s">
+        <v>126</v>
+      </c>
+      <c r="C10" s="9" t="s">
+        <v>125</v>
+      </c>
+      <c r="D10" s="9" t="s">
+        <v>124</v>
+      </c>
+      <c r="E10" s="9" t="s">
+        <v>123</v>
+      </c>
+      <c r="F10" s="9" t="s">
+        <v>122</v>
+      </c>
+      <c r="G10" s="9" t="s">
+        <v>121</v>
       </c>
     </row>
     <row r="11" spans="1:7" ht="100.5" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A11" s="11" t="s">
+      <c r="A11" s="10" t="s">
         <v>10</v>
       </c>
-      <c r="B11" s="12" t="s">
-        <v>139</v>
-      </c>
-      <c r="C11" s="12" t="s">
-        <v>138</v>
-      </c>
-      <c r="D11" s="12" t="s">
-        <v>137</v>
-      </c>
-      <c r="E11" s="12" t="s">
-        <v>136</v>
-      </c>
-      <c r="F11" s="12" t="s">
-        <v>135</v>
-      </c>
-      <c r="G11" s="12" t="s">
-        <v>134</v>
+      <c r="B11" s="11" t="s">
+        <v>120</v>
+      </c>
+      <c r="C11" s="11" t="s">
+        <v>119</v>
+      </c>
+      <c r="D11" s="11" t="s">
+        <v>118</v>
+      </c>
+      <c r="E11" s="11" t="s">
+        <v>117</v>
+      </c>
+      <c r="F11" s="11" t="s">
+        <v>116</v>
+      </c>
+      <c r="G11" s="11" t="s">
+        <v>115</v>
       </c>
     </row>
     <row r="12" spans="1:7" ht="168" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A12" s="11" t="s">
+      <c r="A12" s="10" t="s">
         <v>11</v>
       </c>
-      <c r="B12" s="12" t="s">
-        <v>130</v>
-      </c>
-      <c r="C12" s="12" t="s">
-        <v>133</v>
-      </c>
-      <c r="D12" s="12" t="s">
-        <v>132</v>
-      </c>
-      <c r="E12" s="12" t="s">
-        <v>131</v>
-      </c>
-      <c r="F12" s="12" t="s">
-        <v>130</v>
-      </c>
-      <c r="G12" s="12" t="s">
-        <v>129</v>
+      <c r="B12" s="11" t="s">
+        <v>111</v>
+      </c>
+      <c r="C12" s="11" t="s">
+        <v>114</v>
+      </c>
+      <c r="D12" s="11" t="s">
+        <v>113</v>
+      </c>
+      <c r="E12" s="11" t="s">
+        <v>112</v>
+      </c>
+      <c r="F12" s="11" t="s">
+        <v>111</v>
+      </c>
+      <c r="G12" s="11" t="s">
+        <v>110</v>
       </c>
     </row>
     <row r="13" spans="1:7" ht="18" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A13" s="11" t="s">
+      <c r="A13" s="10" t="s">
         <v>12</v>
       </c>
-      <c r="B13" s="12" t="s">
+      <c r="B13" s="11" t="s">
         <v>13</v>
       </c>
-      <c r="C13" s="12" t="s">
+      <c r="C13" s="11" t="s">
         <v>13</v>
       </c>
-      <c r="D13" s="12" t="s">
+      <c r="D13" s="11" t="s">
         <v>13</v>
       </c>
-      <c r="E13" s="12" t="s">
+      <c r="E13" s="11" t="s">
         <v>13</v>
       </c>
-      <c r="F13" s="12" t="s">
+      <c r="F13" s="11" t="s">
         <v>13</v>
       </c>
-      <c r="G13" s="12" t="s">
+      <c r="G13" s="11" t="s">
         <v>13</v>
       </c>
     </row>
     <row r="14" spans="1:7" ht="179.25" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A14" s="11" t="s">
+      <c r="A14" s="10" t="s">
         <v>13</v>
       </c>
-      <c r="B14" s="12" t="s">
-        <v>128</v>
-      </c>
-      <c r="C14" s="12" t="s">
-        <v>127</v>
-      </c>
-      <c r="D14" s="12" t="s">
-        <v>126</v>
-      </c>
-      <c r="E14" s="12" t="s">
-        <v>125</v>
-      </c>
-      <c r="F14" s="12" t="s">
-        <v>124</v>
-      </c>
-      <c r="G14" s="12" t="s">
-        <v>123</v>
+      <c r="B14" s="11" t="s">
+        <v>109</v>
+      </c>
+      <c r="C14" s="11" t="s">
+        <v>108</v>
+      </c>
+      <c r="D14" s="11" t="s">
+        <v>107</v>
+      </c>
+      <c r="E14" s="11" t="s">
+        <v>106</v>
+      </c>
+      <c r="F14" s="11" t="s">
+        <v>105</v>
+      </c>
+      <c r="G14" s="11" t="s">
+        <v>104</v>
       </c>
     </row>
     <row r="15" spans="1:7" ht="32.25" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A15" s="11" t="s">
+      <c r="A15" s="10" t="s">
         <v>14</v>
       </c>
-      <c r="B15" s="12" t="s">
-        <v>122</v>
-      </c>
-      <c r="C15" s="12" t="s">
-        <v>121</v>
-      </c>
-      <c r="D15" s="12" t="s">
-        <v>120</v>
-      </c>
-      <c r="E15" s="12" t="s">
-        <v>116</v>
-      </c>
-      <c r="F15" s="12" t="s">
-        <v>119</v>
-      </c>
-      <c r="G15" s="12" t="s">
-        <v>118</v>
+      <c r="B15" s="11" t="s">
+        <v>103</v>
+      </c>
+      <c r="C15" s="11" t="s">
+        <v>102</v>
+      </c>
+      <c r="D15" s="11" t="s">
+        <v>101</v>
+      </c>
+      <c r="E15" s="11" t="s">
+        <v>97</v>
+      </c>
+      <c r="F15" s="11" t="s">
+        <v>100</v>
+      </c>
+      <c r="G15" s="11" t="s">
+        <v>99</v>
       </c>
     </row>
     <row r="16" spans="1:7" ht="34.5" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A16" s="11" t="s">
+      <c r="A16" s="10" t="s">
         <v>15</v>
       </c>
-      <c r="B16" s="12" t="s">
-        <v>117</v>
-      </c>
-      <c r="C16" s="12" t="s">
-        <v>258</v>
-      </c>
-      <c r="D16" s="12" t="s">
-        <v>257</v>
-      </c>
-      <c r="E16" s="12" t="s">
-        <v>256</v>
-      </c>
-      <c r="F16" s="12" t="s">
-        <v>255</v>
-      </c>
-      <c r="G16" s="12" t="s">
-        <v>254</v>
+      <c r="B16" s="11" t="s">
+        <v>98</v>
+      </c>
+      <c r="C16" s="11" t="s">
+        <v>234</v>
+      </c>
+      <c r="D16" s="11" t="s">
+        <v>233</v>
+      </c>
+      <c r="E16" s="11" t="s">
+        <v>232</v>
+      </c>
+      <c r="F16" s="11" t="s">
+        <v>231</v>
+      </c>
+      <c r="G16" s="11" t="s">
+        <v>230</v>
       </c>
     </row>
     <row r="17" spans="1:7" ht="15.75" x14ac:dyDescent="0.25">
-      <c r="A17" s="11" t="s">
+      <c r="A17" s="10" t="s">
         <v>16</v>
       </c>
-      <c r="B17" s="13"/>
-      <c r="C17" s="13"/>
-      <c r="D17" s="13"/>
-      <c r="E17" s="13"/>
-      <c r="F17" s="13"/>
-      <c r="G17" s="13"/>
+      <c r="B17" s="12"/>
+      <c r="C17" s="12"/>
+      <c r="D17" s="12"/>
+      <c r="E17" s="12"/>
+      <c r="F17" s="12"/>
+      <c r="G17" s="12"/>
     </row>
     <row r="18" spans="1:7" ht="15.75" x14ac:dyDescent="0.25">
-      <c r="A18" s="11" t="s">
+      <c r="A18" s="10" t="s">
         <v>17</v>
       </c>
-      <c r="B18" s="12" t="s">
+      <c r="B18" s="11" t="s">
         <v>18</v>
       </c>
-      <c r="C18" s="12" t="s">
+      <c r="C18" s="11" t="s">
         <v>19</v>
       </c>
-      <c r="D18" s="12" t="s">
+      <c r="D18" s="11" t="s">
         <v>19</v>
       </c>
-      <c r="E18" s="12" t="s">
+      <c r="E18" s="11" t="s">
         <v>19</v>
       </c>
-      <c r="F18" s="12" t="s">
+      <c r="F18" s="11" t="s">
         <v>19</v>
       </c>
-      <c r="G18" s="12" t="s">
+      <c r="G18" s="11" t="s">
         <v>19</v>
       </c>
     </row>
     <row r="19" spans="1:7" ht="15.75" x14ac:dyDescent="0.25">
-      <c r="A19" s="11" t="s">
+      <c r="A19" s="10" t="s">
         <v>20</v>
       </c>
-      <c r="B19" s="10"/>
-      <c r="C19" s="9"/>
-      <c r="D19" s="9"/>
+      <c r="B19" s="9"/>
+      <c r="C19" s="8"/>
+      <c r="D19" s="8"/>
     </row>
     <row r="20" spans="1:7" ht="15.75" x14ac:dyDescent="0.25">
-      <c r="A20" s="11" t="s">
+      <c r="A20" s="10" t="s">
         <v>21</v>
       </c>
-      <c r="B20" s="10"/>
-      <c r="C20" s="9"/>
-      <c r="D20" s="9"/>
+      <c r="B20" s="9"/>
+      <c r="C20" s="8"/>
+      <c r="D20" s="8"/>
     </row>
     <row r="21" spans="1:7" ht="15.75" x14ac:dyDescent="0.25">
-      <c r="A21" s="11" t="s">
+      <c r="A21" s="10" t="s">
         <v>22</v>
       </c>
-      <c r="B21" s="10"/>
-      <c r="C21" s="9"/>
-      <c r="D21" s="9"/>
+      <c r="B21" s="9"/>
+      <c r="C21" s="8"/>
+      <c r="D21" s="8"/>
     </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet5.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/worksheets/sheet7.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{1891541E-5F5A-45B5-8B11-10F4D877D44A}">
   <dimension ref="A1:J21"/>
   <sheetViews>
@@ -3146,16 +4508,16 @@
         <v>6</v>
       </c>
       <c r="B8" s="1" t="s">
-        <v>170</v>
+        <v>151</v>
       </c>
       <c r="C8" s="1" t="s">
-        <v>170</v>
+        <v>151</v>
       </c>
       <c r="D8" s="1" t="s">
-        <v>170</v>
+        <v>151</v>
       </c>
       <c r="E8" s="1" t="s">
-        <v>170</v>
+        <v>151</v>
       </c>
       <c r="F8" s="1"/>
       <c r="G8" s="1"/>
@@ -3168,16 +4530,16 @@
         <v>8</v>
       </c>
       <c r="B9" s="1" t="s">
-        <v>169</v>
+        <v>150</v>
       </c>
       <c r="C9" s="1" t="s">
-        <v>169</v>
+        <v>150</v>
       </c>
       <c r="D9" s="1" t="s">
-        <v>169</v>
+        <v>150</v>
       </c>
       <c r="E9" s="1" t="s">
-        <v>169</v>
+        <v>150</v>
       </c>
       <c r="F9" s="1"/>
       <c r="G9" s="1"/>
@@ -3190,16 +4552,16 @@
         <v>9</v>
       </c>
       <c r="B10" s="1" t="s">
-        <v>168</v>
+        <v>149</v>
       </c>
       <c r="C10" s="1" t="s">
-        <v>167</v>
+        <v>148</v>
       </c>
       <c r="D10" s="1" t="s">
-        <v>166</v>
+        <v>147</v>
       </c>
       <c r="E10" s="1" t="s">
-        <v>166</v>
+        <v>147</v>
       </c>
       <c r="F10" s="1"/>
       <c r="G10" s="1"/>
@@ -3212,16 +4574,16 @@
         <v>10</v>
       </c>
       <c r="B11" s="1" t="s">
-        <v>165</v>
+        <v>146</v>
       </c>
       <c r="C11" s="1" t="s">
-        <v>164</v>
+        <v>145</v>
       </c>
       <c r="D11" s="1" t="s">
-        <v>163</v>
+        <v>144</v>
       </c>
       <c r="E11" s="1" t="s">
-        <v>162</v>
+        <v>143</v>
       </c>
       <c r="F11" s="1"/>
       <c r="G11" s="1"/>
@@ -3234,16 +4596,16 @@
         <v>11</v>
       </c>
       <c r="B12" s="1" t="s">
-        <v>161</v>
+        <v>142</v>
       </c>
       <c r="C12" s="1" t="s">
-        <v>160</v>
+        <v>141</v>
       </c>
       <c r="D12" s="1" t="s">
-        <v>159</v>
+        <v>140</v>
       </c>
       <c r="E12" s="1" t="s">
-        <v>158</v>
+        <v>139</v>
       </c>
       <c r="F12" s="1"/>
       <c r="G12" s="1"/>
@@ -3278,16 +4640,16 @@
         <v>13</v>
       </c>
       <c r="B14" s="1" t="s">
-        <v>157</v>
+        <v>138</v>
       </c>
       <c r="C14" s="1" t="s">
-        <v>157</v>
+        <v>138</v>
       </c>
       <c r="D14" s="1" t="s">
-        <v>156</v>
+        <v>137</v>
       </c>
       <c r="E14" s="1" t="s">
-        <v>155</v>
+        <v>136</v>
       </c>
       <c r="F14" s="1"/>
       <c r="G14" s="1"/>
@@ -3300,16 +4662,16 @@
         <v>14</v>
       </c>
       <c r="B15" s="1" t="s">
-        <v>154</v>
+        <v>135</v>
       </c>
       <c r="C15" s="1" t="s">
-        <v>153</v>
+        <v>134</v>
       </c>
       <c r="D15" s="1" t="s">
-        <v>152</v>
+        <v>133</v>
       </c>
       <c r="E15" s="1" t="s">
-        <v>151</v>
+        <v>132</v>
       </c>
       <c r="F15" s="1"/>
       <c r="G15" s="1"/>
@@ -3322,16 +4684,16 @@
         <v>15</v>
       </c>
       <c r="B16" s="1" t="s">
-        <v>150</v>
+        <v>131</v>
       </c>
       <c r="C16" s="1" t="s">
-        <v>149</v>
+        <v>130</v>
       </c>
       <c r="D16" s="1" t="s">
-        <v>148</v>
+        <v>129</v>
       </c>
       <c r="E16" s="1" t="s">
-        <v>147</v>
+        <v>128</v>
       </c>
       <c r="F16" s="1"/>
       <c r="G16" s="1"/>
@@ -3388,7 +4750,7 @@
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet6.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/worksheets/sheet8.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{20AA0D83-B628-40B7-964D-A6130CD7C40B}">
   <dimension ref="A1:J21"/>
   <sheetViews>
@@ -3445,16 +4807,16 @@
         <v>6</v>
       </c>
       <c r="B8" s="1" t="s">
-        <v>171</v>
+        <v>152</v>
       </c>
       <c r="C8" s="1" t="s">
-        <v>171</v>
+        <v>152</v>
       </c>
       <c r="D8" s="1" t="s">
-        <v>171</v>
+        <v>152</v>
       </c>
       <c r="E8" s="1" t="s">
-        <v>171</v>
+        <v>152</v>
       </c>
       <c r="F8" s="1"/>
       <c r="G8" s="1"/>
@@ -3467,16 +4829,16 @@
         <v>8</v>
       </c>
       <c r="B9" s="1" t="s">
-        <v>172</v>
+        <v>153</v>
       </c>
       <c r="C9" s="1" t="s">
-        <v>172</v>
+        <v>153</v>
       </c>
       <c r="D9" s="1" t="s">
-        <v>172</v>
+        <v>153</v>
       </c>
       <c r="E9" s="1" t="s">
-        <v>172</v>
+        <v>153</v>
       </c>
       <c r="F9" s="1"/>
       <c r="G9" s="1"/>
@@ -3489,16 +4851,16 @@
         <v>9</v>
       </c>
       <c r="B10" s="1" t="s">
-        <v>173</v>
+        <v>154</v>
       </c>
       <c r="C10" s="1" t="s">
-        <v>174</v>
+        <v>155</v>
       </c>
       <c r="D10" s="1" t="s">
-        <v>175</v>
+        <v>156</v>
       </c>
       <c r="E10" s="1" t="s">
-        <v>175</v>
+        <v>156</v>
       </c>
       <c r="F10" s="1"/>
       <c r="G10" s="1"/>
@@ -3511,16 +4873,16 @@
         <v>10</v>
       </c>
       <c r="B11" s="1" t="s">
-        <v>176</v>
+        <v>157</v>
       </c>
       <c r="C11" s="1" t="s">
-        <v>164</v>
+        <v>145</v>
       </c>
       <c r="D11" s="1" t="s">
-        <v>163</v>
+        <v>144</v>
       </c>
       <c r="E11" s="1" t="s">
-        <v>162</v>
+        <v>143</v>
       </c>
       <c r="F11" s="1"/>
       <c r="G11" s="1"/>
@@ -3533,7 +4895,7 @@
         <v>11</v>
       </c>
       <c r="B12" s="1" t="s">
-        <v>177</v>
+        <v>158</v>
       </c>
       <c r="C12" s="1"/>
       <c r="D12" s="1"/>
@@ -3565,7 +4927,7 @@
         <v>13</v>
       </c>
       <c r="B14" s="1" t="s">
-        <v>178</v>
+        <v>159</v>
       </c>
       <c r="C14" s="1"/>
       <c r="D14" s="1"/>
@@ -3581,7 +4943,7 @@
         <v>14</v>
       </c>
       <c r="B15" s="1" t="s">
-        <v>179</v>
+        <v>160</v>
       </c>
       <c r="C15" s="1"/>
       <c r="D15" s="1"/>
@@ -3597,7 +4959,7 @@
         <v>15</v>
       </c>
       <c r="B16" s="1" t="s">
-        <v>180</v>
+        <v>161</v>
       </c>
       <c r="C16" s="1"/>
       <c r="D16" s="1"/>
@@ -3657,7 +5019,7 @@
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet7.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/worksheets/sheet9.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{26771603-BE16-4D62-B5DC-77BE6963F5DF}">
   <dimension ref="A1:H21"/>
   <sheetViews>
@@ -3667,1004 +5029,372 @@
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="1" max="4" width="24" style="19" customWidth="1"/>
-    <col min="5" max="6" width="23.875" style="19" customWidth="1"/>
-    <col min="7" max="8" width="24" style="19" customWidth="1"/>
-    <col min="9" max="16384" width="9" style="19"/>
+    <col min="1" max="4" width="24" style="16" customWidth="1"/>
+    <col min="5" max="6" width="23.875" style="16" customWidth="1"/>
+    <col min="7" max="8" width="24" style="16" customWidth="1"/>
+    <col min="9" max="16384" width="9" style="16"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:8" ht="15.75" x14ac:dyDescent="0.25">
-      <c r="A1" s="11" t="s">
+      <c r="A1" s="10" t="s">
         <v>0</v>
       </c>
-      <c r="B1" s="9"/>
-      <c r="C1" s="9"/>
-      <c r="D1" s="9"/>
-      <c r="E1" s="9"/>
-      <c r="F1" s="9"/>
-      <c r="G1" s="9"/>
-      <c r="H1" s="9"/>
+      <c r="B1" s="8"/>
+      <c r="C1" s="8"/>
+      <c r="D1" s="8"/>
+      <c r="E1" s="8"/>
+      <c r="F1" s="8"/>
+      <c r="G1" s="8"/>
+      <c r="H1" s="8"/>
     </row>
     <row r="2" spans="1:8" ht="15.75" x14ac:dyDescent="0.25">
-      <c r="A2" s="11" t="s">
+      <c r="A2" s="10" t="s">
         <v>1</v>
       </c>
-      <c r="B2" s="9"/>
-      <c r="C2" s="9"/>
-      <c r="D2" s="9"/>
-      <c r="E2" s="9"/>
-      <c r="F2" s="9"/>
-      <c r="G2" s="9"/>
-      <c r="H2" s="9"/>
+      <c r="B2" s="8"/>
+      <c r="C2" s="8"/>
+      <c r="D2" s="8"/>
+      <c r="E2" s="8"/>
+      <c r="F2" s="8"/>
+      <c r="G2" s="8"/>
+      <c r="H2" s="8"/>
     </row>
     <row r="3" spans="1:8" ht="15.75" x14ac:dyDescent="0.25">
-      <c r="A3" s="11" t="s">
+      <c r="A3" s="10" t="s">
         <v>2</v>
       </c>
-      <c r="B3" s="9"/>
-      <c r="C3" s="9"/>
-      <c r="D3" s="9"/>
-      <c r="E3" s="9"/>
-      <c r="F3" s="9"/>
-      <c r="G3" s="9"/>
-      <c r="H3" s="9"/>
+      <c r="B3" s="8"/>
+      <c r="C3" s="8"/>
+      <c r="D3" s="8"/>
+      <c r="E3" s="8"/>
+      <c r="F3" s="8"/>
+      <c r="G3" s="8"/>
+      <c r="H3" s="8"/>
     </row>
     <row r="4" spans="1:8" ht="15.75" x14ac:dyDescent="0.25">
-      <c r="A4" s="11" t="s">
+      <c r="A4" s="10" t="s">
         <v>3</v>
       </c>
-      <c r="B4" s="9"/>
-      <c r="C4" s="9"/>
-      <c r="D4" s="9"/>
-      <c r="E4" s="9"/>
-      <c r="F4" s="9"/>
-      <c r="G4" s="9"/>
-      <c r="H4" s="9"/>
+      <c r="B4" s="8"/>
+      <c r="C4" s="8"/>
+      <c r="D4" s="8"/>
+      <c r="E4" s="8"/>
+      <c r="F4" s="8"/>
+      <c r="G4" s="8"/>
+      <c r="H4" s="8"/>
     </row>
     <row r="5" spans="1:8" ht="15.75" x14ac:dyDescent="0.25">
-      <c r="A5" s="11" t="s">
+      <c r="A5" s="10" t="s">
         <v>4</v>
       </c>
-      <c r="B5" s="9"/>
-      <c r="C5" s="9"/>
-      <c r="D5" s="9"/>
-      <c r="E5" s="9"/>
-      <c r="F5" s="9"/>
-      <c r="G5" s="9"/>
-      <c r="H5" s="9"/>
+      <c r="B5" s="8"/>
+      <c r="C5" s="8"/>
+      <c r="D5" s="8"/>
+      <c r="E5" s="8"/>
+      <c r="F5" s="8"/>
+      <c r="G5" s="8"/>
+      <c r="H5" s="8"/>
     </row>
     <row r="6" spans="1:8" ht="15.75" x14ac:dyDescent="0.25">
-      <c r="A6" s="11" t="s">
+      <c r="A6" s="10" t="s">
         <v>5</v>
       </c>
-      <c r="B6" s="9"/>
-      <c r="C6" s="9"/>
-      <c r="D6" s="9"/>
-      <c r="E6" s="9"/>
-      <c r="F6" s="9"/>
-      <c r="G6" s="9"/>
-      <c r="H6" s="9"/>
+      <c r="B6" s="8"/>
+      <c r="C6" s="8"/>
+      <c r="D6" s="8"/>
+      <c r="E6" s="8"/>
+      <c r="F6" s="8"/>
+      <c r="G6" s="8"/>
+      <c r="H6" s="8"/>
     </row>
     <row r="7" spans="1:8" ht="15.75" x14ac:dyDescent="0.25">
-      <c r="A7" s="9"/>
-      <c r="B7" s="10"/>
-      <c r="C7" s="9"/>
-      <c r="D7" s="9"/>
-      <c r="E7" s="9"/>
-      <c r="F7" s="9"/>
-      <c r="G7" s="9"/>
-      <c r="H7" s="9"/>
+      <c r="A7" s="8"/>
+      <c r="B7" s="9"/>
+      <c r="C7" s="8"/>
+      <c r="D7" s="8"/>
+      <c r="E7" s="8"/>
+      <c r="F7" s="8"/>
+      <c r="G7" s="8"/>
+      <c r="H7" s="8"/>
     </row>
     <row r="8" spans="1:8" ht="15.75" x14ac:dyDescent="0.25">
-      <c r="A8" s="11" t="s">
+      <c r="A8" s="10" t="s">
         <v>6</v>
       </c>
-      <c r="B8" s="10" t="s">
+      <c r="B8" s="9" t="s">
         <v>7</v>
       </c>
-      <c r="C8" s="22" t="s">
+      <c r="C8" s="19" t="s">
         <v>7</v>
       </c>
-      <c r="D8" s="10" t="s">
+      <c r="D8" s="9" t="s">
         <v>7</v>
       </c>
-      <c r="E8" s="10" t="s">
+      <c r="E8" s="9" t="s">
         <v>7</v>
       </c>
-      <c r="F8" s="10" t="s">
+      <c r="F8" s="9" t="s">
         <v>7</v>
       </c>
-      <c r="G8" s="10" t="s">
+      <c r="G8" s="9" t="s">
         <v>7</v>
       </c>
-      <c r="H8" s="10"/>
+      <c r="H8" s="9"/>
     </row>
     <row r="9" spans="1:8" ht="31.5" x14ac:dyDescent="0.25">
-      <c r="A9" s="11" t="s">
+      <c r="A9" s="10" t="s">
         <v>8</v>
       </c>
-      <c r="B9" s="10" t="s">
-        <v>207</v>
-      </c>
-      <c r="C9" s="22" t="s">
-        <v>207</v>
-      </c>
-      <c r="D9" s="10" t="s">
-        <v>207</v>
-      </c>
-      <c r="E9" s="10" t="s">
-        <v>207</v>
-      </c>
-      <c r="F9" s="10" t="s">
-        <v>207</v>
-      </c>
-      <c r="G9" s="10" t="s">
-        <v>207</v>
-      </c>
-      <c r="H9" s="10"/>
+      <c r="B9" s="9" t="s">
+        <v>188</v>
+      </c>
+      <c r="C9" s="19" t="s">
+        <v>188</v>
+      </c>
+      <c r="D9" s="9" t="s">
+        <v>188</v>
+      </c>
+      <c r="E9" s="9" t="s">
+        <v>188</v>
+      </c>
+      <c r="F9" s="9" t="s">
+        <v>188</v>
+      </c>
+      <c r="G9" s="9" t="s">
+        <v>188</v>
+      </c>
+      <c r="H9" s="9"/>
     </row>
     <row r="10" spans="1:8" ht="15.75" x14ac:dyDescent="0.25">
-      <c r="A10" s="11" t="s">
+      <c r="A10" s="10" t="s">
         <v>9</v>
       </c>
-      <c r="B10" s="10" t="s">
-        <v>206</v>
-      </c>
-      <c r="C10" s="22" t="s">
-        <v>205</v>
-      </c>
-      <c r="D10" s="10" t="s">
-        <v>204</v>
-      </c>
-      <c r="E10" s="10" t="s">
-        <v>203</v>
-      </c>
-      <c r="F10" s="10" t="s">
-        <v>202</v>
-      </c>
-      <c r="G10" s="10" t="s">
-        <v>201</v>
-      </c>
-      <c r="H10" s="10"/>
+      <c r="B10" s="9" t="s">
+        <v>187</v>
+      </c>
+      <c r="C10" s="19" t="s">
+        <v>186</v>
+      </c>
+      <c r="D10" s="9" t="s">
+        <v>185</v>
+      </c>
+      <c r="E10" s="9" t="s">
+        <v>184</v>
+      </c>
+      <c r="F10" s="9" t="s">
+        <v>183</v>
+      </c>
+      <c r="G10" s="9" t="s">
+        <v>182</v>
+      </c>
+      <c r="H10" s="9"/>
     </row>
     <row r="11" spans="1:8" ht="99.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A11" s="11" t="s">
+      <c r="A11" s="10" t="s">
         <v>10</v>
       </c>
-      <c r="B11" s="12" t="s">
-        <v>199</v>
-      </c>
-      <c r="C11" s="20" t="s">
-        <v>192</v>
-      </c>
-      <c r="D11" s="12" t="s">
-        <v>200</v>
-      </c>
-      <c r="E11" s="12" t="s">
+      <c r="B11" s="11" t="s">
+        <v>180</v>
+      </c>
+      <c r="C11" s="17" t="s">
+        <v>173</v>
+      </c>
+      <c r="D11" s="11" t="s">
+        <v>181</v>
+      </c>
+      <c r="E11" s="11" t="s">
+        <v>210</v>
+      </c>
+      <c r="F11" s="11" t="s">
+        <v>211</v>
+      </c>
+      <c r="G11" s="11" t="s">
+        <v>212</v>
+      </c>
+      <c r="H11" s="11"/>
+    </row>
+    <row r="12" spans="1:8" ht="168.75" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A12" s="10" t="s">
+        <v>11</v>
+      </c>
+      <c r="B12" s="11" t="s">
+        <v>179</v>
+      </c>
+      <c r="C12" s="17" t="s">
+        <v>173</v>
+      </c>
+      <c r="D12" s="11" t="s">
+        <v>178</v>
+      </c>
+      <c r="E12" s="11" t="s">
+        <v>177</v>
+      </c>
+      <c r="F12" s="11" t="s">
+        <v>176</v>
+      </c>
+      <c r="G12" s="11" t="s">
+        <v>175</v>
+      </c>
+      <c r="H12" s="11"/>
+    </row>
+    <row r="13" spans="1:8" ht="31.5" x14ac:dyDescent="0.25">
+      <c r="A13" s="10" t="s">
+        <v>12</v>
+      </c>
+      <c r="B13" s="11" t="s">
         <v>229</v>
       </c>
-      <c r="F11" s="12" t="s">
-        <v>230</v>
-      </c>
-      <c r="G11" s="12" t="s">
-        <v>231</v>
-      </c>
-      <c r="H11" s="12"/>
-    </row>
-    <row r="12" spans="1:8" ht="168.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A12" s="11" t="s">
-        <v>11</v>
-      </c>
-      <c r="B12" s="12" t="s">
-        <v>198</v>
-      </c>
-      <c r="C12" s="20" t="s">
-        <v>192</v>
-      </c>
-      <c r="D12" s="12" t="s">
-        <v>197</v>
-      </c>
-      <c r="E12" s="12" t="s">
-        <v>196</v>
-      </c>
-      <c r="F12" s="12" t="s">
-        <v>195</v>
-      </c>
-      <c r="G12" s="12" t="s">
-        <v>194</v>
-      </c>
-      <c r="H12" s="12"/>
-    </row>
-    <row r="13" spans="1:8" ht="31.5" x14ac:dyDescent="0.25">
-      <c r="A13" s="11" t="s">
-        <v>12</v>
-      </c>
-      <c r="B13" s="12" t="s">
-        <v>253</v>
-      </c>
-      <c r="C13" s="20" t="s">
-        <v>253</v>
-      </c>
-      <c r="D13" s="12" t="s">
-        <v>253</v>
-      </c>
-      <c r="E13" s="12" t="s">
-        <v>253</v>
-      </c>
-      <c r="F13" s="12" t="s">
-        <v>253</v>
-      </c>
-      <c r="G13" s="12" t="s">
-        <v>253</v>
-      </c>
-      <c r="H13" s="12"/>
+      <c r="C13" s="17" t="s">
+        <v>229</v>
+      </c>
+      <c r="D13" s="11" t="s">
+        <v>229</v>
+      </c>
+      <c r="E13" s="11" t="s">
+        <v>229</v>
+      </c>
+      <c r="F13" s="11" t="s">
+        <v>229</v>
+      </c>
+      <c r="G13" s="11" t="s">
+        <v>229</v>
+      </c>
+      <c r="H13" s="11"/>
     </row>
     <row r="14" spans="1:8" ht="209.25" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A14" s="11" t="s">
+      <c r="A14" s="10" t="s">
         <v>13</v>
       </c>
-      <c r="B14" s="12" t="s">
-        <v>193</v>
-      </c>
-      <c r="C14" s="20" t="s">
-        <v>192</v>
-      </c>
-      <c r="D14" s="12" t="s">
-        <v>191</v>
-      </c>
-      <c r="E14" s="12" t="s">
-        <v>190</v>
-      </c>
-      <c r="F14" s="12" t="s">
-        <v>189</v>
-      </c>
-      <c r="G14" s="12" t="s">
-        <v>188</v>
-      </c>
-      <c r="H14" s="12"/>
+      <c r="B14" s="11" t="s">
+        <v>174</v>
+      </c>
+      <c r="C14" s="17" t="s">
+        <v>173</v>
+      </c>
+      <c r="D14" s="11" t="s">
+        <v>172</v>
+      </c>
+      <c r="E14" s="11" t="s">
+        <v>171</v>
+      </c>
+      <c r="F14" s="11" t="s">
+        <v>170</v>
+      </c>
+      <c r="G14" s="11" t="s">
+        <v>169</v>
+      </c>
+      <c r="H14" s="11"/>
     </row>
     <row r="15" spans="1:8" ht="47.25" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A15" s="11" t="s">
+      <c r="A15" s="10" t="s">
         <v>14</v>
       </c>
-      <c r="B15" s="12" t="s">
-        <v>187</v>
-      </c>
-      <c r="C15" s="20" t="s">
-        <v>185</v>
-      </c>
-      <c r="D15" s="12" t="s">
-        <v>184</v>
-      </c>
-      <c r="E15" s="12" t="s">
-        <v>183</v>
-      </c>
-      <c r="F15" s="12" t="s">
-        <v>182</v>
-      </c>
-      <c r="G15" s="12" t="s">
-        <v>181</v>
-      </c>
-      <c r="H15" s="12"/>
+      <c r="B15" s="11" t="s">
+        <v>168</v>
+      </c>
+      <c r="C15" s="17" t="s">
+        <v>166</v>
+      </c>
+      <c r="D15" s="11" t="s">
+        <v>165</v>
+      </c>
+      <c r="E15" s="11" t="s">
+        <v>164</v>
+      </c>
+      <c r="F15" s="11" t="s">
+        <v>163</v>
+      </c>
+      <c r="G15" s="11" t="s">
+        <v>162</v>
+      </c>
+      <c r="H15" s="11"/>
     </row>
     <row r="16" spans="1:8" ht="51.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A16" s="11" t="s">
+      <c r="A16" s="10" t="s">
         <v>15</v>
       </c>
-      <c r="B16" s="12" t="s">
-        <v>186</v>
-      </c>
-      <c r="C16" s="20" t="s">
-        <v>185</v>
-      </c>
-      <c r="D16" s="12" t="s">
-        <v>252</v>
-      </c>
-      <c r="E16" s="12" t="s">
-        <v>252</v>
-      </c>
-      <c r="F16" s="12" t="s">
-        <v>252</v>
-      </c>
-      <c r="G16" s="12" t="s">
-        <v>251</v>
-      </c>
-      <c r="H16" s="12"/>
+      <c r="B16" s="11" t="s">
+        <v>167</v>
+      </c>
+      <c r="C16" s="17" t="s">
+        <v>166</v>
+      </c>
+      <c r="D16" s="11" t="s">
+        <v>228</v>
+      </c>
+      <c r="E16" s="11" t="s">
+        <v>228</v>
+      </c>
+      <c r="F16" s="11" t="s">
+        <v>228</v>
+      </c>
+      <c r="G16" s="11" t="s">
+        <v>227</v>
+      </c>
+      <c r="H16" s="11"/>
     </row>
     <row r="17" spans="1:8" ht="15.75" x14ac:dyDescent="0.25">
-      <c r="A17" s="11" t="s">
+      <c r="A17" s="10" t="s">
         <v>16</v>
       </c>
-      <c r="B17" s="13"/>
-      <c r="C17" s="21"/>
-      <c r="D17" s="13"/>
-      <c r="E17" s="13"/>
-      <c r="F17" s="13"/>
-      <c r="G17" s="13"/>
-      <c r="H17" s="13"/>
+      <c r="B17" s="12"/>
+      <c r="C17" s="18"/>
+      <c r="D17" s="12"/>
+      <c r="E17" s="12"/>
+      <c r="F17" s="12"/>
+      <c r="G17" s="12"/>
+      <c r="H17" s="12"/>
     </row>
     <row r="18" spans="1:8" ht="15.75" x14ac:dyDescent="0.25">
-      <c r="A18" s="11" t="s">
+      <c r="A18" s="10" t="s">
         <v>17</v>
       </c>
-      <c r="B18" s="12" t="s">
+      <c r="B18" s="11" t="s">
         <v>18</v>
       </c>
-      <c r="C18" s="20" t="s">
+      <c r="C18" s="17" t="s">
         <v>19</v>
       </c>
-      <c r="D18" s="12" t="s">
+      <c r="D18" s="11" t="s">
         <v>19</v>
       </c>
-      <c r="E18" s="12" t="s">
+      <c r="E18" s="11" t="s">
         <v>19</v>
       </c>
-      <c r="F18" s="12" t="s">
+      <c r="F18" s="11" t="s">
         <v>19</v>
       </c>
-      <c r="G18" s="12" t="s">
+      <c r="G18" s="11" t="s">
         <v>19</v>
       </c>
-      <c r="H18" s="12"/>
+      <c r="H18" s="11"/>
     </row>
     <row r="19" spans="1:8" ht="15.75" x14ac:dyDescent="0.25">
-      <c r="A19" s="11" t="s">
+      <c r="A19" s="10" t="s">
         <v>20</v>
       </c>
-      <c r="B19" s="10"/>
-      <c r="C19" s="9"/>
-      <c r="D19" s="9"/>
-      <c r="E19" s="9"/>
+      <c r="B19" s="9"/>
+      <c r="C19" s="8"/>
+      <c r="D19" s="8"/>
+      <c r="E19" s="8"/>
     </row>
     <row r="20" spans="1:8" ht="15.75" x14ac:dyDescent="0.25">
-      <c r="A20" s="11" t="s">
+      <c r="A20" s="10" t="s">
         <v>21</v>
       </c>
-      <c r="B20" s="10"/>
-      <c r="C20" s="9"/>
-      <c r="D20" s="9"/>
-      <c r="E20" s="9"/>
+      <c r="B20" s="9"/>
+      <c r="C20" s="8"/>
+      <c r="D20" s="8"/>
+      <c r="E20" s="8"/>
     </row>
     <row r="21" spans="1:8" ht="15.75" x14ac:dyDescent="0.25">
-      <c r="A21" s="11" t="s">
+      <c r="A21" s="10" t="s">
         <v>22</v>
       </c>
-      <c r="B21" s="10"/>
-      <c r="C21" s="9"/>
-      <c r="D21" s="9"/>
-      <c r="E21" s="9"/>
-    </row>
-  </sheetData>
-  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
-</worksheet>
-</file>
-
-<file path=xl/worksheets/sheet8.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{3D398E08-538A-4861-A325-F61FCDD9C3FB}">
-  <dimension ref="A1:I21"/>
-  <sheetViews>
-    <sheetView topLeftCell="A7" zoomScale="90" zoomScaleNormal="90" workbookViewId="0">
-      <selection activeCell="B12" sqref="B12"/>
-    </sheetView>
-  </sheetViews>
-  <sheetFormatPr defaultColWidth="23.125" defaultRowHeight="15.75" x14ac:dyDescent="0.25"/>
-  <cols>
-    <col min="2" max="2" width="23.125" style="1"/>
-    <col min="5" max="6" width="25.375" customWidth="1"/>
-    <col min="7" max="7" width="23.125" customWidth="1"/>
-  </cols>
-  <sheetData>
-    <row r="1" spans="1:9" x14ac:dyDescent="0.25">
-      <c r="A1" s="3" t="s">
-        <v>0</v>
-      </c>
-      <c r="B1"/>
-    </row>
-    <row r="2" spans="1:9" x14ac:dyDescent="0.25">
-      <c r="A2" s="3" t="s">
-        <v>1</v>
-      </c>
-      <c r="B2"/>
-    </row>
-    <row r="3" spans="1:9" x14ac:dyDescent="0.25">
-      <c r="A3" s="3" t="s">
-        <v>2</v>
-      </c>
-      <c r="B3"/>
-    </row>
-    <row r="4" spans="1:9" x14ac:dyDescent="0.25">
-      <c r="A4" s="3" t="s">
-        <v>3</v>
-      </c>
-      <c r="B4"/>
-    </row>
-    <row r="5" spans="1:9" x14ac:dyDescent="0.25">
-      <c r="A5" s="3" t="s">
-        <v>4</v>
-      </c>
-      <c r="B5"/>
-    </row>
-    <row r="6" spans="1:9" x14ac:dyDescent="0.25">
-      <c r="A6" s="3" t="s">
-        <v>5</v>
-      </c>
-      <c r="B6"/>
-    </row>
-    <row r="8" spans="1:9" x14ac:dyDescent="0.25">
-      <c r="A8" s="3" t="s">
-        <v>6</v>
-      </c>
-      <c r="B8" s="14" t="s">
-        <v>7</v>
-      </c>
-      <c r="C8" s="14" t="s">
-        <v>7</v>
-      </c>
-      <c r="D8" s="14" t="s">
-        <v>7</v>
-      </c>
-      <c r="E8" s="14" t="s">
-        <v>7</v>
-      </c>
-      <c r="F8" s="14" t="s">
-        <v>7</v>
-      </c>
-      <c r="G8" s="14"/>
-      <c r="H8" s="1"/>
-      <c r="I8" s="1"/>
-    </row>
-    <row r="9" spans="1:9" ht="31.5" x14ac:dyDescent="0.25">
-      <c r="A9" s="3" t="s">
-        <v>8</v>
-      </c>
-      <c r="B9" s="14" t="s">
-        <v>208</v>
-      </c>
-      <c r="C9" s="14" t="s">
-        <v>208</v>
-      </c>
-      <c r="D9" s="14" t="s">
-        <v>208</v>
-      </c>
-      <c r="E9" s="14" t="s">
-        <v>208</v>
-      </c>
-      <c r="F9" s="14" t="s">
-        <v>208</v>
-      </c>
-      <c r="G9" s="14"/>
-      <c r="H9" s="1"/>
-      <c r="I9" s="1"/>
-    </row>
-    <row r="10" spans="1:9" x14ac:dyDescent="0.25">
-      <c r="A10" s="3" t="s">
-        <v>9</v>
-      </c>
-      <c r="B10" s="14" t="s">
-        <v>101</v>
-      </c>
-      <c r="C10" s="14" t="s">
-        <v>100</v>
-      </c>
-      <c r="D10" s="14" t="s">
-        <v>99</v>
-      </c>
-      <c r="E10" s="14" t="s">
-        <v>98</v>
-      </c>
-      <c r="F10" s="14" t="s">
-        <v>97</v>
-      </c>
-      <c r="G10" s="14"/>
-      <c r="H10" s="1"/>
-      <c r="I10" s="1"/>
-    </row>
-    <row r="11" spans="1:9" ht="141.75" x14ac:dyDescent="0.25">
-      <c r="A11" s="3" t="s">
-        <v>10</v>
-      </c>
-      <c r="B11" s="14" t="s">
-        <v>239</v>
-      </c>
-      <c r="C11" s="14" t="s">
-        <v>209</v>
-      </c>
-      <c r="D11" s="14" t="s">
-        <v>210</v>
-      </c>
-      <c r="E11" s="14" t="s">
-        <v>211</v>
-      </c>
-      <c r="F11" s="14" t="s">
-        <v>212</v>
-      </c>
-      <c r="G11" s="14"/>
-      <c r="H11" s="1"/>
-      <c r="I11" s="1"/>
-    </row>
-    <row r="12" spans="1:9" ht="204.75" x14ac:dyDescent="0.25">
-      <c r="A12" s="3" t="s">
-        <v>11</v>
-      </c>
-      <c r="B12" s="14" t="s">
-        <v>240</v>
-      </c>
-      <c r="C12" s="14" t="s">
-        <v>213</v>
-      </c>
-      <c r="D12" s="14" t="s">
-        <v>214</v>
-      </c>
-      <c r="E12" s="14" t="s">
-        <v>215</v>
-      </c>
-      <c r="F12" s="14" t="s">
-        <v>216</v>
-      </c>
-      <c r="G12" s="14"/>
-      <c r="H12" s="1"/>
-      <c r="I12" s="1"/>
-    </row>
-    <row r="13" spans="1:9" ht="78.75" x14ac:dyDescent="0.25">
-      <c r="A13" s="3" t="s">
-        <v>12</v>
-      </c>
-      <c r="B13" s="14" t="s">
-        <v>238</v>
-      </c>
-      <c r="C13" s="14" t="s">
-        <v>13</v>
-      </c>
-      <c r="D13" s="14" t="s">
-        <v>13</v>
-      </c>
-      <c r="E13" s="14" t="s">
-        <v>13</v>
-      </c>
-      <c r="F13" s="14" t="s">
-        <v>13</v>
-      </c>
-      <c r="G13" s="14"/>
-      <c r="H13" s="1"/>
-      <c r="I13" s="1"/>
-    </row>
-    <row r="14" spans="1:9" ht="220.5" x14ac:dyDescent="0.25">
-      <c r="A14" s="3" t="s">
-        <v>13</v>
-      </c>
-      <c r="B14" s="14" t="s">
-        <v>217</v>
-      </c>
-      <c r="C14" s="14" t="s">
-        <v>218</v>
-      </c>
-      <c r="D14" s="14" t="s">
-        <v>219</v>
-      </c>
-      <c r="E14" s="14" t="s">
-        <v>220</v>
-      </c>
-      <c r="F14" s="14" t="s">
-        <v>221</v>
-      </c>
-      <c r="G14" s="14"/>
-      <c r="H14" s="1"/>
-      <c r="I14" s="1"/>
-    </row>
-    <row r="15" spans="1:9" ht="63" x14ac:dyDescent="0.25">
-      <c r="A15" s="3" t="s">
-        <v>14</v>
-      </c>
-      <c r="B15" s="14" t="s">
-        <v>222</v>
-      </c>
-      <c r="C15" s="14" t="s">
-        <v>223</v>
-      </c>
-      <c r="D15" s="14" t="s">
-        <v>223</v>
-      </c>
-      <c r="E15" s="14" t="s">
-        <v>223</v>
-      </c>
-      <c r="F15" s="14" t="s">
-        <v>223</v>
-      </c>
-      <c r="G15" s="14"/>
-      <c r="H15" s="1"/>
-      <c r="I15" s="1"/>
-    </row>
-    <row r="16" spans="1:9" ht="78.75" x14ac:dyDescent="0.25">
-      <c r="A16" s="3" t="s">
-        <v>15</v>
-      </c>
-      <c r="B16" s="14" t="s">
-        <v>224</v>
-      </c>
-      <c r="C16" s="14" t="s">
-        <v>225</v>
-      </c>
-      <c r="D16" s="14" t="s">
-        <v>226</v>
-      </c>
-      <c r="E16" s="14" t="s">
-        <v>227</v>
-      </c>
-      <c r="F16" s="14" t="s">
-        <v>228</v>
-      </c>
-      <c r="G16" s="14"/>
-      <c r="H16" s="1"/>
-      <c r="I16" s="1"/>
-    </row>
-    <row r="17" spans="1:9" x14ac:dyDescent="0.25">
-      <c r="A17" s="3" t="s">
-        <v>16</v>
-      </c>
-      <c r="B17" s="15"/>
-      <c r="C17" s="15"/>
-      <c r="D17" s="15"/>
-      <c r="E17" s="15"/>
-      <c r="F17" s="15"/>
-      <c r="G17" s="15"/>
-    </row>
-    <row r="18" spans="1:9" x14ac:dyDescent="0.25">
-      <c r="A18" s="3" t="s">
-        <v>17</v>
-      </c>
-      <c r="B18" s="14" t="s">
-        <v>18</v>
-      </c>
-      <c r="C18" s="14" t="s">
-        <v>19</v>
-      </c>
-      <c r="D18" s="14" t="s">
-        <v>19</v>
-      </c>
-      <c r="E18" s="14" t="s">
-        <v>19</v>
-      </c>
-      <c r="F18" s="14" t="s">
-        <v>19</v>
-      </c>
-      <c r="G18" s="14"/>
-      <c r="H18" s="1"/>
-      <c r="I18" s="1"/>
-    </row>
-    <row r="19" spans="1:9" x14ac:dyDescent="0.25">
-      <c r="A19" s="3" t="s">
-        <v>20</v>
-      </c>
-    </row>
-    <row r="20" spans="1:9" x14ac:dyDescent="0.25">
-      <c r="A20" s="3" t="s">
-        <v>21</v>
-      </c>
-    </row>
-    <row r="21" spans="1:9" x14ac:dyDescent="0.25">
-      <c r="A21" s="3" t="s">
-        <v>22</v>
-      </c>
-    </row>
-  </sheetData>
-  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
-</worksheet>
-</file>
-
-<file path=xl/worksheets/sheet9.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{CC40E1A4-48E6-46DD-942A-DB855D66C0CB}">
-  <dimension ref="A1:H21"/>
-  <sheetViews>
-    <sheetView topLeftCell="A8" workbookViewId="0">
-      <selection activeCell="B12" sqref="B12"/>
-    </sheetView>
-  </sheetViews>
-  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
-  <cols>
-    <col min="1" max="4" width="24" style="8" customWidth="1"/>
-    <col min="5" max="6" width="23.875" style="8" customWidth="1"/>
-    <col min="7" max="8" width="24" style="8" customWidth="1"/>
-    <col min="9" max="16384" width="9" style="8"/>
-  </cols>
-  <sheetData>
-    <row r="1" spans="1:8" ht="15.75" x14ac:dyDescent="0.25">
-      <c r="A1" s="11" t="s">
-        <v>0</v>
-      </c>
-      <c r="B1" s="9"/>
-      <c r="C1" s="9"/>
-      <c r="D1" s="9"/>
-      <c r="E1" s="9"/>
-      <c r="F1" s="9"/>
-      <c r="G1" s="9"/>
-      <c r="H1" s="9"/>
-    </row>
-    <row r="2" spans="1:8" ht="15.75" x14ac:dyDescent="0.25">
-      <c r="A2" s="11" t="s">
-        <v>1</v>
-      </c>
-      <c r="B2" s="9"/>
-      <c r="C2" s="9"/>
-      <c r="D2" s="9"/>
-      <c r="E2" s="9"/>
-      <c r="F2" s="9"/>
-      <c r="G2" s="9"/>
-      <c r="H2" s="9"/>
-    </row>
-    <row r="3" spans="1:8" ht="15.75" x14ac:dyDescent="0.25">
-      <c r="A3" s="11" t="s">
-        <v>2</v>
-      </c>
-      <c r="B3" s="9"/>
-      <c r="C3" s="9"/>
-      <c r="D3" s="9"/>
-      <c r="E3" s="9"/>
-      <c r="F3" s="9"/>
-      <c r="G3" s="9"/>
-      <c r="H3" s="9"/>
-    </row>
-    <row r="4" spans="1:8" ht="15.75" x14ac:dyDescent="0.25">
-      <c r="A4" s="11" t="s">
-        <v>3</v>
-      </c>
-      <c r="B4" s="9"/>
-      <c r="C4" s="9"/>
-      <c r="D4" s="9"/>
-      <c r="E4" s="9"/>
-      <c r="F4" s="9"/>
-      <c r="G4" s="9"/>
-      <c r="H4" s="9"/>
-    </row>
-    <row r="5" spans="1:8" ht="15.75" x14ac:dyDescent="0.25">
-      <c r="A5" s="11" t="s">
-        <v>4</v>
-      </c>
-      <c r="B5" s="9"/>
-      <c r="C5" s="9"/>
-      <c r="D5" s="9"/>
-      <c r="E5" s="9"/>
-      <c r="F5" s="9"/>
-      <c r="G5" s="9"/>
-      <c r="H5" s="9"/>
-    </row>
-    <row r="6" spans="1:8" ht="15.75" x14ac:dyDescent="0.25">
-      <c r="A6" s="11" t="s">
-        <v>5</v>
-      </c>
-      <c r="B6" s="9"/>
-      <c r="C6" s="9"/>
-      <c r="D6" s="9"/>
-      <c r="E6" s="9"/>
-      <c r="F6" s="9"/>
-      <c r="G6" s="9"/>
-      <c r="H6" s="9"/>
-    </row>
-    <row r="7" spans="1:8" ht="15.75" x14ac:dyDescent="0.25">
-      <c r="A7" s="9"/>
-      <c r="B7" s="10"/>
-      <c r="C7" s="9"/>
-      <c r="D7" s="9"/>
-      <c r="E7" s="9"/>
-      <c r="F7" s="9"/>
-      <c r="G7" s="9"/>
-      <c r="H7" s="9"/>
-    </row>
-    <row r="8" spans="1:8" ht="15.75" x14ac:dyDescent="0.25">
-      <c r="A8" s="11" t="s">
-        <v>6</v>
-      </c>
-      <c r="B8" s="10" t="s">
-        <v>7</v>
-      </c>
-      <c r="C8" s="10" t="s">
-        <v>7</v>
-      </c>
-      <c r="D8" s="10"/>
-      <c r="E8" s="10"/>
-      <c r="F8" s="10"/>
-      <c r="G8" s="10"/>
-      <c r="H8" s="10"/>
-    </row>
-    <row r="9" spans="1:8" ht="15.75" x14ac:dyDescent="0.25">
-      <c r="A9" s="11" t="s">
-        <v>8</v>
-      </c>
-      <c r="B9" s="10" t="s">
-        <v>241</v>
-      </c>
-      <c r="C9" s="10" t="s">
-        <v>241</v>
-      </c>
-      <c r="D9" s="10"/>
-      <c r="E9" s="10"/>
-      <c r="F9" s="10"/>
-      <c r="G9" s="10"/>
-      <c r="H9" s="10"/>
-    </row>
-    <row r="10" spans="1:8" ht="15.75" x14ac:dyDescent="0.25">
-      <c r="A10" s="11" t="s">
-        <v>9</v>
-      </c>
-      <c r="B10" s="10" t="s">
-        <v>242</v>
-      </c>
-      <c r="C10" s="10" t="s">
-        <v>244</v>
-      </c>
-      <c r="D10" s="10"/>
-      <c r="E10" s="10"/>
-      <c r="F10" s="10"/>
-      <c r="G10" s="10"/>
-      <c r="H10" s="10"/>
-    </row>
-    <row r="11" spans="1:8" ht="99.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A11" s="11" t="s">
-        <v>10</v>
-      </c>
-      <c r="B11" s="12" t="s">
-        <v>245</v>
-      </c>
-      <c r="C11" s="12" t="s">
-        <v>243</v>
-      </c>
-      <c r="D11" s="12"/>
-      <c r="E11" s="12"/>
-      <c r="F11" s="12"/>
-      <c r="G11" s="12"/>
-      <c r="H11" s="12"/>
-    </row>
-    <row r="12" spans="1:8" ht="168.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A12" s="11" t="s">
-        <v>11</v>
-      </c>
-      <c r="B12" s="12" t="s">
-        <v>246</v>
-      </c>
-      <c r="C12" s="12"/>
-      <c r="D12" s="12"/>
-      <c r="E12" s="12"/>
-      <c r="F12" s="12"/>
-      <c r="G12" s="12"/>
-      <c r="H12" s="12"/>
-    </row>
-    <row r="13" spans="1:8" ht="47.25" x14ac:dyDescent="0.25">
-      <c r="A13" s="11" t="s">
-        <v>12</v>
-      </c>
-      <c r="B13" s="12" t="s">
-        <v>247</v>
-      </c>
-      <c r="C13" s="12"/>
-      <c r="D13" s="12"/>
-      <c r="E13" s="12"/>
-      <c r="F13" s="12"/>
-      <c r="G13" s="12"/>
-      <c r="H13" s="12"/>
-    </row>
-    <row r="14" spans="1:8" ht="209.25" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A14" s="11" t="s">
-        <v>13</v>
-      </c>
-      <c r="B14" s="12" t="s">
-        <v>248</v>
-      </c>
-      <c r="C14" s="12"/>
-      <c r="D14" s="12"/>
-      <c r="E14" s="12"/>
-      <c r="F14" s="12"/>
-      <c r="G14" s="12"/>
-      <c r="H14" s="12"/>
-    </row>
-    <row r="15" spans="1:8" ht="47.25" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A15" s="11" t="s">
-        <v>14</v>
-      </c>
-      <c r="B15" s="12" t="s">
-        <v>250</v>
-      </c>
-      <c r="C15" s="12" t="s">
-        <v>185</v>
-      </c>
-      <c r="D15" s="12" t="s">
-        <v>184</v>
-      </c>
-      <c r="E15" s="12" t="s">
-        <v>183</v>
-      </c>
-      <c r="F15" s="12" t="s">
-        <v>182</v>
-      </c>
-      <c r="G15" s="12" t="s">
-        <v>181</v>
-      </c>
-      <c r="H15" s="12"/>
-    </row>
-    <row r="16" spans="1:8" ht="51.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A16" s="11" t="s">
-        <v>15</v>
-      </c>
-      <c r="B16" s="12" t="s">
-        <v>249</v>
-      </c>
-      <c r="C16" s="12" t="s">
-        <v>185</v>
-      </c>
-      <c r="D16" s="12" t="s">
-        <v>184</v>
-      </c>
-      <c r="E16" s="12" t="s">
-        <v>183</v>
-      </c>
-      <c r="F16" s="12" t="s">
-        <v>182</v>
-      </c>
-      <c r="G16" s="12" t="s">
-        <v>181</v>
-      </c>
-      <c r="H16" s="12"/>
-    </row>
-    <row r="17" spans="1:8" ht="15.75" x14ac:dyDescent="0.25">
-      <c r="A17" s="11" t="s">
-        <v>16</v>
-      </c>
-      <c r="B17" s="13"/>
-      <c r="C17" s="13"/>
-      <c r="D17" s="13"/>
-      <c r="E17" s="13"/>
-      <c r="F17" s="13"/>
-      <c r="G17" s="13"/>
-      <c r="H17" s="13"/>
-    </row>
-    <row r="18" spans="1:8" ht="15.75" x14ac:dyDescent="0.25">
-      <c r="A18" s="11" t="s">
-        <v>17</v>
-      </c>
-      <c r="B18" s="12" t="s">
-        <v>18</v>
-      </c>
-      <c r="C18" s="12" t="s">
-        <v>19</v>
-      </c>
-      <c r="D18" s="12" t="s">
-        <v>19</v>
-      </c>
-      <c r="E18" s="12" t="s">
-        <v>19</v>
-      </c>
-      <c r="F18" s="12" t="s">
-        <v>19</v>
-      </c>
-      <c r="G18" s="12" t="s">
-        <v>19</v>
-      </c>
-      <c r="H18" s="12"/>
-    </row>
-    <row r="19" spans="1:8" ht="15.75" x14ac:dyDescent="0.25">
-      <c r="A19" s="11" t="s">
-        <v>20</v>
-      </c>
-      <c r="B19" s="10"/>
-      <c r="C19" s="9"/>
-      <c r="D19" s="9"/>
-      <c r="E19" s="9"/>
-    </row>
-    <row r="20" spans="1:8" ht="15.75" x14ac:dyDescent="0.25">
-      <c r="A20" s="11" t="s">
-        <v>21</v>
-      </c>
-      <c r="B20" s="10"/>
-      <c r="C20" s="9"/>
-      <c r="D20" s="9"/>
-      <c r="E20" s="9"/>
-    </row>
-    <row r="21" spans="1:8" ht="15.75" x14ac:dyDescent="0.25">
-      <c r="A21" s="11" t="s">
-        <v>22</v>
-      </c>
-      <c r="B21" s="10"/>
-      <c r="C21" s="9"/>
-      <c r="D21" s="9"/>
-      <c r="E21" s="9"/>
+      <c r="B21" s="9"/>
+      <c r="C21" s="8"/>
+      <c r="D21" s="8"/>
+      <c r="E21" s="8"/>
     </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
